--- a/reports/xlsx/benchmark_constraint_must_schedule_1.xlsx
+++ b/reports/xlsx/benchmark_constraint_must_schedule_1.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -874,76 +874,74 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[1.610443599987775]</t>
+          <t>[0.6577436339575797, 0.6600915510207415, 0.6913816549349576, 0.6582771921530366, 0.6560026449151337, 0.682824038900435, 0.662182531086728, 0.6622890578582883, 0.6649345098994672, 0.6859164370689541, 0.6665972978807986, 0.6682412009686232, 0.6800521661061794, 0.6542489791754633, 0.6566605081316084, 0.6554937609471381, 0.6956007280386984, 0.6679770241025835, 0.6678324160166085, 0.6896289750002325, 0.6614662718493491, 0.6609716829843819, 0.666538777993992, 0.6953135840594769, 0.6597522969823331, 0.6553290521260351, 0.6853313581086695, 0.6709879778791219, 0.6593005780596286, 0.6735097640193999, 0.6919932011514902, 0.6618148230481893, 0.656979450955987, 0.6873263220768422, 0.6635567820630968, 0.665402262005955, 0.6627741570118815, 0.7065236568450928, 0.6608850981574506, 0.660843824967742, 0.6871388191357255, 0.6619046838022768, 0.6695758199784905, 0.666194565827027, 0.6960713658481836, 0.6753704671282321, 0.6629579300060868, 0.6960902230348438, 0.6751020539086312, 0.6589794610626996]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.610443599987775</v>
+        <v>0.6707992524048314</v>
       </c>
       <c r="G12" t="n">
-        <v>1.610443599987775</v>
+        <v>0.665798413916491</v>
       </c>
       <c r="H12" t="n">
+        <v>0.01389413344874774</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3788337.820909091</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2814597</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2275683.980378436</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M12" t="n">
+        <v>11452390</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11452610</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="b">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>4495470.364864865</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2931900</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2581964.312553332</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3475</v>
-      </c>
-      <c r="M12" t="n">
-        <v>10634779</v>
-      </c>
-      <c r="N12" t="n">
-        <v>12031373</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>750</v>
-      </c>
-      <c r="Q12" t="b">
-        <v>1</v>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.0184045999776572]</t>
+          <t>[0.0028900080360472202, 0.0027711798902601004, 0.0027352459728717804, 0.0028036588337272406, 0.004479127004742622, 0.005471974145621061, 0.006819381145760417, 0.006947613088414073, 0.006778649985790253, 0.006767683895304799, 0.00664583221077919, 0.0067387588787823915, 0.006746293045580387, 0.006765520898625255, 0.0067219051998108625, 0.006816136185079813, 0.006786182057112455, 0.006768655963242054, 0.006775495130568743, 0.007118629990145564, 0.0066461521200835705, 0.006722135003656149, 0.006755403941497207, 0.006636768113821745, 0.006685440894216299, 0.006698100129142404, 0.006665471941232681, 0.006571741076186299, 0.006549607031047344, 0.006586813135072589, 0.006739021046087146, 0.006598731968551874, 0.006762075005099177, 0.0067530120722949505, 0.0065912490244954824, 0.00656984793022275, 0.0065337540581822395, 0.006587885087355971, 0.006781444884836674, 0.00665345205925405, 0.006858169101178646, 0.007323454832658172, 0.007287051994353533, 0.007097468012943864, 0.007235905155539513, 0.007287383079528809, 0.006557188928127289, 0.006458271062001586, 0.006640764186158776, 0.007115473970770836]</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0.0184045999776572</v>
+        <v>0.006385943368077279</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0184045999776572</v>
+        <v>0.006722020101733506</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.001148458386196443</v>
       </c>
       <c r="V12" t="n">
-        <v>3451</v>
+        <v>2940.56</v>
       </c>
       <c r="W12" t="n">
-        <v>3451</v>
+        <v>2858</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>145.7260723524288</v>
       </c>
       <c r="Y12" t="n">
-        <v>3451</v>
+        <v>2858</v>
       </c>
       <c r="Z12" t="n">
-        <v>3451</v>
+        <v>3402</v>
       </c>
       <c r="AA12" t="n">
-        <v>64668</v>
+        <v>64811</v>
       </c>
       <c r="AB12" t="n">
         <v>1</v>
@@ -956,35 +954,35 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>[0.014614299987442791]</t>
+          <t>[0.015918625984340906, 0.014968845061957836, 0.014850598061457276, 0.014918419998139143, 0.01479163789190352, 0.015093011083081365, 0.015002224128693342, 0.014934343053027987, 0.01503187813796103, 0.014975014142692089, 0.011855582939460874, 0.011789655080065131, 0.01174859213642776, 0.011855943128466606, 0.011869863839820027, 0.011788061121478677, 0.011642683995887637, 0.011742554139345884, 0.011727539822459221, 0.011886768974363804, 0.011710524093359709, 0.011838817037642002, 0.011763104004785419, 0.011734643019735813, 0.01170752989128232, 0.011825137073174119, 0.011866188840940595, 0.011821662075817585, 0.011664836900308728, 0.011822042986750603, 0.011749624041840434, 0.012110975105315447, 0.011803853791207075, 0.011814339784905314, 0.011879618978127837, 0.01204126002267003, 0.01176775200292468, 0.011900980956852436, 0.011894461000338197, 0.0118352510035038, 0.011827509850263596, 0.01194809004664421, 0.011844665044918656, 0.01192646799609065, 0.011851276038214564, 0.012040048837661743, 0.011782872956246138, 0.011875411961227655, 0.011983943870291114, 0.011875231051817536]</t>
         </is>
       </c>
       <c r="AF12" t="n">
-        <v>0.01461429998744279</v>
+        <v>0.01247799925971776</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.01461429998744279</v>
+        <v>0.01185576303396374</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>0.001308400542842392</v>
       </c>
       <c r="AI12" t="n">
-        <v>3427</v>
+        <v>3063.960784313726</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3427</v>
+        <v>2858</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>894.6888165342028</v>
       </c>
       <c r="AL12" t="n">
-        <v>3427</v>
+        <v>2858</v>
       </c>
       <c r="AM12" t="n">
-        <v>3427</v>
+        <v>9266</v>
       </c>
       <c r="AN12" t="n">
-        <v>31107</v>
+        <v>28898</v>
       </c>
       <c r="AO12" t="n">
         <v>1</v>
@@ -997,35 +995,35 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>[0.019376899988856167]</t>
+          <t>[0.011367511004209518, 0.011412299005314708, 0.011327472049742937, 0.011386930011212826, 0.011306270956993103, 0.011453408980742097, 0.011287331115454435, 0.01128772203810513, 0.011457156855612993, 0.011393690016120672, 0.011365597834810615, 0.01150227291509509, 0.011356023838743567, 0.011524386936798692, 0.011412939988076687, 0.011473770020529628, 0.01410048408433795, 0.0142974688205868, 0.014293574029579759, 0.014410297852009535, 0.014220851939171553, 0.0142927928827703, 0.014064171118661761, 0.014119402039796114, 0.01135445199906826, 0.011263876920565963, 0.011312779039144516, 0.01133884908631444, 0.011323226150125265, 0.011349685955792665, 0.011450184974819422, 0.011497014900669456, 0.011280100094154477, 0.01128669106401503, 0.011384486919268966, 0.011487280018627644, 0.011550084920600057, 0.011441220995038748, 0.011252209078520536, 0.011415482964366674, 0.011398457922041416, 0.011495643993839622, 0.011266200104728341, 0.01133647607639432, 0.011338168056681752, 0.011387300910428166, 0.011230036849156022, 0.011410957900807261, 0.011324006831273437, 0.01160445692948997]</t>
         </is>
       </c>
       <c r="AS12" t="n">
-        <v>0.01937689998885617</v>
+        <v>0.01183786313980818</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01937689998885617</v>
+        <v>0.01139607396908104</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.001056386746383298</v>
       </c>
       <c r="AV12" t="n">
-        <v>10139</v>
+        <v>2934.8</v>
       </c>
       <c r="AW12" t="n">
-        <v>10139</v>
+        <v>2858</v>
       </c>
       <c r="AX12" t="n">
-        <v>8756.810378214204</v>
+        <v>117.9747465194417</v>
       </c>
       <c r="AY12" t="n">
-        <v>3947</v>
+        <v>2858</v>
       </c>
       <c r="AZ12" t="n">
-        <v>16331</v>
+        <v>3306</v>
       </c>
       <c r="BA12" t="n">
-        <v>16551</v>
+        <v>15978</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -1033,9 +1031,7 @@
       <c r="BC12" t="n">
         <v>1</v>
       </c>
-      <c r="BD12" t="n">
-        <v>1</v>
-      </c>
+      <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1052,76 +1048,74 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[7.1086567000020295]</t>
+          <t>[1.0425933611113578, 1.053554403129965, 1.045400524046272, 1.0431537081021816, 1.0710375600028783, 1.028871470829472, 1.03160411096178, 1.0496391060296446, 1.0858866511844099, 1.0365101848728955, 1.0363262998871505, 1.117976089939475, 1.024561010999605, 1.0176852738950402, 1.038800470996648, 1.0669915250036865, 1.0155782669316977, 1.03573112282902, 1.068096897099167, 1.0299578281119466, 1.05022137099877, 1.0658935660030693, 1.0832195889670402, 1.0450943410396576, 1.05292829987593, 1.049535487079993, 1.031420533079654, 1.0303088389337063, 1.0362267289310694, 1.0599646540358663, 1.045270259026438, 1.0398509132210165, 1.064361646072939, 1.0366557599045336, 1.0408084751106799, 1.0378406418021768, 1.0641243658028543, 1.030962091172114, 1.07880425802432, 1.0607840241864324, 1.0734478367958218, 1.0360040878877044, 1.0454992149025202, 1.0478019330184907, 1.0402798189315945, 1.0373275170568377, 1.0558155989274383, 1.0367796749342233, 1.0497697561513633, 1.0411963879596442]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>7.10865670000203</v>
+        <v>1.048163070715964</v>
       </c>
       <c r="G13" t="n">
-        <v>7.10865670000203</v>
+        <v>1.04412402457092</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.0189887159414488</v>
       </c>
       <c r="I13" t="n">
-        <v>6478352.450166113</v>
+        <v>5154422.772511848</v>
       </c>
       <c r="J13" t="n">
-        <v>6775722</v>
+        <v>6764972</v>
       </c>
       <c r="K13" t="n">
-        <v>1198096.236771258</v>
+        <v>2304020.819797912</v>
       </c>
       <c r="L13" t="n">
-        <v>3523</v>
+        <v>2858</v>
       </c>
       <c r="M13" t="n">
-        <v>10490899</v>
+        <v>10741942</v>
       </c>
       <c r="N13" t="n">
-        <v>11887493</v>
+        <v>11452834</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P13" t="n">
-        <v>2700</v>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.028306399995926768]</t>
+          <t>[0.002880193991586566, 0.00562059716321528, 0.005358832888305187, 0.005449219839647412, 0.006642035208642483, 0.006718670018017292, 0.006669827038422227, 0.006640302017331123, 0.00689190998673439, 0.006860694149509072, 0.006716488162055612, 0.006719029974192381, 0.0066984910517930984, 0.006692101014778018, 0.006765811005607247, 0.0067905590403825045, 0.006738420110195875, 0.006642594933509827, 0.00666855601593852, 0.007025639992207289, 0.0066581000573933125, 0.006733722984790802, 0.006848664954304695, 0.0067079749424010515, 0.006744538899511099, 0.0066238578874617815, 0.006625860929489136, 0.006710658082738519, 0.006754595087841153, 0.006905650021508336, 0.006756346905604005, 0.006582045927643776, 0.006628995994105935, 0.006755616050213575, 0.006609397009015083, 0.0066108088940382, 0.006645989837124944, 0.006561835063621402, 0.006480884039774537, 0.006578541127964854, 0.006918860133737326, 0.006591560086235404, 0.006618139799684286, 0.006627614144235849, 0.006624358939006925, 0.006491119973361492, 0.006487423088401556, 0.00655971304513514, 0.007172869984060526, 0.0065294778905808926]</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0.02830639999592677</v>
+        <v>0.00654670390766114</v>
       </c>
       <c r="T13" t="n">
-        <v>0.02830639999592677</v>
+        <v>0.006652044947259128</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.0006192239356739839</v>
       </c>
       <c r="V13" t="n">
-        <v>3339</v>
+        <v>2940.56</v>
       </c>
       <c r="W13" t="n">
-        <v>3339</v>
+        <v>2858</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>128.6660223451493</v>
       </c>
       <c r="Y13" t="n">
-        <v>3339</v>
+        <v>2858</v>
       </c>
       <c r="Z13" t="n">
-        <v>3339</v>
+        <v>3306</v>
       </c>
       <c r="AA13" t="n">
-        <v>64548</v>
+        <v>64715</v>
       </c>
       <c r="AB13" t="n">
         <v>2</v>
@@ -1134,35 +1128,35 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>[0.04752109997207299]</t>
+          <t>[0.041614793008193374, 0.03765502409078181, 0.03226779610849917, 0.031766315922141075, 0.03202045685611665, 0.03189355507493019, 0.03196686506271362, 0.03185954503715038, 0.03240796597674489, 0.03200423205271363, 0.03220740589313209, 0.031838814029470086, 0.03220027405768633, 0.03198744612745941, 0.03204701701179147, 0.03187141218222678, 0.032477721106261015, 0.03250332013703883, 0.032050882931798697, 0.03276638290844858, 0.032169879879802465, 0.032505281968042254, 0.032149940030649304, 0.03206659620627761, 0.03216992993839085, 0.032064721919596195, 0.032075257040560246, 0.032256248872727156, 0.03162585408426821, 0.03251866111531854, 0.0323315120767802, 0.03321048803627491, 0.03205403499305248, 0.03245518798939884, 0.03230263898149133, 0.032161517068743706, 0.03275506501086056, 0.03185363602824509, 0.032110340893268585, 0.03302819607779384, 0.03207994601689279, 0.037919459166005254, 0.04163624509237707, 0.03947587008588016, 0.032100947108119726, 0.03198096784763038, 0.031947064911946654, 0.03173194406554103, 0.03253091988153756, 0.03233197401277721]</t>
         </is>
       </c>
       <c r="AF13" t="n">
-        <v>0.04752109997207299</v>
+        <v>0.03294015103951096</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.04752109997207299</v>
+        <v>0.03216569847427309</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>0.00234917299802612</v>
       </c>
       <c r="AI13" t="n">
-        <v>7231</v>
+        <v>8192.186666666666</v>
       </c>
       <c r="AJ13" t="n">
-        <v>7171</v>
+        <v>10442</v>
       </c>
       <c r="AK13" t="n">
-        <v>3946.342103771542</v>
+        <v>3842.182952973001</v>
       </c>
       <c r="AL13" t="n">
-        <v>3315</v>
+        <v>2858</v>
       </c>
       <c r="AM13" t="n">
-        <v>11207</v>
+        <v>19562</v>
       </c>
       <c r="AN13" t="n">
-        <v>28839</v>
+        <v>28898</v>
       </c>
       <c r="AO13" t="n">
         <v>2</v>
@@ -1175,35 +1169,35 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>[0.03064839995931834]</t>
+          <t>[0.021192010957747698, 0.021171852946281433, 0.020826054038479924, 0.02096758596599102, 0.021451781038194895, 0.02107375394552946, 0.02099646907299757, 0.021313274977728724, 0.020754777127876878, 0.021390890004113317, 0.020886664045974612, 0.021045431960374117, 0.02120752609334886, 0.022159461164847016, 0.026897012954577804, 0.026755522936582565, 0.02695085504092276, 0.025875475024804473, 0.020928006852045655, 0.020745445042848587, 0.020875468151643872, 0.020945411873981357, 0.02078129700385034, 0.020793426083400846, 0.02107082004658878, 0.020997470943257213, 0.021118781995028257, 0.02100495295599103, 0.020991169847548008, 0.021055088145658374, 0.02584051201120019, 0.027071083895862103, 0.02674514683894813, 0.026687802048400044, 0.02598074311390519, 0.020904531935229897, 0.02112165605649352, 0.021089276997372508, 0.02119740005582571, 0.021152734057977796, 0.020751232048496604, 0.02097538602538407, 0.020787496119737625, 0.02116974792443216, 0.020969931036233902, 0.021583816967904568, 0.02134113502688706, 0.021177069982513785, 0.021143009886145592, 0.020756290992721915]</t>
         </is>
       </c>
       <c r="AS13" t="n">
-        <v>0.03064839995931834</v>
+        <v>0.02205339482519776</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.03064839995931834</v>
+        <v>0.02110402949620038</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.002143227567924589</v>
       </c>
       <c r="AV13" t="n">
-        <v>5911</v>
+        <v>5423.36</v>
       </c>
       <c r="AW13" t="n">
-        <v>5911</v>
+        <v>5322</v>
       </c>
       <c r="AX13" t="n">
-        <v>3716.553241916494</v>
+        <v>2506.617421824467</v>
       </c>
       <c r="AY13" t="n">
-        <v>3283</v>
+        <v>2858</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8539</v>
+        <v>8410</v>
       </c>
       <c r="BA13" t="n">
-        <v>15859</v>
+        <v>16074</v>
       </c>
       <c r="BB13" t="n">
         <v>1</v>
@@ -1211,9 +1205,7 @@
       <c r="BC13" t="n">
         <v>1</v>
       </c>
-      <c r="BD13" t="n">
-        <v>0.9642857142857143</v>
-      </c>
+      <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1230,76 +1222,74 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[4.46393549995264]</t>
+          <t>[1.8549079629592597, 1.8128889331128448, 1.808902714168653, 1.860622574808076, 1.7938680788502097, 1.8054863230790943, 1.8025848970282823, 1.8332987329922616, 1.811597597785294, 1.7873957690317184, 1.8237188449129462, 1.7886432739906013, 1.7962928349152207, 1.780759152956307, 1.8324773630592972, 1.8224232650827616, 1.8049135571345687, 1.8189699230715632, 1.8197752051055431, 1.8226258740760386, 1.8346486720256507, 1.8297975780442357, 1.7924808310344815, 1.8008103200700134, 1.8243588879704475, 1.8137937870342284, 1.8148724019993097, 1.8211328741163015, 1.8158029620535672, 1.8013605861924589, 1.7955182460136712, 1.8532879238482565, 1.8029644908383489, 1.826720962068066, 1.799322325969115, 1.8090879949741066, 1.7953206710517406, 1.8127626550849527, 1.815106905065477, 1.7863725980278105, 1.7983489090111107, 1.7962276320904493, 1.8279922420624644, 1.804907085141167, 1.8383076440077275, 1.8307293448597193, 1.8127534268423915, 1.8023325931280851, 1.7961898338980973, 1.907356654992327]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>4.46393549995264</v>
+        <v>1.814856438352726</v>
       </c>
       <c r="G14" t="n">
-        <v>4.46393549995264</v>
+        <v>1.812758040963672</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.02229377519974461</v>
       </c>
       <c r="I14" t="n">
-        <v>6242705.864942528</v>
+        <v>5997216.732666923</v>
       </c>
       <c r="J14" t="n">
-        <v>6776667</v>
+        <v>6773228</v>
       </c>
       <c r="K14" t="n">
-        <v>1543805.530938499</v>
+        <v>1871210.690936472</v>
       </c>
       <c r="L14" t="n">
-        <v>3260</v>
+        <v>2858</v>
       </c>
       <c r="M14" t="n">
-        <v>10495792</v>
+        <v>10483078</v>
       </c>
       <c r="N14" t="n">
-        <v>11892386</v>
+        <v>11452954</v>
       </c>
       <c r="O14" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="n">
-        <v>4350</v>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.039181499974802136]</t>
+          <t>[0.002984869061037898, 0.00452441512607038, 0.005592253990471363, 0.005432114005088806, 0.006761003052815795, 0.00671405391767621, 0.006639170926064253, 0.006682615960016847, 0.0067992310505360365, 0.006788303842768073, 0.006786101032048464, 0.0067513491958379745, 0.006726863095536828, 0.006729956949129701, 0.0069322490599006414, 0.006988614099100232, 0.006684368941932917, 0.006757768103852868, 0.00679822894744575, 0.007114793173968792, 0.006721453974023461, 0.006987403146922588, 0.006679411046206951, 0.006778958952054381, 0.006789186038076878, 0.0067290859296917915, 0.006741284159943461, 0.0066842681262642145, 0.006625568959861994, 0.006558631081134081, 0.006658909842371941, 0.006687923101708293, 0.0067236770410090685, 0.006893360987305641, 0.0066775791347026825, 0.006714913062751293, 0.006644177949056029, 0.006571679841727018, 0.006552782142534852, 0.006567062111571431, 0.006881122011691332, 0.006657018093392253, 0.006619693012908101, 0.006546020973473787, 0.006496587069705129, 0.006442266050726175, 0.0064876440446823835, 0.006472420878708363, 0.006541633978486061, 0.006566292140632868]</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0.03918149997480214</v>
+        <v>0.006537726768292487</v>
       </c>
       <c r="T14" t="n">
-        <v>0.03918149997480214</v>
+        <v>0.006684318534098566</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.0006538898095274879</v>
       </c>
       <c r="V14" t="n">
-        <v>6950.5</v>
+        <v>2940.56</v>
       </c>
       <c r="W14" t="n">
-        <v>6950.5</v>
+        <v>2858</v>
       </c>
       <c r="X14" t="n">
-        <v>5026.822107455167</v>
+        <v>135.0065999898387</v>
       </c>
       <c r="Y14" t="n">
-        <v>3396</v>
+        <v>2858</v>
       </c>
       <c r="Z14" t="n">
-        <v>10505</v>
+        <v>3306</v>
       </c>
       <c r="AA14" t="n">
-        <v>64957</v>
+        <v>64715</v>
       </c>
       <c r="AB14" t="n">
         <v>3</v>
@@ -1312,35 +1302,35 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>[0.08523500000592321]</t>
+          <t>[0.06418418418616056, 0.05327525897882879, 0.029887120937928557, 0.02955433214083314, 0.029446161119267344, 0.0294306471478194, 0.02947517391294241, 0.029463707003742456, 0.029625569935888052, 0.029603786068037152, 0.029569325037300587, 0.02933002612553537, 0.02942280611023307, 0.02940302505157888, 0.029525139136239886, 0.0295625738799572, 0.029469306115061045, 0.0294036369305104, 0.029473899863660336, 0.02945936913602054, 0.029920651111751795, 0.02996160089969635, 0.02998846094124019, 0.02946950518526137, 0.029345369897782803, 0.02945457398891449, 0.029402886051684618, 0.030057955998927355, 0.03006719914264977, 0.02977202693000436, 0.03021421004086733, 0.029660250060260296, 0.029611608013510704, 0.02955348091199994, 0.03010636894032359, 0.029760911129415035, 0.02963628387078643, 0.029993548057973385, 0.02994752093218267, 0.029572219820693135, 0.029865948017686605, 0.029575003078207374, 0.029660390922799706, 0.029603145085275173, 0.02949378197081387, 0.029509845189750195, 0.029830195009708405, 0.02952069090679288, 0.02970721200108528, 0.02964049088768661]</t>
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>0.08523500000592321</v>
+        <v>0.03080936767626554</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.08523500000592321</v>
+        <v>0.02958907408174127</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>0.005865783189953276</v>
       </c>
       <c r="AI14" t="n">
-        <v>10781</v>
+        <v>8253.27619047619</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12956</v>
+        <v>11170</v>
       </c>
       <c r="AK14" t="n">
-        <v>5085.576335742751</v>
+        <v>5217.707329733489</v>
       </c>
       <c r="AL14" t="n">
-        <v>3212</v>
+        <v>2858</v>
       </c>
       <c r="AM14" t="n">
-        <v>14000</v>
+        <v>23754</v>
       </c>
       <c r="AN14" t="n">
-        <v>31156</v>
+        <v>30498</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -1353,35 +1343,35 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>[0.038168200000654906]</t>
+          <t>[0.01360019389539957, 0.01372417900711298, 0.01370080397464335, 0.013807773822918534, 0.01366563094779849, 0.013631500070914626, 0.013601456070318818, 0.013872002018615603, 0.013616889016702771, 0.013796526938676834, 0.02076029498130083, 0.013691450003534555, 0.013709808001294732, 0.013762056129053235, 0.013690857915207744, 0.01389629696495831, 0.013679163064807653, 0.013865421060472727, 0.013846732908859849, 0.013893614057451487, 0.013915125979110599, 0.013726722914725542, 0.013822196051478386, 0.013811530079692602, 0.013663189020007849, 0.013645030790939927, 0.013649558182805777, 0.013724450021982193, 0.013623517006635666, 0.013721425086259842, 0.013737719971686602, 0.01364016393199563, 0.013575818156823516, 0.013679062016308308, 0.01378611195832491, 0.013737367931753397, 0.01372451102361083, 0.013746751938015223, 0.013881834922358394, 0.01382327708415687, 0.013754646060988307, 0.01372616202570498, 0.013541646068915725, 0.013525712070986629, 0.013763998867943883, 0.013745710952207446, 0.013647604966536164, 0.01358523196540773, 0.013549667783081532, 0.013645831029862165]</t>
         </is>
       </c>
       <c r="AS14" t="n">
-        <v>0.03816820000065491</v>
+        <v>0.01385868453420699</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.03816820000065491</v>
+        <v>0.01372431451454759</v>
       </c>
       <c r="AU14" t="n">
-        <v>0</v>
+        <v>0.00100078954901244</v>
       </c>
       <c r="AV14" t="n">
-        <v>6564</v>
+        <v>3061.137254901961</v>
       </c>
       <c r="AW14" t="n">
-        <v>6564</v>
+        <v>2858</v>
       </c>
       <c r="AX14" t="n">
-        <v>4367.091480608117</v>
+        <v>946.6039725166559</v>
       </c>
       <c r="AY14" t="n">
-        <v>3476</v>
+        <v>2858</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9652</v>
+        <v>9634</v>
       </c>
       <c r="BA14" t="n">
-        <v>17652</v>
+        <v>17578</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -1389,9 +1379,7 @@
       <c r="BC14" t="n">
         <v>1</v>
       </c>
-      <c r="BD14" t="n">
-        <v>0.9015544041450777</v>
-      </c>
+      <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1408,76 +1396,74 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[4.721726999967359]</t>
+          <t>[1.8272692530881613, 1.8179402041714638, 1.825847472064197, 1.830517983995378, 1.8263953500427306, 1.8090188491623849, 1.848455567844212, 1.830552661092952, 1.8358087989035994, 1.8423280590213835, 1.8139011929742992, 1.8604408570099622, 1.836092638084665, 1.8497869498096406, 1.8073015362024307, 1.819434141041711, 1.8362702568992972, 1.8238622788339853, 1.8248851289972663, 1.8180638651829213, 1.827386923134327, 1.821219245903194, 1.8257657510694116, 1.842164013069123, 1.822647558990866, 1.837206806987524, 1.8182503927964717, 1.8495081539731473, 1.8105392549186945, 1.7995181609876454, 1.8449679629411548, 1.8123785848729312, 1.8095824378542602, 1.8139208829961717, 1.855854146881029, 1.8301857330370694, 1.8223157979082316, 1.838307699887082, 1.8353399448096752, 1.8101606939453632, 1.8051722629461437, 1.8301825788803399, 1.8219861160032451, 1.8324099311139435, 1.859135237056762, 1.8245769508648664, 1.8316167111042887, 1.821401183027774, 1.8676310318987817, 1.8365338891744614]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.721726999967359</v>
+        <v>1.828840781669132</v>
       </c>
       <c r="G15" t="n">
-        <v>4.721726999967359</v>
+        <v>1.826832301565446</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.01517315618738367</v>
       </c>
       <c r="I15" t="n">
-        <v>6475540.667560321</v>
+        <v>6010917.955595027</v>
       </c>
       <c r="J15" t="n">
-        <v>7027706</v>
+        <v>6773320</v>
       </c>
       <c r="K15" t="n">
-        <v>1554701.047575894</v>
+        <v>1853506.994259595</v>
       </c>
       <c r="L15" t="n">
-        <v>3148</v>
+        <v>2858</v>
       </c>
       <c r="M15" t="n">
-        <v>10747200</v>
+        <v>11398382</v>
       </c>
       <c r="N15" t="n">
-        <v>12143794</v>
+        <v>11452514</v>
       </c>
       <c r="O15" t="n">
         <v>4</v>
       </c>
-      <c r="P15" t="n">
-        <v>5850</v>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.047764799965079874]</t>
+          <t>[0.002916696947067976, 0.0027245189994573593, 0.004016763065010309, 0.005381477996706963, 0.006396597949787974, 0.006724147824570537, 0.006730959052219987, 0.006752791116014123, 0.007346889935433865, 0.006773991975933313, 0.006836476037278771, 0.006796316942200065, 0.006758230039849877, 0.006768794963136315, 0.006782685872167349, 0.0068542619701474905, 0.006758509902283549, 0.006756816990673542, 0.006814552936702967, 0.007212429074570537, 0.0068358059506863356, 0.006705930922180414, 0.006830106023699045, 0.00687186885625124, 0.0067336221691221, 0.00696220388635993, 0.006814805092290044, 0.00675641605630517, 0.006726871943101287, 0.0066859719809144735, 0.006683868123218417, 0.006640363018959761, 0.006659521022811532, 0.006747563136741519, 0.006800221977755427, 0.00669687706977129, 0.006685859989374876, 0.006852478953078389, 0.0066846690606325865, 0.006618879036977887, 0.006850956939160824, 0.006558559834957123, 0.006553753046318889, 0.006694083102047443, 0.006626422051340342, 0.006570517085492611, 0.00648117414675653, 0.006497359136119485, 0.00650470913387835, 0.0064904289320111275]</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0.04776479996507987</v>
+        <v>0.006498515545390546</v>
       </c>
       <c r="T15" t="n">
-        <v>0.04776479996507987</v>
+        <v>0.006728915497660637</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.0008847134977188763</v>
       </c>
       <c r="V15" t="n">
-        <v>7414</v>
+        <v>2935.44</v>
       </c>
       <c r="W15" t="n">
-        <v>9553</v>
+        <v>2858</v>
       </c>
       <c r="X15" t="n">
-        <v>3715.253827129447</v>
+        <v>126.7019900621702</v>
       </c>
       <c r="Y15" t="n">
-        <v>3124</v>
+        <v>2858</v>
       </c>
       <c r="Z15" t="n">
-        <v>9565</v>
+        <v>3306</v>
       </c>
       <c r="AA15" t="n">
-        <v>64317</v>
+        <v>64715</v>
       </c>
       <c r="AB15" t="n">
         <v>4</v>
@@ -1490,35 +1476,35 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>[0.1166224000044167]</t>
+          <t>[0.09422225598245859, 0.06638127216137946, 0.04504987201653421, 0.044649142073467374, 0.04428142216056585, 0.044333698926493526, 0.044230774976313114, 0.04431914794258773, 0.04472026997245848, 0.04473377903923392, 0.04424831201322377, 0.04423031606711447, 0.04450794099830091, 0.04448817181400955, 0.04423733614385128, 0.04440775001421571, 0.04453675402328372, 0.04485243489034474, 0.044641719898208976, 0.0449050348252058, 0.04414724092930555, 0.04460669890977442, 0.044805746991187334, 0.044163143960759044, 0.04391575208865106, 0.04415232688188553, 0.043883024947717786, 0.044414009200409055, 0.044190485030412674, 0.04410204407759011, 0.044064016081392765, 0.044650024035945535, 0.04484367300756276, 0.04438560688868165, 0.04419392999261618, 0.04414035985246301, 0.04410040006041527, 0.04468781012110412, 0.04468291299417615, 0.044346648966893554, 0.04430682794190943, 0.044422443956136703, 0.04414499714039266, 0.04419929697178304, 0.04486855096183717, 0.0441200090572238, 0.04451993806287646, 0.04447291884571314, 0.04452879191376269, 0.04421209683641791]</t>
         </is>
       </c>
       <c r="AF15" t="n">
-        <v>0.1166224000044167</v>
+        <v>0.04584498265292496</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.1166224000044167</v>
+        <v>0.04439667845144868</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>0.007646082863243884</v>
       </c>
       <c r="AI15" t="n">
-        <v>10290.4</v>
+        <v>8264.410256410256</v>
       </c>
       <c r="AJ15" t="n">
-        <v>12088</v>
+        <v>10226</v>
       </c>
       <c r="AK15" t="n">
-        <v>3933.884187415791</v>
+        <v>3724.010205577982</v>
       </c>
       <c r="AL15" t="n">
-        <v>3260</v>
+        <v>2858</v>
       </c>
       <c r="AM15" t="n">
-        <v>12176</v>
+        <v>13058</v>
       </c>
       <c r="AN15" t="n">
-        <v>30356</v>
+        <v>28898</v>
       </c>
       <c r="AO15" t="n">
         <v>4</v>
@@ -1531,35 +1517,35 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>[0.041186300048138946]</t>
+          <t>[0.015562751796096563, 0.015397643903270364, 0.015563252149149776, 0.01549850613810122, 0.01569979707710445, 0.015435601118952036, 0.0166132349986583, 0.015694328816607594, 0.015498855849727988, 0.015561209991574287, 0.035134454956278205, 0.037665436044335365, 0.03883321397006512, 0.03394572716206312, 0.03505771094933152, 0.03062343201600015, 0.03093590005300939, 0.03055149200372398, 0.03818859905004501, 0.03894881601445377, 0.03676749183796346, 0.03636886505410075, 0.0304288100451231, 0.030810231110081077, 0.03117985394783318, 0.03860794799402356, 0.039548114873468876, 0.037699327105656266, 0.03617593599483371, 0.03032462392002344, 0.03035950707271695, 0.028559301048517227, 0.015383422840386629, 0.023772474844008684, 0.01646454306319356, 0.015441870084032416, 0.015575302066281438, 0.015488869976252317, 0.015443263109773397, 0.015505676157772541, 0.023674526950344443, 0.015609603142365813, 0.015457344939932227, 0.01563894678838551, 0.015433158027008176, 0.015667479019612074, 0.015249313088133931, 0.015266346978023648, 0.015523212030529976, 0.015334479976445436]</t>
         </is>
       </c>
       <c r="AS15" t="n">
-        <v>0.04118630004813895</v>
+        <v>0.02418339614290744</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.04118630004813895</v>
+        <v>0.01653888903092593</v>
       </c>
       <c r="AU15" t="n">
-        <v>0</v>
+        <v>0.009587956590810754</v>
       </c>
       <c r="AV15" t="n">
-        <v>7384</v>
+        <v>5811.274336283186</v>
       </c>
       <c r="AW15" t="n">
-        <v>9336</v>
+        <v>7458</v>
       </c>
       <c r="AX15" t="n">
-        <v>3743.437992006813</v>
+        <v>2640.711931359568</v>
       </c>
       <c r="AY15" t="n">
-        <v>3068</v>
+        <v>2858</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9748</v>
+        <v>9778</v>
       </c>
       <c r="BA15" t="n">
-        <v>17244</v>
+        <v>15978</v>
       </c>
       <c r="BB15" t="n">
         <v>1</v>
@@ -1567,9 +1553,7 @@
       <c r="BC15" t="n">
         <v>1</v>
       </c>
-      <c r="BD15" t="n">
-        <v>0.924901185770751</v>
-      </c>
+      <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1586,76 +1570,74 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[4.726691199990455]</t>
+          <t>[1.8172252648510039, 1.8621857010293752, 1.8211917700245976, 1.8218230640050024, 1.8176367760170251, 1.8436667579226196, 1.8105951009783894, 1.8390789469704032, 1.8333376289810985, 1.8376471609808505, 1.837325797881931, 1.845700295874849, 1.898699148092419, 1.8077262749429792, 1.8220892099197954, 1.8589759469032288, 1.8287105220369995, 1.8569073281250894, 1.8604112030006945, 1.857985229929909, 1.8459794740192592, 1.8163246111944318, 1.8563095370773226, 1.8173190869856626, 1.7973197030369192, 1.8394480079878122, 1.8509839789476246, 1.8328992400784045, 1.814038299024105, 1.8714034389704466, 1.8129880540072918, 1.8223821190185845, 1.8263883478939533, 1.8456389580387622, 1.836877689929679, 1.8375524289440364, 1.8475473208818585, 1.8177361448761076, 1.846108275000006, 1.8169549049343914, 1.8265984610188752, 1.8136319359764457, 1.8412483839783818, 1.8649373420048505, 1.8256533031817526, 1.8529962501488626, 1.819054459920153, 1.8416982740163803, 1.8259095230605453, 1.8425183480139822]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.726691199990455</v>
+        <v>1.835707300612703</v>
       </c>
       <c r="G16" t="n">
-        <v>4.726691199990455</v>
+        <v>1.837101743905805</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.01943436532269457</v>
       </c>
       <c r="I16" t="n">
-        <v>6437692.303523035</v>
+        <v>6008667.686014163</v>
       </c>
       <c r="J16" t="n">
-        <v>6908497</v>
+        <v>6772588</v>
       </c>
       <c r="K16" t="n">
-        <v>1477981.128613851</v>
+        <v>1852123.903971585</v>
       </c>
       <c r="L16" t="n">
-        <v>3052</v>
+        <v>2858</v>
       </c>
       <c r="M16" t="n">
-        <v>10627820</v>
+        <v>10687326</v>
       </c>
       <c r="N16" t="n">
-        <v>12024414</v>
+        <v>11452842</v>
       </c>
       <c r="O16" t="n">
         <v>5</v>
       </c>
-      <c r="P16" t="n">
-        <v>6300</v>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.05304180004168302]</t>
+          <t>[0.002910397946834564, 0.0031541120260953903, 0.005286304978653789, 0.006550336955115199, 0.006842134054750204, 0.006849346915259957, 0.006919780047610402, 0.006838578963652253, 0.006774293025955558, 0.006657557794824243, 0.006715065101161599, 0.006730447057634592, 0.006782015087082982, 0.006877298001199961, 0.006789003033190966, 0.00683295913040638, 0.006726600928232074, 0.006673101102933288, 0.00666091195307672, 0.007169234799221158, 0.006709735142067075, 0.006750386906787753, 0.006712379865348339, 0.006661863997578621, 0.006724877981469035, 0.006656826939433813, 0.00659026694484055, 0.006728403968736529, 0.006604457972571254, 0.0065849891398102045, 0.006719308905303478, 0.006724687991663814, 0.006555985892191529, 0.00658003194257617, 0.006696163909509778, 0.006601973902434111, 0.006589405937120318, 0.006711870897561312, 0.006749666063115001, 0.0065043289214372635, 0.006840351037681103, 0.006637658923864365, 0.006627171998843551, 0.006614414043724537, 0.006582867121323943, 0.006568926153704524, 0.006542097078636289, 0.006511168088763952, 0.0064000519923865795, 0.006492891814559698]</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0.05304180004168302</v>
+        <v>0.006514293807558715</v>
       </c>
       <c r="T16" t="n">
-        <v>0.05304180004168302</v>
+        <v>0.006667482550255954</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.0007564383269412816</v>
       </c>
       <c r="V16" t="n">
-        <v>7558</v>
+        <v>2940.56</v>
       </c>
       <c r="W16" t="n">
-        <v>9737</v>
+        <v>2858</v>
       </c>
       <c r="X16" t="n">
-        <v>3917.025274363187</v>
+        <v>128.6660223451493</v>
       </c>
       <c r="Y16" t="n">
-        <v>3036</v>
+        <v>2858</v>
       </c>
       <c r="Z16" t="n">
-        <v>9901</v>
+        <v>3306</v>
       </c>
       <c r="AA16" t="n">
-        <v>64221</v>
+        <v>64715</v>
       </c>
       <c r="AB16" t="n">
         <v>5</v>
@@ -1668,35 +1650,35 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>[0.15632179996464401]</t>
+          <t>[0.09184987097978592, 0.05709720798768103, 0.05678455997258425, 0.05688543198630214, 0.057477167109027505, 0.05648958799429238, 0.056885933969169855, 0.057045169873163104, 0.0562498199287802, 0.05683194100856781, 0.05698911705985665, 0.05693145003169775, 0.0564328629989177, 0.05667699920013547, 0.05677873198874295, 0.057011289056390524, 0.05697764898650348, 0.05702430894598365, 0.05680831498466432, 0.05715541704557836, 0.05709451390430331, 0.05700381891801953, 0.05738415801897645, 0.0572761760558933, 0.05736732296645641, 0.056921135168522596, 0.0569923419971019, 0.05738326604478061, 0.05661697895266116, 0.05752653116360307, 0.05723257106728852, 0.05740592093206942, 0.05695035797543824, 0.05733985104598105, 0.0573556050658226, 0.05742505891248584, 0.057284028036519885, 0.058093460043892264, 0.06920113111846149, 0.05759839899837971, 0.05812537716701627, 0.056949087185785174, 0.056981494883075356, 0.05679191113449633, 0.057771607069298625, 0.05726818507537246, 0.05790909403003752, 0.05776109406724572, 0.056514926021918654, 0.056710610166192055]</t>
         </is>
       </c>
       <c r="AF16" t="n">
-        <v>0.156321799964644</v>
+        <v>0.05805237688589841</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.156321799964644</v>
+        <v>0.05703473940957338</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>0.005183646478787907</v>
       </c>
       <c r="AI16" t="n">
-        <v>9762.5</v>
+        <v>8715.521951219513</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10660</v>
+        <v>10170</v>
       </c>
       <c r="AK16" t="n">
-        <v>2739.714218673181</v>
+        <v>3344.645381970027</v>
       </c>
       <c r="AL16" t="n">
-        <v>3020</v>
+        <v>2858</v>
       </c>
       <c r="AM16" t="n">
-        <v>11172</v>
+        <v>11922</v>
       </c>
       <c r="AN16" t="n">
-        <v>28516</v>
+        <v>28898</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -1709,35 +1691,35 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>[0.04522720002569258]</t>
+          <t>[0.01613088301382959, 0.016293987166136503, 0.0328610020224005, 0.03871244192123413, 0.03380407299846411, 0.03190579987131059, 0.03450484201312065, 0.040873146848753095, 0.040350824827328324, 0.03729027207009494, 0.032129884930327535, 0.03205917193554342, 0.03315802593715489, 0.03225535503588617, 0.03194935596548021, 0.03199219098314643, 0.03678059880621731, 0.041252606082707644, 0.03843278391286731, 0.03180504008196294, 0.032315834891051054, 0.031645871931687, 0.035883195931091905, 0.03188572102226317, 0.0325860190205276, 0.03262544912286103, 0.031835864996537566, 0.032244957983493805, 0.031951738987118006, 0.03215373191051185, 0.038985931081697345, 0.04070025822147727, 0.03859430504962802, 0.03721700212918222, 0.03155307308770716, 0.03162637213245034, 0.03628297406248748, 0.03184322686865926, 0.03211644687689841, 0.03222279483452439, 0.03184765391051769, 0.032003716100007296, 0.03187216096557677, 0.031736517092213035, 0.031784841092303395, 0.03188627096824348, 0.031609366880729795, 0.031649807933717966, 0.032033222960308194, 0.032096636947244406]</t>
         </is>
       </c>
       <c r="AS16" t="n">
-        <v>0.04522720002569258</v>
+        <v>0.03318666502833367</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.04522720002569258</v>
+        <v>0.03212316590361297</v>
       </c>
       <c r="AU16" t="n">
-        <v>0</v>
+        <v>0.004610974694397583</v>
       </c>
       <c r="AV16" t="n">
-        <v>5896</v>
+        <v>6027.567567567567</v>
       </c>
       <c r="AW16" t="n">
-        <v>5896</v>
+        <v>7554</v>
       </c>
       <c r="AX16" t="n">
-        <v>3456.337946439844</v>
+        <v>2250.806713014058</v>
       </c>
       <c r="AY16" t="n">
-        <v>3452</v>
+        <v>2858</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8340</v>
+        <v>8290</v>
       </c>
       <c r="BA16" t="n">
-        <v>16028</v>
+        <v>15978</v>
       </c>
       <c r="BB16" t="n">
         <v>1</v>
@@ -1745,9 +1727,7 @@
       <c r="BC16" t="n">
         <v>1</v>
       </c>
-      <c r="BD16" t="n">
-        <v>0.842809364548495</v>
-      </c>
+      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1764,76 +1744,74 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[4.697434400033671]</t>
+          <t>[1.931704759132117, 1.9011294478550553, 1.9232000429183245, 1.897752108052373, 1.9061289909295738, 1.88335555116646, 1.9064586530439556, 1.9273760900832713, 1.8974703510757536, 1.8697972181253135, 1.8796247309073806, 1.9397144787944853, 1.8758500970434397, 1.881692964816466, 1.9059984649065882, 1.91725551802665, 1.9394006808288395, 1.8844136341940612, 1.905204031150788, 1.8774480631109327, 1.869682075921446, 1.919768154155463, 1.8665677590761334, 1.8656212729401886, 1.8801389671862125, 1.8924200530163944, 1.8728653138969094, 1.8800136561039835, 1.9069479920435697, 1.8955750230234116, 1.8772265799343586, 1.8845497940201312, 1.8791347169317305, 1.8809445039369166, 1.8869531389791518, 1.9095880980603397, 1.901193086989224, 2.2926699239760637, 1.89728551520966, 1.8889590068720281, 1.8720102799125016, 1.887012121034786, 1.9019170650281012, 1.8887115030083805, 1.87987529207021, 1.8788467608392239, 1.904304055031389, 1.875834811013192, 1.8786981769371778, 1.9084004280157387]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4.697434400033671</v>
+        <v>1.901493820026517</v>
       </c>
       <c r="G17" t="n">
-        <v>4.697434400033671</v>
+        <v>1.888835254940204</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.05950544098364093</v>
       </c>
       <c r="I17" t="n">
-        <v>6233988.284574468</v>
+        <v>6040020.886266878</v>
       </c>
       <c r="J17" t="n">
-        <v>6771023</v>
+        <v>6773324</v>
       </c>
       <c r="K17" t="n">
-        <v>1528692.353543344</v>
+        <v>1827096.462435788</v>
       </c>
       <c r="L17" t="n">
-        <v>2972</v>
+        <v>2858</v>
       </c>
       <c r="M17" t="n">
-        <v>10490424</v>
+        <v>11398350</v>
       </c>
       <c r="N17" t="n">
-        <v>11887018</v>
+        <v>11452866</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
       </c>
-      <c r="P17" t="n">
-        <v>7300</v>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.039658699999563396]</t>
+          <t>[0.0028635768685489893, 0.0027749650180339813, 0.004527759971097112, 0.006343789165839553, 0.006918756989762187, 0.006807982921600342, 0.006844938034191728, 0.006769546074792743, 0.006845477968454361, 0.006751198088750243, 0.0068098269402980804, 0.006764997960999608, 0.006736385868862271, 0.006803156109526753, 0.0068002608604729176, 0.00697977002710104, 0.00683232001028955, 0.006779329851269722, 0.006613472010940313, 0.007087901933118701, 0.006738458061590791, 0.00670800288207829, 0.006759601878002286, 0.0066690349485725164, 0.006683226907625794, 0.006629343843087554, 0.006655114004388452, 0.0067345628049224615, 0.0066986181773245335, 0.006678038975223899, 0.006692990893498063, 0.006725399987772107, 0.006665318040177226, 0.006681001977995038, 0.0066259619779884815, 0.006666532019153237, 0.006693050963804126, 0.006582204019650817, 0.0067199100740253925, 0.006633901968598366, 0.006901382934302092, 0.006690797861665487, 0.00659485487267375, 0.006588875083252788, 0.006608264055103064, 0.006548793986439705, 0.006546491989865899, 0.006503196898847818, 0.006546321092173457, 0.006493752123787999]</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>0.0396586999995634</v>
+        <v>0.006506368359550834</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0396586999995634</v>
+        <v>0.006691894377581775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.0008301550786272146</v>
       </c>
       <c r="V17" t="n">
-        <v>6346.5</v>
+        <v>2940.56</v>
       </c>
       <c r="W17" t="n">
-        <v>6346.5</v>
+        <v>2858</v>
       </c>
       <c r="X17" t="n">
-        <v>4794.891083225979</v>
+        <v>135.0065999898387</v>
       </c>
       <c r="Y17" t="n">
-        <v>2956</v>
+        <v>2858</v>
       </c>
       <c r="Z17" t="n">
-        <v>9737</v>
+        <v>3306</v>
       </c>
       <c r="AA17" t="n">
-        <v>64133</v>
+        <v>64715</v>
       </c>
       <c r="AB17" t="n">
         <v>6</v>
@@ -1846,35 +1824,35 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>[0.16524800000479445]</t>
+          <t>[0.12308086780831218, 0.07170333503745496, 0.07166887307539582, 0.07197153707966208, 0.07170628989115357, 0.07177698705345392, 0.07174996612593532, 0.0724027119576931, 0.07181299896910787, 0.07202551700174809, 0.07221332797780633, 0.07220697891898453, 0.07169176801107824, 0.07171822804957628, 0.07245607278309762, 0.07163680507801473, 0.07173310010693967, 0.07125201006419957, 0.07161111803725362, 0.0718914670869708, 0.07217725599184632, 0.07224447489716113, 0.07195696397684515, 0.07159854914061725, 0.0717825940810144, 0.07170907384715974, 0.07145470287650824, 0.0716042360290885, 0.07142891502007842, 0.07172293402254581, 0.07133155898191035, 0.07149415207095444, 0.07244483614340425, 0.07335023093037307, 0.071975601837039, 0.07168289297260344, 0.07194611802697182, 0.07163149886764586, 0.07174442801624537, 0.07205183710902929, 0.07174390507861972, 0.07283512107096612, 0.07214918313547969, 0.0719378360081464, 0.07165103801526129, 0.07181810680776834, 0.07211945811286569, 0.07239270699210465, 0.07255548099055886, 0.07221690495498478]</t>
         </is>
       </c>
       <c r="AF17" t="n">
-        <v>0.1652480000047944</v>
+        <v>0.07294125112239272</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.1652480000047944</v>
+        <v>0.07179779652506113</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>0.007245957600136535</v>
       </c>
       <c r="AI17" t="n">
-        <v>9455.5</v>
+        <v>10327.22834645669</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10238</v>
+        <v>11778</v>
       </c>
       <c r="AK17" t="n">
-        <v>2645.473492590693</v>
+        <v>3716.58560673069</v>
       </c>
       <c r="AL17" t="n">
-        <v>2948</v>
+        <v>2858</v>
       </c>
       <c r="AM17" t="n">
-        <v>10860</v>
+        <v>13522</v>
       </c>
       <c r="AN17" t="n">
-        <v>28444</v>
+        <v>30914</v>
       </c>
       <c r="AO17" t="n">
         <v>6</v>
@@ -1887,35 +1865,35 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>[0.040113900031428784]</t>
+          <t>[0.016740864841267467, 0.016625831834971905, 0.01667545805685222, 0.016723016975447536, 0.01696182508021593, 0.01667364384047687, 0.016804550075903535, 0.018059058114886284, 0.016615387052297592, 0.01684961700811982, 0.017218820052221417, 0.016636419110000134, 0.017197689041495323, 0.01677541807293892, 0.01762127410620451, 0.016561464872211218, 0.03956558811478317, 0.040002932073548436, 0.03848552191630006, 0.03266108105890453, 0.032990312902256846, 0.03328507486730814, 0.03283044486306608, 0.03294756915420294, 0.03275671415030956, 0.03286097897216678, 0.03271726495586336, 0.03306938102468848, 0.032917903969064355, 0.03285789489746094, 0.03299477091059089, 0.03317239601165056, 0.03288467600941658, 0.03301880485378206, 0.033116493141278625, 0.03266012901440263, 0.03417282388545573, 0.03310871007852256, 0.033335841028019786, 0.03289079410023987, 0.03313579014502466, 0.03295178501866758, 0.03300924296490848, 0.03280546609312296, 0.03758430201560259, 0.0420680430252105, 0.03994425502605736, 0.032783172791823745, 0.03368992102332413, 0.03303937707096338]</t>
         </is>
       </c>
       <c r="AS17" t="n">
-        <v>0.04011390003142878</v>
+        <v>0.02866111590526998</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.04011390003142878</v>
+        <v>0.03287282749079168</v>
       </c>
       <c r="AU17" t="n">
-        <v>0</v>
+        <v>0.008420191220296219</v>
       </c>
       <c r="AV17" t="n">
-        <v>5621.333333333333</v>
+        <v>6836.805970149254</v>
       </c>
       <c r="AW17" t="n">
-        <v>6304</v>
+        <v>8642</v>
       </c>
       <c r="AX17" t="n">
-        <v>2413.529642107868</v>
+        <v>3049.312094191678</v>
       </c>
       <c r="AY17" t="n">
-        <v>2940</v>
+        <v>2858</v>
       </c>
       <c r="AZ17" t="n">
-        <v>7620</v>
+        <v>9890</v>
       </c>
       <c r="BA17" t="n">
-        <v>15516</v>
+        <v>17578</v>
       </c>
       <c r="BB17" t="n">
         <v>1</v>
@@ -1923,9 +1901,7 @@
       <c r="BC17" t="n">
         <v>1</v>
       </c>
-      <c r="BD17" t="n">
-        <v>0.8613569321533924</v>
-      </c>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1942,76 +1918,74 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[5.0847823999938555]</t>
+          <t>[2.149681590963155, 2.1495700429659337, 2.1275192990433425, 2.1602809180039912, 2.1512415129691362, 2.137056373991072, 2.148375469027087, 2.1295106529723853, 2.1241764870937914, 2.1159079850185663, 2.155563326086849, 2.1480191198643297, 2.150262246839702, 2.1623387378640473, 2.138046315172687, 2.1377597548998892, 2.1409554390702397, 2.153184768045321, 2.1433622199110687, 2.1455855169333518, 2.153331544017419, 2.135299985995516, 2.1376131989527494, 2.1310312028508633, 2.158662631874904, 2.1193704530596733, 2.127787383971736, 2.154096090933308, 2.1460134491790086, 2.1514877339359373, 2.146893165074289, 2.137220751028508, 2.141435611061752, 2.135325492126867, 2.1581433350220323, 2.135108456015587, 2.1399768230039626, 2.13093434413895, 2.15515449619852, 2.146090494003147, 2.1649760878644884, 2.1606140460353345, 2.110039896098897, 2.1393363170791417, 2.15468786098063, 2.1653669581282884, 2.1302104820497334, 2.1224186348263174, 2.1614248531404883, 2.126829707995057]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5.084782399993856</v>
+        <v>2.142905585267581</v>
       </c>
       <c r="G18" t="n">
-        <v>5.084782399993856</v>
+        <v>2.14447386842221</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.01341160002768962</v>
       </c>
       <c r="I18" t="n">
-        <v>6564614.563591022</v>
+        <v>6155174.784357423</v>
       </c>
       <c r="J18" t="n">
-        <v>7036105</v>
+        <v>6774284</v>
       </c>
       <c r="K18" t="n">
-        <v>1469483.950379604</v>
+        <v>1722566.117543937</v>
       </c>
       <c r="L18" t="n">
-        <v>3100</v>
+        <v>2858</v>
       </c>
       <c r="M18" t="n">
-        <v>10754376</v>
+        <v>11398222</v>
       </c>
       <c r="N18" t="n">
-        <v>12150970</v>
+        <v>11452738</v>
       </c>
       <c r="O18" t="n">
         <v>7</v>
       </c>
-      <c r="P18" t="n">
-        <v>8050</v>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.03545670001767576]</t>
+          <t>[0.002905739936977625, 0.0027368569280952215, 0.005433904938399792, 0.00543243414722383, 0.005306233884766698, 0.0064501469023525715, 0.006742615019902587, 0.006916465004906058, 0.006649975897744298, 0.006683427141979337, 0.006721703801304102, 0.006690246984362602, 0.006678929086774588, 0.006670868024230003, 0.00662898481823504, 0.006643797038123012, 0.006740290904417634, 0.006744877900928259, 0.006739119999110699, 0.007068841950967908, 0.006675634998828173, 0.006747721927240491, 0.006570057012140751, 0.006721522891893983, 0.006731969071552157, 0.006746759871020913, 0.006650587078183889, 0.006684537976980209, 0.006624347995966673, 0.006703687133267522, 0.006727081025019288, 0.00675424188375473, 0.00679199886508286, 0.006611627992242575, 0.006665858905762434, 0.006690136156976223, 0.006668643094599247, 0.0066822548396885395, 0.006834632949903607, 0.0066361448261886835, 0.006953510921448469, 0.006550998892635107, 0.006651298841461539, 0.006592350080609322, 0.006612380035221577, 0.006537277949973941, 0.006660311948508024, 0.006528915138915181, 0.006567212985828519, 0.006462706020101905]</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>0.03545670001767576</v>
+        <v>0.006452437392435968</v>
       </c>
       <c r="T18" t="n">
-        <v>0.03545670001767576</v>
+        <v>0.006669755559414625</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.0008178110895795858</v>
       </c>
       <c r="V18" t="n">
-        <v>6442.5</v>
+        <v>2940.56</v>
       </c>
       <c r="W18" t="n">
-        <v>6442.5</v>
+        <v>2858</v>
       </c>
       <c r="X18" t="n">
-        <v>4953.283002211765</v>
+        <v>139.872268261337</v>
       </c>
       <c r="Y18" t="n">
-        <v>2940</v>
+        <v>2858</v>
       </c>
       <c r="Z18" t="n">
-        <v>9945</v>
+        <v>3402</v>
       </c>
       <c r="AA18" t="n">
-        <v>64101</v>
+        <v>64715</v>
       </c>
       <c r="AB18" t="n">
         <v>7</v>
@@ -2024,35 +1998,35 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>[0.18653880001511425]</t>
+          <t>[0.11691015586256981, 0.08323907502926886, 0.0840454320423305, 0.08547213906422257, 0.08420767495408654, 0.08432891708798707, 0.08430263679474592, 0.08468176401220262, 0.08908443595282733, 0.08405435620807111, 0.08345460705459118, 0.08444813406094909, 0.08399656787514687, 0.0834819080773741, 0.08309281594119966, 0.08383890194818377, 0.08374117710627615, 0.08383532683365047, 0.08331864303909242, 0.08375555905513465, 0.08350637508556247, 0.08342837798409164, 0.08456494007259607, 0.08365362696349621, 0.08414039411582053, 0.08493930101394653, 0.08433771901763976, 0.08367026993073523, 0.08347204397432506, 0.0836339348461479, 0.08479404193349183, 0.08363613998517394, 0.08419990399852395, 0.08451512502506375, 0.0841607041656971, 0.08421831205487251, 0.08361425600014627, 0.08408880699425936, 0.08561432105489075, 0.08429899113252759, 0.08420459018088877, 0.08399942307733, 0.08428152487613261, 0.08425433514639735, 0.08336807694286108, 0.08406899683177471, 0.08449676702730358, 0.0851097151171416, 0.08449413417838514, 0.08466475899331272]</t>
         </is>
       </c>
       <c r="AF18" t="n">
-        <v>0.1865388000151142</v>
+        <v>0.08485440271440893</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.1865388000151142</v>
+        <v>0.08415054914075881</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>0.004710858933755958</v>
       </c>
       <c r="AI18" t="n">
-        <v>11474.4</v>
+        <v>10608.88741721854</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12476</v>
+        <v>11858</v>
       </c>
       <c r="AK18" t="n">
-        <v>3007.2914059</v>
+        <v>3468.603147463252</v>
       </c>
       <c r="AL18" t="n">
-        <v>2940</v>
+        <v>2858</v>
       </c>
       <c r="AM18" t="n">
-        <v>12680</v>
+        <v>17146</v>
       </c>
       <c r="AN18" t="n">
-        <v>30396</v>
+        <v>30594</v>
       </c>
       <c r="AO18" t="n">
         <v>7</v>
@@ -2063,43 +2037,41 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>[0.03609890001825988]</t>
+          <t>[0.016798780066892505, 0.016800963087007403, 0.016676317900419235, 0.016699151834473014, 0.01681067910976708, 0.016616397071629763, 0.016965229995548725, 0.01645717886276543, 0.0175170861184597, 0.016461926978081465, 0.017120073083788157, 0.016556398943066597, 0.017452940810471773, 0.01658733398653567, 0.01659193215891719, 0.01654361793771386, 0.01646505086682737, 0.016573773929849267, 0.01668017404153943, 0.017571558943018317, 0.01660347799770534, 0.01763388211838901, 0.016534444876015186, 0.016642007045447826, 0.016498781042173505, 0.016608797013759613, 0.01728980615735054, 0.041131422854959965, 0.03278650785796344, 0.03300639591179788, 0.0327500831335783, 0.03324506478384137, 0.03316706791520119, 0.038064649095758796, 0.04157899203710258, 0.03892685007303953, 0.032600559992715716, 0.03275381796993315, 0.03262469498440623, 0.03257915819995105, 0.032625234918668866, 0.03246603696607053, 0.03284458490088582, 0.032975900918245316, 0.03271801513619721, 0.03275516000576317, 0.03286954201757908, 0.032443605130538344, 0.0328714051283896, 0.033299264032393694]</t>
         </is>
       </c>
       <c r="AS18" t="n">
-        <v>0.03609890001825988</v>
+        <v>0.02473683551885188</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.03609890001825988</v>
+        <v>0.01754432253073901</v>
       </c>
       <c r="AU18" t="n">
-        <v>0</v>
+        <v>0.00888999991313582</v>
       </c>
       <c r="AV18" t="n">
-        <v>6504</v>
+        <v>6227.747967479675</v>
       </c>
       <c r="AW18" t="n">
-        <v>6504</v>
+        <v>7690</v>
       </c>
       <c r="AX18" t="n">
-        <v>4632.96363033426</v>
+        <v>2812.978686676573</v>
       </c>
       <c r="AY18" t="n">
-        <v>3228</v>
+        <v>2858</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9780</v>
+        <v>9922</v>
       </c>
       <c r="BA18" t="n">
-        <v>17404</v>
+        <v>17578</v>
       </c>
       <c r="BB18" t="n">
         <v>0.9568733153638814</v>
       </c>
       <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="n">
-        <v>0.8679245283018868</v>
-      </c>
+      <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2116,76 +2088,74 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[5.162689499964472]</t>
+          <t>[2.157512811012566, 2.167837257962674, 2.1649308050982654, 2.1385366388130933, 2.150200059870258, 2.159444130025804, 2.1271362567786127, 2.1428370729554445, 2.1140605688560754, 2.163697512820363, 2.157566502923146, 2.160669517936185, 2.179936152184382, 2.163530440069735, 2.1711383091751486, 2.144653335912153, 2.170032209949568, 2.147898241877556, 2.147500758059323, 2.197621044004336, 2.1448977668769658, 2.1554152630269527, 2.1389108418952674, 2.171470888890326, 2.1351281059905887, 2.1320423749275506, 2.181894601788372, 2.121641089906916, 2.1413976491894573, 2.1263265449088067, 2.1653249009978026, 2.1324454641435295, 2.1590569138061255, 2.1525803690310568, 2.1537344839889556, 2.15100433700718, 2.170999903930351, 2.1590950980316848, 2.1191213000565767, 2.134461927926168, 2.1607689710799605, 2.1408810359425843, 2.1705558840185404, 2.140766452997923, 2.159704224904999, 2.159097715979442, 2.123228465206921, 2.148442351957783, 2.1302840050775558, 2.1441776449792087]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>5.162689499964472</v>
+        <v>2.151031924095005</v>
       </c>
       <c r="G19" t="n">
-        <v>5.162689499964472</v>
+        <v>2.151792353019118</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.01764361384169816</v>
       </c>
       <c r="I19" t="n">
-        <v>6485539.472019465</v>
+        <v>6156456.332277144</v>
       </c>
       <c r="J19" t="n">
-        <v>6911806</v>
+        <v>6774436</v>
       </c>
       <c r="K19" t="n">
-        <v>1376840.437143468</v>
+        <v>1716127.279079269</v>
       </c>
       <c r="L19" t="n">
-        <v>2940</v>
+        <v>2858</v>
       </c>
       <c r="M19" t="n">
-        <v>9998930</v>
+        <v>11398123</v>
       </c>
       <c r="N19" t="n">
-        <v>12027142</v>
+        <v>11452578</v>
       </c>
       <c r="O19" t="n">
         <v>8</v>
       </c>
-      <c r="P19" t="n">
-        <v>8125</v>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.05258200003299862]</t>
+          <t>[0.002886581001803279, 0.00395247689448297, 0.005390150006860495, 0.005571871995925903, 0.006551739992573857, 0.006707050837576389, 0.0067263999953866005, 0.006788423052057624, 0.006790896877646446, 0.006885007955133915, 0.006798559101298451, 0.0066642980091273785, 0.00673888879828155, 0.006671939045190811, 0.006713512120768428, 0.006741633173078299, 0.00681668589822948, 0.00668062106706202, 0.006705690873786807, 0.007124506868422031, 0.006699452176690102, 0.006733971880748868, 0.006739910924807191, 0.0067353141494095325, 0.006807022029533982, 0.006643717875704169, 0.006636074045673013, 0.006655813893303275, 0.0065995510667562485, 0.00660681095905602, 0.006641834042966366, 0.006675573997199535, 0.010809154016897082, 0.010740740923210979, 0.010954190976917744, 0.006757927825674415, 0.006644308101385832, 0.006774222012609243, 0.006729335989803076, 0.010472279042005539, 0.006881902925670147, 0.006616255966946483, 0.006546511081978679, 0.006477998103946447, 0.006635874975472689, 0.006464707897976041, 0.006635683821514249, 0.00656668096780777, 0.006525109987705946, 0.006480831885710359]</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>0.05258200003299862</v>
+        <v>0.006835913942195475</v>
       </c>
       <c r="T19" t="n">
-        <v>0.05258200003299862</v>
+        <v>0.006690036621876061</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.001357612090548792</v>
       </c>
       <c r="V19" t="n">
-        <v>6718.5</v>
+        <v>2940.56</v>
       </c>
       <c r="W19" t="n">
-        <v>6718.5</v>
+        <v>2858</v>
       </c>
       <c r="X19" t="n">
-        <v>5117.331775447044</v>
+        <v>135.0065999898387</v>
       </c>
       <c r="Y19" t="n">
-        <v>3100</v>
+        <v>2858</v>
       </c>
       <c r="Z19" t="n">
-        <v>10337</v>
+        <v>3306</v>
       </c>
       <c r="AA19" t="n">
-        <v>64253</v>
+        <v>64715</v>
       </c>
       <c r="AB19" t="n">
         <v>8</v>
@@ -2198,35 +2168,35 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>[0.2441748999990523]</t>
+          <t>[0.12537637003697455, 0.093074708012864, 0.09345695096999407, 0.09319685213267803, 0.09321146318688989, 0.0933468050789088, 0.09471726696938276, 0.09303622110746801, 0.09337798203341663, 0.09263525879941881, 0.0931107820942998, 0.09259174508042634, 0.0929012589622289, 0.0928711739834398, 0.09275114396587014, 0.0933978920802474, 0.0999735458754003, 0.09232872095890343, 0.09325003204867244, 0.09245744510553777, 0.09294258081354201, 0.09390058415010571, 0.09357355581596494, 0.09431626880541444, 0.09361172304488719, 0.09597058407962322, 0.09338561398908496, 0.09365486796014011, 0.09260760014876723, 0.09378295810893178, 0.09459142899140716, 0.09414450009353459, 0.09342843783088028, 0.09358116611838341, 0.09491190896369517, 0.09443935193121433, 0.09385229391045868, 0.09441793896257877, 0.09453237196430564, 0.09379268414340913, 0.09307021298445761, 0.09284054697491229, 0.09292725683189929, 0.09263722319155931, 0.09419636917300522, 0.09343849192373455, 0.09475021716207266, 0.09371173288673162, 0.09509380208328366, 0.0929984760005027]</t>
         </is>
       </c>
       <c r="AF19" t="n">
-        <v>0.2441748999990523</v>
+        <v>0.0943233273504302</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.2441748999990523</v>
+        <v>0.09343346487730742</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>0.00463602883608428</v>
       </c>
       <c r="AI19" t="n">
-        <v>10034.76923076923</v>
+        <v>9407.545454545454</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10612</v>
+        <v>10310</v>
       </c>
       <c r="AK19" t="n">
-        <v>2185.286791012648</v>
+        <v>2684.692472731593</v>
       </c>
       <c r="AL19" t="n">
-        <v>2940</v>
+        <v>2858</v>
       </c>
       <c r="AM19" t="n">
-        <v>11544</v>
+        <v>11922</v>
       </c>
       <c r="AN19" t="n">
-        <v>28436</v>
+        <v>28898</v>
       </c>
       <c r="AO19" t="n">
         <v>8</v>
@@ -2237,43 +2207,41 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>[0.04206549999071285]</t>
+          <t>[0.016615967033430934, 0.01684382720850408, 0.016370137920603156, 0.016474124044179916, 0.016548987943679094, 0.016595735913142562, 0.016685910057276487, 0.016614914871752262, 0.017103716963902116, 0.01653066906146705, 0.01706401794217527, 0.016373183112591505, 0.01656352891586721, 0.016389688942581415, 0.016754233976826072, 0.017235012957826257, 0.01658098492771387, 0.016704119043424726, 0.01655550696887076, 0.01651505706831813, 0.016689798096194863, 0.01673102891072631, 0.016644631046801805, 0.016702536027878523, 0.016519222175702453, 0.016374313971027732, 0.01700062188319862, 0.023092592833563685, 0.03918905393220484, 0.03267432004213333, 0.03274937090463936, 0.03252180013805628, 0.03280659602023661, 0.03278112015686929, 0.03321681101806462, 0.03256664797663689, 0.0328746500890702, 0.03326820791698992, 0.03241063398309052, 0.03260989300906658, 0.03252522507682443, 0.0325145001988858, 0.03272115904837847, 0.032621379010379314, 0.03260551602579653, 0.032865926157683134, 0.032456053886562586, 0.03275093506090343, 0.032403814140707254, 0.03303162404336035]</t>
         </is>
       </c>
       <c r="AS19" t="n">
-        <v>0.04206549999071285</v>
+        <v>0.02398078615311533</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.04206549999071285</v>
+        <v>0.01708386745303869</v>
       </c>
       <c r="AU19" t="n">
-        <v>0</v>
+        <v>0.008185957805698947</v>
       </c>
       <c r="AV19" t="n">
-        <v>5528</v>
+        <v>5570.934426229508</v>
       </c>
       <c r="AW19" t="n">
-        <v>6520</v>
+        <v>6738</v>
       </c>
       <c r="AX19" t="n">
-        <v>2261.528686530418</v>
+        <v>2249.054827143895</v>
       </c>
       <c r="AY19" t="n">
-        <v>2940</v>
+        <v>2858</v>
       </c>
       <c r="AZ19" t="n">
-        <v>7124</v>
+        <v>8250</v>
       </c>
       <c r="BA19" t="n">
-        <v>15516</v>
+        <v>15978</v>
       </c>
       <c r="BB19" t="n">
         <v>0.9093198992443325</v>
       </c>
       <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="n">
-        <v>0.818639798488665</v>
-      </c>
+      <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2290,76 +2258,74 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[5.509521400032099]</t>
+          <t>[1.990062495926395, 2.0385120450519025, 1.9718767881859094, 1.9676696779206395, 1.9838943700306118, 1.9601504099555314, 1.9566917910706252, 1.9664454341400415, 1.9976804158650339, 1.981494122883305, 2.0035219930578023, 1.991783675039187, 1.9674549819901586, 1.9695365771185607, 1.984659719048068, 2.014919781824574, 1.9772023109253496, 1.9696015829686075, 1.9940561840776354, 1.9631765820086002, 1.9614371058996767, 1.973807908827439, 1.98957002395764, 1.9882473561447114, 1.9925088349264115, 2.0064666010439396, 1.9652415998280048, 1.9728779720608145, 1.9762124130502343, 1.9966972130350769, 1.9770304372068495, 1.970492027932778, 2.029060624074191, 1.9875840558670461, 1.9749382832087576, 1.9801356429234147, 2.011263395892456, 2.0334658639039844, 1.9627171840984374, 2.000351507915184, 1.9647227248642594, 1.961701561929658, 1.990094630047679, 2.0258849430829287, 1.9942254829220474, 1.9820116269402206, 2.030890554888174, 1.9927948808763176, 1.990694684907794, 1.978123493026942]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.509521400032099</v>
+        <v>1.986232831487432</v>
       </c>
       <c r="G20" t="n">
-        <v>5.509521400032099</v>
+        <v>1.982952998485416</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.02070244444996288</v>
       </c>
       <c r="I20" t="n">
-        <v>6344671.840909091</v>
+        <v>6077770.362815467</v>
       </c>
       <c r="J20" t="n">
-        <v>6772123</v>
+        <v>6773401</v>
       </c>
       <c r="K20" t="n">
-        <v>1369665.136514561</v>
+        <v>1796808.664378121</v>
       </c>
       <c r="L20" t="n">
-        <v>2940</v>
+        <v>2858</v>
       </c>
       <c r="M20" t="n">
-        <v>10490364</v>
+        <v>10687419</v>
       </c>
       <c r="N20" t="n">
-        <v>11886958</v>
+        <v>11452543</v>
       </c>
       <c r="O20" t="n">
         <v>9</v>
       </c>
-      <c r="P20" t="n">
-        <v>8125</v>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.05081139999674633]</t>
+          <t>[0.005517089972272515, 0.005252934992313385, 0.0055297790095210075, 0.00659021595492959, 0.006808262085542083, 0.006692870054394007, 0.0068321379367262125, 0.006785449106246233, 0.006779941963031888, 0.0068107969127595425, 0.006878038169816136, 0.0067724192049354315, 0.006707643158733845, 0.0067348729353398085, 0.006777097005397081, 0.006755114067345858, 0.006702524842694402, 0.0068708970211446285, 0.006848803022876382, 0.007142782909795642, 0.006735244067385793, 0.00685155694372952, 0.006825027987360954, 0.006820310838520527, 0.006783234886825085, 0.006704328116029501, 0.006696205120533705, 0.006750517059117556, 0.006585069932043552, 0.006679781014099717, 0.006617828039452434, 0.006654832977801561, 0.006633772049099207, 0.006593161029741168, 0.006567663978785276, 0.006611630087718368, 0.006728324107825756, 0.00659990101121366, 0.006694623036310077, 0.00664876401424408, 0.006849396042525768, 0.006419329904019833, 0.006500920979306102, 0.006606530863791704, 0.0064834970980882645, 0.006600191118195653, 0.006587102077901363, 0.00651119789108634, 0.006486132042482495, 0.006523246178403497]</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>0.05081139999674633</v>
+        <v>0.006622779816389084</v>
       </c>
       <c r="T20" t="n">
-        <v>0.05081139999674633</v>
+        <v>0.006695414078421891</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.0003319367354032182</v>
       </c>
       <c r="V20" t="n">
-        <v>8526.75</v>
+        <v>2935.44</v>
       </c>
       <c r="W20" t="n">
-        <v>10371</v>
+        <v>2858</v>
       </c>
       <c r="X20" t="n">
-        <v>3724.604531580053</v>
+        <v>133.1361371694709</v>
       </c>
       <c r="Y20" t="n">
-        <v>2940</v>
+        <v>2858</v>
       </c>
       <c r="Z20" t="n">
-        <v>10425</v>
+        <v>3306</v>
       </c>
       <c r="AA20" t="n">
-        <v>64085</v>
+        <v>64715</v>
       </c>
       <c r="AB20" t="n">
         <v>9</v>
@@ -2372,35 +2338,35 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>[0.2523847999982536]</t>
+          <t>[0.13529366394504905, 0.10336651490069926, 0.101655974984169, 0.10163035686127841, 0.10094495001249015, 0.10154082300141454, 0.1002807158511132, 0.10256604687310755, 0.10054200701415539, 0.10018476285040379, 0.10007463698275387, 0.10074489004909992, 0.1013688649982214, 0.10156064108014107, 0.10049702995456755, 0.10212996415793896, 0.10121117788366973, 0.09985898481681943, 0.09982141782529652, 0.10422431002371013, 0.10122547089122236, 0.09999172389507294, 0.10001293499954045, 0.10024053510278463, 0.10053862002678216, 0.10164851392619312, 0.10442050290293992, 0.1005581698846072, 0.10027535702101886, 0.10119884996674955, 0.10082843597047031, 0.10023213201202452, 0.10149927902966738, 0.10051967296749353, 0.10118599981069565, 0.10042818589136004, 0.10689391708001494, 0.10197645495645702, 0.10058847512118518, 0.10023366403765976, 0.10149966995231807, 0.10035367496311665, 0.10008088615722954, 0.1027282711584121, 0.10034539201296866, 0.10104657290503383, 0.09939610096625984, 0.10030241683125496, 0.09995484701357782, 0.10087226098403335]</t>
         </is>
       </c>
       <c r="AF20" t="n">
-        <v>0.2523847999982536</v>
+        <v>0.1018114944500849</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.2523847999982536</v>
+        <v>0.1007866630097851</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>0.005015178053109383</v>
       </c>
       <c r="AI20" t="n">
-        <v>10117</v>
+        <v>9400.09090909091</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10578</v>
+        <v>10322</v>
       </c>
       <c r="AK20" t="n">
-        <v>2233.827941612172</v>
+        <v>2685.518253151203</v>
       </c>
       <c r="AL20" t="n">
-        <v>3100</v>
+        <v>2858</v>
       </c>
       <c r="AM20" t="n">
-        <v>11552</v>
+        <v>12354</v>
       </c>
       <c r="AN20" t="n">
-        <v>28596</v>
+        <v>28898</v>
       </c>
       <c r="AO20" t="n">
         <v>9</v>
@@ -2411,43 +2377,41 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>[0.035658599983435124]</t>
+          <t>[0.017193099949508905, 0.01697810785844922, 0.01695189904421568, 0.016796558862552047, 0.016903917072340846, 0.016894463915377855, 0.016846203012391925, 0.016848005121573806, 0.017842093016952276, 0.016793142072856426, 0.01846409309655428, 0.016832119086757302, 0.01683929213322699, 0.01718475902453065, 0.029837733134627342, 0.04242785112001002, 0.03934192005544901, 0.03712370013818145, 0.03387307398952544, 0.033166814828291535, 0.03330705501139164, 0.03351834090426564, 0.03336996887810528, 0.03386553097516298, 0.03337311604991555, 0.033184521831572056, 0.03371111094020307, 0.033258672105148435, 0.035715030040591955, 0.0332235109526664, 0.03331709187477827, 0.03369725099764764, 0.03383879200555384, 0.03354610502719879, 0.03302738699130714, 0.0331170919816941, 0.03328859806060791, 0.03320349007844925, 0.033388677053153515, 0.03157874685712159, 0.032236953964456916, 0.03313664998859167, 0.033156400080770254, 0.03284742683172226, 0.033166285837069154, 0.03314949106425047, 0.033148729940876365, 0.03310931893065572, 0.03338802698999643, 0.0332632299978286]</t>
         </is>
       </c>
       <c r="AS20" t="n">
-        <v>0.03565859998343512</v>
+        <v>0.02908542897552252</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.03565859998343512</v>
+        <v>0.0331613429589197</v>
       </c>
       <c r="AU20" t="n">
-        <v>0</v>
+        <v>0.007756942251556709</v>
       </c>
       <c r="AV20" t="n">
-        <v>5400</v>
+        <v>5771.303703703704</v>
       </c>
       <c r="AW20" t="n">
-        <v>5400</v>
+        <v>6770</v>
       </c>
       <c r="AX20" t="n">
-        <v>3071.671857474362</v>
+        <v>2234.511229984419</v>
       </c>
       <c r="AY20" t="n">
-        <v>3228</v>
+        <v>2858</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7572</v>
+        <v>8386</v>
       </c>
       <c r="BA20" t="n">
-        <v>15804</v>
+        <v>15978</v>
       </c>
       <c r="BB20" t="n">
         <v>0.87409200968523</v>
       </c>
       <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="n">
-        <v>0.7869249394673123</v>
-      </c>
+      <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2464,76 +2428,74 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[6.192961199965794]</t>
+          <t>[2.079033738002181, 2.014401613967493, 2.0359324770979583, 2.026478524086997, 2.013009339105338, 2.031887101009488, 2.047778942855075, 2.052377325948328, 2.031518707051873, 2.0597463180311024, 2.0396938561461866, 2.0085857121739537, 2.0266166960354894, 2.019300882006064, 2.042480014031753, 2.0137533769011497, 2.0080386989284307, 2.0248103190679103, 1.9995285777840763, 2.018228705972433, 2.0289684229064733, 2.021822524955496, 2.0060853930190206, 2.0094876061193645, 2.044471631059423, 2.0374393940437585, 2.0090762700419873, 2.0207147209439427, 2.062582954997197, 2.0123601839877665, 2.033370407996699, 2.02996737184003, 2.010605765040964, 2.0199549819808453, 2.0113134048879147, 2.0207004379481077, 2.066576038952917, 2.0261243057902902, 2.0733385630883276, 2.0150759040843695, 2.0182941230013967, 1.9934654110111296, 2.0182276230771095, 2.0550484089180827, 2.0230872670654207, 2.0436494208406657, 2.040737190982327, 2.0164122129790485, 2.017807441065088, 2.0190780421253294]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>6.192961199965794</v>
+        <v>2.027980887019075</v>
       </c>
       <c r="G21" t="n">
-        <v>6.192961199965794</v>
+        <v>2.022454896010458</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.01906053772139309</v>
       </c>
       <c r="I21" t="n">
-        <v>6370395.097959184</v>
+        <v>6104876.192333786</v>
       </c>
       <c r="J21" t="n">
-        <v>6779071</v>
+        <v>6774505</v>
       </c>
       <c r="K21" t="n">
-        <v>1354559.795420494</v>
+        <v>1774963.830742726</v>
       </c>
       <c r="L21" t="n">
-        <v>2940</v>
+        <v>2858</v>
       </c>
       <c r="M21" t="n">
-        <v>9864034</v>
+        <v>11398283</v>
       </c>
       <c r="N21" t="n">
-        <v>11892214</v>
+        <v>11452919</v>
       </c>
       <c r="O21" t="n">
         <v>10</v>
       </c>
-      <c r="P21" t="n">
-        <v>8525</v>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.030174900020938367]</t>
+          <t>[0.002826973097398877, 0.0033917969558387995, 0.005325262900441885, 0.005892541026696563, 0.0067135009448975325, 0.006736475042998791, 0.006866981042549014, 0.006768292980268598, 0.00677180802449584, 0.006958557991310954, 0.006823374889791012, 0.01095737493596971, 0.0106842250097543, 0.006729534827172756, 0.006793159991502762, 0.006715184077620506, 0.006734451977536082, 0.0066443870309740305, 0.006611016811802983, 0.007048431783914566, 0.006705278065055609, 0.006682314909994602, 0.006670956965535879, 0.006659882143139839, 0.006564036943018436, 0.006603667978197336, 0.006644909968599677, 0.006762194214388728, 0.006679409882053733, 0.006732268957421184, 0.006775133078917861, 0.0066378070041537285, 0.0030517589766532183, 0.0026680738665163517, 0.0026126920711249113, 0.0038009199779480696, 0.005195047939196229, 0.0060853599570691586, 0.006348864873871207, 0.00656513893045485, 0.006888211937621236, 0.006562334019690752, 0.006564477924257517, 0.006616756087169051, 0.006680941907688975, 0.006540731992572546, 0.006459040101617575, 0.007427971111610532, 0.008183151949197054, 0.006541452137753367]</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>0.03017490002093837</v>
+        <v>0.006378082344308495</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03017490002093837</v>
+        <v>0.006665419554337859</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.001551803180348219</v>
       </c>
       <c r="V21" t="n">
-        <v>7146.5</v>
+        <v>2940.56</v>
       </c>
       <c r="W21" t="n">
-        <v>7146.5</v>
+        <v>2858</v>
       </c>
       <c r="X21" t="n">
-        <v>5948.889350122425</v>
+        <v>145.7260723524288</v>
       </c>
       <c r="Y21" t="n">
-        <v>2940</v>
+        <v>2858</v>
       </c>
       <c r="Z21" t="n">
-        <v>11353</v>
+        <v>3402</v>
       </c>
       <c r="AA21" t="n">
-        <v>64437</v>
+        <v>64811</v>
       </c>
       <c r="AB21" t="n">
         <v>10</v>
@@ -2546,35 +2508,35 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>[0.25436349998926744]</t>
+          <t>[0.14258720399811864, 0.10594831989146769, 0.10585670103318989, 0.1073769589420408, 0.11412954889237881, 0.11328524304553866, 0.10473058512434363, 0.10447385092265904, 0.10426419810391963, 0.10548597807064652, 0.10426939488388598, 0.10500721097923815, 0.10464213392697275, 0.10432941582985222, 0.1045266108121723, 0.10452243406325579, 0.10619045095518231, 0.10529335704632103, 0.10690003400668502, 0.10498665017075837, 0.10475442092865705, 0.10490854387171566, 0.10553067293949425, 0.10610620607621968, 0.1058708040509373, 0.10525627387687564, 0.1059085289016366, 0.10655925516039133, 0.1058297511190176, 0.1049490428995341, 0.10572612704709172, 0.1046565358992666, 0.10436007101088762, 0.10466380603611469, 0.10643295501358807, 0.10525149595923722, 0.10541454004123807, 0.10568090993911028, 0.10677483608014882, 0.1052517460193485, 0.10500935395248234, 0.10593306599184871, 0.10562695888802409, 0.10809627594426274, 0.10554504604078829, 0.10666205896995962, 0.10614252113737166, 0.10653507802635431, 0.10529010416939855, 0.10468809097073972]</t>
         </is>
       </c>
       <c r="AF21" t="n">
-        <v>0.2543634999892674</v>
+        <v>0.1065644271532074</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.2543634999892674</v>
+        <v>0.1055083255050704</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>0.005512027984660117</v>
       </c>
       <c r="AI21" t="n">
-        <v>12105.71428571429</v>
+        <v>10835.21546961326</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12794</v>
+        <v>11922</v>
       </c>
       <c r="AK21" t="n">
-        <v>2690.495505652084</v>
+        <v>3208.902205768605</v>
       </c>
       <c r="AL21" t="n">
-        <v>2940</v>
+        <v>2858</v>
       </c>
       <c r="AM21" t="n">
-        <v>13728</v>
+        <v>14106</v>
       </c>
       <c r="AN21" t="n">
-        <v>30884</v>
+        <v>30498</v>
       </c>
       <c r="AO21" t="n">
         <v>10</v>
@@ -2585,43 +2547,879 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>[0.04413539997767657]</t>
+          <t>[0.01657277997583151, 0.01645765989087522, 0.01644395897164941, 0.016501005040481687, 0.017597095109522343, 0.016765660839155316, 0.016625942196696997, 0.01764180394820869, 0.01641709916293621, 0.01654412900097668, 0.016606882913038135, 0.016511878930032253, 0.016476118005812168, 0.016411419957876205, 0.017399658914655447, 0.016579041024670005, 0.01658570091240108, 0.016296016983687878, 0.016561544965952635, 0.017464436125010252, 0.01651417394168675, 0.017522702924907207, 0.016571701038628817, 0.016852399799972773, 0.016583716962486506, 0.016416969010606408, 0.01660249591805041, 0.03669058089144528, 0.04082257696427405, 0.032994146924465895, 0.03281872300431132, 0.03288006503134966, 0.04045210196636617, 0.04115210007876158, 0.03921640291810036, 0.03293260419741273, 0.032484462950378656, 0.03273030091077089, 0.032521548913791776, 0.032417766051366925, 0.032369913067668676, 0.03233158402144909, 0.03259757300838828, 0.03228995203971863, 0.03275803290307522, 0.032796530053019524, 0.03307807189412415, 0.03316696616820991, 0.032909669913351536, 0.03292135801166296]</t>
         </is>
       </c>
       <c r="AS21" t="n">
-        <v>0.04413539997767657</v>
+        <v>0.02477714048698544</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.04413539997767657</v>
+        <v>0.01755989901721478</v>
       </c>
       <c r="AU21" t="n">
-        <v>0</v>
+        <v>0.009051871196527948</v>
       </c>
       <c r="AV21" t="n">
-        <v>6160</v>
+        <v>6483.886178861789</v>
       </c>
       <c r="AW21" t="n">
-        <v>6160</v>
+        <v>8274</v>
       </c>
       <c r="AX21" t="n">
-        <v>4327.493500861671</v>
+        <v>2988.995936472653</v>
       </c>
       <c r="AY21" t="n">
-        <v>3100</v>
+        <v>2858</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9220</v>
+        <v>9922</v>
       </c>
       <c r="BA21" t="n">
-        <v>17276</v>
+        <v>17674</v>
       </c>
       <c r="BB21" t="n">
         <v>0.8636363636363636</v>
       </c>
       <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="n">
-        <v>0.8157894736842105</v>
-      </c>
+      <c r="BD21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B22" t="n">
+        <v>11</v>
+      </c>
+      <c r="C22" t="n">
+        <v>10450</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[2.0722183489706367, 2.0617129309102893, 2.0813761281315237, 2.049490340054035, 2.04035578481853, 2.047709723934531, 2.0704884759616107, 2.037440557964146, 2.062840523896739, 2.0685608999338, 2.0347778010182083, 2.03747264505364, 2.0414863240439445, 2.0694746850058436, 2.05813718191348, 2.0641542188823223, 2.108585969079286, 2.0484664631076157, 2.0589089549612254, 2.0483043680433184, 2.0720417250413448, 2.037334483815357, 2.0430694099050015, 2.1448227670043707, 2.037279431009665, 2.0440924600698054, 2.072356994030997, 2.0846330439671874, 2.0611184700392187, 2.065282039809972, 2.078453231137246, 2.0711992010474205, 2.0475452560931444, 2.0717651161830872, 2.083875265903771, 2.063506669830531, 2.061542650917545, 2.101430317154154, 2.05202195700258, 2.0632918179035187, 2.0580666051246226, 2.089012023061514, 2.05187918106094, 2.034465730888769, 2.0680097609292716, 2.0491678819525987, 2.057029800955206, 2.0539633189328015, 2.059790564002469, 2.044773490866646]</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.06169565982651</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.060454517020844</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.02065110371748677</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6114853.516977363</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6774697</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1761382.460041086</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M22" t="n">
+        <v>11398155</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11452394</v>
+      </c>
+      <c r="O22" t="n">
+        <v>11</v>
+      </c>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>[0.002862136112526059, 0.005197311053052545, 0.005742116831243038, 0.005283518927171826, 0.006748934043571353, 0.0066589489579200745, 0.006768472027033567, 0.006744627840816975, 0.00676885386928916, 0.006792949978262186, 0.006581461988389492, 0.006717346142977476, 0.006715754978358746, 0.006823164876550436, 0.006727932021021843, 0.006750766886398196, 0.006773039931431413, 0.006926400121301413, 0.006644678069278598, 0.007054231129586697, 0.006722714984789491, 0.006777727045118809, 0.006762914825230837, 0.006820109905675054, 0.006701113190501928, 0.006609335076063871, 0.006614582845941186, 0.006697457050904632, 0.006744799204170704, 0.006598237901926041, 0.00662634102627635, 0.006741232005879283, 0.006722124991938472, 0.0067013930529356, 0.006632068194448948, 0.006796585163101554, 0.006730066146701574, 0.0066397099290043116, 0.006591829005628824, 0.006719609024003148, 0.007066808873787522, 0.006629033945500851, 0.006551278056576848, 0.006549767218530178, 0.006554923951625824, 0.006539041176438332, 0.006528223864734173, 0.006738369120284915, 0.006540303118526936, 0.006481694057583809]</t>
+        </is>
+      </c>
+      <c r="S22" t="n">
+        <v>0.006548240794800222</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.006708574015647173</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0.0006296819773390321</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2935.44</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2858</v>
+      </c>
+      <c r="X22" t="n">
+        <v>126.7019900621702</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>3306</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>64715</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>8975</v>
+      </c>
+      <c r="AD22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="inlineStr">
+        <is>
+          <t>[0.16323267994448543, 0.10794899403117597, 0.10682013304904103, 0.10693372203968465, 0.1087033140938729, 0.10701326187700033, 0.10746452701278031, 0.10681941290386021, 0.10864980285987258, 0.10666210693307221, 0.10752232396043837, 0.10731132794171572, 0.10825404990464449, 0.10718668298795819, 0.12333318614400923, 0.10731146996840835, 0.10650951997376978, 0.10888154082931578, 0.10755401104688644, 0.10728519107215106, 0.10734405810944736, 0.107047253055498, 0.1069099570158869, 0.10700919688679278, 0.1067179599776864, 0.10724318609572947, 0.10705262096598744, 0.10756883397698402, 0.1065494678914547, 0.10682733496651053, 0.10666243708692491, 0.10638995910994709, 0.10703010694123805, 0.11895641288720071, 0.10715441405773163, 0.10672468109987676, 0.10693908086977899, 0.1086898420471698, 0.10776293487288058, 0.10860987310297787, 0.10729568591341376, 0.10770642082206905, 0.10755226900801063, 0.10703749815002084, 0.10724171507172287, 0.10761158913373947, 0.10662562283687294, 0.10734122386202216, 0.1074112681671977, 0.10759508400224149]</t>
+        </is>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.1090001049311832</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.1072904384927824</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.008323240239924737</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>9549.017369727047</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>10322</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2555.730353343448</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>12474</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>28898</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="inlineStr">
+        <is>
+          <t>[0.016599012073129416, 0.01669730804860592, 0.0166884649079293, 0.01667377119883895, 0.016819801880046725, 0.01649977220222354, 0.016606612829491496, 0.017547982977703214, 0.0165730610024184, 0.016912890831008554, 0.01637456682510674, 0.016660713125020266, 0.01663259114138782, 0.01645244099199772, 0.01635142811574042, 0.016632250975817442, 0.016491179121658206, 0.016681033186614513, 0.017541602021083236, 0.016559321200475097, 0.017629101872444153, 0.016381846042349935, 0.016372933983802795, 0.01687223999761045, 0.016462147003039718, 0.01655210996977985, 0.016577278962358832, 0.017486780881881714, 0.01651714905165136, 0.01687316200695932, 0.01664051180705428, 0.016629346879199147, 0.016452671959996223, 0.01641066698357463, 0.016431220108643174, 0.01649941294454038, 0.017015874851495028, 0.016328284982591867, 0.016505641164258122, 0.016673962818458676, 0.01667700707912445, 0.016461895080283284, 0.01655140006914735, 0.017533149104565382, 0.01644286699593067, 0.01707789907231927, 0.016423479188233614, 0.016466903034597635, 0.016648204997181892, 0.01646236702799797]</t>
+        </is>
+      </c>
+      <c r="AS22" t="n">
+        <v>0.01668106641154736</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0.01658814551774412</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0.0003350252644956721</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>4959.68</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>4806</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>2074.108443635384</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>8306</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>16234</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0.8588516746411483</v>
+      </c>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10400</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[2.1692539609503, 2.2022985441144556, 2.1632197580765933, 2.253959587076679, 2.175527252955362, 2.2024484870489687, 2.16153825703077, 2.157932628877461, 2.1904266469646245, 2.1866196179762483, 2.1721429128665477, 2.175081924069673, 2.194342658156529, 2.162066967925057, 2.1722093210555613, 2.1964943578932434, 2.1841830159537494, 2.141361715970561, 2.160825847182423, 2.2012568269856274, 2.17372409789823, 2.1774523579515517, 2.2050938210450113, 2.177118788007647, 2.19092923309654, 2.181584140053019, 2.189387775026262, 2.1695848170202225, 2.171445321990177, 2.192396526923403, 2.211504095001146, 2.1860336519312114, 2.1489067780785263, 2.1851457331795245, 2.174109850078821, 2.1765862959437072, 2.1993583091534674, 2.169679265934974, 2.1821575860958546, 2.1809334349818528, 2.1855868299026042, 2.1657736371271312, 2.1443004792090505, 2.192254211055115, 2.1933640418574214, 2.1511873970739543, 2.17953512002714, 2.174130647908896, 2.1773004319984466, 2.179225123953074]</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.180179601772688</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.178338740952313</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0189720641651551</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6168819.916380655</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6774633</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1704747.886894522</v>
+      </c>
+      <c r="L23" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M23" t="n">
+        <v>11452355</v>
+      </c>
+      <c r="N23" t="n">
+        <v>11452903</v>
+      </c>
+      <c r="O23" t="n">
+        <v>12</v>
+      </c>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>[0.004266888136044145, 0.00547154201194644, 0.005426954943686724, 0.006107894936576486, 0.006821491988375783, 0.006748932879418135, 0.006756746210157871, 0.006729685002937913, 0.006654972210526466, 0.006642453838139772, 0.006702264072373509, 0.006802113028243184, 0.0067569660022854805, 0.006614051992073655, 0.0067608419340103865, 0.006716555915772915, 0.006708013126626611, 0.0066644069738686085, 0.006705407984554768, 0.006987129803746939, 0.00675841816700995, 0.0069531400222331285, 0.006696894997730851, 0.006736766081303358, 0.006784988101571798, 0.006613919977098703, 0.006627280963584781, 0.006601431872695684, 0.006667391862720251, 0.006732068955898285, 0.006702854996547103, 0.006679408950731158, 0.006696866126731038, 0.006587201030924916, 0.006628092145547271, 0.006620993139222264, 0.0066363459918648005, 0.00661313091404736, 0.006623635999858379, 0.006553431041538715, 0.007011476904153824, 0.00655917008407414, 0.006562204100191593, 0.006598098902031779, 0.006564038107171655, 0.006520400056615472, 0.0071865778882056475, 0.007233469048514962, 0.007242713123559952, 0.007208592025563121]</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>0.006624926291406155</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.006688137538731098</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.0004670707241704891</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2945.68</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2858</v>
+      </c>
+      <c r="X23" t="n">
+        <v>136.6558973689547</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3306</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>64715</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8400</v>
+      </c>
+      <c r="AD23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>[0.1469789850525558, 0.10799929802305996, 0.10873048193752766, 0.10949511802755296, 0.11018186598084867, 0.1088657749351114, 0.10931542911566794, 0.10947207198478281, 0.10942781693302095, 0.1110613530036062, 0.10861504008062184, 0.10910910903476179, 0.11096749105490744, 0.10959687898866832, 0.10938308900222182, 0.10871857404708862, 0.10865105502307415, 0.1097898178268224, 0.10868116887286305, 0.10936285788193345, 0.10930621600709856, 0.10927325487136841, 0.10951448697596788, 0.10949384397827089, 0.10861963499337435, 0.10908459313213825, 0.1122962108347565, 0.10969827184453607, 0.1095777009613812, 0.10979478596709669, 0.11187991802580655, 0.11048852512612939, 0.10883282613940537, 0.10870995209552348, 0.11016119387932122, 0.10861677303910255, 0.110117670847103, 0.11016162484884262, 0.11683167098090053, 0.1086325861979276, 0.10799543303437531, 0.10838970285840333, 0.10890847910195589, 0.10926555399782956, 0.10827989899553359, 0.10852347197942436, 0.1086441338993609, 0.10864631808362901, 0.11008447990752757, 0.1110878309700638]</t>
+        </is>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.110306406407617</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.1093391434988007</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.005472518820247432</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>9522.594527363184</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>10322</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>2580.901056146062</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>19778</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>28994</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>[0.016896235989406705, 0.016550977947190404, 0.016610267106443644, 0.036670461064204574, 0.038649332942441106, 0.033378883032128215, 0.03944572410546243, 0.041890565073117614, 0.04160985606722534, 0.03719742898829281, 0.032300147926434875, 0.03310623415745795, 0.03259945404715836, 0.03280026512220502, 0.032454699045047164, 0.03249212400987744, 0.032721559051424265, 0.03325391607359052, 0.03252848004922271, 0.040195696987211704, 0.041781170992180705, 0.03930064802989364, 0.032748298021033406, 0.03260831884108484, 0.03258001687936485, 0.03262928104959428, 0.03336313902400434, 0.03351994510740042, 0.032371783163398504, 0.032937479903921485, 0.03249080292880535, 0.03278533183038235, 0.03279534890316427, 0.03250378300435841, 0.03257661103270948, 0.032887215027585626, 0.03243892500177026, 0.032489300007000566, 0.032460927963256836, 0.032648619962856174, 0.03313126205466688, 0.03321717097423971, 0.03270112886093557, 0.032563231186941266, 0.032148479018360376, 0.03260493301786482, 0.032536721089854836, 0.032936290139332414, 0.03669933299534023, 0.033673373982310295]</t>
+        </is>
+      </c>
+      <c r="AS23" t="n">
+        <v>0.0331096235755831</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0.03273492853622884</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0.005040019267705229</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>5958.054794520548</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>7090</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>2231.886240398534</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>8322</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>15978</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0.8076923076923077</v>
+      </c>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13</v>
+      </c>
+      <c r="C24" t="n">
+        <v>9900</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[4.080532104941085, 4.001585700083524, 4.0037989928387105, 3.9985073499847203, 4.018640901893377, 3.9962388719432056, 4.024927972117439, 4.044471619883552, 4.004603191046044, 4.019817617954686, 3.9999216699507087, 4.038028341019526, 4.026513329008594, 3.9994521350599825, 4.022232518065721, 3.9984410300385207, 4.007676376029849, 4.00460258196108, 4.058790908195078, 3.9939990448765457, 4.030594293028116, 4.056381687987596, 3.9869713108055294, 4.005311809014529, 4.005231999093667, 4.022651677019894, 4.005997000960633, 4.01697168010287, 4.031387903029099, 4.008403842104599, 4.000375983072445, 4.013291177107021, 4.027825947152451, 4.0193410138599575, 3.995259328978136, 4.019118459895253, 4.007511550094932, 3.996486973017454, 4.0195844219997525, 4.023912874050438, 4.004963122075424, 4.005656950175762, 4.0318717050831765, 4.008327924879268, 4.016976652899757, 4.0156232989393175, 4.0278938978444785, 3.995948721189052, 3.996880966005847, 4.062487825984135]</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4.016040485086851</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4.01084750960581</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.01947605846616392</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6516283.871480569</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6908964</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1282784.303417922</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M24" t="n">
+        <v>11452678</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11452742</v>
+      </c>
+      <c r="O24" t="n">
+        <v>13</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>[0.002961923833936453, 0.003328171791508794, 0.005347244907170534, 0.005298712989315391, 0.0065100048668682575, 0.006705758860334754, 0.006660812068730593, 0.006681783124804497, 0.006717456970363855, 0.006658068159595132, 0.006748934043571353, 0.006809354992583394, 0.007421409944072366, 0.007332177134230733, 0.00691739609465003, 0.006714982911944389, 0.00672335596755147, 0.0066968160681426525, 0.006740211043506861, 0.007251625880599022, 0.006794542074203491, 0.006798178190365434, 0.006920831045135856, 0.006668302929028869, 0.006765940925106406, 0.006725708954036236, 0.0066939720418304205, 0.006761312950402498, 0.00671554496511817, 0.0067685439717024565, 0.006728854030370712, 0.006613611942157149, 0.0066513679921627045, 0.006745449034497142, 0.006716455798596144, 0.006751707987859845, 0.006566921016201377, 0.006718788994476199, 0.006659488892182708, 0.006602713838219643, 0.006764166988432407, 0.006599570857360959, 0.006621572887524962, 0.006620280910283327, 0.006765478057786822, 0.006621913053095341, 0.00656595011241734, 0.006592829944565892, 0.006496836896985769, 0.0066221540328115225]</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>0.006537303859367967</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0.006710370886139572</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.0007743562158845805</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2940.56</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2858</v>
+      </c>
+      <c r="X24" t="n">
+        <v>128.6660223451493</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3306</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>64715</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>[0.14956226106733084, 0.11241991515271366, 0.10904809809289873, 0.11135479877702892, 0.10938787483610213, 0.11195366689935327, 0.11627694894559681, 0.10874158912338316, 0.1090357678476721, 0.10899021103978157, 0.10908943903632462, 0.10991090792231262, 0.10980664193630219, 0.11042117001488805, 0.11044692085124552, 0.11104165110737085, 0.10988429794088006, 0.10850598616525531, 0.10878841881640255, 0.10950476094149053, 0.1102633960545063, 0.11081073596142232, 0.10971128009259701, 0.11178303183987737, 0.10917652887292206, 0.10976723302155733, 0.10881060198880732, 0.10907659982331097, 0.1085873069241643, 0.10865928488783538, 0.10942338895983994, 0.10972112487070262, 0.1146245941054076, 0.10869300412014127, 0.10911398497410119, 0.10940850712358952, 0.1088778730481863, 0.10985109908506274, 0.10920292907394469, 0.10844345204532146, 0.10897506796754897, 0.11077805701643229, 0.10938179702498019, 0.10855142399668694, 0.10869486792944372, 0.10933309490792453, 0.10887138196267188, 0.10915454593487084, 0.10876029683277011, 0.10907084099017084]</t>
+        </is>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.1105949731590226</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.1093574459664524</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.005820311797122987</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>10904.06965174129</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>11862</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>3061.392575914549</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>15178</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>30914</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>[0.016917465953156352, 0.016524337930604815, 0.01667764806188643, 0.016558289993554354, 0.017100892029702663, 0.016817277064546943, 0.016558569855988026, 0.016553783090785146, 0.016568866092711687, 0.01654741307720542, 0.016572811175137758, 0.016543716890737414, 0.01678012008778751, 0.01784863183274865, 0.01671127788722515, 0.0180996370036155, 0.016474904026836157, 0.01742866402491927, 0.01655455492436886, 0.016422016080468893, 0.01654528919607401, 0.016380172921344638, 0.016570127103477716, 0.016612399835139513, 0.016983186127617955, 0.016595824854448438, 0.016639549983665347, 0.01663296204060316, 0.016799219185486436, 0.01703312899917364, 0.016624028095975518, 0.017035463824868202, 0.016552231973037124, 0.016605342039838433, 0.01648424891754985, 0.01637755800038576, 0.018705643946304917, 0.03818718087859452, 0.03929153294302523, 0.03251566900871694, 0.03278620610944927, 0.03247253503650427, 0.032625995110720396, 0.03249400784261525, 0.03280294011346996, 0.03284424217417836, 0.032958179945126176, 0.033025703160092235, 0.032992443069815636, 0.03996476298198104]</t>
+        </is>
+      </c>
+      <c r="AS24" t="n">
+        <v>0.02132797305006534</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0.01674569898750633</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0.007861656611146486</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>6221.41592920354</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>8274</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>2981.726266915765</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>9850</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>17578</v>
+      </c>
+      <c r="BB24" t="inlineStr"/>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B25" t="n">
+        <v>14</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9225</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[3.1053050479386, 3.105085549876094, 3.061645044013858, 3.098726467927918, 3.066159781999886, 3.0586433080025017, 3.1050058170221746, 3.080689001828432, 3.056779355974868, 3.091063703177497, 3.108235249063, 3.053054589079693, 3.0605557090602815, 3.096813069889322, 3.078739359974861, 3.0742232280317694, 3.068143797107041, 3.0920974670443684, 3.0638602329418063, 3.079081510892138, 3.0835730340331793, 3.1007507918402553, 3.0729157289024442, 3.1027273810468614, 3.0956855369731784, 3.100956087000668, 3.0719667058438063, 3.1071159390266985, 3.100985610857606, 3.067816561087966, 3.085684903198853, 3.0954036209732294, 3.054477492114529, 3.053409392014146, 3.1061283668968827, 3.0706340780016035, 3.091007619164884, 3.0735444251913577, 3.068207203177735, 3.0609128531068563, 3.078735184855759, 3.0756876228842884, 3.11139808408916, 3.0666960990056396, 3.0563621199689806, 3.1134838650468737, 3.077166293049231, 3.078508493024856, 3.1374954220373183, 3.0830812989734113]</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>3.082928502084687</v>
+      </c>
+      <c r="G25" t="n">
+        <v>3.0789104354335</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.01946620621534004</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6398379.71795054</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6779980</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1456310.506534592</v>
+      </c>
+      <c r="L25" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M25" t="n">
+        <v>11398190</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11452738</v>
+      </c>
+      <c r="O25" t="n">
+        <v>14</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>[0.004296403145417571, 0.005336510017514229, 0.005288257030770183, 0.005324512021616101, 0.006530727026984096, 0.006838968023657799, 0.006817495916038752, 0.006857656873762608, 0.0066685539204627275, 0.006695783929899335, 0.00667190901003778, 0.006934380857273936, 0.006741151912137866, 0.0067598409950733185, 0.006687061861157417, 0.00676763104274869, 0.006911427015438676, 0.006684826919808984, 0.0066706768702715635, 0.007041841978207231, 0.006755172973498702, 0.006638387916609645, 0.0067303848918527365, 0.006725700106471777, 0.006855473155155778, 0.00672750105150044, 0.006660412065684795, 0.006670516915619373, 0.006528893951326609, 0.00663818814791739, 0.006828082026913762, 0.006650066003203392, 0.006671948824077845, 0.006667852867394686, 0.006673922063782811, 0.006850115023553371, 0.006610366981476545, 0.006600632099434733, 0.006585658993571997, 0.006545990006998181, 0.006853510858491063, 0.006562225054949522, 0.006526079960167408, 0.006506600882858038, 0.006686609936878085, 0.006509526167064905, 0.0065454288851469755, 0.006620791973546147, 0.0066889740992337465, 0.006659880047664046]</t>
+        </is>
+      </c>
+      <c r="S25" t="n">
+        <v>0.006566010206006468</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.006671292940154672</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0.0004799192373013352</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2935.44</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2858</v>
+      </c>
+      <c r="X25" t="n">
+        <v>126.7019900621702</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3306</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>64715</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>[0.15028123604133725, 0.11114498600363731, 0.11774277407675982, 0.10940242605283856, 0.10917265200987458, 0.10974746313877404, 0.1093356260098517, 0.11101990891620517, 0.10882795602083206, 0.10888107493519783, 0.11061128694564104, 0.10972492001019418, 0.11080056009814143, 0.10953335394151509, 0.10928398906253278, 0.10973129910416901, 0.10852131806313992, 0.10920401895418763, 0.11041917884722352, 0.12452518683858216, 0.10830357996746898, 0.10911188297905028, 0.10887718014419079, 0.1099089840427041, 0.10920696496032178, 0.10822101891972125, 0.10935039795003831, 0.10979055613279343, 0.10893039009533823, 0.108325565000996, 0.1090520832221955, 0.1091101800557226, 0.10834562499076128, 0.10937959118746221, 0.10932085500098765, 0.10835507791489363, 0.10850080708041787, 0.10925559792667627, 0.10977486497722566, 0.10998854297213256, 0.10888300905935466, 0.10939783905632794, 0.11001112801022828, 0.10961387306451797, 0.10942897503264248, 0.10816975100897253, 0.10924642207100987, 0.11847844487056136, 0.10895311390049756, 0.1089758281596005]</t>
+        </is>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.1108035868965089</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.1093282405054197</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.006351347485056</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>10933.55086848635</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11922</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>3114.778431267391</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>23626</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>30498</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>[0.016824507853016257, 0.01648542913608253, 0.016655446030199528, 0.01657142909243703, 0.01651579514145851, 0.017064417013898492, 0.01658957591280341, 0.017762092174962163, 0.016611599130555987, 0.01648978586308658, 0.016490397974848747, 0.016463989159092307, 0.016355706844478846, 0.016628854908049107, 0.01754302391782403, 0.016737958882004023, 0.018114588921889663, 0.016340824076905847, 0.016483095940202475, 0.016684128204360604, 0.016626181080937386, 0.01668561017140746, 0.016476596938446164, 0.017200840869918466, 0.01647602580487728, 0.01683328114449978, 0.016442636027932167, 0.01664139307104051, 0.016527143074199557, 0.016694504069164395, 0.01701464201323688, 0.016648793825879693, 0.016927892109379172, 0.016683727968484163, 0.01657034899108112, 0.016481464030221105, 0.01657795812934637, 0.016917817993089557, 0.01656456897035241, 0.0177101141307503, 0.016602444928139448, 0.016597619047388434, 0.016445621149614453, 0.016380975022912025, 0.016424389090389013, 0.016551728826016188, 0.01712065190076828, 0.01650012214668095, 0.017019640188664198, 0.016682066023349762]</t>
+        </is>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.01672878889832646</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0.01660702202934772</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0.0003754577043357943</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>5579.44</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4586</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>2728.231722141096</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>9490</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>17578</v>
+      </c>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B26" t="n">
+        <v>15</v>
+      </c>
+      <c r="C26" t="n">
+        <v>6925</v>
+      </c>
+      <c r="D26" t="b">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[10.728446900146082, 10.78272393392399, 10.79386662086472, 10.749125777045265, 10.745798081159592, 10.79278333997354, 10.754520321963355, 10.746871380135417, 10.756128842942417, 10.796360762091354, 10.763111791806296, 10.743889130884781, 10.773480730131269, 10.735635215882212, 10.726280461996794, 10.741123066050932, 10.761869742069393, 10.73926998092793, 10.768287807004526, 10.764503521844745, 10.862027833005413, 10.751646352931857, 10.807928601978347, 10.753487379057333, 10.725607465952635, 10.802592775085941, 10.742452275007963, 10.760662554996088, 10.722132130991668, 10.755555436946452, 10.756060417974368, 10.787759914062917, 10.744621831225231, 10.767089515924454, 10.762268406106159, 10.799732801970094, 10.76181456213817, 10.758029611082748, 10.739631546195596, 10.759975460125133, 10.77356394706294, 10.761753733968362, 10.732649764046073, 10.744517690036446, 10.786428324878216, 10.776177661959082, 10.780932660913095, 10.718563243979588, 10.741185192018747, 10.738624599995092]</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>10.76079102200922</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10.75707922701258</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.02648831190405187</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6765807.676106908</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6917116</v>
+      </c>
+      <c r="K26" t="n">
+        <v>796302.8470309628</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2858</v>
+      </c>
+      <c r="M26" t="n">
+        <v>11194422</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11452738</v>
+      </c>
+      <c r="O26" t="n">
+        <v>15</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>[0.003003467805683613, 0.0027002529241144657, 0.003480000887066126, 0.005401628091931343, 0.005459765903651714, 0.005330152111127973, 0.006653783144429326, 0.006673743017017841, 0.006836818065494299, 0.006930157076567411, 0.006714644841849804, 0.006705691805109382, 0.006730498978868127, 0.006736185867339373, 0.006747022969648242, 0.0067404829896986485, 0.006791380001232028, 0.006732362089678645, 0.006671488983556628, 0.007427721982821822, 0.006720593897625804, 0.006675075041130185, 0.006619621999561787, 0.006761044031009078, 0.006749958032742143, 0.006583779118955135, 0.006553594022989273, 0.006603969028219581, 0.006648215930908918, 0.006669388152658939, 0.006621005013585091, 0.006685610860586166, 0.0066205840557813644, 0.006537057925015688, 0.006563408998772502, 0.006749577121809125, 0.00659732916392386, 0.006606122013181448, 0.006694403942674398, 0.006678299978375435, 0.00680975615978241, 0.006549688056111336, 0.00648085493594408, 0.0065993128810077906, 0.006536950124427676, 0.006574764149263501, 0.0065660018008202314, 0.006541425129398704, 0.006561694899573922, 0.006519664078950882]</t>
+        </is>
+      </c>
+      <c r="S26" t="n">
+        <v>0.006382920001633465</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.006634610472247005</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.0009158070033320714</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2930.32</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2858</v>
+      </c>
+      <c r="X26" t="n">
+        <v>124.4923471133705</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2858</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>3306</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>64715</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>[0.15228984388522804, 0.13139928109012544, 0.11055901483632624, 0.10871460498310626, 0.10888195387087762, 0.10955680487677455, 0.1096066611353308, 0.11034365301020443, 0.10877133696340024, 0.1106977229937911, 0.11064952099695802, 0.10952347400598228, 0.10935976984910667, 0.1096928371116519, 0.11900763702578843, 0.10920887487009168, 0.1270331139676273, 0.10877200891263783, 0.10874384688213468, 0.10804933798499405, 0.10966702899895608, 0.10914490791037679, 0.10919329011812806, 0.10914714098908007, 0.12290437193587422, 0.1101207579486072, 0.1095667090266943, 0.10983221721835434, 0.10890236496925354, 0.11026533506810665, 0.1087122499011457, 0.1086381480563432, 0.1099388268776238, 0.10995193617418408, 0.11008233088068664, 0.11019589100033045, 0.11038671806454659, 0.10953796608373523, 0.11017051292583346, 0.10970895108766854, 0.11066267010755837, 0.11001654295250773, 0.10926093114539981, 0.1095356319565326, 0.10918646003119648, 0.11079274490475655, 0.11090131686069071, 0.10901276883669198, 0.10990653792396188, 0.10992241092026234]</t>
+        </is>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.1117225394025445</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.1097008940996602</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.007370931541919467</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>9505.012345679012</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>10314</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>2519.602540623916</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>12018</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>28994</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>[0.016927808988839388, 0.016813005786389112, 0.016703784000128508, 0.016505044884979725, 0.01649826392531395, 0.016360679175704718, 0.017941545927897096, 0.016440960112959146, 0.017302017891779542, 0.01646953192539513, 0.01654709898866713, 0.016566766891628504, 0.022211210103705525, 0.04064919799566269, 0.03847778798080981, 0.033043680945411325, 0.03305640001781285, 0.03220736887305975, 0.03268307191319764, 0.033091172110289335, 0.0330739370547235, 0.03318710485473275, 0.032909780042245984, 0.032802568981423974, 0.03316134703345597, 0.03247816418297589, 0.03330395999364555, 0.03324351995252073, 0.032692594919353724, 0.03278506291098893, 0.03300465294159949, 0.03269405709579587, 0.032848147908225656, 0.03337334399111569, 0.03261706093326211, 0.03282560291700065, 0.032833765959367156, 0.03284584521315992, 0.03283945610746741, 0.03310240781866014, 0.03282325086183846, 0.032867315923795104, 0.032857481855899096, 0.032667878083884716, 0.03233479894697666, 0.03285753191448748, 0.03267918503843248, 0.03306325105950236, 0.03358330903574824, 0.033436258090659976]</t>
+        </is>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.02908578080125153</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0.03282442688941956</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0.007299188246915309</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>5833.642335766423</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>6898</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>2254.338685269005</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>2858</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>8410</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>15978</v>
+      </c>
+      <c r="BB26" t="inlineStr"/>
+      <c r="BC26" t="inlineStr"/>
+      <c r="BD26" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/reports/xlsx/benchmark_constraint_must_schedule_1.xlsx
+++ b/reports/xlsx/benchmark_constraint_must_schedule_1.xlsx
@@ -874,35 +874,35 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.6577436339575797, 0.6600915510207415, 0.6913816549349576, 0.6582771921530366, 0.6560026449151337, 0.682824038900435, 0.662182531086728, 0.6622890578582883, 0.6649345098994672, 0.6859164370689541, 0.6665972978807986, 0.6682412009686232, 0.6800521661061794, 0.6542489791754633, 0.6566605081316084, 0.6554937609471381, 0.6956007280386984, 0.6679770241025835, 0.6678324160166085, 0.6896289750002325, 0.6614662718493491, 0.6609716829843819, 0.666538777993992, 0.6953135840594769, 0.6597522969823331, 0.6553290521260351, 0.6853313581086695, 0.6709879778791219, 0.6593005780596286, 0.6735097640193999, 0.6919932011514902, 0.6618148230481893, 0.656979450955987, 0.6873263220768422, 0.6635567820630968, 0.665402262005955, 0.6627741570118815, 0.7065236568450928, 0.6608850981574506, 0.660843824967742, 0.6871388191357255, 0.6619046838022768, 0.6695758199784905, 0.666194565827027, 0.6960713658481836, 0.6753704671282321, 0.6629579300060868, 0.6960902230348438, 0.6751020539086312, 0.6589794610626996]</t>
+          <t>[0.6688278599176556, 0.6622628630138934, 0.6920628589577973, 0.66539266705513, 0.6584929688833654, 0.6877467778977007, 0.6615235160570592, 0.6656332858838141, 0.6613367740064859, 0.6899610799737275, 0.6600353170651942, 0.665341880870983, 0.6918807451147586, 0.6691239308565855, 0.6537225570064038, 0.6580899960827082, 0.6880162099841982, 0.6599178309552372, 0.6577552920207381, 0.6867835537996143, 0.6670313191134483, 0.6668436850886792, 0.6674562238622457, 0.7095569120720029, 0.6617882989812642, 0.661039168946445, 0.6914754670578986, 0.6616658458951861, 0.6728344128932804, 0.6575340621639043, 0.6845801749732345, 0.661293137120083, 0.6633290338795632, 0.6953004421666265, 0.6661735828965902, 0.656250508967787, 0.6525592938996851, 0.6856060000136495, 0.6540623039472848, 0.6585092600435019, 0.6780024978797883, 0.6582438840996474, 0.6591912799049169, 0.6571014309301972, 0.689777062041685, 0.6536610620096326, 0.6558525920845568, 0.6840069461613894, 0.6582147779408842, 0.655416770838201]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.6707992524048314</v>
+        <v>0.6689653080655262</v>
       </c>
       <c r="G12" t="n">
-        <v>0.665798413916491</v>
+        <v>0.6627959484467283</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01389413344874774</v>
+        <v>0.014161165047756</v>
       </c>
       <c r="I12" t="n">
-        <v>3788337.820909091</v>
+        <v>3788131.337887067</v>
       </c>
       <c r="J12" t="n">
-        <v>2814597</v>
+        <v>2814025</v>
       </c>
       <c r="K12" t="n">
-        <v>2275683.980378436</v>
+        <v>2279294.599165893</v>
       </c>
       <c r="L12" t="n">
         <v>2858</v>
       </c>
       <c r="M12" t="n">
-        <v>11452390</v>
+        <v>10483022</v>
       </c>
       <c r="N12" t="n">
-        <v>11452610</v>
+        <v>11452650</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
@@ -913,35 +913,35 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.0028900080360472202, 0.0027711798902601004, 0.0027352459728717804, 0.0028036588337272406, 0.004479127004742622, 0.005471974145621061, 0.006819381145760417, 0.006947613088414073, 0.006778649985790253, 0.006767683895304799, 0.00664583221077919, 0.0067387588787823915, 0.006746293045580387, 0.006765520898625255, 0.0067219051998108625, 0.006816136185079813, 0.006786182057112455, 0.006768655963242054, 0.006775495130568743, 0.007118629990145564, 0.0066461521200835705, 0.006722135003656149, 0.006755403941497207, 0.006636768113821745, 0.006685440894216299, 0.006698100129142404, 0.006665471941232681, 0.006571741076186299, 0.006549607031047344, 0.006586813135072589, 0.006739021046087146, 0.006598731968551874, 0.006762075005099177, 0.0067530120722949505, 0.0065912490244954824, 0.00656984793022275, 0.0065337540581822395, 0.006587885087355971, 0.006781444884836674, 0.00665345205925405, 0.006858169101178646, 0.007323454832658172, 0.007287051994353533, 0.007097468012943864, 0.007235905155539513, 0.007287383079528809, 0.006557188928127289, 0.006458271062001586, 0.006640764186158776, 0.007115473970770836]</t>
+          <t>[0.0030290440190583467, 0.0029175779782235622, 0.0028199919033795595, 0.002915254095569253, 0.0028615540359169245, 0.0028979280032217503, 0.004220467060804367, 0.0071563720703125, 0.007272526156157255, 0.0070891911163926125, 0.007201208034530282, 0.007135229185223579, 0.0071230928879231215, 0.007101530907675624, 0.007093946915119886, 0.0070437618996948, 0.0070717050693929195, 0.0070351199246943, 0.00733005185611546, 0.007171995006501675, 0.00708014820702374, 0.00702634803019464, 0.006938575999811292, 0.007071065017953515, 0.0070933080278337, 0.0070281499065458775, 0.0070057671982795, 0.006997272837907076, 0.006986488122493029, 0.00686911097727716, 0.006971776019781828, 0.00700585707090795, 0.006931865820661187, 0.007036624010652304, 0.006948430091142654, 0.006833139108493924, 0.0068878300953656435, 0.006917653838172555, 0.0069418109487742186, 0.007115141022950411, 0.006893699057400227, 0.006861641071736813, 0.006884594913572073, 0.006898405961692333, 0.006851325044408441, 0.006776282098144293, 0.007587095955386758, 0.007687045028433204, 0.007141779875382781, 0.006861711852252483]</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0.006385943368077279</v>
+        <v>0.006492349826730788</v>
       </c>
       <c r="T12" t="n">
-        <v>0.006722020101733506</v>
+        <v>0.007001520018093288</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001148458386196443</v>
+        <v>0.001405755013111243</v>
       </c>
       <c r="V12" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W12" t="n">
         <v>2858</v>
       </c>
       <c r="X12" t="n">
-        <v>145.7260723524288</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y12" t="n">
         <v>2858</v>
       </c>
       <c r="Z12" t="n">
-        <v>3402</v>
+        <v>3306</v>
       </c>
       <c r="AA12" t="n">
-        <v>64811</v>
+        <v>64715</v>
       </c>
       <c r="AB12" t="n">
         <v>1</v>
@@ -954,32 +954,32 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>[0.015918625984340906, 0.014968845061957836, 0.014850598061457276, 0.014918419998139143, 0.01479163789190352, 0.015093011083081365, 0.015002224128693342, 0.014934343053027987, 0.01503187813796103, 0.014975014142692089, 0.011855582939460874, 0.011789655080065131, 0.01174859213642776, 0.011855943128466606, 0.011869863839820027, 0.011788061121478677, 0.011642683995887637, 0.011742554139345884, 0.011727539822459221, 0.011886768974363804, 0.011710524093359709, 0.011838817037642002, 0.011763104004785419, 0.011734643019735813, 0.01170752989128232, 0.011825137073174119, 0.011866188840940595, 0.011821662075817585, 0.011664836900308728, 0.011822042986750603, 0.011749624041840434, 0.012110975105315447, 0.011803853791207075, 0.011814339784905314, 0.011879618978127837, 0.01204126002267003, 0.01176775200292468, 0.011900980956852436, 0.011894461000338197, 0.0118352510035038, 0.011827509850263596, 0.01194809004664421, 0.011844665044918656, 0.01192646799609065, 0.011851276038214564, 0.012040048837661743, 0.011782872956246138, 0.011875411961227655, 0.011983943870291114, 0.011875231051817536]</t>
+          <t>[0.015467721037566662, 0.014948775991797447, 0.01471728808246553, 0.014871830120682716, 0.015086752129718661, 0.015040833968669176, 0.014968974981456995, 0.015360692981630564, 0.015043098013848066, 0.014976798091083765, 0.015014935983344913, 0.015346111031249166, 0.014866582816466689, 0.014904499985277653, 0.014931750018149614, 0.01508416817523539, 0.011911949841305614, 0.011902116006240249, 0.011979350820183754, 0.011937088100239635, 0.011923087062314153, 0.01195141882635653, 0.011864640051499009, 0.011806854046881199, 0.011885080020874739, 0.011844728840515018, 0.012178106931969523, 0.011972129810601473, 0.011889096116647124, 0.011916137067601085, 0.011828845832496881, 0.011824198067188263, 0.011813171906396747, 0.011903237085789442, 0.01200440782122314, 0.011947612976655364, 0.011842617066577077, 0.01186941796913743, 0.011855365941300988, 0.011931939981877804, 0.011896157870069146, 0.01193457399494946, 0.011870848946273327, 0.011848495109006763, 0.011951229069381952, 0.011872139992192388, 0.011907965177670121, 0.011878059012815356, 0.011838248930871487, 0.011779532069340348]</t>
         </is>
       </c>
       <c r="AF12" t="n">
-        <v>0.01247799925971776</v>
+        <v>0.01290381323546171</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.01185576303396374</v>
+        <v>0.01193325698841363</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.001308400542842392</v>
+        <v>0.001485171186087972</v>
       </c>
       <c r="AI12" t="n">
-        <v>3063.960784313726</v>
+        <v>2924.56</v>
       </c>
       <c r="AJ12" t="n">
         <v>2858</v>
       </c>
       <c r="AK12" t="n">
-        <v>894.6888165342028</v>
+        <v>112.8763383313883</v>
       </c>
       <c r="AL12" t="n">
         <v>2858</v>
       </c>
       <c r="AM12" t="n">
-        <v>9266</v>
+        <v>3306</v>
       </c>
       <c r="AN12" t="n">
         <v>28898</v>
@@ -995,26 +995,26 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>[0.011367511004209518, 0.011412299005314708, 0.011327472049742937, 0.011386930011212826, 0.011306270956993103, 0.011453408980742097, 0.011287331115454435, 0.01128772203810513, 0.011457156855612993, 0.011393690016120672, 0.011365597834810615, 0.01150227291509509, 0.011356023838743567, 0.011524386936798692, 0.011412939988076687, 0.011473770020529628, 0.01410048408433795, 0.0142974688205868, 0.014293574029579759, 0.014410297852009535, 0.014220851939171553, 0.0142927928827703, 0.014064171118661761, 0.014119402039796114, 0.01135445199906826, 0.011263876920565963, 0.011312779039144516, 0.01133884908631444, 0.011323226150125265, 0.011349685955792665, 0.011450184974819422, 0.011497014900669456, 0.011280100094154477, 0.01128669106401503, 0.011384486919268966, 0.011487280018627644, 0.011550084920600057, 0.011441220995038748, 0.011252209078520536, 0.011415482964366674, 0.011398457922041416, 0.011495643993839622, 0.011266200104728341, 0.01133647607639432, 0.011338168056681752, 0.011387300910428166, 0.011230036849156022, 0.011410957900807261, 0.011324006831273437, 0.01160445692948997]</t>
+          <t>[0.011380315059795976, 0.01125881215557456, 0.011531861033290625, 0.011418541893362999, 0.011396720074117184, 0.01127466605976224, 0.011337872128933668, 0.011403780896216631, 0.01137015805579722, 0.011333042988553643, 0.011462628142908216, 0.011401646072044969, 0.011384591925889254, 0.011392132146283984, 0.011419994058087468, 0.01130822696723044, 0.011432371102273464, 0.011442838003858924, 0.011504268972203135, 0.011341206030920148, 0.011313884053379297, 0.01132858800701797, 0.011333843925967813, 0.01139660901390016, 0.011448957026004791, 0.01127891382202506, 0.01149355317465961, 0.011537699960172176, 0.01133921300061047, 0.01136984908953309, 0.011352614033967257, 0.01132078398950398, 0.011486794101074338, 0.011265282053500414, 0.011464309878647327, 0.01147866202518344, 0.01148464996367693, 0.011356037110090256, 0.011594135081395507, 0.014077901840209961, 0.01419428689405322, 0.014267987105995417, 0.014202989870682359, 0.014148988062515855, 0.014224971877411008, 0.014295238070189953, 0.014190321089699864, 0.014161337865516543, 0.011426341952756047, 0.01124298688955605]</t>
         </is>
       </c>
       <c r="AS12" t="n">
-        <v>0.01183786313980818</v>
+        <v>0.01189746809192002</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01139607396908104</v>
+        <v>0.01141116139478981</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.001056386746383298</v>
+        <v>0.001090725991749958</v>
       </c>
       <c r="AV12" t="n">
-        <v>2934.8</v>
+        <v>2924.56</v>
       </c>
       <c r="AW12" t="n">
         <v>2858</v>
       </c>
       <c r="AX12" t="n">
-        <v>117.9747465194417</v>
+        <v>112.8763383313883</v>
       </c>
       <c r="AY12" t="n">
         <v>2858</v>
@@ -1023,7 +1023,7 @@
         <v>3306</v>
       </c>
       <c r="BA12" t="n">
-        <v>15978</v>
+        <v>16842</v>
       </c>
       <c r="BB12" t="n">
         <v>1</v>
@@ -1048,35 +1048,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[1.0425933611113578, 1.053554403129965, 1.045400524046272, 1.0431537081021816, 1.0710375600028783, 1.028871470829472, 1.03160411096178, 1.0496391060296446, 1.0858866511844099, 1.0365101848728955, 1.0363262998871505, 1.117976089939475, 1.024561010999605, 1.0176852738950402, 1.038800470996648, 1.0669915250036865, 1.0155782669316977, 1.03573112282902, 1.068096897099167, 1.0299578281119466, 1.05022137099877, 1.0658935660030693, 1.0832195889670402, 1.0450943410396576, 1.05292829987593, 1.049535487079993, 1.031420533079654, 1.0303088389337063, 1.0362267289310694, 1.0599646540358663, 1.045270259026438, 1.0398509132210165, 1.064361646072939, 1.0366557599045336, 1.0408084751106799, 1.0378406418021768, 1.0641243658028543, 1.030962091172114, 1.07880425802432, 1.0607840241864324, 1.0734478367958218, 1.0360040878877044, 1.0454992149025202, 1.0478019330184907, 1.0402798189315945, 1.0373275170568377, 1.0558155989274383, 1.0367796749342233, 1.0497697561513633, 1.0411963879596442]</t>
+          <t>[1.0454062588978559, 1.0855694159399718, 1.0542460589203984, 1.0252093861345202, 1.068588538095355, 1.0326036550104618, 1.04122544801794, 1.0490345382131636, 1.053198980866, 1.0290764628443867, 1.0258244059514254, 1.054704616079107, 1.0297759799286723, 1.0310149150900543, 1.0396870758850127, 1.0964281070046127, 1.0359352980740368, 1.0297007549088448, 1.0541889909654856, 1.052133453078568, 1.0376542890444398, 1.0476220098789781, 1.0532408498693258, 1.0376102840527892, 1.0342249860987067, 1.041285855928436, 1.0393638969399035, 1.039482224965468, 1.059997061965987, 1.0657934870105237, 1.0538154090754688, 1.0334567551035434, 1.0621250569820404, 1.0267141319345683, 1.0437744678929448, 1.0345001658424735, 1.0836285019759089, 1.038724389160052, 1.0320911498274654, 1.0576799700502306, 1.029890805017203, 1.0269565749913454, 1.0174737579654902, 1.0696815939154476, 1.0418264800682664, 1.021424621809274, 1.0569915189407766, 1.0280926120467484, 1.0293410089798272, 1.0392312239855528]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.048163070715964</v>
+        <v>1.044344949624501</v>
       </c>
       <c r="G13" t="n">
-        <v>1.04412402457092</v>
+        <v>1.03958465042524</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0189887159414488</v>
+        <v>0.01703166626425087</v>
       </c>
       <c r="I13" t="n">
-        <v>5154422.772511848</v>
+        <v>5160125.6885</v>
       </c>
       <c r="J13" t="n">
-        <v>6764972</v>
+        <v>6764920</v>
       </c>
       <c r="K13" t="n">
-        <v>2304020.819797912</v>
+        <v>2301935.792117316</v>
       </c>
       <c r="L13" t="n">
         <v>2858</v>
       </c>
       <c r="M13" t="n">
-        <v>10741942</v>
+        <v>10121699</v>
       </c>
       <c r="N13" t="n">
-        <v>11452834</v>
+        <v>11452762</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
@@ -1087,26 +1087,26 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.002880193991586566, 0.00562059716321528, 0.005358832888305187, 0.005449219839647412, 0.006642035208642483, 0.006718670018017292, 0.006669827038422227, 0.006640302017331123, 0.00689190998673439, 0.006860694149509072, 0.006716488162055612, 0.006719029974192381, 0.0066984910517930984, 0.006692101014778018, 0.006765811005607247, 0.0067905590403825045, 0.006738420110195875, 0.006642594933509827, 0.00666855601593852, 0.007025639992207289, 0.0066581000573933125, 0.006733722984790802, 0.006848664954304695, 0.0067079749424010515, 0.006744538899511099, 0.0066238578874617815, 0.006625860929489136, 0.006710658082738519, 0.006754595087841153, 0.006905650021508336, 0.006756346905604005, 0.006582045927643776, 0.006628995994105935, 0.006755616050213575, 0.006609397009015083, 0.0066108088940382, 0.006645989837124944, 0.006561835063621402, 0.006480884039774537, 0.006578541127964854, 0.006918860133737326, 0.006591560086235404, 0.006618139799684286, 0.006627614144235849, 0.006624358939006925, 0.006491119973361492, 0.006487423088401556, 0.00655971304513514, 0.007172869984060526, 0.0065294778905808926]</t>
+          <t>[0.0030023541767150164, 0.005217019002884626, 0.007094258908182383, 0.007109771948307753, 0.007095230044797063, 0.00729762390255928, 0.007137792883440852, 0.007195489946752787, 0.007232436211779714, 0.007075370056554675, 0.007016500923782587, 0.007002572994679213, 0.007155831204727292, 0.007228170055896044, 0.007114018080756068, 0.007199154933914542, 0.007134849904105067, 0.007040088064968586, 0.007650962797924876, 0.007198355160653591, 0.007104052929207683, 0.007187848910689354, 0.007023053010925651, 0.007124624913558364, 0.006933148019015789, 0.006995650939643383, 0.0070147099904716015, 0.006991795962676406, 0.0069780549965798855, 0.0069417699705809355, 0.006997974123805761, 0.006972945993766189, 0.006971705937758088, 0.006896192906424403, 0.006916653132066131, 0.006939626997336745, 0.0069328779354691505, 0.0067991879768669605, 0.006848631892353296, 0.007157674990594387, 0.006956211989745498, 0.007021549856290221, 0.006916332989931107, 0.006877504056319594, 0.00686388392932713, 0.006805927958339453, 0.006797956069931388, 0.0068888620007783175, 0.006798416841775179, 0.0068356129340827465]</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0.00654670390766114</v>
+        <v>0.006913765827193856</v>
       </c>
       <c r="T13" t="n">
-        <v>0.006652044947259128</v>
+        <v>0.007000273559242487</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0006192239356739839</v>
+        <v>0.0006392563743582373</v>
       </c>
       <c r="V13" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W13" t="n">
         <v>2858</v>
       </c>
       <c r="X13" t="n">
-        <v>128.6660223451493</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y13" t="n">
         <v>2858</v>
@@ -1128,32 +1128,32 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>[0.041614793008193374, 0.03765502409078181, 0.03226779610849917, 0.031766315922141075, 0.03202045685611665, 0.03189355507493019, 0.03196686506271362, 0.03185954503715038, 0.03240796597674489, 0.03200423205271363, 0.03220740589313209, 0.031838814029470086, 0.03220027405768633, 0.03198744612745941, 0.03204701701179147, 0.03187141218222678, 0.032477721106261015, 0.03250332013703883, 0.032050882931798697, 0.03276638290844858, 0.032169879879802465, 0.032505281968042254, 0.032149940030649304, 0.03206659620627761, 0.03216992993839085, 0.032064721919596195, 0.032075257040560246, 0.032256248872727156, 0.03162585408426821, 0.03251866111531854, 0.0323315120767802, 0.03321048803627491, 0.03205403499305248, 0.03245518798939884, 0.03230263898149133, 0.032161517068743706, 0.03275506501086056, 0.03185363602824509, 0.032110340893268585, 0.03302819607779384, 0.03207994601689279, 0.037919459166005254, 0.04163624509237707, 0.03947587008588016, 0.032100947108119726, 0.03198096784763038, 0.031947064911946654, 0.03173194406554103, 0.03253091988153756, 0.03233197401277721]</t>
+          <t>[0.03976233699359, 0.03973919292911887, 0.032813455909490585, 0.0318559838924557, 0.031826627906411886, 0.03198820003308356, 0.0324650548864156, 0.03210327308624983, 0.031933638965711, 0.03245084406808019, 0.03316821716725826, 0.03301022993400693, 0.032233549980446696, 0.031694289995357394, 0.03207485098391771, 0.032232487108558416, 0.03214186104014516, 0.0327156491111964, 0.03196780011057854, 0.0323486200068146, 0.03209987888112664, 0.03199432999826968, 0.03257166501134634, 0.032341728918254375, 0.0319420020096004, 0.032167870085686445, 0.0318471509963274, 0.032194809056818485, 0.032397703966125846, 0.03225939697586, 0.032154087908566, 0.03199822595342994, 0.03200894105248153, 0.032450292026624084, 0.03207583096809685, 0.03226737794466317, 0.032508288975805044, 0.03255803300999105, 0.0324301419313997, 0.03279592888429761, 0.03203249583020806, 0.03260732791386545, 0.03691684897057712, 0.04135649302043021, 0.03925736201927066, 0.032530602999031544, 0.03271818393841386, 0.03249742207117379, 0.032092487905174494, 0.03216647799126804]</t>
         </is>
       </c>
       <c r="AF13" t="n">
-        <v>0.03294015103951096</v>
+        <v>0.03299531102646142</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.03216569847427309</v>
+        <v>0.03226338746026158</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.00234917299802612</v>
+        <v>0.002228367435955098</v>
       </c>
       <c r="AI13" t="n">
-        <v>8192.186666666666</v>
+        <v>8199.173333333334</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10442</v>
+        <v>10514</v>
       </c>
       <c r="AK13" t="n">
-        <v>3842.182952973001</v>
+        <v>3779.892105890064</v>
       </c>
       <c r="AL13" t="n">
         <v>2858</v>
       </c>
       <c r="AM13" t="n">
-        <v>19562</v>
+        <v>12338</v>
       </c>
       <c r="AN13" t="n">
         <v>28898</v>
@@ -1169,35 +1169,35 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>[0.021192010957747698, 0.021171852946281433, 0.020826054038479924, 0.02096758596599102, 0.021451781038194895, 0.02107375394552946, 0.02099646907299757, 0.021313274977728724, 0.020754777127876878, 0.021390890004113317, 0.020886664045974612, 0.021045431960374117, 0.02120752609334886, 0.022159461164847016, 0.026897012954577804, 0.026755522936582565, 0.02695085504092276, 0.025875475024804473, 0.020928006852045655, 0.020745445042848587, 0.020875468151643872, 0.020945411873981357, 0.02078129700385034, 0.020793426083400846, 0.02107082004658878, 0.020997470943257213, 0.021118781995028257, 0.02100495295599103, 0.020991169847548008, 0.021055088145658374, 0.02584051201120019, 0.027071083895862103, 0.02674514683894813, 0.026687802048400044, 0.02598074311390519, 0.020904531935229897, 0.02112165605649352, 0.021089276997372508, 0.02119740005582571, 0.021152734057977796, 0.020751232048496604, 0.02097538602538407, 0.020787496119737625, 0.02116974792443216, 0.020969931036233902, 0.021583816967904568, 0.02134113502688706, 0.021177069982513785, 0.021143009886145592, 0.020756290992721915]</t>
+          <t>[0.031002755975350738, 0.03122866409830749, 0.03591709188185632, 0.03579417709261179, 0.039272533962503076, 0.03863934497348964, 0.03683011815883219, 0.03116013202816248, 0.03103423397988081, 0.030764209106564522, 0.03063929290510714, 0.028461250942200422, 0.016021041898056865, 0.01592151098884642, 0.01583376992493868, 0.015844757901504636, 0.015781742054969072, 0.016237393952906132, 0.015621742932125926, 0.015963805839419365, 0.015882092993706465, 0.015738247893750668, 0.015624006045982242, 0.015751035884022713, 0.016916519962251186, 0.015835093101486564, 0.015665587037801743, 0.015808391850441694, 0.015745386946946383, 0.01565389079041779, 0.015621942933648825, 0.02172206505201757, 0.01560058118775487, 0.01650505606085062, 0.01569162798114121, 0.016249252948909998, 0.015793789876624942, 0.015622354811057448, 0.01570903486572206, 0.022659097099676728, 0.016106837894767523, 0.01578688994050026, 0.015724466182291508, 0.015926468186080456, 0.015742343850433826, 0.015762723982334137, 0.015742562944069505, 0.016093519050627947, 0.015781110851094127, 0.01711306511424482]</t>
         </is>
       </c>
       <c r="AS13" t="n">
-        <v>0.02205339482519776</v>
+        <v>0.02035089227836579</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.02110402949620038</v>
+        <v>0.01590180199127644</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.002143227567924589</v>
+        <v>0.007708917920773926</v>
       </c>
       <c r="AV13" t="n">
-        <v>5423.36</v>
+        <v>6329.779816513761</v>
       </c>
       <c r="AW13" t="n">
-        <v>5322</v>
+        <v>8178</v>
       </c>
       <c r="AX13" t="n">
-        <v>2506.617421824467</v>
+        <v>3198.162705650086</v>
       </c>
       <c r="AY13" t="n">
         <v>2858</v>
       </c>
       <c r="AZ13" t="n">
-        <v>8410</v>
+        <v>10970</v>
       </c>
       <c r="BA13" t="n">
-        <v>16074</v>
+        <v>16842</v>
       </c>
       <c r="BB13" t="n">
         <v>1</v>
@@ -1222,35 +1222,35 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[1.8549079629592597, 1.8128889331128448, 1.808902714168653, 1.860622574808076, 1.7938680788502097, 1.8054863230790943, 1.8025848970282823, 1.8332987329922616, 1.811597597785294, 1.7873957690317184, 1.8237188449129462, 1.7886432739906013, 1.7962928349152207, 1.780759152956307, 1.8324773630592972, 1.8224232650827616, 1.8049135571345687, 1.8189699230715632, 1.8197752051055431, 1.8226258740760386, 1.8346486720256507, 1.8297975780442357, 1.7924808310344815, 1.8008103200700134, 1.8243588879704475, 1.8137937870342284, 1.8148724019993097, 1.8211328741163015, 1.8158029620535672, 1.8013605861924589, 1.7955182460136712, 1.8532879238482565, 1.8029644908383489, 1.826720962068066, 1.799322325969115, 1.8090879949741066, 1.7953206710517406, 1.8127626550849527, 1.815106905065477, 1.7863725980278105, 1.7983489090111107, 1.7962276320904493, 1.8279922420624644, 1.804907085141167, 1.8383076440077275, 1.8307293448597193, 1.8127534268423915, 1.8023325931280851, 1.7961898338980973, 1.907356654992327]</t>
+          <t>[1.8709973860532045, 1.8087657480500638, 1.7932724149432033, 1.8056106339208782, 1.8236055180896074, 1.7889938501175493, 1.793898519827053, 1.8275384018197656, 1.7867963078897446, 1.787258822005242, 1.810546746943146, 1.8020156370475888, 1.7900205429177731, 1.7905094949528575, 1.8340017411392182, 1.8094046649057418, 1.816644900944084, 1.814530726056546, 1.8011156558059156, 1.8096908810548484, 1.7919786379206926, 1.814228730974719, 1.7785176681354642, 1.7891795460600406, 1.8288480630144477, 1.8204945281613618, 1.7899599431548268, 1.7980024199932814, 1.8036805898882449, 1.789408955955878, 1.7999765230342746, 1.8314402669202536, 1.7969126659445465, 1.7820831588469446, 1.7947330619208515, 1.8360411419998854, 1.8001996339298785, 1.806448427028954, 1.8425614889711142, 1.8264842748176306, 1.8013827519025654, 1.825728982919827, 1.8044330871198326, 1.7941890850197524, 1.7848228230141103, 1.8139588730409741, 1.7903339609038085, 1.8001380560453981, 1.7910955490078777, 1.8789484770968556]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.814856438352726</v>
+        <v>1.807428599344566</v>
       </c>
       <c r="G14" t="n">
-        <v>1.812758040963672</v>
+        <v>1.801699194475077</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02229377519974461</v>
+        <v>0.02092503062628386</v>
       </c>
       <c r="I14" t="n">
-        <v>5997216.732666923</v>
+        <v>6000671.969521604</v>
       </c>
       <c r="J14" t="n">
-        <v>6773228</v>
+        <v>6773196</v>
       </c>
       <c r="K14" t="n">
-        <v>1871210.690936472</v>
+        <v>1867474.882575604</v>
       </c>
       <c r="L14" t="n">
         <v>2858</v>
       </c>
       <c r="M14" t="n">
-        <v>10483078</v>
+        <v>10687774</v>
       </c>
       <c r="N14" t="n">
-        <v>11452954</v>
+        <v>11452986</v>
       </c>
       <c r="O14" t="n">
         <v>3</v>
@@ -1261,26 +1261,26 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.002984869061037898, 0.00452441512607038, 0.005592253990471363, 0.005432114005088806, 0.006761003052815795, 0.00671405391767621, 0.006639170926064253, 0.006682615960016847, 0.0067992310505360365, 0.006788303842768073, 0.006786101032048464, 0.0067513491958379745, 0.006726863095536828, 0.006729956949129701, 0.0069322490599006414, 0.006988614099100232, 0.006684368941932917, 0.006757768103852868, 0.00679822894744575, 0.007114793173968792, 0.006721453974023461, 0.006987403146922588, 0.006679411046206951, 0.006778958952054381, 0.006789186038076878, 0.0067290859296917915, 0.006741284159943461, 0.0066842681262642145, 0.006625568959861994, 0.006558631081134081, 0.006658909842371941, 0.006687923101708293, 0.0067236770410090685, 0.006893360987305641, 0.0066775791347026825, 0.006714913062751293, 0.006644177949056029, 0.006571679841727018, 0.006552782142534852, 0.006567062111571431, 0.006881122011691332, 0.006657018093392253, 0.006619693012908101, 0.006546020973473787, 0.006496587069705129, 0.006442266050726175, 0.0064876440446823835, 0.006472420878708363, 0.006541633978486061, 0.006566292140632868]</t>
+          <t>[0.003019189927726984, 0.003569353139027953, 0.0055970679968595505, 0.006573569029569626, 0.00712554482743144, 0.007159875938668847, 0.0070453849621117115, 0.007424782961606979, 0.007077113026753068, 0.007135019870474935, 0.0071549799758940935, 0.00715493899770081, 0.007133357925340533, 0.0070545601192861795, 0.006971955997869372, 0.007039746968075633, 0.007063172059133649, 0.007043011020869017, 0.007465244038030505, 0.007112517021596432, 0.006988700944930315, 0.007019127020612359, 0.007026157109066844, 0.006960429018363357, 0.007105977041646838, 0.006994370138272643, 0.007073546992614865, 0.0069893100298941135, 0.006845666095614433, 0.006971033988520503, 0.0071248640306293964, 0.007010641973465681, 0.006877453997731209, 0.006878355983644724, 0.0068154409527778625, 0.007100277114659548, 0.006875871913507581, 0.006894028978422284, 0.00687114498578012, 0.007119326153770089, 0.006799376104027033, 0.006918323924764991, 0.006946747889742255, 0.006968120113015175, 0.006867880001664162, 0.006879007909446955, 0.006882150890305638, 0.006800911156460643, 0.007106879027560353, 0.007082430878654122]</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0.006537726768292487</v>
+        <v>0.006834278763271869</v>
       </c>
       <c r="T14" t="n">
-        <v>0.006684318534098566</v>
+        <v>0.007002506055869162</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0006538898095274879</v>
+        <v>0.0007731870288915095</v>
       </c>
       <c r="V14" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W14" t="n">
         <v>2858</v>
       </c>
       <c r="X14" t="n">
-        <v>135.0065999898387</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y14" t="n">
         <v>2858</v>
@@ -1302,32 +1302,32 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>[0.06418418418616056, 0.05327525897882879, 0.029887120937928557, 0.02955433214083314, 0.029446161119267344, 0.0294306471478194, 0.02947517391294241, 0.029463707003742456, 0.029625569935888052, 0.029603786068037152, 0.029569325037300587, 0.02933002612553537, 0.02942280611023307, 0.02940302505157888, 0.029525139136239886, 0.0295625738799572, 0.029469306115061045, 0.0294036369305104, 0.029473899863660336, 0.02945936913602054, 0.029920651111751795, 0.02996160089969635, 0.02998846094124019, 0.02946950518526137, 0.029345369897782803, 0.02945457398891449, 0.029402886051684618, 0.030057955998927355, 0.03006719914264977, 0.02977202693000436, 0.03021421004086733, 0.029660250060260296, 0.029611608013510704, 0.02955348091199994, 0.03010636894032359, 0.029760911129415035, 0.02963628387078643, 0.029993548057973385, 0.02994752093218267, 0.029572219820693135, 0.029865948017686605, 0.029575003078207374, 0.029660390922799706, 0.029603145085275173, 0.02949378197081387, 0.029509845189750195, 0.029830195009708405, 0.02952069090679288, 0.02970721200108528, 0.02964049088768661]</t>
+          <t>[0.06167527590878308, 0.05317123793065548, 0.04501254507340491, 0.03012674394994974, 0.029596769949421287, 0.02965186210349202, 0.02970088692381978, 0.02962278900668025, 0.030035607051104307, 0.02970354096032679, 0.030037289019674063, 0.02974431193433702, 0.029900535941123962, 0.02982580312527716, 0.030031730886548758, 0.02982341987080872, 0.02986387093551457, 0.02998509188182652, 0.02988521195948124, 0.030005111824721098, 0.029557432048022747, 0.02957673999480903, 0.030254335841163993, 0.029792262939736247, 0.02997396606951952, 0.029828508151695132, 0.030075807124376297, 0.029744453029707074, 0.029764971928671002, 0.029659664956852794, 0.02964535402134061, 0.029509129002690315, 0.029720294987782836, 0.02964129694737494, 0.029745161999017, 0.029840435134246945, 0.03021051990799606, 0.02986288908869028, 0.02978789689950645, 0.029746555956080556, 0.029518162133172154, 0.02958524296991527, 0.029579424066469073, 0.029878021916374564, 0.029778312891721725, 0.029972804011777043, 0.029775628121569753, 0.029885393101722002, 0.030321595957502723, 0.029656599974259734]</t>
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>0.03080936767626554</v>
+        <v>0.03122576994821429</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.02958907408174127</v>
+        <v>0.02980784140527248</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.005865783189953276</v>
+        <v>0.005879390326487979</v>
       </c>
       <c r="AI14" t="n">
-        <v>8253.27619047619</v>
+        <v>8317.622641509433</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11170</v>
+        <v>12106</v>
       </c>
       <c r="AK14" t="n">
-        <v>5217.707329733489</v>
+        <v>5192.478209052252</v>
       </c>
       <c r="AL14" t="n">
         <v>2858</v>
       </c>
       <c r="AM14" t="n">
-        <v>23754</v>
+        <v>20874</v>
       </c>
       <c r="AN14" t="n">
         <v>30498</v>
@@ -1343,35 +1343,35 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>[0.01360019389539957, 0.01372417900711298, 0.01370080397464335, 0.013807773822918534, 0.01366563094779849, 0.013631500070914626, 0.013601456070318818, 0.013872002018615603, 0.013616889016702771, 0.013796526938676834, 0.02076029498130083, 0.013691450003534555, 0.013709808001294732, 0.013762056129053235, 0.013690857915207744, 0.01389629696495831, 0.013679163064807653, 0.013865421060472727, 0.013846732908859849, 0.013893614057451487, 0.013915125979110599, 0.013726722914725542, 0.013822196051478386, 0.013811530079692602, 0.013663189020007849, 0.013645030790939927, 0.013649558182805777, 0.013724450021982193, 0.013623517006635666, 0.013721425086259842, 0.013737719971686602, 0.01364016393199563, 0.013575818156823516, 0.013679062016308308, 0.01378611195832491, 0.013737367931753397, 0.01372451102361083, 0.013746751938015223, 0.013881834922358394, 0.01382327708415687, 0.013754646060988307, 0.01372616202570498, 0.013541646068915725, 0.013525712070986629, 0.013763998867943883, 0.013745710952207446, 0.013647604966536164, 0.01358523196540773, 0.013549667783081532, 0.013645831029862165]</t>
+          <t>[0.029133446980267763, 0.029092294862493873, 0.029436409007757902, 0.02896919008344412, 0.028963412856683135, 0.029079076135531068, 0.028818774968385696, 0.02869011485017836, 0.02913538902066648, 0.029165506130084395, 0.02909793402068317, 0.02952143712900579, 0.029173025861382484, 0.028801309876143932, 0.028789973119273782, 0.028816574020311236, 0.028987648896872997, 0.028843331849202514, 0.029031113954260945, 0.029092365875840187, 0.029662908986210823, 0.029352375073358417, 0.029251093044877052, 0.02931251493282616, 0.029041749192401767, 0.029139066115021706, 0.028868810972198844, 0.029242460150271654, 0.02918669697828591, 0.029288920108228922, 0.028964324155822396, 0.02890459494665265, 0.02914020698517561, 0.028949001105502248, 0.02878700802102685, 0.0292045040987432, 0.029211212880909443, 0.02908629598096013, 0.029398435028269887, 0.02909155492670834, 0.02923828293569386, 0.029196189949288964, 0.02932686498388648, 0.02940601482987404, 0.029215681133791804, 0.029389458941295743, 0.029070863034576178, 0.029068969888612628, 0.029169832821935415, 0.029615047853440046]</t>
         </is>
       </c>
       <c r="AS14" t="n">
-        <v>0.01385868453420699</v>
+        <v>0.02912838539108634</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.01372431451454759</v>
+        <v>0.02913441800046712</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.00100078954901244</v>
+        <v>0.0002166273327967072</v>
       </c>
       <c r="AV14" t="n">
-        <v>3061.137254901961</v>
+        <v>6887.76</v>
       </c>
       <c r="AW14" t="n">
-        <v>2858</v>
+        <v>5778</v>
       </c>
       <c r="AX14" t="n">
-        <v>946.6039725166559</v>
+        <v>4068.021724364189</v>
       </c>
       <c r="AY14" t="n">
         <v>2858</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9634</v>
+        <v>14746</v>
       </c>
       <c r="BA14" t="n">
-        <v>17578</v>
+        <v>18442</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -1396,35 +1396,35 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[1.8272692530881613, 1.8179402041714638, 1.825847472064197, 1.830517983995378, 1.8263953500427306, 1.8090188491623849, 1.848455567844212, 1.830552661092952, 1.8358087989035994, 1.8423280590213835, 1.8139011929742992, 1.8604408570099622, 1.836092638084665, 1.8497869498096406, 1.8073015362024307, 1.819434141041711, 1.8362702568992972, 1.8238622788339853, 1.8248851289972663, 1.8180638651829213, 1.827386923134327, 1.821219245903194, 1.8257657510694116, 1.842164013069123, 1.822647558990866, 1.837206806987524, 1.8182503927964717, 1.8495081539731473, 1.8105392549186945, 1.7995181609876454, 1.8449679629411548, 1.8123785848729312, 1.8095824378542602, 1.8139208829961717, 1.855854146881029, 1.8301857330370694, 1.8223157979082316, 1.838307699887082, 1.8353399448096752, 1.8101606939453632, 1.8051722629461437, 1.8301825788803399, 1.8219861160032451, 1.8324099311139435, 1.859135237056762, 1.8245769508648664, 1.8316167111042887, 1.821401183027774, 1.8676310318987817, 1.8365338891744614]</t>
+          <t>[1.8231438680086285, 1.7985339800361544, 1.8907654942013323, 1.8513662691693753, 1.8719289570581168, 1.822276326129213, 1.8616563000250608, 1.8213120019063354, 1.83797548385337, 1.8449323058594018, 1.8416827600449324, 1.804339234950021, 1.828987177927047, 1.8287684288807213, 1.8230159068480134, 1.8336400717962533, 1.8399399290792644, 1.8099207959603518, 1.820608182111755, 1.8383816350251436, 1.8369382629171014, 1.8172660381533206, 1.824940136168152, 1.8382339898962528, 1.8236330370418727, 1.8341109598986804, 1.8201354399789125, 1.851144686108455, 1.830922074848786, 1.8236648419406265, 1.8427694370038807, 1.810400898102671, 1.8187847950030118, 1.811232052044943, 1.8297216659411788, 1.8075300781056285, 1.8296347029972821, 1.8569129221141338, 1.8256018161773682, 1.8150743481237441, 1.8150076370220631, 1.850502906134352, 1.812682355986908, 1.8155011639464647, 1.8764812690205872, 1.8450271701440215, 1.816386509919539, 1.818061675876379, 1.837413853034377, 1.8210284260567278]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.828840781669132</v>
+        <v>1.830998405171558</v>
       </c>
       <c r="G15" t="n">
-        <v>1.826832301565446</v>
+        <v>1.827185122529045</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01517315618738367</v>
+        <v>0.01878244202929081</v>
       </c>
       <c r="I15" t="n">
-        <v>6010917.955595027</v>
+        <v>6017272.272059754</v>
       </c>
       <c r="J15" t="n">
-        <v>6773320</v>
+        <v>6773324</v>
       </c>
       <c r="K15" t="n">
-        <v>1853506.994259595</v>
+        <v>1850765.285655278</v>
       </c>
       <c r="L15" t="n">
         <v>2858</v>
       </c>
       <c r="M15" t="n">
-        <v>11398382</v>
+        <v>11398510</v>
       </c>
       <c r="N15" t="n">
-        <v>11452514</v>
+        <v>11452418</v>
       </c>
       <c r="O15" t="n">
         <v>4</v>
@@ -1435,26 +1435,26 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.002916696947067976, 0.0027245189994573593, 0.004016763065010309, 0.005381477996706963, 0.006396597949787974, 0.006724147824570537, 0.006730959052219987, 0.006752791116014123, 0.007346889935433865, 0.006773991975933313, 0.006836476037278771, 0.006796316942200065, 0.006758230039849877, 0.006768794963136315, 0.006782685872167349, 0.0068542619701474905, 0.006758509902283549, 0.006756816990673542, 0.006814552936702967, 0.007212429074570537, 0.0068358059506863356, 0.006705930922180414, 0.006830106023699045, 0.00687186885625124, 0.0067336221691221, 0.00696220388635993, 0.006814805092290044, 0.00675641605630517, 0.006726871943101287, 0.0066859719809144735, 0.006683868123218417, 0.006640363018959761, 0.006659521022811532, 0.006747563136741519, 0.006800221977755427, 0.00669687706977129, 0.006685859989374876, 0.006852478953078389, 0.0066846690606325865, 0.006618879036977887, 0.006850956939160824, 0.006558559834957123, 0.006553753046318889, 0.006694083102047443, 0.006626422051340342, 0.006570517085492611, 0.00648117414675653, 0.006497359136119485, 0.00650470913387835, 0.0064904289320111275]</t>
+          <t>[0.0030315080657601357, 0.004673824878409505, 0.006043595960363746, 0.005731899058446288, 0.007064203033223748, 0.007115582004189491, 0.007108940975740552, 0.007137384032830596, 0.0071912838611751795, 0.007092857034876943, 0.007420064881443977, 0.007220366969704628, 0.007188278017565608, 0.007055780850350857, 0.007054188055917621, 0.0071084999945014715, 0.00705663301050663, 0.007189401192590594, 0.007487828144803643, 0.007107076933607459, 0.007161278976127505, 0.007033227011561394, 0.006998734083026648, 0.007044764934107661, 0.007054008077830076, 0.007065915036946535, 0.00705916597507894, 0.0069422011729329824, 0.006926967995241284, 0.0070405988954007626, 0.00701276701875031, 0.006982970982789993, 0.007229840848594904, 0.00698343082331121, 0.006888158852234483, 0.006920197978615761, 0.007173438090831041, 0.006973759038373828, 0.006896703038364649, 0.007235900964587927, 0.006961809005588293, 0.006920199142768979, 0.007021368946880102, 0.006978275021538138, 0.007004414917901158, 0.006890793098136783, 0.007098424015566707, 0.007100577931851149, 0.006905165035277605, 0.00689467997290194]</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0.006498515545390546</v>
+        <v>0.006889578676782549</v>
       </c>
       <c r="T15" t="n">
-        <v>0.006728915497660637</v>
+        <v>0.007049386505968869</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0008847134977188763</v>
+        <v>0.0007000542561716038</v>
       </c>
       <c r="V15" t="n">
-        <v>2935.44</v>
+        <v>2930.32</v>
       </c>
       <c r="W15" t="n">
         <v>2858</v>
       </c>
       <c r="X15" t="n">
-        <v>126.7019900621702</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y15" t="n">
         <v>2858</v>
@@ -1476,32 +1476,32 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>[0.09422225598245859, 0.06638127216137946, 0.04504987201653421, 0.044649142073467374, 0.04428142216056585, 0.044333698926493526, 0.044230774976313114, 0.04431914794258773, 0.04472026997245848, 0.04473377903923392, 0.04424831201322377, 0.04423031606711447, 0.04450794099830091, 0.04448817181400955, 0.04423733614385128, 0.04440775001421571, 0.04453675402328372, 0.04485243489034474, 0.044641719898208976, 0.0449050348252058, 0.04414724092930555, 0.04460669890977442, 0.044805746991187334, 0.044163143960759044, 0.04391575208865106, 0.04415232688188553, 0.043883024947717786, 0.044414009200409055, 0.044190485030412674, 0.04410204407759011, 0.044064016081392765, 0.044650024035945535, 0.04484367300756276, 0.04438560688868165, 0.04419392999261618, 0.04414035985246301, 0.04410040006041527, 0.04468781012110412, 0.04468291299417615, 0.044346648966893554, 0.04430682794190943, 0.044422443956136703, 0.04414499714039266, 0.04419929697178304, 0.04486855096183717, 0.0441200090572238, 0.04451993806287646, 0.04447291884571314, 0.04452879191376269, 0.04421209683641791]</t>
+          <t>[0.07819827785715461, 0.04590063192881644, 0.04577130009420216, 0.0450311629101634, 0.045743448194116354, 0.04461598093621433, 0.04562806501053274, 0.04463301599025726, 0.045508916955441236, 0.04476119810715318, 0.04568293783813715, 0.044678343925625086, 0.0449699608143419, 0.04448190005496144, 0.045075939036905766, 0.04427347797900438, 0.0452376720495522, 0.04486996098421514, 0.04541670996695757, 0.04441910586319864, 0.04527602903544903, 0.044535890920087695, 0.045504349982365966, 0.04453342710621655, 0.04527205298654735, 0.04440735816024244, 0.045302998973056674, 0.060405343072488904, 0.05587774491868913, 0.04544287803582847, 0.045547885121777654, 0.044302962021902204, 0.04525504820048809, 0.04713066387921572, 0.056892044842243195, 0.04438328300602734, 0.045305712847039104, 0.04474153905175626, 0.04578434000723064, 0.044942027889192104, 0.04555134894326329, 0.044709000969305634, 0.04529721010476351, 0.044854698004201055, 0.04592613293789327, 0.04475121200084686, 0.04578255699016154, 0.06816016999073327, 0.045168387005105615, 0.044373558135703206]</t>
         </is>
       </c>
       <c r="AF15" t="n">
-        <v>0.04584498265292496</v>
+        <v>0.04700631723273545</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.04439667845144868</v>
+        <v>0.04526355059351772</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.007646082863243884</v>
+        <v>0.006307934273461172</v>
       </c>
       <c r="AI15" t="n">
-        <v>8264.410256410256</v>
+        <v>8458.921212121211</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10226</v>
+        <v>10250</v>
       </c>
       <c r="AK15" t="n">
-        <v>3724.010205577982</v>
+        <v>3708.714105579635</v>
       </c>
       <c r="AL15" t="n">
         <v>2858</v>
       </c>
       <c r="AM15" t="n">
-        <v>13058</v>
+        <v>13090</v>
       </c>
       <c r="AN15" t="n">
         <v>28898</v>
@@ -1517,35 +1517,35 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>[0.015562751796096563, 0.015397643903270364, 0.015563252149149776, 0.01549850613810122, 0.01569979707710445, 0.015435601118952036, 0.0166132349986583, 0.015694328816607594, 0.015498855849727988, 0.015561209991574287, 0.035134454956278205, 0.037665436044335365, 0.03883321397006512, 0.03394572716206312, 0.03505771094933152, 0.03062343201600015, 0.03093590005300939, 0.03055149200372398, 0.03818859905004501, 0.03894881601445377, 0.03676749183796346, 0.03636886505410075, 0.0304288100451231, 0.030810231110081077, 0.03117985394783318, 0.03860794799402356, 0.039548114873468876, 0.037699327105656266, 0.03617593599483371, 0.03032462392002344, 0.03035950707271695, 0.028559301048517227, 0.015383422840386629, 0.023772474844008684, 0.01646454306319356, 0.015441870084032416, 0.015575302066281438, 0.015488869976252317, 0.015443263109773397, 0.015505676157772541, 0.023674526950344443, 0.015609603142365813, 0.015457344939932227, 0.01563894678838551, 0.015433158027008176, 0.015667479019612074, 0.015249313088133931, 0.015266346978023648, 0.015523212030529976, 0.015334479976445436]</t>
+          <t>[0.04471825412474573, 0.04381379997357726, 0.0447317729704082, 0.0437199289444834, 0.0443687210790813, 0.04375493200495839, 0.044565766118466854, 0.043693070067092776, 0.044749821070581675, 0.043724616058170795, 0.04486582498066127, 0.04412850202061236, 0.04454167908988893, 0.0437066899612546, 0.045151721918955445, 0.04410098004154861, 0.044689611066132784, 0.043732857797294855, 0.04450651700608432, 0.04379366897046566, 0.04454812896437943, 0.0441625420935452, 0.04462278098799288, 0.046425298089161515, 0.04476892901584506, 0.04360447800718248, 0.0443979250267148, 0.04363382002338767, 0.044550321996212006, 0.043347863014787436, 0.04459878499619663, 0.04421930480748415, 0.044792153872549534, 0.04360508802346885, 0.04447746183723211, 0.04381365003064275, 0.044609281001612544, 0.043726669158786535, 0.044652706012129784, 0.04338024999015033, 0.044263354036957026, 0.04371571308001876, 0.04453166387975216, 0.04407493118196726, 0.0442492610309273, 0.043364298064261675, 0.04443697305396199, 0.04349925904534757, 0.044728958979249, 0.04346835194155574]</t>
         </is>
       </c>
       <c r="AS15" t="n">
-        <v>0.02418339614290744</v>
+        <v>0.04422657873015851</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.01653888903092593</v>
+        <v>0.04425630753394216</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.009587956590810754</v>
+        <v>0.0005786794420901897</v>
       </c>
       <c r="AV15" t="n">
-        <v>5811.274336283186</v>
+        <v>6937.258278145695</v>
       </c>
       <c r="AW15" t="n">
-        <v>7458</v>
+        <v>8386</v>
       </c>
       <c r="AX15" t="n">
-        <v>2640.711931359568</v>
+        <v>2897.766879198707</v>
       </c>
       <c r="AY15" t="n">
         <v>2858</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9778</v>
+        <v>11346</v>
       </c>
       <c r="BA15" t="n">
-        <v>15978</v>
+        <v>16842</v>
       </c>
       <c r="BB15" t="n">
         <v>1</v>
@@ -1570,35 +1570,35 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[1.8172252648510039, 1.8621857010293752, 1.8211917700245976, 1.8218230640050024, 1.8176367760170251, 1.8436667579226196, 1.8105951009783894, 1.8390789469704032, 1.8333376289810985, 1.8376471609808505, 1.837325797881931, 1.845700295874849, 1.898699148092419, 1.8077262749429792, 1.8220892099197954, 1.8589759469032288, 1.8287105220369995, 1.8569073281250894, 1.8604112030006945, 1.857985229929909, 1.8459794740192592, 1.8163246111944318, 1.8563095370773226, 1.8173190869856626, 1.7973197030369192, 1.8394480079878122, 1.8509839789476246, 1.8328992400784045, 1.814038299024105, 1.8714034389704466, 1.8129880540072918, 1.8223821190185845, 1.8263883478939533, 1.8456389580387622, 1.836877689929679, 1.8375524289440364, 1.8475473208818585, 1.8177361448761076, 1.846108275000006, 1.8169549049343914, 1.8265984610188752, 1.8136319359764457, 1.8412483839783818, 1.8649373420048505, 1.8256533031817526, 1.8529962501488626, 1.819054459920153, 1.8416982740163803, 1.8259095230605453, 1.8425183480139822]</t>
+          <t>[1.8092967849224806, 1.8326937051024288, 1.8144710669294, 1.8250475188251585, 1.8146684430539608, 1.8507664541248232, 1.8061827910132706, 1.8170324699021876, 1.8795295839663595, 1.8209899929352105, 1.8234055580105633, 1.8275057850405574, 1.856569156050682, 1.8408722588792443, 1.835962612181902, 1.8419533970300108, 1.8009085720404983, 1.8153634960763156, 1.8277704881038517, 1.85778573108837, 1.8212354038842022, 1.8060398187953979, 1.8434523560572416, 1.836238499963656, 1.8223368818871677, 1.8288601448293775, 1.8416022469755262, 1.805552105884999, 1.8302012109197676, 1.8961288901045918, 1.8559269360266626, 1.8178022298961878, 1.8454993979539722, 1.8406128329224885, 1.818525472888723, 1.8157099378295243, 1.856029667891562, 1.8184081672225147, 1.836471273098141, 1.826375339878723, 1.849878418026492, 1.8231475490611047, 1.8259371418971568, 1.878905835095793, 1.8338685338385403, 1.8356516228523105, 1.83044228493236, 1.844111594837159, 1.8368354830890894, 1.8251340880524367]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.835707300612703</v>
+        <v>1.832913944637403</v>
       </c>
       <c r="G16" t="n">
-        <v>1.837101743905805</v>
+        <v>1.829530677874573</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01943436532269457</v>
+        <v>0.0195264309985</v>
       </c>
       <c r="I16" t="n">
-        <v>6008667.686014163</v>
+        <v>6010759.054543153</v>
       </c>
       <c r="J16" t="n">
-        <v>6772588</v>
+        <v>6772596</v>
       </c>
       <c r="K16" t="n">
-        <v>1852123.903971585</v>
+        <v>1856067.763826247</v>
       </c>
       <c r="L16" t="n">
         <v>2858</v>
       </c>
       <c r="M16" t="n">
-        <v>10687326</v>
+        <v>11398222</v>
       </c>
       <c r="N16" t="n">
-        <v>11452842</v>
+        <v>11452898</v>
       </c>
       <c r="O16" t="n">
         <v>5</v>
@@ -1609,26 +1609,26 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.002910397946834564, 0.0031541120260953903, 0.005286304978653789, 0.006550336955115199, 0.006842134054750204, 0.006849346915259957, 0.006919780047610402, 0.006838578963652253, 0.006774293025955558, 0.006657557794824243, 0.006715065101161599, 0.006730447057634592, 0.006782015087082982, 0.006877298001199961, 0.006789003033190966, 0.00683295913040638, 0.006726600928232074, 0.006673101102933288, 0.00666091195307672, 0.007169234799221158, 0.006709735142067075, 0.006750386906787753, 0.006712379865348339, 0.006661863997578621, 0.006724877981469035, 0.006656826939433813, 0.00659026694484055, 0.006728403968736529, 0.006604457972571254, 0.0065849891398102045, 0.006719308905303478, 0.006724687991663814, 0.006555985892191529, 0.00658003194257617, 0.006696163909509778, 0.006601973902434111, 0.006589405937120318, 0.006711870897561312, 0.006749666063115001, 0.0065043289214372635, 0.006840351037681103, 0.006637658923864365, 0.006627171998843551, 0.006614414043724537, 0.006582867121323943, 0.006568926153704524, 0.006542097078636289, 0.006511168088763952, 0.0064000519923865795, 0.006492891814559698]</t>
+          <t>[0.003120762063190341, 0.003029806073755026, 0.005269807064905763, 0.005638741189613938, 0.006080809980630875, 0.007827075896784663, 0.007854286814108491, 0.007786654168739915, 0.007845422951504588, 0.007084644166752696, 0.007106185192242265, 0.007244852837175131, 0.007111484184861183, 0.007226245012134314, 0.007130292011424899, 0.006985906045883894, 0.00712681794539094, 0.007120508002117276, 0.0074530248530209064, 0.007061078911647201, 0.007021240191534162, 0.006952013820409775, 0.007036151830106974, 0.007056091912090778, 0.007095779990777373, 0.007189831929281354, 0.007035840069875121, 0.007029361091554165, 0.007090702885761857, 0.007016761926934123, 0.007100808899849653, 0.006981950020417571, 0.006936501944437623, 0.006921399151906371, 0.006977714132517576, 0.007009852910414338, 0.006906157825142145, 0.006956713041290641, 0.006875620922073722, 0.007251896196976304, 0.007017754949629307, 0.0069858159404248, 0.007070282939821482, 0.006887139054015279, 0.0068320659920573235, 0.0068985349498689175, 0.006833276944234967, 0.006839456968009472, 0.006978855933994055, 0.006860628956928849]</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0.006514293807558715</v>
+        <v>0.006855012173764408</v>
       </c>
       <c r="T16" t="n">
-        <v>0.006667482550255954</v>
+        <v>0.007019497570581734</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0007564383269412816</v>
+        <v>0.0008910167369999434</v>
       </c>
       <c r="V16" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W16" t="n">
         <v>2858</v>
       </c>
       <c r="X16" t="n">
-        <v>128.6660223451493</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y16" t="n">
         <v>2858</v>
@@ -1650,26 +1650,26 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>[0.09184987097978592, 0.05709720798768103, 0.05678455997258425, 0.05688543198630214, 0.057477167109027505, 0.05648958799429238, 0.056885933969169855, 0.057045169873163104, 0.0562498199287802, 0.05683194100856781, 0.05698911705985665, 0.05693145003169775, 0.0564328629989177, 0.05667699920013547, 0.05677873198874295, 0.057011289056390524, 0.05697764898650348, 0.05702430894598365, 0.05680831498466432, 0.05715541704557836, 0.05709451390430331, 0.05700381891801953, 0.05738415801897645, 0.0572761760558933, 0.05736732296645641, 0.056921135168522596, 0.0569923419971019, 0.05738326604478061, 0.05661697895266116, 0.05752653116360307, 0.05723257106728852, 0.05740592093206942, 0.05695035797543824, 0.05733985104598105, 0.0573556050658226, 0.05742505891248584, 0.057284028036519885, 0.058093460043892264, 0.06920113111846149, 0.05759839899837971, 0.05812537716701627, 0.056949087185785174, 0.056981494883075356, 0.05679191113449633, 0.057771607069298625, 0.05726818507537246, 0.05790909403003752, 0.05776109406724572, 0.056514926021918654, 0.056710610166192055]</t>
+          <t>[0.11332842707633972, 0.07050334592349827, 0.05710370116867125, 0.05699807312339544, 0.056958524975925684, 0.05704082711599767, 0.057309349067509174, 0.05697225499898195, 0.057263741036877036, 0.05669570015743375, 0.05743017001077533, 0.057372624054551125, 0.05758320796303451, 0.05863642483018339, 0.05743247386999428, 0.057039645966142416, 0.057446826016530395, 0.05739163304679096, 0.05752893700264394, 0.05742573388852179, 0.05764098605141044, 0.05756052513606846, 0.05674064811319113, 0.05727535905316472, 0.057028658920899034, 0.05689842416904867, 0.05693915509618819, 0.0569666160736233, 0.056696151150390506, 0.05767751997336745, 0.05728296982124448, 0.06412687408737838, 0.05703379609622061, 0.057080977130681276, 0.057189950020983815, 0.05692802998237312, 0.05721278511919081, 0.057104713981971145, 0.05722046596929431, 0.056818626122549176, 0.05713913310319185, 0.05765679897740483, 0.057213005144149065, 0.05688671697862446, 0.05710567510686815, 0.056993937119841576, 0.057094498071819544, 0.05707344599068165, 0.05791872995905578, 0.05722950003109872]</t>
         </is>
       </c>
       <c r="AF16" t="n">
-        <v>0.05805237688589841</v>
+        <v>0.05874392587691545</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.05703473940957338</v>
+        <v>0.05720136757008731</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.005183646478787907</v>
+        <v>0.008158770524508131</v>
       </c>
       <c r="AI16" t="n">
-        <v>8715.521951219513</v>
+        <v>8712.718446601943</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10170</v>
+        <v>10178</v>
       </c>
       <c r="AK16" t="n">
-        <v>3344.645381970027</v>
+        <v>3339.349769969394</v>
       </c>
       <c r="AL16" t="n">
         <v>2858</v>
@@ -1691,35 +1691,35 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>[0.01613088301382959, 0.016293987166136503, 0.0328610020224005, 0.03871244192123413, 0.03380407299846411, 0.03190579987131059, 0.03450484201312065, 0.040873146848753095, 0.040350824827328324, 0.03729027207009494, 0.032129884930327535, 0.03205917193554342, 0.03315802593715489, 0.03225535503588617, 0.03194935596548021, 0.03199219098314643, 0.03678059880621731, 0.041252606082707644, 0.03843278391286731, 0.03180504008196294, 0.032315834891051054, 0.031645871931687, 0.035883195931091905, 0.03188572102226317, 0.0325860190205276, 0.03262544912286103, 0.031835864996537566, 0.032244957983493805, 0.031951738987118006, 0.03215373191051185, 0.038985931081697345, 0.04070025822147727, 0.03859430504962802, 0.03721700212918222, 0.03155307308770716, 0.03162637213245034, 0.03628297406248748, 0.03184322686865926, 0.03211644687689841, 0.03222279483452439, 0.03184765391051769, 0.032003716100007296, 0.03187216096557677, 0.031736517092213035, 0.031784841092303395, 0.03188627096824348, 0.031609366880729795, 0.031649807933717966, 0.032033222960308194, 0.032096636947244406]</t>
+          <t>[0.05672983289696276, 0.05617348896339536, 0.05637814593501389, 0.056405545910820365, 0.05615396914072335, 0.05638401489704847, 0.05584059120155871, 0.05585959879681468, 0.056067661149427295, 0.05606974405236542, 0.05603037495166063, 0.056319168070331216, 0.056079598143696785, 0.05690422304905951, 0.05607113498263061, 0.055715412832796574, 0.05640976317226887, 0.05619216593913734, 0.05647314805537462, 0.05613826680928469, 0.056161280954256654, 0.056182813132181764, 0.056403292808681726, 0.056149442913010716, 0.05647986684925854, 0.056133809965103865, 0.056781589053571224, 0.0565724759362638, 0.05633636307902634, 0.05628474592231214, 0.05727115203626454, 0.05609173607081175, 0.056311666034162045, 0.05625215684995055, 0.055955311050638556, 0.05653529101982713, 0.05647813412360847, 0.05670606601051986, 0.05620670784264803, 0.056004546117037535, 0.056039738934487104, 0.0564770030323416, 0.056020881049335, 0.055894642136991024, 0.05587793793529272, 0.05651591089554131, 0.05630391510203481, 0.055961692007258534, 0.05561707611195743, 0.05643436894752085]</t>
         </is>
       </c>
       <c r="AS16" t="n">
-        <v>0.03318666502833367</v>
+        <v>0.05625674925744534</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.03212316590361297</v>
+        <v>0.05619943689089268</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.004610974694397583</v>
+        <v>0.0003090544198256345</v>
       </c>
       <c r="AV16" t="n">
-        <v>6027.567567567567</v>
+        <v>7228.56</v>
       </c>
       <c r="AW16" t="n">
-        <v>7554</v>
+        <v>8386</v>
       </c>
       <c r="AX16" t="n">
-        <v>2250.806713014058</v>
+        <v>2551.730709630693</v>
       </c>
       <c r="AY16" t="n">
         <v>2858</v>
       </c>
       <c r="AZ16" t="n">
-        <v>8290</v>
+        <v>10226</v>
       </c>
       <c r="BA16" t="n">
-        <v>15978</v>
+        <v>16842</v>
       </c>
       <c r="BB16" t="n">
         <v>1</v>
@@ -1744,35 +1744,35 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[1.931704759132117, 1.9011294478550553, 1.9232000429183245, 1.897752108052373, 1.9061289909295738, 1.88335555116646, 1.9064586530439556, 1.9273760900832713, 1.8974703510757536, 1.8697972181253135, 1.8796247309073806, 1.9397144787944853, 1.8758500970434397, 1.881692964816466, 1.9059984649065882, 1.91725551802665, 1.9394006808288395, 1.8844136341940612, 1.905204031150788, 1.8774480631109327, 1.869682075921446, 1.919768154155463, 1.8665677590761334, 1.8656212729401886, 1.8801389671862125, 1.8924200530163944, 1.8728653138969094, 1.8800136561039835, 1.9069479920435697, 1.8955750230234116, 1.8772265799343586, 1.8845497940201312, 1.8791347169317305, 1.8809445039369166, 1.8869531389791518, 1.9095880980603397, 1.901193086989224, 2.2926699239760637, 1.89728551520966, 1.8889590068720281, 1.8720102799125016, 1.887012121034786, 1.9019170650281012, 1.8887115030083805, 1.87987529207021, 1.8788467608392239, 1.904304055031389, 1.875834811013192, 1.8786981769371778, 1.9084004280157387]</t>
+          <t>[1.8950679400004447, 1.874455378158018, 1.8654460441321135, 1.9117349470034242, 1.8982889708131552, 1.8728991891257465, 1.889328588033095, 1.9008610809687525, 1.879520436981693, 1.8726717052049935, 1.8991909290198237, 1.9229820480104536, 1.8731385448481888, 1.8753190671559423, 1.925275039859116, 1.8719471308868378, 1.8740086639299989, 1.87274664407596, 1.9137356949504465, 1.8735239678062499, 1.8690948479343206, 1.8812634099740535, 1.8887448690366, 1.9074146531056613, 1.894099251832813, 1.9353406119626015, 1.866779661970213, 1.8779359669424593, 1.9124961360357702, 1.8809174299240112, 1.919657764956355, 1.870414569042623, 1.8953276670072228, 1.90107291797176, 1.890373792964965, 1.9051132441964, 1.8686861300375313, 1.8775807039346546, 1.8876712159253657, 1.8963692940305918, 1.8935145211871713, 1.8884134360123426, 1.942716022953391, 1.8831480329390615, 1.900075830053538, 1.8917065730784088, 1.9101179600693285, 1.8905973229557276, 1.881783930119127, 1.9202722781337798]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.901493820026517</v>
+        <v>1.891816841145046</v>
       </c>
       <c r="G17" t="n">
-        <v>1.888835254940204</v>
+        <v>1.88985119049903</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05950544098364093</v>
+        <v>0.01889464044157349</v>
       </c>
       <c r="I17" t="n">
-        <v>6040020.886266878</v>
+        <v>6042134.64232507</v>
       </c>
       <c r="J17" t="n">
-        <v>6773324</v>
+        <v>6773268</v>
       </c>
       <c r="K17" t="n">
-        <v>1827096.462435788</v>
+        <v>1827408.382178099</v>
       </c>
       <c r="L17" t="n">
         <v>2858</v>
       </c>
       <c r="M17" t="n">
-        <v>11398350</v>
+        <v>10741846</v>
       </c>
       <c r="N17" t="n">
-        <v>11452866</v>
+        <v>11452738</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
@@ -1783,26 +1783,26 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.0028635768685489893, 0.0027749650180339813, 0.004527759971097112, 0.006343789165839553, 0.006918756989762187, 0.006807982921600342, 0.006844938034191728, 0.006769546074792743, 0.006845477968454361, 0.006751198088750243, 0.0068098269402980804, 0.006764997960999608, 0.006736385868862271, 0.006803156109526753, 0.0068002608604729176, 0.00697977002710104, 0.00683232001028955, 0.006779329851269722, 0.006613472010940313, 0.007087901933118701, 0.006738458061590791, 0.00670800288207829, 0.006759601878002286, 0.0066690349485725164, 0.006683226907625794, 0.006629343843087554, 0.006655114004388452, 0.0067345628049224615, 0.0066986181773245335, 0.006678038975223899, 0.006692990893498063, 0.006725399987772107, 0.006665318040177226, 0.006681001977995038, 0.0066259619779884815, 0.006666532019153237, 0.006693050963804126, 0.006582204019650817, 0.0067199100740253925, 0.006633901968598366, 0.006901382934302092, 0.006690797861665487, 0.00659485487267375, 0.006588875083252788, 0.006608264055103064, 0.006548793986439705, 0.006546491989865899, 0.006503196898847818, 0.006546321092173457, 0.006493752123787999]</t>
+          <t>[0.005854291142895818, 0.00583694688975811, 0.005596808157861233, 0.006652727955952287, 0.007143401075154543, 0.007078504888340831, 0.007091693812981248, 0.007061388809233904, 0.007236650912091136, 0.007176251150667667, 0.007340196054428816, 0.007180817890912294, 0.007052917033433914, 0.007006928091868758, 0.00703256600536406, 0.007017643889412284, 0.007162200985476375, 0.007121879840269685, 0.007594958879053593, 0.007080458104610443, 0.007098163943737745, 0.007001559948548675, 0.007032365072518587, 0.007049690932035446, 0.006991855101659894, 0.006978366058319807, 0.007138394983485341, 0.007193858036771417, 0.006947410060092807, 0.0069769141264259815, 0.006971144117414951, 0.006962259998545051, 0.006989411078393459, 0.006954187992960215, 0.006887990050017834, 0.006873877951875329, 0.006888539995998144, 0.006914088968187571, 0.006914179073646665, 0.007199655985459685, 0.006908199051395059, 0.00690390495583415, 0.006820759037509561, 0.006847818847745657, 0.006940848892554641, 0.006968339905142784, 0.007049703039228916, 0.00694976095110178, 0.006931093987077475, 0.006816481938585639]</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>0.006506368359550834</v>
+        <v>0.006948401113040745</v>
       </c>
       <c r="T17" t="n">
-        <v>0.006691894377581775</v>
+        <v>0.006990633090026677</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0008301550786272146</v>
+        <v>0.0003379573456768084</v>
       </c>
       <c r="V17" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W17" t="n">
         <v>2858</v>
       </c>
       <c r="X17" t="n">
-        <v>135.0065999898387</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y17" t="n">
         <v>2858</v>
@@ -1824,32 +1824,32 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>[0.12308086780831218, 0.07170333503745496, 0.07166887307539582, 0.07197153707966208, 0.07170628989115357, 0.07177698705345392, 0.07174996612593532, 0.0724027119576931, 0.07181299896910787, 0.07202551700174809, 0.07221332797780633, 0.07220697891898453, 0.07169176801107824, 0.07171822804957628, 0.07245607278309762, 0.07163680507801473, 0.07173310010693967, 0.07125201006419957, 0.07161111803725362, 0.0718914670869708, 0.07217725599184632, 0.07224447489716113, 0.07195696397684515, 0.07159854914061725, 0.0717825940810144, 0.07170907384715974, 0.07145470287650824, 0.0716042360290885, 0.07142891502007842, 0.07172293402254581, 0.07133155898191035, 0.07149415207095444, 0.07244483614340425, 0.07335023093037307, 0.071975601837039, 0.07168289297260344, 0.07194611802697182, 0.07163149886764586, 0.07174442801624537, 0.07205183710902929, 0.07174390507861972, 0.07283512107096612, 0.07214918313547969, 0.0719378360081464, 0.07165103801526129, 0.07181810680776834, 0.07211945811286569, 0.07239270699210465, 0.07255548099055886, 0.07221690495498478]</t>
+          <t>[0.10460229613818228, 0.07210299209691584, 0.08582014194689691, 0.07166782091371715, 0.07190897990949452, 0.07262851810082793, 0.07203493895940483, 0.07261901395395398, 0.07187572191469371, 0.07186161004938185, 0.07194847986102104, 0.07214078702963889, 0.07203989708796144, 0.07217686111107469, 0.07233916502445936, 0.07182093895971775, 0.07225062302313745, 0.071575972950086, 0.07215698203071952, 0.07176004792563617, 0.07220375211909413, 0.07183500099927187, 0.0718603280838579, 0.07304023392498493, 0.07218826794996858, 0.07179299695417285, 0.0719131778459996, 0.07212452311068773, 0.07165859616361558, 0.07187207508832216, 0.07190291211009026, 0.07194856996648014, 0.07186820008791983, 0.07238237792626023, 0.07186777796596289, 0.07160968286916614, 0.07162867090664804, 0.07196333282627165, 0.07275767088867724, 0.07236522505991161, 0.07294463110156357, 0.07271111197769642, 0.07232725596986711, 0.07229536003433168, 0.0723261849489063, 0.07191521907225251, 0.07200383394956589, 0.0719437429215759, 0.07229950511828065, 0.07193478918634355]</t>
         </is>
       </c>
       <c r="AF17" t="n">
-        <v>0.07294125112239272</v>
+        <v>0.07301633592229337</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.07179779652506113</v>
+        <v>0.07201938645448536</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.007245957600136535</v>
+        <v>0.004965450979035733</v>
       </c>
       <c r="AI17" t="n">
-        <v>10327.22834645669</v>
+        <v>10309.54150197628</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11778</v>
+        <v>11826</v>
       </c>
       <c r="AK17" t="n">
-        <v>3716.58560673069</v>
+        <v>3718.02440863842</v>
       </c>
       <c r="AL17" t="n">
         <v>2858</v>
       </c>
       <c r="AM17" t="n">
-        <v>13522</v>
+        <v>13634</v>
       </c>
       <c r="AN17" t="n">
         <v>30914</v>
@@ -1865,35 +1865,35 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>[0.016740864841267467, 0.016625831834971905, 0.01667545805685222, 0.016723016975447536, 0.01696182508021593, 0.01667364384047687, 0.016804550075903535, 0.018059058114886284, 0.016615387052297592, 0.01684961700811982, 0.017218820052221417, 0.016636419110000134, 0.017197689041495323, 0.01677541807293892, 0.01762127410620451, 0.016561464872211218, 0.03956558811478317, 0.040002932073548436, 0.03848552191630006, 0.03266108105890453, 0.032990312902256846, 0.03328507486730814, 0.03283044486306608, 0.03294756915420294, 0.03275671415030956, 0.03286097897216678, 0.03271726495586336, 0.03306938102468848, 0.032917903969064355, 0.03285789489746094, 0.03299477091059089, 0.03317239601165056, 0.03288467600941658, 0.03301880485378206, 0.033116493141278625, 0.03266012901440263, 0.03417282388545573, 0.03310871007852256, 0.033335841028019786, 0.03289079410023987, 0.03313579014502466, 0.03295178501866758, 0.03300924296490848, 0.03280546609312296, 0.03758430201560259, 0.0420680430252105, 0.03994425502605736, 0.032783172791823745, 0.03368992102332413, 0.03303937707096338]</t>
+          <t>[0.07275024009868503, 0.07192718796432018, 0.07171500101685524, 0.07155330805107951, 0.07099123694933951, 0.07089672586880624, 0.07123286905698478, 0.07124983402900398, 0.07155220699496567, 0.07169344695284963, 0.07112951413728297, 0.07088376698084176, 0.07191203511320055, 0.0709391999989748, 0.07113631488755345, 0.07167667313478887, 0.07176160020753741, 0.07241047197021544, 0.07124353596009314, 0.07119742617942393, 0.07146490598097444, 0.07099614408798516, 0.07104247412644327, 0.0716741590294987, 0.07091574417427182, 0.07050488004460931, 0.0719225408975035, 0.07100463705137372, 0.07133318902924657, 0.07117381109856069, 0.07079602498561144, 0.0705220049712807, 0.07098851399496198, 0.07083719689399004, 0.0712423138320446, 0.07150138099677861, 0.07095520291477442, 0.07128201308660209, 0.0716482198331505, 0.07080443785525858, 0.07107463106513023, 0.07199631188996136, 0.07156687905080616, 0.07199541991576552, 0.07264308002777398, 0.07219957606866956, 0.07194621697999537, 0.0722238018643111, 0.07237481814809144, 0.07216620584949851]</t>
         </is>
       </c>
       <c r="AS17" t="n">
-        <v>0.02866111590526998</v>
+        <v>0.07145298662595451</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.03287282749079168</v>
+        <v>0.07130760105792433</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.008420191220296219</v>
+        <v>0.0005451053491590541</v>
       </c>
       <c r="AV17" t="n">
-        <v>6836.805970149254</v>
+        <v>8798.959999999999</v>
       </c>
       <c r="AW17" t="n">
-        <v>8642</v>
+        <v>9986</v>
       </c>
       <c r="AX17" t="n">
-        <v>3049.312094191678</v>
+        <v>2995.688249258756</v>
       </c>
       <c r="AY17" t="n">
         <v>2858</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9890</v>
+        <v>11706</v>
       </c>
       <c r="BA17" t="n">
-        <v>17578</v>
+        <v>18442</v>
       </c>
       <c r="BB17" t="n">
         <v>1</v>
@@ -1918,26 +1918,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[2.149681590963155, 2.1495700429659337, 2.1275192990433425, 2.1602809180039912, 2.1512415129691362, 2.137056373991072, 2.148375469027087, 2.1295106529723853, 2.1241764870937914, 2.1159079850185663, 2.155563326086849, 2.1480191198643297, 2.150262246839702, 2.1623387378640473, 2.138046315172687, 2.1377597548998892, 2.1409554390702397, 2.153184768045321, 2.1433622199110687, 2.1455855169333518, 2.153331544017419, 2.135299985995516, 2.1376131989527494, 2.1310312028508633, 2.158662631874904, 2.1193704530596733, 2.127787383971736, 2.154096090933308, 2.1460134491790086, 2.1514877339359373, 2.146893165074289, 2.137220751028508, 2.141435611061752, 2.135325492126867, 2.1581433350220323, 2.135108456015587, 2.1399768230039626, 2.13093434413895, 2.15515449619852, 2.146090494003147, 2.1649760878644884, 2.1606140460353345, 2.110039896098897, 2.1393363170791417, 2.15468786098063, 2.1653669581282884, 2.1302104820497334, 2.1224186348263174, 2.1614248531404883, 2.126829707995057]</t>
+          <t>[2.1438609559554607, 2.1440510200336576, 2.1307770640123636, 2.1499611460603774, 2.134738278808072, 2.1158437991980463, 2.161098362877965, 2.1304396328050643, 2.138614729978144, 2.128787219990045, 2.163684912957251, 2.1508285901509225, 2.1292871579062194, 2.1581348141189665, 2.1068976128008217, 2.109467670787126, 2.1388089270330966, 2.1558127789758146, 2.1198724240530282, 2.1416629899758846, 2.145399891072884, 2.1387755149044096, 2.1337767029181123, 2.1219417878892273, 2.152796691050753, 2.1416867920197546, 2.12725161598064, 2.1481390590779483, 2.121976819820702, 2.1181011190637946, 2.145158965839073, 2.1410409221425653, 2.1474051969125867, 2.113327953964472, 2.159985146019608, 2.1434138419572264, 2.146666870918125, 2.1334921719972044, 2.16677562892437, 2.1508480180054903, 2.1331321611069143, 2.1621406089980155, 2.137985834153369, 2.1334328609518707, 2.1289749280549586, 2.1418309900909662, 2.1250278200022876, 2.123261664994061, 2.1561819000635296, 2.1467347689904273]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.142905585267581</v>
+        <v>2.138785886727273</v>
       </c>
       <c r="G18" t="n">
-        <v>2.14447386842221</v>
+        <v>2.139924924587831</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01341160002768962</v>
+        <v>0.01461699567885344</v>
       </c>
       <c r="I18" t="n">
-        <v>6155174.784357423</v>
+        <v>6162111.733877811</v>
       </c>
       <c r="J18" t="n">
-        <v>6774284</v>
+        <v>6774320</v>
       </c>
       <c r="K18" t="n">
-        <v>1722566.117543937</v>
+        <v>1720471.673967476</v>
       </c>
       <c r="L18" t="n">
         <v>2858</v>
@@ -1946,7 +1946,7 @@
         <v>11398222</v>
       </c>
       <c r="N18" t="n">
-        <v>11452738</v>
+        <v>11452706</v>
       </c>
       <c r="O18" t="n">
         <v>7</v>
@@ -1957,32 +1957,32 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.002905739936977625, 0.0027368569280952215, 0.005433904938399792, 0.00543243414722383, 0.005306233884766698, 0.0064501469023525715, 0.006742615019902587, 0.006916465004906058, 0.006649975897744298, 0.006683427141979337, 0.006721703801304102, 0.006690246984362602, 0.006678929086774588, 0.006670868024230003, 0.00662898481823504, 0.006643797038123012, 0.006740290904417634, 0.006744877900928259, 0.006739119999110699, 0.007068841950967908, 0.006675634998828173, 0.006747721927240491, 0.006570057012140751, 0.006721522891893983, 0.006731969071552157, 0.006746759871020913, 0.006650587078183889, 0.006684537976980209, 0.006624347995966673, 0.006703687133267522, 0.006727081025019288, 0.00675424188375473, 0.00679199886508286, 0.006611627992242575, 0.006665858905762434, 0.006690136156976223, 0.006668643094599247, 0.0066822548396885395, 0.006834632949903607, 0.0066361448261886835, 0.006953510921448469, 0.006550998892635107, 0.006651298841461539, 0.006592350080609322, 0.006612380035221577, 0.006537277949973941, 0.006660311948508024, 0.006528915138915181, 0.006567212985828519, 0.006462706020101905]</t>
+          <t>[0.0030715360771864653, 0.004834756953641772, 0.005661826115101576, 0.006067181006073952, 0.007114287931472063, 0.007258974015712738, 0.00724024698138237, 0.007219747174531221, 0.007164865033701062, 0.007364261895418167, 0.0071319350972771645, 0.007249410031363368, 0.007093316875398159, 0.007091584149748087, 0.007298203883692622, 0.007079315837472677, 0.0071866768412292, 0.007210643030703068, 0.007548206951469183, 0.007225814973935485, 0.00705068395473063, 0.007046106969937682, 0.007132936967536807, 0.007154167862609029, 0.0072118258103728294, 0.007203330984339118, 0.007314357906579971, 0.007013917900621891, 0.007026235107332468, 0.006949311122298241, 0.006936653051525354, 0.006983652012422681, 0.007014568895101547, 0.007028430001810193, 0.006909932941198349, 0.006954127922654152, 0.006850553909316659, 0.006889050826430321, 0.0068884810898453, 0.007176893064752221, 0.006941951112821698, 0.006874497979879379, 0.007059786003082991, 0.006930973147973418, 0.006988138891756535, 0.006863191956654191, 0.006902091205120087, 0.006805986864492297, 0.006899966858327389, 0.007660335162654519]</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>0.006452437392435968</v>
+        <v>0.006915498566813767</v>
       </c>
       <c r="T18" t="n">
-        <v>0.006669755559414625</v>
+        <v>0.007048395462334156</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0008178110895795858</v>
+        <v>0.0007036597430130844</v>
       </c>
       <c r="V18" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W18" t="n">
         <v>2858</v>
       </c>
       <c r="X18" t="n">
-        <v>139.872268261337</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y18" t="n">
         <v>2858</v>
       </c>
       <c r="Z18" t="n">
-        <v>3402</v>
+        <v>3306</v>
       </c>
       <c r="AA18" t="n">
         <v>64715</v>
@@ -1998,79 +1998,83 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>[0.11691015586256981, 0.08323907502926886, 0.0840454320423305, 0.08547213906422257, 0.08420767495408654, 0.08432891708798707, 0.08430263679474592, 0.08468176401220262, 0.08908443595282733, 0.08405435620807111, 0.08345460705459118, 0.08444813406094909, 0.08399656787514687, 0.0834819080773741, 0.08309281594119966, 0.08383890194818377, 0.08374117710627615, 0.08383532683365047, 0.08331864303909242, 0.08375555905513465, 0.08350637508556247, 0.08342837798409164, 0.08456494007259607, 0.08365362696349621, 0.08414039411582053, 0.08493930101394653, 0.08433771901763976, 0.08367026993073523, 0.08347204397432506, 0.0836339348461479, 0.08479404193349183, 0.08363613998517394, 0.08419990399852395, 0.08451512502506375, 0.0841607041656971, 0.08421831205487251, 0.08361425600014627, 0.08408880699425936, 0.08561432105489075, 0.08429899113252759, 0.08420459018088877, 0.08399942307733, 0.08428152487613261, 0.08425433514639735, 0.08336807694286108, 0.08406899683177471, 0.08449676702730358, 0.0851097151171416, 0.08449413417838514, 0.08466475899331272]</t>
+          <t>[0.12123520905151963, 0.08326119207777083, 0.08382199099287391, 0.08334846212528646, 0.08373888581991196, 0.08362628798931837, 0.08361242804676294, 0.08336121216416359, 0.08369017415679991, 0.08346269489265978, 0.08342363382689655, 0.08358499594032764, 0.08448180789127946, 0.08367605204693973, 0.08440823899582028, 0.08380964305251837, 0.08406442403793335, 0.08357134717516601, 0.0834792978130281, 0.0833462888840586, 0.08349094609729946, 0.0838232021778822, 0.08318290393799543, 0.08392808889038861, 0.08390933205373585, 0.08426585514098406, 0.08396922098472714, 0.08398304297588766, 0.08373340894468129, 0.0842981340829283, 0.08475084300152957, 0.09890440595336258, 0.08394227200187743, 0.08346627792343497, 0.08469160203821957, 0.08381627197377384, 0.08439111313782632, 0.08422275120392442, 0.08440886903554201, 0.08451490802690387, 0.0838028120342642, 0.08460180810652673, 0.08437890489585698, 0.0837593269534409, 0.08350015990436077, 0.08342498796992004, 0.08440999197773635, 0.08369538187980652, 0.08404161990620196, 0.08360659796744585]</t>
         </is>
       </c>
       <c r="AF18" t="n">
-        <v>0.08485440271440893</v>
+        <v>0.08491838616319</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.08415054914075881</v>
+        <v>0.0838129575131461</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.004710858933755958</v>
+        <v>0.005670037008177705</v>
       </c>
       <c r="AI18" t="n">
-        <v>10608.88741721854</v>
+        <v>10564.42904290429</v>
       </c>
       <c r="AJ18" t="n">
         <v>11858</v>
       </c>
       <c r="AK18" t="n">
-        <v>3468.603147463252</v>
+        <v>3441.796545075953</v>
       </c>
       <c r="AL18" t="n">
         <v>2858</v>
       </c>
       <c r="AM18" t="n">
-        <v>17146</v>
+        <v>13362</v>
       </c>
       <c r="AN18" t="n">
-        <v>30594</v>
+        <v>30498</v>
       </c>
       <c r="AO18" t="n">
         <v>7</v>
       </c>
-      <c r="AP18" t="inlineStr"/>
+      <c r="AP18" t="n">
+        <v>8875</v>
+      </c>
       <c r="AQ18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>[0.016798780066892505, 0.016800963087007403, 0.016676317900419235, 0.016699151834473014, 0.01681067910976708, 0.016616397071629763, 0.016965229995548725, 0.01645717886276543, 0.0175170861184597, 0.016461926978081465, 0.017120073083788157, 0.016556398943066597, 0.017452940810471773, 0.01658733398653567, 0.01659193215891719, 0.01654361793771386, 0.01646505086682737, 0.016573773929849267, 0.01668017404153943, 0.017571558943018317, 0.01660347799770534, 0.01763388211838901, 0.016534444876015186, 0.016642007045447826, 0.016498781042173505, 0.016608797013759613, 0.01728980615735054, 0.041131422854959965, 0.03278650785796344, 0.03300639591179788, 0.0327500831335783, 0.03324506478384137, 0.03316706791520119, 0.038064649095758796, 0.04157899203710258, 0.03892685007303953, 0.032600559992715716, 0.03275381796993315, 0.03262469498440623, 0.03257915819995105, 0.032625234918668866, 0.03246603696607053, 0.03284458490088582, 0.032975900918245316, 0.03271801513619721, 0.03275516000576317, 0.03286954201757908, 0.032443605130538344, 0.0328714051283896, 0.033299264032393694]</t>
+          <t>[0.08271641610190272, 0.08361648512072861, 0.0832307159435004, 0.08300428604707122, 0.08262051292695105, 0.08273544511757791, 0.0826143550220877, 0.08285650587640703, 0.0830321388784796, 0.0832302460912615, 0.08384605683386326, 0.08335100603289902, 0.0829653088003397, 0.08398132002912462, 0.08295968105085194, 0.08275421219877899, 0.08389538200572133, 0.08318770211189985, 0.0827861709985882, 0.0834059789776802, 0.08326099207624793, 0.08301060600206256, 0.08399371895939112, 0.08350921398960054, 0.08313272893428802, 0.08281827904284, 0.09157095896080136, 0.08321439218707383, 0.08326576906256378, 0.08321370999328792, 0.08335719490423799, 0.08304411708377302, 0.08384129102341831, 0.08379044407047331, 0.08489853097125888, 0.08338818210177124, 0.08363607292994857, 0.08272743201814592, 0.08306721108965576, 0.08331968006677926, 0.08291024598293006, 0.08304208307527006, 0.08275621617212892, 0.08298434689640999, 0.0828288549091667, 0.08354111900553107, 0.08269672491587698, 0.08247426385059953, 0.09700111602433026, 0.0829440769739449]</t>
         </is>
       </c>
       <c r="AS18" t="n">
-        <v>0.02473683551885188</v>
+        <v>0.08364058998879045</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.01754432253073901</v>
+        <v>0.08316021552309394</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.00888999991313582</v>
+        <v>0.002307629080503488</v>
       </c>
       <c r="AV18" t="n">
-        <v>6227.747967479675</v>
+        <v>8770.15894039735</v>
       </c>
       <c r="AW18" t="n">
-        <v>7690</v>
+        <v>9986</v>
       </c>
       <c r="AX18" t="n">
-        <v>2812.978686676573</v>
+        <v>2721.076897656454</v>
       </c>
       <c r="AY18" t="n">
         <v>2858</v>
       </c>
       <c r="AZ18" t="n">
-        <v>9922</v>
+        <v>11706</v>
       </c>
       <c r="BA18" t="n">
-        <v>17578</v>
+        <v>18442</v>
       </c>
       <c r="BB18" t="n">
         <v>0.9568733153638814</v>
       </c>
-      <c r="BC18" t="inlineStr"/>
+      <c r="BC18" t="n">
+        <v>0.9568733153638814</v>
+      </c>
       <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -2088,35 +2092,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[2.157512811012566, 2.167837257962674, 2.1649308050982654, 2.1385366388130933, 2.150200059870258, 2.159444130025804, 2.1271362567786127, 2.1428370729554445, 2.1140605688560754, 2.163697512820363, 2.157566502923146, 2.160669517936185, 2.179936152184382, 2.163530440069735, 2.1711383091751486, 2.144653335912153, 2.170032209949568, 2.147898241877556, 2.147500758059323, 2.197621044004336, 2.1448977668769658, 2.1554152630269527, 2.1389108418952674, 2.171470888890326, 2.1351281059905887, 2.1320423749275506, 2.181894601788372, 2.121641089906916, 2.1413976491894573, 2.1263265449088067, 2.1653249009978026, 2.1324454641435295, 2.1590569138061255, 2.1525803690310568, 2.1537344839889556, 2.15100433700718, 2.170999903930351, 2.1590950980316848, 2.1191213000565767, 2.134461927926168, 2.1607689710799605, 2.1408810359425843, 2.1705558840185404, 2.140766452997923, 2.159704224904999, 2.159097715979442, 2.123228465206921, 2.148442351957783, 2.1302840050775558, 2.1441776449792087]</t>
+          <t>[2.153217959916219, 2.152701006969437, 2.179106436902657, 2.1321169859729707, 2.154176513897255, 2.1467517979908735, 2.145025505917147, 2.1647863229736686, 2.174364628037438, 2.18437286792323, 2.1278206910938025, 2.1393881659023464, 2.154594116844237, 2.135063881985843, 2.15162122505717, 2.1318623600527644, 2.1562698630150408, 2.1279654160607606, 2.1354948868975043, 2.2070718999020755, 2.1495903141330928, 2.1317554991692305, 2.1492418819107115, 2.156201326986775, 2.1475787728559226, 2.122585393022746, 2.158953586127609, 2.1468599948566407, 2.1276158711407334, 2.124823471996933, 2.152413366129622, 2.146885769907385, 2.157118628034368, 2.1582775320857763, 2.1451075188815594, 2.1316199898719788, 2.142493275925517, 2.1691395801026374, 2.1389934360049665, 2.135660629021004, 2.1541600672062486, 2.1630867479834706, 2.1401308379136026, 2.1402528521139175, 2.172875117044896, 2.138920014956966, 2.1625350611284375, 2.1770536210387945, 2.1286310038994998, 2.1454311800189316]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.151031924095005</v>
+        <v>2.149395297495648</v>
       </c>
       <c r="G19" t="n">
-        <v>2.151792353019118</v>
+        <v>2.147232271381654</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01764361384169816</v>
+        <v>0.01713064965796638</v>
       </c>
       <c r="I19" t="n">
-        <v>6156456.332277144</v>
+        <v>6158947.965225663</v>
       </c>
       <c r="J19" t="n">
-        <v>6774436</v>
+        <v>6774316</v>
       </c>
       <c r="K19" t="n">
-        <v>1716127.279079269</v>
+        <v>1720712.246653806</v>
       </c>
       <c r="L19" t="n">
         <v>2858</v>
       </c>
       <c r="M19" t="n">
-        <v>11398123</v>
+        <v>11452390</v>
       </c>
       <c r="N19" t="n">
-        <v>11452578</v>
+        <v>11452738</v>
       </c>
       <c r="O19" t="n">
         <v>8</v>
@@ -2127,26 +2131,26 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.002886581001803279, 0.00395247689448297, 0.005390150006860495, 0.005571871995925903, 0.006551739992573857, 0.006707050837576389, 0.0067263999953866005, 0.006788423052057624, 0.006790896877646446, 0.006885007955133915, 0.006798559101298451, 0.0066642980091273785, 0.00673888879828155, 0.006671939045190811, 0.006713512120768428, 0.006741633173078299, 0.00681668589822948, 0.00668062106706202, 0.006705690873786807, 0.007124506868422031, 0.006699452176690102, 0.006733971880748868, 0.006739910924807191, 0.0067353141494095325, 0.006807022029533982, 0.006643717875704169, 0.006636074045673013, 0.006655813893303275, 0.0065995510667562485, 0.00660681095905602, 0.006641834042966366, 0.006675573997199535, 0.010809154016897082, 0.010740740923210979, 0.010954190976917744, 0.006757927825674415, 0.006644308101385832, 0.006774222012609243, 0.006729335989803076, 0.010472279042005539, 0.006881902925670147, 0.006616255966946483, 0.006546511081978679, 0.006477998103946447, 0.006635874975472689, 0.006464707897976041, 0.006635683821514249, 0.00656668096780777, 0.006525109987705946, 0.006480831885710359]</t>
+          <t>[0.0036348009016364813, 0.00576127297244966, 0.005723817041143775, 0.006794980028644204, 0.007085164077579975, 0.0070361418183892965, 0.007080527022480965, 0.007152355974540114, 0.0071240130346268415, 0.007119977148249745, 0.007066256832331419, 0.007023131009191275, 0.007101488998159766, 0.007071814965456724, 0.007239775033667684, 0.00709733203984797, 0.007048619911074638, 0.007004353916272521, 0.007465023081749678, 0.0071184339467436075, 0.007301197852939367, 0.007094278000295162, 0.007071805186569691, 0.007037985138595104, 0.007283202139660716, 0.0070142189506441355, 0.007076371926814318, 0.007176461862400174, 0.0071227410808205605, 0.007009160937741399, 0.006968750851228833, 0.006957914913073182, 0.006941971136257052, 0.006921789143234491, 0.006920256884768605, 0.0069284390192478895, 0.006853417959064245, 0.006851305020973086, 0.006957133999094367, 0.007110201986506581, 0.007051485124975443, 0.006847558077424765, 0.006851745070889592, 0.006961809005588293, 0.006796191213652492, 0.007036481983959675, 0.006860828958451748, 0.006868210155516863, 0.006898434832692146, 0.006813117070123553]</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>0.006835913942195475</v>
+        <v>0.006906674904748797</v>
       </c>
       <c r="T19" t="n">
-        <v>0.006690036621876061</v>
+        <v>0.007029636413790286</v>
       </c>
       <c r="U19" t="n">
-        <v>0.001357612090548792</v>
+        <v>0.0005528486356692905</v>
       </c>
       <c r="V19" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W19" t="n">
         <v>2858</v>
       </c>
       <c r="X19" t="n">
-        <v>135.0065999898387</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y19" t="n">
         <v>2858</v>
@@ -2168,32 +2172,32 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>[0.12537637003697455, 0.093074708012864, 0.09345695096999407, 0.09319685213267803, 0.09321146318688989, 0.0933468050789088, 0.09471726696938276, 0.09303622110746801, 0.09337798203341663, 0.09263525879941881, 0.0931107820942998, 0.09259174508042634, 0.0929012589622289, 0.0928711739834398, 0.09275114396587014, 0.0933978920802474, 0.0999735458754003, 0.09232872095890343, 0.09325003204867244, 0.09245744510553777, 0.09294258081354201, 0.09390058415010571, 0.09357355581596494, 0.09431626880541444, 0.09361172304488719, 0.09597058407962322, 0.09338561398908496, 0.09365486796014011, 0.09260760014876723, 0.09378295810893178, 0.09459142899140716, 0.09414450009353459, 0.09342843783088028, 0.09358116611838341, 0.09491190896369517, 0.09443935193121433, 0.09385229391045868, 0.09441793896257877, 0.09453237196430564, 0.09379268414340913, 0.09307021298445761, 0.09284054697491229, 0.09292725683189929, 0.09263722319155931, 0.09419636917300522, 0.09343849192373455, 0.09475021716207266, 0.09371173288673162, 0.09509380208328366, 0.0929984760005027]</t>
+          <t>[0.12487914110533893, 0.09295242698863149, 0.09283755393698812, 0.09368091798387468, 0.09285059291869402, 0.09294289187528193, 0.09313277690671384, 0.09537138696759939, 0.0931406079325825, 0.10829744418151677, 0.09343728283420205, 0.09333208505995572, 0.09257579105906188, 0.0938322430010885, 0.1100284040439874, 0.09302391391247511, 0.0930909940507263, 0.09398458106443286, 0.09285635291598737, 0.09328339202329516, 0.09270205209031701, 0.09300976293161511, 0.09376720688305795, 0.10361086879856884, 0.09244729904457927, 0.09298556600697339, 0.09283501980826259, 0.09320906084030867, 0.09268286311998963, 0.10281316516920924, 0.09454668289981782, 0.09529277915135026, 0.09405911201611161, 0.0934724339749664, 0.09333090297877789, 0.09316765889525414, 0.09283487196080387, 0.09252798091620207, 0.09281945810653269, 0.09310429310426116, 0.0939142550341785, 0.09363120188936591, 0.09338679793290794, 0.0935869668610394, 0.09358213795349002, 0.09314452391117811, 0.09412581194192171, 0.09642176004126668, 0.09377312497235835, 0.09352981089614332]</t>
         </is>
       </c>
       <c r="AF19" t="n">
-        <v>0.0943233273504302</v>
+        <v>0.09507692421786487</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.09343346487730742</v>
+        <v>0.0933314940193668</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.00463602883608428</v>
+        <v>0.005657612443586506</v>
       </c>
       <c r="AI19" t="n">
-        <v>9407.545454545454</v>
+        <v>9435.745762711864</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10310</v>
+        <v>10322</v>
       </c>
       <c r="AK19" t="n">
-        <v>2684.692472731593</v>
+        <v>2696.751644280764</v>
       </c>
       <c r="AL19" t="n">
         <v>2858</v>
       </c>
       <c r="AM19" t="n">
-        <v>11922</v>
+        <v>14138</v>
       </c>
       <c r="AN19" t="n">
         <v>28898</v>
@@ -2201,46 +2205,50 @@
       <c r="AO19" t="n">
         <v>8</v>
       </c>
-      <c r="AP19" t="inlineStr"/>
+      <c r="AP19" t="n">
+        <v>9025</v>
+      </c>
       <c r="AQ19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>[0.016615967033430934, 0.01684382720850408, 0.016370137920603156, 0.016474124044179916, 0.016548987943679094, 0.016595735913142562, 0.016685910057276487, 0.016614914871752262, 0.017103716963902116, 0.01653066906146705, 0.01706401794217527, 0.016373183112591505, 0.01656352891586721, 0.016389688942581415, 0.016754233976826072, 0.017235012957826257, 0.01658098492771387, 0.016704119043424726, 0.01655550696887076, 0.01651505706831813, 0.016689798096194863, 0.01673102891072631, 0.016644631046801805, 0.016702536027878523, 0.016519222175702453, 0.016374313971027732, 0.01700062188319862, 0.023092592833563685, 0.03918905393220484, 0.03267432004213333, 0.03274937090463936, 0.03252180013805628, 0.03280659602023661, 0.03278112015686929, 0.03321681101806462, 0.03256664797663689, 0.0328746500890702, 0.03326820791698992, 0.03241063398309052, 0.03260989300906658, 0.03252522507682443, 0.0325145001988858, 0.03272115904837847, 0.032621379010379314, 0.03260551602579653, 0.032865926157683134, 0.032456053886562586, 0.03275093506090343, 0.032403814140707254, 0.03303162404336035]</t>
+          <t>[0.0924115760717541, 0.09203437296673656, 0.09336836892180145, 0.0919295649509877, 0.0927647550124675, 0.09212068212218583, 0.09457009914331138, 0.09301311592571437, 0.0927165630273521, 0.09176406799815595, 0.09224403509870172, 0.09706606389954686, 0.09198243403807282, 0.09291356895118952, 0.09263762482441962, 0.09169143904000521, 0.09251664485782385, 0.09254435519687831, 0.09254557802341878, 0.0927603889722377, 0.09185431315563619, 0.09189825784415007, 0.09232095000334084, 0.09199259988963604, 0.0941042909398675, 0.09550213301554322, 0.09242669004015625, 0.09264876181259751, 0.09191271895542741, 0.09194978489540517, 0.09268698887899518, 0.09256142005324364, 0.09140929696150124, 0.0915595421101898, 0.0923331780359149, 0.0916701159439981, 0.09288069698959589, 0.09837103704921901, 0.09215961094014347, 0.09210071200504899, 0.09196959622204304, 0.09515766683034599, 0.10023216297850013, 0.09155040699988604, 0.0931551200337708, 0.10962920798920095, 0.09218427678570151, 0.10829086392186582, 0.09140391810797155, 0.09143336303532124]</t>
         </is>
       </c>
       <c r="AS19" t="n">
-        <v>0.02398078615311533</v>
+        <v>0.09349889962933958</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.01708386745303869</v>
+        <v>0.09241913305595517</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.008185957805698947</v>
+        <v>0.003624108446549593</v>
       </c>
       <c r="AV19" t="n">
-        <v>5570.934426229508</v>
+        <v>7797.514204545455</v>
       </c>
       <c r="AW19" t="n">
-        <v>6738</v>
+        <v>8498</v>
       </c>
       <c r="AX19" t="n">
-        <v>2249.054827143895</v>
+        <v>2070.078626807488</v>
       </c>
       <c r="AY19" t="n">
         <v>2858</v>
       </c>
       <c r="AZ19" t="n">
-        <v>8250</v>
+        <v>10106</v>
       </c>
       <c r="BA19" t="n">
-        <v>15978</v>
+        <v>16842</v>
       </c>
       <c r="BB19" t="n">
         <v>0.9093198992443325</v>
       </c>
-      <c r="BC19" t="inlineStr"/>
+      <c r="BC19" t="n">
+        <v>0.9093198992443325</v>
+      </c>
       <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -2258,35 +2266,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[1.990062495926395, 2.0385120450519025, 1.9718767881859094, 1.9676696779206395, 1.9838943700306118, 1.9601504099555314, 1.9566917910706252, 1.9664454341400415, 1.9976804158650339, 1.981494122883305, 2.0035219930578023, 1.991783675039187, 1.9674549819901586, 1.9695365771185607, 1.984659719048068, 2.014919781824574, 1.9772023109253496, 1.9696015829686075, 1.9940561840776354, 1.9631765820086002, 1.9614371058996767, 1.973807908827439, 1.98957002395764, 1.9882473561447114, 1.9925088349264115, 2.0064666010439396, 1.9652415998280048, 1.9728779720608145, 1.9762124130502343, 1.9966972130350769, 1.9770304372068495, 1.970492027932778, 2.029060624074191, 1.9875840558670461, 1.9749382832087576, 1.9801356429234147, 2.011263395892456, 2.0334658639039844, 1.9627171840984374, 2.000351507915184, 1.9647227248642594, 1.961701561929658, 1.990094630047679, 2.0258849430829287, 1.9942254829220474, 1.9820116269402206, 2.030890554888174, 1.9927948808763176, 1.990694684907794, 1.978123493026942]</t>
+          <t>[1.9725001640617847, 2.0149913320783526, 1.989312417106703, 1.947021187050268, 1.9703297240193933, 1.9695878240745515, 1.966922112973407, 1.9609654869418591, 1.9996621850878, 1.968131051864475, 1.9630357259884477, 1.9886823210399598, 1.9635594689752907, 1.9620713831391186, 1.9537119308952242, 1.9855211309622973, 1.9719135309569538, 1.9468665719032288, 1.9983688790816814, 1.9899312991183251, 1.9801530840341002, 1.9914199879858643, 1.9942117158789188, 2.0175890459213406, 1.9838148730341345, 1.9929234271403402, 1.9526066831313074, 1.960435498971492, 1.9680064721032977, 1.9805784588679671, 1.9710837968159467, 1.9743002920877188, 1.9904713151045144, 1.960938832955435, 1.96660321415402, 1.9639503720682114, 1.9879010959994048, 1.9929230730049312, 1.9877166249789298, 1.9922288870438933, 1.9753130099270493, 1.960258818930015, 1.972863149130717, 1.997775502037257, 1.9759260290302336, 1.9960535680875182, 2.002732555847615, 1.9617050199303776, 1.9880965689662844, 1.9856482199393213]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.986232831487432</v>
+        <v>1.978186298408546</v>
       </c>
       <c r="G20" t="n">
-        <v>1.982952998485416</v>
+        <v>1.975619519478641</v>
       </c>
       <c r="H20" t="n">
-        <v>0.02070244444996288</v>
+        <v>0.01659578191595517</v>
       </c>
       <c r="I20" t="n">
-        <v>6077770.362815467</v>
+        <v>6087373.760806583</v>
       </c>
       <c r="J20" t="n">
-        <v>6773401</v>
+        <v>6773452</v>
       </c>
       <c r="K20" t="n">
-        <v>1796808.664378121</v>
+        <v>1784396.544613775</v>
       </c>
       <c r="L20" t="n">
         <v>2858</v>
       </c>
       <c r="M20" t="n">
-        <v>10687419</v>
+        <v>11398478</v>
       </c>
       <c r="N20" t="n">
-        <v>11452543</v>
+        <v>11452578</v>
       </c>
       <c r="O20" t="n">
         <v>9</v>
@@ -2297,26 +2305,26 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.005517089972272515, 0.005252934992313385, 0.0055297790095210075, 0.00659021595492959, 0.006808262085542083, 0.006692870054394007, 0.0068321379367262125, 0.006785449106246233, 0.006779941963031888, 0.0068107969127595425, 0.006878038169816136, 0.0067724192049354315, 0.006707643158733845, 0.0067348729353398085, 0.006777097005397081, 0.006755114067345858, 0.006702524842694402, 0.0068708970211446285, 0.006848803022876382, 0.007142782909795642, 0.006735244067385793, 0.00685155694372952, 0.006825027987360954, 0.006820310838520527, 0.006783234886825085, 0.006704328116029501, 0.006696205120533705, 0.006750517059117556, 0.006585069932043552, 0.006679781014099717, 0.006617828039452434, 0.006654832977801561, 0.006633772049099207, 0.006593161029741168, 0.006567663978785276, 0.006611630087718368, 0.006728324107825756, 0.00659990101121366, 0.006694623036310077, 0.00664876401424408, 0.006849396042525768, 0.006419329904019833, 0.006500920979306102, 0.006606530863791704, 0.0064834970980882645, 0.006600191118195653, 0.006587102077901363, 0.00651119789108634, 0.006486132042482495, 0.006523246178403497]</t>
+          <t>[0.0030749940779060125, 0.004746335092931986, 0.005768977105617523, 0.0056807349901646376, 0.006744488142430782, 0.007220819825306535, 0.007211055140942335, 0.007107679964974523, 0.007044726982712746, 0.007042173063382506, 0.007179677952080965, 0.007131957216188312, 0.007168140960857272, 0.007500178180634975, 0.007428009994328022, 0.007126400014385581, 0.007222413085401058, 0.007107699988409877, 0.007510364055633545, 0.007060620933771133, 0.007125438190996647, 0.007178636966273189, 0.007111116079613566, 0.007109151920303702, 0.007026278879493475, 0.00711408001370728, 0.006969633046537638, 0.007032138062641025, 0.00697856699116528, 0.0069201800506561995, 0.007006549974903464, 0.007902739802375436, 0.006892609875649214, 0.006976305041462183, 0.007001372054219246, 0.00704525806941092, 0.0070640770718455315, 0.00696103204973042, 0.006861872971057892, 0.007213648874312639, 0.0069810510613024235, 0.006871026009321213, 0.007080099079757929, 0.0070185670629143715, 0.007571044145151973, 0.006910046096891165, 0.0068743908777832985, 0.006942042848095298, 0.006855463143438101, 0.006898527033627033]</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>0.006622779816389084</v>
+        <v>0.006911407802253962</v>
       </c>
       <c r="T20" t="n">
-        <v>0.006695414078421891</v>
+        <v>0.007043450023047626</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0003319367354032182</v>
+        <v>0.0007252973379968884</v>
       </c>
       <c r="V20" t="n">
-        <v>2935.44</v>
+        <v>2930.32</v>
       </c>
       <c r="W20" t="n">
         <v>2858</v>
       </c>
       <c r="X20" t="n">
-        <v>133.1361371694709</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y20" t="n">
         <v>2858</v>
@@ -2338,32 +2346,32 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>[0.13529366394504905, 0.10336651490069926, 0.101655974984169, 0.10163035686127841, 0.10094495001249015, 0.10154082300141454, 0.1002807158511132, 0.10256604687310755, 0.10054200701415539, 0.10018476285040379, 0.10007463698275387, 0.10074489004909992, 0.1013688649982214, 0.10156064108014107, 0.10049702995456755, 0.10212996415793896, 0.10121117788366973, 0.09985898481681943, 0.09982141782529652, 0.10422431002371013, 0.10122547089122236, 0.09999172389507294, 0.10001293499954045, 0.10024053510278463, 0.10053862002678216, 0.10164851392619312, 0.10442050290293992, 0.1005581698846072, 0.10027535702101886, 0.10119884996674955, 0.10082843597047031, 0.10023213201202452, 0.10149927902966738, 0.10051967296749353, 0.10118599981069565, 0.10042818589136004, 0.10689391708001494, 0.10197645495645702, 0.10058847512118518, 0.10023366403765976, 0.10149966995231807, 0.10035367496311665, 0.10008088615722954, 0.1027282711584121, 0.10034539201296866, 0.10104657290503383, 0.09939610096625984, 0.10030241683125496, 0.09995484701357782, 0.10087226098403335]</t>
+          <t>[0.1335424359422177, 0.10065962700173259, 0.1007302610669285, 0.1008439629804343, 0.10175915202125907, 0.09990456700325012, 0.1006616500671953, 0.1014074869453907, 0.10962492902763188, 0.10047627193853259, 0.10067778406664729, 0.10113867418840528, 0.10053738299757242, 0.10025662300176919, 0.10101896501146257, 0.09980517788790166, 0.10043055308051407, 0.10075276694260538, 0.09972632909193635, 0.1003319569863379, 0.10148518183268607, 0.0998575750272721, 0.10032564704306424, 0.09996053110808134, 0.10039974795654416, 0.10166021506302059, 0.09994452609680593, 0.10111105209216475, 0.10091212391853333, 0.10056351311504841, 0.09983760607428849, 0.09958909288980067, 0.10055350698530674, 0.10060689807869494, 0.10054387315176427, 0.10086144902743399, 0.10060099815018475, 0.10089550912380219, 0.10001823701895773, 0.09996836096979678, 0.10795381618663669, 0.11879848293028772, 0.10031461901962757, 0.1003033840097487, 0.1014398061670363, 0.10366073995828629, 0.10005680494941771, 0.1009707129560411, 0.1011950180400163, 0.10183698800392449]</t>
         </is>
       </c>
       <c r="AF20" t="n">
-        <v>0.1018114944500849</v>
+        <v>0.10201025148388</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.1007866630097851</v>
+        <v>0.1006332625402138</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.005015178053109383</v>
+        <v>0.005488394297377902</v>
       </c>
       <c r="AI20" t="n">
-        <v>9400.09090909091</v>
+        <v>9413.132394366197</v>
       </c>
       <c r="AJ20" t="n">
         <v>10322</v>
       </c>
       <c r="AK20" t="n">
-        <v>2685.518253151203</v>
+        <v>2680.771642842091</v>
       </c>
       <c r="AL20" t="n">
         <v>2858</v>
       </c>
       <c r="AM20" t="n">
-        <v>12354</v>
+        <v>11922</v>
       </c>
       <c r="AN20" t="n">
         <v>28898</v>
@@ -2371,46 +2379,50 @@
       <c r="AO20" t="n">
         <v>9</v>
       </c>
-      <c r="AP20" t="inlineStr"/>
+      <c r="AP20" t="n">
+        <v>9025</v>
+      </c>
       <c r="AQ20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>[0.017193099949508905, 0.01697810785844922, 0.01695189904421568, 0.016796558862552047, 0.016903917072340846, 0.016894463915377855, 0.016846203012391925, 0.016848005121573806, 0.017842093016952276, 0.016793142072856426, 0.01846409309655428, 0.016832119086757302, 0.01683929213322699, 0.01718475902453065, 0.029837733134627342, 0.04242785112001002, 0.03934192005544901, 0.03712370013818145, 0.03387307398952544, 0.033166814828291535, 0.03330705501139164, 0.03351834090426564, 0.03336996887810528, 0.03386553097516298, 0.03337311604991555, 0.033184521831572056, 0.03371111094020307, 0.033258672105148435, 0.035715030040591955, 0.0332235109526664, 0.03331709187477827, 0.03369725099764764, 0.03383879200555384, 0.03354610502719879, 0.03302738699130714, 0.0331170919816941, 0.03328859806060791, 0.03320349007844925, 0.033388677053153515, 0.03157874685712159, 0.032236953964456916, 0.03313664998859167, 0.033156400080770254, 0.03284742683172226, 0.033166285837069154, 0.03314949106425047, 0.033148729940876365, 0.03310931893065572, 0.03338802698999643, 0.0332632299978286]</t>
+          <t>[0.09738884004764259, 0.09910207497887313, 0.09775762190110981, 0.09769105212762952, 0.09733557095751166, 0.09883795795030892, 0.09776157792657614, 0.09736950090155005, 0.09745770297013223, 0.1057290059980005, 0.09829470585100353, 0.09769614902324975, 0.09742935094982386, 0.09792262921109796, 0.09733622102066875, 0.09778630617074668, 0.09765112190507352, 0.09945149696432054, 0.0974801261909306, 0.09750246000476182, 0.09700570604763925, 0.09753651008941233, 0.09739404800347984, 0.09734368184581399, 0.09818426100537181, 0.09692890103906393, 0.09830391011200845, 0.09830497088842094, 0.09911544295027852, 0.09728582599200308, 0.0970868468284607, 0.10438418202102184, 0.09792835800908506, 0.09696724801324308, 0.09696010779589415, 0.09716035705059767, 0.09727423801086843, 0.09688869095407426, 0.0984342850279063, 0.09710628609173, 0.09705644194036722, 0.09736130898818374, 0.09724205010570586, 0.09794228803366423, 0.09788251807913184, 0.1059034070931375, 0.09760702610947192, 0.09732975997030735, 0.0980296190828085, 0.09844424901530147]</t>
         </is>
       </c>
       <c r="AS20" t="n">
-        <v>0.02908542897552252</v>
+        <v>0.0981474799849093</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.0331613429589197</v>
+        <v>0.09757176809944212</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.007756942251556709</v>
+        <v>0.001935197118668206</v>
       </c>
       <c r="AV20" t="n">
-        <v>5771.303703703704</v>
+        <v>7725.222857142857</v>
       </c>
       <c r="AW20" t="n">
-        <v>6770</v>
+        <v>8458</v>
       </c>
       <c r="AX20" t="n">
-        <v>2234.511229984419</v>
+        <v>2045.678582125543</v>
       </c>
       <c r="AY20" t="n">
         <v>2858</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8386</v>
+        <v>10122</v>
       </c>
       <c r="BA20" t="n">
-        <v>15978</v>
+        <v>16842</v>
       </c>
       <c r="BB20" t="n">
         <v>0.87409200968523</v>
       </c>
-      <c r="BC20" t="inlineStr"/>
+      <c r="BC20" t="n">
+        <v>0.87409200968523</v>
+      </c>
       <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -2428,35 +2440,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[2.079033738002181, 2.014401613967493, 2.0359324770979583, 2.026478524086997, 2.013009339105338, 2.031887101009488, 2.047778942855075, 2.052377325948328, 2.031518707051873, 2.0597463180311024, 2.0396938561461866, 2.0085857121739537, 2.0266166960354894, 2.019300882006064, 2.042480014031753, 2.0137533769011497, 2.0080386989284307, 2.0248103190679103, 1.9995285777840763, 2.018228705972433, 2.0289684229064733, 2.021822524955496, 2.0060853930190206, 2.0094876061193645, 2.044471631059423, 2.0374393940437585, 2.0090762700419873, 2.0207147209439427, 2.062582954997197, 2.0123601839877665, 2.033370407996699, 2.02996737184003, 2.010605765040964, 2.0199549819808453, 2.0113134048879147, 2.0207004379481077, 2.066576038952917, 2.0261243057902902, 2.0733385630883276, 2.0150759040843695, 2.0182941230013967, 1.9934654110111296, 2.0182276230771095, 2.0550484089180827, 2.0230872670654207, 2.0436494208406657, 2.040737190982327, 2.0164122129790485, 2.017807441065088, 2.0190780421253294]</t>
+          <t>[2.045772996963933, 2.056555907940492, 1.9866859540343285, 2.026867297012359, 2.006686943117529, 2.0067116280552, 2.0294270620215684, 2.0882875889074057, 2.033772161928937, 2.0094972979277372, 2.059955053962767, 2.0148411649279296, 2.0113913968671113, 1.9944408680312335, 2.0304884819779545, 2.0056139121297747, 2.033719944069162, 2.0448063700459898, 2.001873594010249, 2.0134826921857893, 2.0183481939602643, 2.034044448984787, 2.0066132901702076, 2.027186830062419, 2.0276554990559816, 2.0067406750749797, 2.026076369918883, 2.014294608961791, 2.0415429899003357, 2.0137301590293646, 2.0114134680479765, 2.0413254050072283, 2.0291258110664785, 2.006725183920935, 2.024627913022414, 2.0434682560153306, 2.014362880960107, 2.0343392151407897, 2.043161161011085, 2.0061689880676568, 2.012263311073184, 1.9976239930838346, 2.027021980844438, 2.013050400884822, 2.0126363709568977, 2.0615828728768975, 2.0266438238322735, 2.0229306151159108, 2.016621968941763, 2.019128840882331]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.027980887019075</v>
+        <v>2.023626676839776</v>
       </c>
       <c r="G21" t="n">
-        <v>2.022454896010458</v>
+        <v>2.021029727999121</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01906053772139309</v>
+        <v>0.01906895682428671</v>
       </c>
       <c r="I21" t="n">
-        <v>6104876.192333786</v>
+        <v>6110317.369314324</v>
       </c>
       <c r="J21" t="n">
-        <v>6774505</v>
+        <v>6774504</v>
       </c>
       <c r="K21" t="n">
-        <v>1774963.830742726</v>
+        <v>1768033.882863496</v>
       </c>
       <c r="L21" t="n">
         <v>2858</v>
       </c>
       <c r="M21" t="n">
-        <v>11398283</v>
+        <v>11398166</v>
       </c>
       <c r="N21" t="n">
-        <v>11452919</v>
+        <v>11452946</v>
       </c>
       <c r="O21" t="n">
         <v>10</v>
@@ -2467,35 +2479,35 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.002826973097398877, 0.0033917969558387995, 0.005325262900441885, 0.005892541026696563, 0.0067135009448975325, 0.006736475042998791, 0.006866981042549014, 0.006768292980268598, 0.00677180802449584, 0.006958557991310954, 0.006823374889791012, 0.01095737493596971, 0.0106842250097543, 0.006729534827172756, 0.006793159991502762, 0.006715184077620506, 0.006734451977536082, 0.0066443870309740305, 0.006611016811802983, 0.007048431783914566, 0.006705278065055609, 0.006682314909994602, 0.006670956965535879, 0.006659882143139839, 0.006564036943018436, 0.006603667978197336, 0.006644909968599677, 0.006762194214388728, 0.006679409882053733, 0.006732268957421184, 0.006775133078917861, 0.0066378070041537285, 0.0030517589766532183, 0.0026680738665163517, 0.0026126920711249113, 0.0038009199779480696, 0.005195047939196229, 0.0060853599570691586, 0.006348864873871207, 0.00656513893045485, 0.006888211937621236, 0.006562334019690752, 0.006564477924257517, 0.006616756087169051, 0.006680941907688975, 0.006540731992572546, 0.006459040101617575, 0.007427971111610532, 0.008183151949197054, 0.006541452137753367]</t>
+          <t>[0.00301543390378356, 0.0038384171202778816, 0.005688404897227883, 0.005607374012470245, 0.005617648828774691, 0.005673574050888419, 0.0071090711280703545, 0.007134700892493129, 0.007367459125816822, 0.007342250784859061, 0.00730556808412075, 0.007181440945714712, 0.007071986794471741, 0.007171174976974726, 0.007091866806149483, 0.0070728580467402935, 0.00717537198215723, 0.007095101987943053, 0.00872996007092297, 0.0073460477869957685, 0.0070974749978631735, 0.007080569863319397, 0.00717452191747725, 0.007107218960300088, 0.007265978027135134, 0.007296753115952015, 0.007029013009741902, 0.0070249461568892, 0.006995420902967453, 0.00700109195895493, 0.006984347011893988, 0.0069666700437664986, 0.006925247143954039, 0.006955731892958283, 0.006867902120575309, 0.00687737506814301, 0.006882844027131796, 0.00706077110953629, 0.0069786859676241875, 0.007199055980890989, 0.006960259051993489, 0.006915081990882754, 0.006885618902742863, 0.007186566945165396, 0.007098147179931402, 0.007313138106837869, 0.006818827940151095, 0.007076492998749018, 0.0070115868002176285, 0.007050744025036693]</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>0.006378082344308495</v>
+        <v>0.006854475908912718</v>
       </c>
       <c r="T21" t="n">
-        <v>0.006665419554337859</v>
+        <v>0.007066378952004015</v>
       </c>
       <c r="U21" t="n">
-        <v>0.001551803180348219</v>
+        <v>0.0008604153627680451</v>
       </c>
       <c r="V21" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W21" t="n">
         <v>2858</v>
       </c>
       <c r="X21" t="n">
-        <v>145.7260723524288</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y21" t="n">
         <v>2858</v>
       </c>
       <c r="Z21" t="n">
-        <v>3402</v>
+        <v>3306</v>
       </c>
       <c r="AA21" t="n">
-        <v>64811</v>
+        <v>64715</v>
       </c>
       <c r="AB21" t="n">
         <v>10</v>
@@ -2508,32 +2520,32 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>[0.14258720399811864, 0.10594831989146769, 0.10585670103318989, 0.1073769589420408, 0.11412954889237881, 0.11328524304553866, 0.10473058512434363, 0.10447385092265904, 0.10426419810391963, 0.10548597807064652, 0.10426939488388598, 0.10500721097923815, 0.10464213392697275, 0.10432941582985222, 0.1045266108121723, 0.10452243406325579, 0.10619045095518231, 0.10529335704632103, 0.10690003400668502, 0.10498665017075837, 0.10475442092865705, 0.10490854387171566, 0.10553067293949425, 0.10610620607621968, 0.1058708040509373, 0.10525627387687564, 0.1059085289016366, 0.10655925516039133, 0.1058297511190176, 0.1049490428995341, 0.10572612704709172, 0.1046565358992666, 0.10436007101088762, 0.10466380603611469, 0.10643295501358807, 0.10525149595923722, 0.10541454004123807, 0.10568090993911028, 0.10677483608014882, 0.1052517460193485, 0.10500935395248234, 0.10593306599184871, 0.10562695888802409, 0.10809627594426274, 0.10554504604078829, 0.10666205896995962, 0.10614252113737166, 0.10653507802635431, 0.10529010416939855, 0.10468809097073972]</t>
+          <t>[0.14220453379675746, 0.15736874588765204, 0.10586682497523725, 0.10515878605656326, 0.10565126198343933, 0.10568094719201326, 0.10492423502728343, 0.10557152493856847, 0.10477145714685321, 0.10454232292249799, 0.10437148693017662, 0.10497015411965549, 0.10480299312621355, 0.10604818584397435, 0.10595767199993134, 0.10443446203134954, 0.1049584960564971, 0.10513255698606372, 0.10511687188409269, 0.10440415586344898, 0.11633690004236996, 0.10480998200364411, 0.10497693298384547, 0.1051651150919497, 0.10549063188955188, 0.1054576940368861, 0.10495101590640843, 0.10597669007256627, 0.10483367904089391, 0.10462450608611107, 0.10474317404441535, 0.10563719179481268, 0.10547222406603396, 0.11141630285419524, 0.10496161109767854, 0.10480930306948721, 0.10464635887183249, 0.10443064593710005, 0.10460328380577266, 0.10542381298728287, 0.10597209306433797, 0.10542742698453367, 0.10589323588646948, 0.1049595270305872, 0.10422241408377886, 0.10517256590537727, 0.10486405389383435, 0.10476239304989576, 0.10509820492006838, 0.10583076206967235]</t>
         </is>
       </c>
       <c r="AF21" t="n">
-        <v>0.1065644271532074</v>
+        <v>0.1072581481467932</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.1055083255050704</v>
+        <v>0.1051075384020805</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.005512027984660117</v>
+        <v>0.009095083687326642</v>
       </c>
       <c r="AI21" t="n">
-        <v>10835.21546961326</v>
+        <v>10810.69080779944</v>
       </c>
       <c r="AJ21" t="n">
         <v>11922</v>
       </c>
       <c r="AK21" t="n">
-        <v>3208.902205768605</v>
+        <v>3212.712244876431</v>
       </c>
       <c r="AL21" t="n">
         <v>2858</v>
       </c>
       <c r="AM21" t="n">
-        <v>14106</v>
+        <v>13522</v>
       </c>
       <c r="AN21" t="n">
         <v>30498</v>
@@ -2541,46 +2553,50 @@
       <c r="AO21" t="n">
         <v>10</v>
       </c>
-      <c r="AP21" t="inlineStr"/>
+      <c r="AP21" t="n">
+        <v>9025</v>
+      </c>
       <c r="AQ21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>[0.01657277997583151, 0.01645765989087522, 0.01644395897164941, 0.016501005040481687, 0.017597095109522343, 0.016765660839155316, 0.016625942196696997, 0.01764180394820869, 0.01641709916293621, 0.01654412900097668, 0.016606882913038135, 0.016511878930032253, 0.016476118005812168, 0.016411419957876205, 0.017399658914655447, 0.016579041024670005, 0.01658570091240108, 0.016296016983687878, 0.016561544965952635, 0.017464436125010252, 0.01651417394168675, 0.017522702924907207, 0.016571701038628817, 0.016852399799972773, 0.016583716962486506, 0.016416969010606408, 0.01660249591805041, 0.03669058089144528, 0.04082257696427405, 0.032994146924465895, 0.03281872300431132, 0.03288006503134966, 0.04045210196636617, 0.04115210007876158, 0.03921640291810036, 0.03293260419741273, 0.032484462950378656, 0.03273030091077089, 0.032521548913791776, 0.032417766051366925, 0.032369913067668676, 0.03233158402144909, 0.03259757300838828, 0.03228995203971863, 0.03275803290307522, 0.032796530053019524, 0.03307807189412415, 0.03316696616820991, 0.032909669913351536, 0.03292135801166296]</t>
+          <t>[0.1016922858543694, 0.10174953192472458, 0.10319204209372401, 0.10485404008068144, 0.10400208411738276, 0.10225116298533976, 0.10211284621618688, 0.10282808495685458, 0.10482751904055476, 0.10443426202982664, 0.10172273288480937, 0.1019536869134754, 0.10418854397721589, 0.10184767912141979, 0.1018827399238944, 0.10243853298015893, 0.10204030713066459, 0.10259993397630751, 0.10601037996821105, 0.10250342008657753, 0.10305878100916743, 0.10202338080853224, 0.10691001708619297, 0.10260837711393833, 0.1025211859960109, 0.10179834393784404, 0.10220411187037826, 0.10199149418622255, 0.102243741042912, 0.10184547584503889, 0.10191521910019219, 0.10177069390192628, 0.10173294600099325, 0.10207201493903995, 0.1029928820207715, 0.10225203400477767, 0.1023081368766725, 0.10260450094938278, 0.10226705693639815, 0.10217511793598533, 0.10203413711860776, 0.10203347820788622, 0.10234394110739231, 0.10233434801921248, 0.10182857885956764, 0.10292322817258537, 0.10178000782616436, 0.1022765701636672, 0.10668057389557362, 0.10275636916048825]</t>
         </is>
       </c>
       <c r="AS21" t="n">
-        <v>0.02477714048698544</v>
+        <v>0.102708371207118</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.01755989901721478</v>
+        <v>0.1022595454705879</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.009051871196527948</v>
+        <v>0.001250510549866109</v>
       </c>
       <c r="AV21" t="n">
-        <v>6483.886178861789</v>
+        <v>9126.068181818182</v>
       </c>
       <c r="AW21" t="n">
-        <v>8274</v>
+        <v>10050</v>
       </c>
       <c r="AX21" t="n">
-        <v>2988.995936472653</v>
+        <v>2597.317115884427</v>
       </c>
       <c r="AY21" t="n">
         <v>2858</v>
       </c>
       <c r="AZ21" t="n">
-        <v>9922</v>
+        <v>12522</v>
       </c>
       <c r="BA21" t="n">
-        <v>17674</v>
+        <v>18442</v>
       </c>
       <c r="BB21" t="n">
         <v>0.8636363636363636</v>
       </c>
-      <c r="BC21" t="inlineStr"/>
+      <c r="BC21" t="n">
+        <v>0.8636363636363636</v>
+      </c>
       <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -2598,35 +2614,35 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[2.0722183489706367, 2.0617129309102893, 2.0813761281315237, 2.049490340054035, 2.04035578481853, 2.047709723934531, 2.0704884759616107, 2.037440557964146, 2.062840523896739, 2.0685608999338, 2.0347778010182083, 2.03747264505364, 2.0414863240439445, 2.0694746850058436, 2.05813718191348, 2.0641542188823223, 2.108585969079286, 2.0484664631076157, 2.0589089549612254, 2.0483043680433184, 2.0720417250413448, 2.037334483815357, 2.0430694099050015, 2.1448227670043707, 2.037279431009665, 2.0440924600698054, 2.072356994030997, 2.0846330439671874, 2.0611184700392187, 2.065282039809972, 2.078453231137246, 2.0711992010474205, 2.0475452560931444, 2.0717651161830872, 2.083875265903771, 2.063506669830531, 2.061542650917545, 2.101430317154154, 2.05202195700258, 2.0632918179035187, 2.0580666051246226, 2.089012023061514, 2.05187918106094, 2.034465730888769, 2.0680097609292716, 2.0491678819525987, 2.057029800955206, 2.0539633189328015, 2.059790564002469, 2.044773490866646]</t>
+          <t>[2.0456724329851568, 2.1224457430653274, 2.0857576560229063, 2.0592923059593886, 2.047511609038338, 2.0784037518315017, 2.073669342789799, 2.036240158835426, 2.043066876940429, 2.071632037172094, 2.0470596100203693, 2.0611020191572607, 2.0458735700231045, 2.064804440131411, 2.0326258840505034, 2.037034252891317, 2.072083949111402, 2.043038598028943, 2.06113117095083, 2.0351822320371866, 2.0644579569343477, 2.0677953609265387, 2.032874071970582, 2.0675368988886476, 2.04014238785021, 2.0346434940584004, 2.049798530060798, 2.064953974215314, 2.0478236901108176, 2.064143358031288, 2.1035717208869755, 2.05861231405288, 2.0619896489661187, 2.059812678024173, 2.0547733230050653, 2.051984224934131, 2.049288247944787, 2.085038074059412, 2.074208782054484, 2.0487203819211572, 2.0779515998438, 2.090940542984754, 2.0561749869957566, 2.05828145891428, 2.04574779397808, 2.03343383804895, 2.069244263926521, 2.061034512007609, 2.070592208998278, 2.0884655229747295]</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.06169565982651</v>
+        <v>2.059953269772231</v>
       </c>
       <c r="G22" t="n">
-        <v>2.060454517020844</v>
+        <v>2.059552491991781</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02065110371748677</v>
+        <v>0.01897476637971738</v>
       </c>
       <c r="I22" t="n">
-        <v>6114853.516977363</v>
+        <v>6123097.093299313</v>
       </c>
       <c r="J22" t="n">
-        <v>6774697</v>
+        <v>6774788</v>
       </c>
       <c r="K22" t="n">
-        <v>1761382.460041086</v>
+        <v>1757496.717063683</v>
       </c>
       <c r="L22" t="n">
         <v>2858</v>
       </c>
       <c r="M22" t="n">
-        <v>11398155</v>
+        <v>11398422</v>
       </c>
       <c r="N22" t="n">
-        <v>11452394</v>
+        <v>11452450</v>
       </c>
       <c r="O22" t="n">
         <v>11</v>
@@ -2637,26 +2653,26 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.002862136112526059, 0.005197311053052545, 0.005742116831243038, 0.005283518927171826, 0.006748934043571353, 0.0066589489579200745, 0.006768472027033567, 0.006744627840816975, 0.00676885386928916, 0.006792949978262186, 0.006581461988389492, 0.006717346142977476, 0.006715754978358746, 0.006823164876550436, 0.006727932021021843, 0.006750766886398196, 0.006773039931431413, 0.006926400121301413, 0.006644678069278598, 0.007054231129586697, 0.006722714984789491, 0.006777727045118809, 0.006762914825230837, 0.006820109905675054, 0.006701113190501928, 0.006609335076063871, 0.006614582845941186, 0.006697457050904632, 0.006744799204170704, 0.006598237901926041, 0.00662634102627635, 0.006741232005879283, 0.006722124991938472, 0.0067013930529356, 0.006632068194448948, 0.006796585163101554, 0.006730066146701574, 0.0066397099290043116, 0.006591829005628824, 0.006719609024003148, 0.007066808873787522, 0.006629033945500851, 0.006551278056576848, 0.006549767218530178, 0.006554923951625824, 0.006539041176438332, 0.006528223864734173, 0.006738369120284915, 0.006540303118526936, 0.006481694057583809]</t>
+          <t>[0.003064966993406415, 0.005648777121677995, 0.005638760980218649, 0.005707644857466221, 0.006805288139730692, 0.007304013008251786, 0.0071418508887290955, 0.00716031901538372, 0.007129512960091233, 0.007131234044209123, 0.0071341497823596, 0.0071283611468970776, 0.0072049349546432495, 0.0072842740919440985, 0.007215271005406976, 0.0071869189850986, 0.007192187011241913, 0.007011316018179059, 0.007517862832173705, 0.00703043513931334, 0.007139367051422596, 0.007240018108859658, 0.007301019039005041, 0.007123022805899382, 0.007108232006430626, 0.007000229088589549, 0.006959368009120226, 0.007124366005882621, 0.007066619116812944, 0.006990095134824514, 0.007090624887496233, 0.006952948169782758, 0.00692806183360517, 0.006797707173973322, 0.006918998202309012, 0.006956964964047074, 0.0069973049685359, 0.006892457837238908, 0.006878677057102323, 0.007231504889205098, 0.006886189104989171, 0.006874009966850281, 0.006923194043338299, 0.006884736008942127, 0.006944966968148947, 0.006969063077121973, 0.006935020908713341, 0.006891336990520358, 0.006844616029411554, 0.006852607941254973]</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>0.006548240794800222</v>
+        <v>0.00688682812731713</v>
       </c>
       <c r="T22" t="n">
-        <v>0.006708574015647173</v>
+        <v>0.006998767028562725</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0006296819773390321</v>
+        <v>0.0006612111079140838</v>
       </c>
       <c r="V22" t="n">
-        <v>2935.44</v>
+        <v>2930.32</v>
       </c>
       <c r="W22" t="n">
         <v>2858</v>
       </c>
       <c r="X22" t="n">
-        <v>126.7019900621702</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y22" t="n">
         <v>2858</v>
@@ -2678,32 +2694,32 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>[0.16323267994448543, 0.10794899403117597, 0.10682013304904103, 0.10693372203968465, 0.1087033140938729, 0.10701326187700033, 0.10746452701278031, 0.10681941290386021, 0.10864980285987258, 0.10666210693307221, 0.10752232396043837, 0.10731132794171572, 0.10825404990464449, 0.10718668298795819, 0.12333318614400923, 0.10731146996840835, 0.10650951997376978, 0.10888154082931578, 0.10755401104688644, 0.10728519107215106, 0.10734405810944736, 0.107047253055498, 0.1069099570158869, 0.10700919688679278, 0.1067179599776864, 0.10724318609572947, 0.10705262096598744, 0.10756883397698402, 0.1065494678914547, 0.10682733496651053, 0.10666243708692491, 0.10638995910994709, 0.10703010694123805, 0.11895641288720071, 0.10715441405773163, 0.10672468109987676, 0.10693908086977899, 0.1086898420471698, 0.10776293487288058, 0.10860987310297787, 0.10729568591341376, 0.10770642082206905, 0.10755226900801063, 0.10703749815002084, 0.10724171507172287, 0.10761158913373947, 0.10662562283687294, 0.10734122386202216, 0.1074112681671977, 0.10759508400224149]</t>
+          <t>[0.14066460193134844, 0.1077241599559784, 0.10761749092489481, 0.10683429893106222, 0.10687024192884564, 0.10772449290379882, 0.10743438801728189, 0.11352660809643567, 0.10718326084315777, 0.10775926313363016, 0.10749962506815791, 0.10703641106374562, 0.10724991094321012, 0.10683749499730766, 0.10779642919078469, 0.10690370318479836, 0.10740154795348644, 0.10696065798401833, 0.10751238488592207, 0.10765411611646414, 0.10773952305316925, 0.10705625102855265, 0.10754179605282843, 0.10817532707005739, 0.10717408708296716, 0.10752556403167546, 0.1065248460508883, 0.10695960698649287, 0.10720052709802985, 0.10658389399759471, 0.10673069395124912, 0.10771955293603241, 0.10859191999770701, 0.10748886782675982, 0.10785898310132325, 0.13276700908318162, 0.10692798695527017, 0.10791174205951393, 0.10759057104587555, 0.1074996639508754, 0.10841663810424507, 0.10683284606784582, 0.10880591091699898, 0.10868189507164061, 0.1079744549933821, 0.10714881005696952, 0.10657851491123438, 0.10673350701108575, 0.10690345289185643, 0.10693791299127042]</t>
         </is>
       </c>
       <c r="AF22" t="n">
-        <v>0.1090001049311832</v>
+        <v>0.1086954688886181</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.1072904384927824</v>
+        <v>0.1074942464474589</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.008323240239924737</v>
+        <v>0.005921402262221777</v>
       </c>
       <c r="AI22" t="n">
-        <v>9549.017369727047</v>
+        <v>9528.588089330025</v>
       </c>
       <c r="AJ22" t="n">
         <v>10322</v>
       </c>
       <c r="AK22" t="n">
-        <v>2555.730353343448</v>
+        <v>2554.012921665998</v>
       </c>
       <c r="AL22" t="n">
         <v>2858</v>
       </c>
       <c r="AM22" t="n">
-        <v>12474</v>
+        <v>12530</v>
       </c>
       <c r="AN22" t="n">
         <v>28898</v>
@@ -2711,46 +2727,50 @@
       <c r="AO22" t="n">
         <v>11</v>
       </c>
-      <c r="AP22" t="inlineStr"/>
+      <c r="AP22" t="n">
+        <v>8975</v>
+      </c>
       <c r="AQ22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>[0.016599012073129416, 0.01669730804860592, 0.0166884649079293, 0.01667377119883895, 0.016819801880046725, 0.01649977220222354, 0.016606612829491496, 0.017547982977703214, 0.0165730610024184, 0.016912890831008554, 0.01637456682510674, 0.016660713125020266, 0.01663259114138782, 0.01645244099199772, 0.01635142811574042, 0.016632250975817442, 0.016491179121658206, 0.016681033186614513, 0.017541602021083236, 0.016559321200475097, 0.017629101872444153, 0.016381846042349935, 0.016372933983802795, 0.01687223999761045, 0.016462147003039718, 0.01655210996977985, 0.016577278962358832, 0.017486780881881714, 0.01651714905165136, 0.01687316200695932, 0.01664051180705428, 0.016629346879199147, 0.016452671959996223, 0.01641066698357463, 0.016431220108643174, 0.01649941294454038, 0.017015874851495028, 0.016328284982591867, 0.016505641164258122, 0.016673962818458676, 0.01667700707912445, 0.016461895080283284, 0.01655140006914735, 0.017533149104565382, 0.01644286699593067, 0.01707789907231927, 0.016423479188233614, 0.016466903034597635, 0.016648204997181892, 0.01646236702799797]</t>
+          <t>[0.10450477083213627, 0.10447300504893064, 0.1040457938797772, 0.10549993091262877, 0.10493395407684147, 0.10543074901215732, 0.10592284495942295, 0.10429222392849624, 0.10404408094473183, 0.10475826100446284, 0.1041612580884248, 0.10474708513356745, 0.10456934804096818, 0.10472937696613371, 0.10488852602429688, 0.10523121897131205, 0.10446101590059698, 0.10446317913010716, 0.10457087983377278, 0.10379131394438446, 0.10509898094460368, 0.1047016060911119, 0.10409917403012514, 0.10469848196953535, 0.10440491093322635, 0.10493474407121539, 0.10489781899377704, 0.10534114297479391, 0.10439310385845602, 0.10491716815158725, 0.10446555190719664, 0.10428060591220856, 0.10552769107744098, 0.10411565797403455, 0.10969669418409467, 0.11233813711442053, 0.10601137694902718, 0.10498026292771101, 0.10586399491876364, 0.1046188531909138, 0.10444489191286266, 0.1044099498540163, 0.10415631998330355, 0.10674385284073651, 0.1037709228694439, 0.10385700198821723, 0.10413067205809057, 0.10384044703096151, 0.10402087611146271, 0.10402829782105982]</t>
         </is>
       </c>
       <c r="AS22" t="n">
-        <v>0.01668106641154736</v>
+        <v>0.104926160145551</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.01658814551774412</v>
+        <v>0.1045701139373705</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.0003350252644956721</v>
+        <v>0.001428701562145238</v>
       </c>
       <c r="AV22" t="n">
-        <v>4959.68</v>
+        <v>7780.878186968838</v>
       </c>
       <c r="AW22" t="n">
-        <v>4806</v>
+        <v>8490</v>
       </c>
       <c r="AX22" t="n">
-        <v>2074.108443635384</v>
+        <v>2056.104759834694</v>
       </c>
       <c r="AY22" t="n">
         <v>2858</v>
       </c>
       <c r="AZ22" t="n">
-        <v>8306</v>
+        <v>10570</v>
       </c>
       <c r="BA22" t="n">
-        <v>16234</v>
+        <v>16842</v>
       </c>
       <c r="BB22" t="n">
         <v>0.8588516746411483</v>
       </c>
-      <c r="BC22" t="inlineStr"/>
+      <c r="BC22" t="n">
+        <v>0.8588516746411483</v>
+      </c>
       <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2768,35 +2788,35 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[2.1692539609503, 2.2022985441144556, 2.1632197580765933, 2.253959587076679, 2.175527252955362, 2.2024484870489687, 2.16153825703077, 2.157932628877461, 2.1904266469646245, 2.1866196179762483, 2.1721429128665477, 2.175081924069673, 2.194342658156529, 2.162066967925057, 2.1722093210555613, 2.1964943578932434, 2.1841830159537494, 2.141361715970561, 2.160825847182423, 2.2012568269856274, 2.17372409789823, 2.1774523579515517, 2.2050938210450113, 2.177118788007647, 2.19092923309654, 2.181584140053019, 2.189387775026262, 2.1695848170202225, 2.171445321990177, 2.192396526923403, 2.211504095001146, 2.1860336519312114, 2.1489067780785263, 2.1851457331795245, 2.174109850078821, 2.1765862959437072, 2.1993583091534674, 2.169679265934974, 2.1821575860958546, 2.1809334349818528, 2.1855868299026042, 2.1657736371271312, 2.1443004792090505, 2.192254211055115, 2.1933640418574214, 2.1511873970739543, 2.17953512002714, 2.174130647908896, 2.1773004319984466, 2.179225123953074]</t>
+          <t>[2.1855238149873912, 2.2176085629034787, 2.167339449049905, 2.1695640778634697, 2.1506267769727856, 2.1977439790498465, 2.194106812821701, 2.1923336561303586, 2.210825575981289, 2.181728377006948, 2.219220391009003, 2.1927209000568837, 2.198777143843472, 2.182232956867665, 2.167046070797369, 2.1922871929127723, 2.173156172968447, 2.1772489168215543, 2.1682762349955738, 2.2104181579779834, 2.1572636670898646, 2.1643714250531048, 2.21644012699835, 2.168630918022245, 2.1668313830159605, 2.179869497893378, 2.194158476078883, 2.1619626579340547, 2.175153312040493, 2.2059977140743285, 2.1828498810064048, 2.1742699660826474, 2.147746149916202, 2.1968539590016007, 2.1767813619226217, 2.1732393170241266, 2.1983401600737125, 2.1897579920478165, 2.1535516399890184, 2.1712573941331357, 2.211041996954009, 2.188054634956643, 2.1921423110179603, 2.196721156127751, 2.173327004071325, 2.1685099608730525, 2.212243044981733, 2.1888194310013205, 2.167296851053834, 2.1816495761740953]</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.180179601772688</v>
+        <v>2.183678363752551</v>
       </c>
       <c r="G23" t="n">
-        <v>2.178338740952313</v>
+        <v>2.181980666937307</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0189720641651551</v>
+        <v>0.01816730177358845</v>
       </c>
       <c r="I23" t="n">
-        <v>6168819.916380655</v>
+        <v>6174897.044624326</v>
       </c>
       <c r="J23" t="n">
-        <v>6774633</v>
+        <v>6774732</v>
       </c>
       <c r="K23" t="n">
-        <v>1704747.886894522</v>
+        <v>1704471.177802298</v>
       </c>
       <c r="L23" t="n">
         <v>2858</v>
       </c>
       <c r="M23" t="n">
-        <v>11452355</v>
+        <v>11398190</v>
       </c>
       <c r="N23" t="n">
-        <v>11452903</v>
+        <v>11452866</v>
       </c>
       <c r="O23" t="n">
         <v>12</v>
@@ -2807,26 +2827,26 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.004266888136044145, 0.00547154201194644, 0.005426954943686724, 0.006107894936576486, 0.006821491988375783, 0.006748932879418135, 0.006756746210157871, 0.006729685002937913, 0.006654972210526466, 0.006642453838139772, 0.006702264072373509, 0.006802113028243184, 0.0067569660022854805, 0.006614051992073655, 0.0067608419340103865, 0.006716555915772915, 0.006708013126626611, 0.0066644069738686085, 0.006705407984554768, 0.006987129803746939, 0.00675841816700995, 0.0069531400222331285, 0.006696894997730851, 0.006736766081303358, 0.006784988101571798, 0.006613919977098703, 0.006627280963584781, 0.006601431872695684, 0.006667391862720251, 0.006732068955898285, 0.006702854996547103, 0.006679408950731158, 0.006696866126731038, 0.006587201030924916, 0.006628092145547271, 0.006620993139222264, 0.0066363459918648005, 0.00661313091404736, 0.006623635999858379, 0.006553431041538715, 0.007011476904153824, 0.00655917008407414, 0.006562204100191593, 0.006598098902031779, 0.006564038107171655, 0.006520400056615472, 0.0071865778882056475, 0.007233469048514962, 0.007242713123559952, 0.007208592025563121]</t>
+          <t>[0.0031148740090429783, 0.005026304163038731, 0.005723597016185522, 0.005643968936055899, 0.006879488006234169, 0.0072519960813224316, 0.007261169143021107, 0.007468729978427291, 0.007441360037773848, 0.007314329035580158, 0.007069392129778862, 0.007197113009169698, 0.007028891937807202, 0.0070871589705348015, 0.007165055023506284, 0.007141469977796078, 0.007039858028292656, 0.007135561900213361, 0.0075347889214754105, 0.007019087905064225, 0.0070878209080547094, 0.007117446046322584, 0.007039026124402881, 0.007020730059593916, 0.007004414917901158, 0.007080698851495981, 0.00699211610481143, 0.007067280123010278, 0.006942311068996787, 0.006953058065846562, 0.006963944993913174, 0.007043984020128846, 0.007025046041235328, 0.006961009930819273, 0.007612626999616623, 0.007340868003666401, 0.006897634826600552, 0.006891557015478611, 0.006971586961299181, 0.007404163014143705, 0.00692282197996974, 0.006883895955979824, 0.006897053914144635, 0.006922933971509337, 0.006876764120534062, 0.006821691058576107, 0.006943634944036603, 0.006830744910985231, 0.006829394027590752, 0.007099438225850463]</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>0.006624926291406155</v>
+        <v>0.006899797827936709</v>
       </c>
       <c r="T23" t="n">
-        <v>0.006688137538731098</v>
+        <v>0.007022888050414622</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0004670707241704891</v>
+        <v>0.000698366509788366</v>
       </c>
       <c r="V23" t="n">
-        <v>2945.68</v>
+        <v>2930.32</v>
       </c>
       <c r="W23" t="n">
         <v>2858</v>
       </c>
       <c r="X23" t="n">
-        <v>136.6558973689547</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y23" t="n">
         <v>2858</v>
@@ -2848,79 +2868,83 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>[0.1469789850525558, 0.10799929802305996, 0.10873048193752766, 0.10949511802755296, 0.11018186598084867, 0.1088657749351114, 0.10931542911566794, 0.10947207198478281, 0.10942781693302095, 0.1110613530036062, 0.10861504008062184, 0.10910910903476179, 0.11096749105490744, 0.10959687898866832, 0.10938308900222182, 0.10871857404708862, 0.10865105502307415, 0.1097898178268224, 0.10868116887286305, 0.10936285788193345, 0.10930621600709856, 0.10927325487136841, 0.10951448697596788, 0.10949384397827089, 0.10861963499337435, 0.10908459313213825, 0.1122962108347565, 0.10969827184453607, 0.1095777009613812, 0.10979478596709669, 0.11187991802580655, 0.11048852512612939, 0.10883282613940537, 0.10870995209552348, 0.11016119387932122, 0.10861677303910255, 0.110117670847103, 0.11016162484884262, 0.11683167098090053, 0.1086325861979276, 0.10799543303437531, 0.10838970285840333, 0.10890847910195589, 0.10926555399782956, 0.10827989899553359, 0.10852347197942436, 0.1086441338993609, 0.10864631808362901, 0.11008447990752757, 0.1110878309700638]</t>
+          <t>[0.1449121250770986, 0.10803002398461103, 0.10823122481815517, 0.10944072692655027, 0.10876165796071291, 0.1089058150537312, 0.10908780782483518, 0.11018224596045911, 0.11006055516190827, 0.1089573020581156, 0.10890781809575856, 0.1099375409539789, 0.10910996096208692, 0.10927154193632305, 0.10850430396385491, 0.1091187740676105, 0.10956343007273972, 0.10832010908052325, 0.1087257859762758, 0.1091220888774842, 0.10961632803082466, 0.11196255078539252, 0.11883109295740724, 0.10825727391056716, 0.10874177003279328, 0.1087372531183064, 0.10856436402536929, 0.12415304989553988, 0.10893940390087664, 0.10956849693320692, 0.10850366298109293, 0.10825490206480026, 0.11012016399763525, 0.10966333001852036, 0.10974590410478413, 0.10891829407773912, 0.1086044660769403, 0.1085394979454577, 0.10885803401470184, 0.11452981317415833, 0.10872135893441737, 0.10928597417660058, 0.10895412811078131, 0.10859324596822262, 0.10848949290812016, 0.1092803671490401, 0.10844122804701328, 0.10866013704799116, 0.10928636486642063, 0.1089499699883163]</t>
         </is>
       </c>
       <c r="AF23" t="n">
-        <v>0.110306406407617</v>
+        <v>0.110378455161117</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.1093391434988007</v>
+        <v>0.1089520490495488</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.005472518820247432</v>
+        <v>0.005665743263651197</v>
       </c>
       <c r="AI23" t="n">
-        <v>9522.594527363184</v>
+        <v>9463.65012406948</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10322</v>
+        <v>10258</v>
       </c>
       <c r="AK23" t="n">
-        <v>2580.901056146062</v>
+        <v>2547.929648108476</v>
       </c>
       <c r="AL23" t="n">
         <v>2858</v>
       </c>
       <c r="AM23" t="n">
-        <v>19778</v>
+        <v>17258</v>
       </c>
       <c r="AN23" t="n">
-        <v>28994</v>
+        <v>28898</v>
       </c>
       <c r="AO23" t="n">
         <v>12</v>
       </c>
-      <c r="AP23" t="inlineStr"/>
+      <c r="AP23" t="n">
+        <v>8400</v>
+      </c>
       <c r="AQ23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>[0.016896235989406705, 0.016550977947190404, 0.016610267106443644, 0.036670461064204574, 0.038649332942441106, 0.033378883032128215, 0.03944572410546243, 0.041890565073117614, 0.04160985606722534, 0.03719742898829281, 0.032300147926434875, 0.03310623415745795, 0.03259945404715836, 0.03280026512220502, 0.032454699045047164, 0.03249212400987744, 0.032721559051424265, 0.03325391607359052, 0.03252848004922271, 0.040195696987211704, 0.041781170992180705, 0.03930064802989364, 0.032748298021033406, 0.03260831884108484, 0.03258001687936485, 0.03262928104959428, 0.03336313902400434, 0.03351994510740042, 0.032371783163398504, 0.032937479903921485, 0.03249080292880535, 0.03278533183038235, 0.03279534890316427, 0.03250378300435841, 0.03257661103270948, 0.032887215027585626, 0.03243892500177026, 0.032489300007000566, 0.032460927963256836, 0.032648619962856174, 0.03313126205466688, 0.03321717097423971, 0.03270112886093557, 0.032563231186941266, 0.032148479018360376, 0.03260493301786482, 0.032536721089854836, 0.032936290139332414, 0.03669933299534023, 0.033673373982310295]</t>
+          <t>[0.10655148304067552, 0.10619048099033535, 0.10610776580870152, 0.10591851407662034, 0.10582517297007143, 0.10661430517211556, 0.10582281113602221, 0.10541524994187057, 0.10648603201843798, 0.10672463988885283, 0.10618537291884422, 0.10621251398697495, 0.10629735002294183, 0.10622742609120905, 0.10550241987220943, 0.10579935507848859, 0.105451863957569, 0.10583950486034155, 0.10599639010615647, 0.1059289479162544, 0.10770889394916594, 0.10774613986723125, 0.10597668983973563, 0.1063991729170084, 0.10655404394492507, 0.10679266205988824, 0.1062111109495163, 0.10674299788661301, 0.10610553296282887, 0.1057433420792222, 0.1054850840009749, 0.10583616979420185, 0.10573366610333323, 0.10672724293544888, 0.10567364585585892, 0.10603286419063807, 0.10656836698763072, 0.10660020308569074, 0.1057129050604999, 0.10582152800634503, 0.10549807385541499, 0.10573960491456091, 0.10696510900743306, 0.1058530849404633, 0.10655767982825637, 0.10628881910815835, 0.10648608207702637, 0.10636036400683224, 0.10588924982585013, 0.10697430395521224]</t>
         </is>
       </c>
       <c r="AS23" t="n">
-        <v>0.0331096235755831</v>
+        <v>0.1061976446770132</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.03273492853622884</v>
+        <v>0.1061465693637729</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.005040019267705229</v>
+        <v>0.0005213165317744933</v>
       </c>
       <c r="AV23" t="n">
-        <v>5958.054794520548</v>
+        <v>7814.61475409836</v>
       </c>
       <c r="AW23" t="n">
-        <v>7090</v>
+        <v>8490</v>
       </c>
       <c r="AX23" t="n">
-        <v>2231.886240398534</v>
+        <v>2082.949846284803</v>
       </c>
       <c r="AY23" t="n">
         <v>2858</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8322</v>
+        <v>11554</v>
       </c>
       <c r="BA23" t="n">
-        <v>15978</v>
+        <v>16842</v>
       </c>
       <c r="BB23" t="n">
         <v>0.8076923076923077</v>
       </c>
-      <c r="BC23" t="inlineStr"/>
+      <c r="BC23" t="n">
+        <v>0.8076923076923077</v>
+      </c>
       <c r="BD23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2938,35 +2962,35 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[4.080532104941085, 4.001585700083524, 4.0037989928387105, 3.9985073499847203, 4.018640901893377, 3.9962388719432056, 4.024927972117439, 4.044471619883552, 4.004603191046044, 4.019817617954686, 3.9999216699507087, 4.038028341019526, 4.026513329008594, 3.9994521350599825, 4.022232518065721, 3.9984410300385207, 4.007676376029849, 4.00460258196108, 4.058790908195078, 3.9939990448765457, 4.030594293028116, 4.056381687987596, 3.9869713108055294, 4.005311809014529, 4.005231999093667, 4.022651677019894, 4.005997000960633, 4.01697168010287, 4.031387903029099, 4.008403842104599, 4.000375983072445, 4.013291177107021, 4.027825947152451, 4.0193410138599575, 3.995259328978136, 4.019118459895253, 4.007511550094932, 3.996486973017454, 4.0195844219997525, 4.023912874050438, 4.004963122075424, 4.005656950175762, 4.0318717050831765, 4.008327924879268, 4.016976652899757, 4.0156232989393175, 4.0278938978444785, 3.995948721189052, 3.996880966005847, 4.062487825984135]</t>
+          <t>[4.043285941006616, 3.9905121470801532, 4.00126048293896, 3.9993524020537734, 4.018148444127291, 3.9993655721191317, 4.004766332916915, 4.033592046005651, 3.988211872987449, 4.000780902104452, 4.001659862929955, 4.0444428799673915, 4.0091150749940425, 4.008916090941057, 4.0311229701619595, 3.9981745439581573, 4.003147443057969, 4.007565862033516, 4.051790428813547, 3.9975314040202647, 3.9923100229352713, 4.052252888912335, 4.007443248061463, 4.026049657026306, 4.0492260050959885, 4.0184257759246975, 3.9872574659530073, 4.003139276057482, 4.010380541905761, 4.016654257895425, 4.021248131990433, 4.020220979815349, 4.0427612559869885, 4.022348799044266, 4.014646715018898, 4.014667151961476, 4.000063807936385, 3.9991356160026044, 3.997558161150664, 4.011573327006772, 3.9856781288981438, 4.000032030977309, 4.029237526934594, 4.009706848999485, 3.996040407102555, 3.9865120809990913, 4.0377894539851695, 4.007347282022238, 4.004354559117928, 4.03593940497376]</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.016040485086851</v>
+        <v>4.012654870278202</v>
       </c>
       <c r="G24" t="n">
-        <v>4.01084750960581</v>
+        <v>4.008240976487286</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01947605846616392</v>
+        <v>0.01817908769923272</v>
       </c>
       <c r="I24" t="n">
-        <v>6516283.871480569</v>
+        <v>6518142.781554437</v>
       </c>
       <c r="J24" t="n">
-        <v>6908964</v>
+        <v>6909028</v>
       </c>
       <c r="K24" t="n">
-        <v>1282784.303417922</v>
+        <v>1281748.808390145</v>
       </c>
       <c r="L24" t="n">
         <v>2858</v>
       </c>
       <c r="M24" t="n">
-        <v>11452678</v>
+        <v>10687358</v>
       </c>
       <c r="N24" t="n">
-        <v>11452742</v>
+        <v>11452866</v>
       </c>
       <c r="O24" t="n">
         <v>13</v>
@@ -2977,26 +3001,26 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.002961923833936453, 0.003328171791508794, 0.005347244907170534, 0.005298712989315391, 0.0065100048668682575, 0.006705758860334754, 0.006660812068730593, 0.006681783124804497, 0.006717456970363855, 0.006658068159595132, 0.006748934043571353, 0.006809354992583394, 0.007421409944072366, 0.007332177134230733, 0.00691739609465003, 0.006714982911944389, 0.00672335596755147, 0.0066968160681426525, 0.006740211043506861, 0.007251625880599022, 0.006794542074203491, 0.006798178190365434, 0.006920831045135856, 0.006668302929028869, 0.006765940925106406, 0.006725708954036236, 0.0066939720418304205, 0.006761312950402498, 0.00671554496511817, 0.0067685439717024565, 0.006728854030370712, 0.006613611942157149, 0.0066513679921627045, 0.006745449034497142, 0.006716455798596144, 0.006751707987859845, 0.006566921016201377, 0.006718788994476199, 0.006659488892182708, 0.006602713838219643, 0.006764166988432407, 0.006599570857360959, 0.006621572887524962, 0.006620280910283327, 0.006765478057786822, 0.006621913053095341, 0.00656595011241734, 0.006592829944565892, 0.006496836896985769, 0.0066221540328115225]</t>
+          <t>[0.0030972149688750505, 0.0034114369191229343, 0.005305982194840908, 0.005863347090780735, 0.0055541240144521, 0.005707764066755772, 0.00556223513558507, 0.0058548329398036, 0.006996574113145471, 0.007184355054050684, 0.007221248932182789, 0.007071055006235838, 0.007355761015787721, 0.0071894098073244095, 0.007060529198497534, 0.0071585949044674635, 0.007186467992141843, 0.007170683005824685, 0.007590631954371929, 0.007068520877510309, 0.0071422799956053495, 0.006990422960370779, 0.007204212946817279, 0.007042971905320883, 0.007124322932213545, 0.007122542010620236, 0.007077835034579039, 0.007107659941539168, 0.007037854986265302, 0.006964256055653095, 0.006945237051695585, 0.006968691013753414, 0.006870894925668836, 0.008545832941308618, 0.011049801018089056, 0.007286726962774992, 0.006916322046890855, 0.006917024031281471, 0.006986977998167276, 0.007223471999168396, 0.006920840125530958, 0.006815172033384442, 0.0070000390987843275, 0.006872457917779684, 0.006930363131687045, 0.006893968908116221, 0.006805256009101868, 0.0068730879575014114, 0.006770194973796606, 0.0067327378783375025]</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>0.006537303859367967</v>
+        <v>0.006835004519671201</v>
       </c>
       <c r="T24" t="n">
-        <v>0.006710370886139572</v>
+        <v>0.006993498536758125</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0007743562158845805</v>
+        <v>0.001088613072819582</v>
       </c>
       <c r="V24" t="n">
-        <v>2940.56</v>
+        <v>2930.32</v>
       </c>
       <c r="W24" t="n">
         <v>2858</v>
       </c>
       <c r="X24" t="n">
-        <v>128.6660223451493</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y24" t="n">
         <v>2858</v>
@@ -3016,32 +3040,32 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>[0.14956226106733084, 0.11241991515271366, 0.10904809809289873, 0.11135479877702892, 0.10938787483610213, 0.11195366689935327, 0.11627694894559681, 0.10874158912338316, 0.1090357678476721, 0.10899021103978157, 0.10908943903632462, 0.10991090792231262, 0.10980664193630219, 0.11042117001488805, 0.11044692085124552, 0.11104165110737085, 0.10988429794088006, 0.10850598616525531, 0.10878841881640255, 0.10950476094149053, 0.1102633960545063, 0.11081073596142232, 0.10971128009259701, 0.11178303183987737, 0.10917652887292206, 0.10976723302155733, 0.10881060198880732, 0.10907659982331097, 0.1085873069241643, 0.10865928488783538, 0.10942338895983994, 0.10972112487070262, 0.1146245941054076, 0.10869300412014127, 0.10911398497410119, 0.10940850712358952, 0.1088778730481863, 0.10985109908506274, 0.10920292907394469, 0.10844345204532146, 0.10897506796754897, 0.11077805701643229, 0.10938179702498019, 0.10855142399668694, 0.10869486792944372, 0.10933309490792453, 0.10887138196267188, 0.10915454593487084, 0.10876029683277011, 0.10907084099017084]</t>
+          <t>[0.14224239089526236, 0.110062271123752, 0.10973568097688258, 0.11009118403308094, 0.109287581872195, 0.11073050182312727, 0.11103109107352793, 0.1090722291264683, 0.10956482705660164, 0.10958869196474552, 0.10973774385638535, 0.11022418295033276, 0.12259700405411422, 0.12207334907725453, 0.10890887398272753, 0.10870197298936546, 0.10847286111675203, 0.10843656701035798, 0.10836583119817078, 0.11187964212149382, 0.11106080492027104, 0.11068676481954753, 0.11107041989453137, 0.10987634095363319, 0.10911142593249679, 0.10918330401182175, 0.10886935610324144, 0.10852456814609468, 0.11085242195986211, 0.10972316400147974, 0.10867788712494075, 0.10864968597888947, 0.10909993015229702, 0.10931828594766557, 0.10955811501480639, 0.10934603004716337, 0.1098549289163202, 0.10990253207273781, 0.10878835385665298, 0.10890238406136632, 0.10986294108442962, 0.10964533593505621, 0.10922959307208657, 0.10904156300239265, 0.10941596305929124, 0.10908349486999214, 0.10924642882309854, 0.1089953740593046, 0.10862537007778883, 0.10884866490960121]</t>
         </is>
       </c>
       <c r="AF24" t="n">
-        <v>0.1105949731590226</v>
+        <v>0.1106771182222292</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.1093574459664524</v>
+        <v>0.1093809965532273</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.005820311797122987</v>
+        <v>0.00527364165253011</v>
       </c>
       <c r="AI24" t="n">
-        <v>10904.06965174129</v>
+        <v>10922.43316831683</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11862</v>
+        <v>11882</v>
       </c>
       <c r="AK24" t="n">
-        <v>3061.392575914549</v>
+        <v>3073.114499580575</v>
       </c>
       <c r="AL24" t="n">
         <v>2858</v>
       </c>
       <c r="AM24" t="n">
-        <v>15178</v>
+        <v>17250</v>
       </c>
       <c r="AN24" t="n">
         <v>30914</v>
@@ -3055,35 +3079,35 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>[0.016917465953156352, 0.016524337930604815, 0.01667764806188643, 0.016558289993554354, 0.017100892029702663, 0.016817277064546943, 0.016558569855988026, 0.016553783090785146, 0.016568866092711687, 0.01654741307720542, 0.016572811175137758, 0.016543716890737414, 0.01678012008778751, 0.01784863183274865, 0.01671127788722515, 0.0180996370036155, 0.016474904026836157, 0.01742866402491927, 0.01655455492436886, 0.016422016080468893, 0.01654528919607401, 0.016380172921344638, 0.016570127103477716, 0.016612399835139513, 0.016983186127617955, 0.016595824854448438, 0.016639549983665347, 0.01663296204060316, 0.016799219185486436, 0.01703312899917364, 0.016624028095975518, 0.017035463824868202, 0.016552231973037124, 0.016605342039838433, 0.01648424891754985, 0.01637755800038576, 0.018705643946304917, 0.03818718087859452, 0.03929153294302523, 0.03251566900871694, 0.03278620610944927, 0.03247253503650427, 0.032625995110720396, 0.03249400784261525, 0.03280294011346996, 0.03284424217417836, 0.032958179945126176, 0.033025703160092235, 0.032992443069815636, 0.03996476298198104]</t>
+          <t>[0.10650588618591428, 0.10714366193860769, 0.10623411904089153, 0.10653826501220465, 0.10690504382364452, 0.12744476785883307, 0.1056759930215776, 0.10612774104811251, 0.10714730806648731, 0.10631983890198171, 0.10566075099632144, 0.10600404511205852, 0.1062047160230577, 0.10715019097551703, 0.1064069988206029, 0.10664480505511165, 0.10615099593997002, 0.10641180607490242, 0.1070670960471034, 0.12462274613790214, 0.10616717883385718, 0.10629397910088301, 0.10562349599786103, 0.1069349788594991, 0.10704233008436859, 0.10604029893875122, 0.10623369901441038, 0.10680154897272587, 0.10659287497401237, 0.10641409899108112, 0.10609400109387934, 0.10620896192267537, 0.10620223195292056, 0.10672294092364609, 0.10677633015438914, 0.10652654897421598, 0.10629805619828403, 0.10575891914777458, 0.1061080910731107, 0.10589200700633228, 0.10659993789158762, 0.10704705794341862, 0.10658467491157353, 0.10648316307924688, 0.10656085796654224, 0.10630750004202127, 0.10550256608985364, 0.10587341990321875, 0.10634307307191193, 0.10652270098216832]</t>
         </is>
       </c>
       <c r="AS24" t="n">
-        <v>0.02132797305006534</v>
+        <v>0.1071784860035405</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.01674569898750633</v>
+        <v>0.1064094024477527</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.007861656611146486</v>
+        <v>0.003920388799884741</v>
       </c>
       <c r="AV24" t="n">
-        <v>6221.41592920354</v>
+        <v>9134.63829787234</v>
       </c>
       <c r="AW24" t="n">
-        <v>8274</v>
+        <v>10010</v>
       </c>
       <c r="AX24" t="n">
-        <v>2981.726266915765</v>
+        <v>2516.273548885871</v>
       </c>
       <c r="AY24" t="n">
         <v>2858</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9850</v>
+        <v>12226</v>
       </c>
       <c r="BA24" t="n">
-        <v>17578</v>
+        <v>18442</v>
       </c>
       <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="inlineStr"/>
@@ -3104,35 +3128,35 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[3.1053050479386, 3.105085549876094, 3.061645044013858, 3.098726467927918, 3.066159781999886, 3.0586433080025017, 3.1050058170221746, 3.080689001828432, 3.056779355974868, 3.091063703177497, 3.108235249063, 3.053054589079693, 3.0605557090602815, 3.096813069889322, 3.078739359974861, 3.0742232280317694, 3.068143797107041, 3.0920974670443684, 3.0638602329418063, 3.079081510892138, 3.0835730340331793, 3.1007507918402553, 3.0729157289024442, 3.1027273810468614, 3.0956855369731784, 3.100956087000668, 3.0719667058438063, 3.1071159390266985, 3.100985610857606, 3.067816561087966, 3.085684903198853, 3.0954036209732294, 3.054477492114529, 3.053409392014146, 3.1061283668968827, 3.0706340780016035, 3.091007619164884, 3.0735444251913577, 3.068207203177735, 3.0609128531068563, 3.078735184855759, 3.0756876228842884, 3.11139808408916, 3.0666960990056396, 3.0563621199689806, 3.1134838650468737, 3.077166293049231, 3.078508493024856, 3.1374954220373183, 3.0830812989734113]</t>
+          <t>[3.0364607700612396, 3.0464528938755393, 3.0763073230627924, 3.108838975895196, 3.0642499099485576, 3.0632898120675236, 3.1045600359793752, 3.0645262200850993, 3.0718136948999017, 3.0763734788633883, 3.1078530279919505, 3.0672353371046484, 3.073230457957834, 3.1054185091052204, 3.0728416920173913, 3.0863533169031143, 3.066193899139762, 3.1058057509362698, 3.1182092770468444, 3.071242331992835, 3.092333781067282, 3.103169748093933, 3.072344967862591, 3.0699840399902314, 3.0847298400476575, 3.086821201024577, 3.070645966101438, 3.086139746941626, 3.056767988950014, 3.079750721110031, 3.0708435960114002, 3.094477160833776, 3.0652319439686835, 3.0680634300224483, 3.0893363018985838, 3.0611234279349446, 3.0616578981280327, 3.0565329149831086, 3.14250509114936, 3.0534929311834276, 3.0718749940861017, 3.119913139147684, 3.0837120299693197, 3.061046010116115, 3.0627335358876735, 3.0947012149263173, 3.0690972378943115, 3.067198864882812, 3.081270948983729, 3.0712301048915833]</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.082928502084687</v>
+        <v>3.078719749860466</v>
       </c>
       <c r="G25" t="n">
-        <v>3.0789104354335</v>
+        <v>3.072109980974346</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01946620621534004</v>
+        <v>0.02042084106924185</v>
       </c>
       <c r="I25" t="n">
-        <v>6398379.71795054</v>
+        <v>6396435.725067577</v>
       </c>
       <c r="J25" t="n">
-        <v>6779980</v>
+        <v>6780084</v>
       </c>
       <c r="K25" t="n">
-        <v>1456310.506534592</v>
+        <v>1455183.249060553</v>
       </c>
       <c r="L25" t="n">
         <v>2858</v>
       </c>
       <c r="M25" t="n">
-        <v>11398190</v>
+        <v>10687486</v>
       </c>
       <c r="N25" t="n">
-        <v>11452738</v>
+        <v>11452866</v>
       </c>
       <c r="O25" t="n">
         <v>14</v>
@@ -3143,26 +3167,26 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.004296403145417571, 0.005336510017514229, 0.005288257030770183, 0.005324512021616101, 0.006530727026984096, 0.006838968023657799, 0.006817495916038752, 0.006857656873762608, 0.0066685539204627275, 0.006695783929899335, 0.00667190901003778, 0.006934380857273936, 0.006741151912137866, 0.0067598409950733185, 0.006687061861157417, 0.00676763104274869, 0.006911427015438676, 0.006684826919808984, 0.0066706768702715635, 0.007041841978207231, 0.006755172973498702, 0.006638387916609645, 0.0067303848918527365, 0.006725700106471777, 0.006855473155155778, 0.00672750105150044, 0.006660412065684795, 0.006670516915619373, 0.006528893951326609, 0.00663818814791739, 0.006828082026913762, 0.006650066003203392, 0.006671948824077845, 0.006667852867394686, 0.006673922063782811, 0.006850115023553371, 0.006610366981476545, 0.006600632099434733, 0.006585658993571997, 0.006545990006998181, 0.006853510858491063, 0.006562225054949522, 0.006526079960167408, 0.006506600882858038, 0.006686609936878085, 0.006509526167064905, 0.0065454288851469755, 0.006620791973546147, 0.0066889740992337465, 0.006659880047664046]</t>
+          <t>[0.003135404083877802, 0.004987374879419804, 0.0058688351418823, 0.005638520000502467, 0.006676313932985067, 0.007081619929522276, 0.007127368124201894, 0.007027328945696354, 0.007142029935494065, 0.007071414962410927, 0.007168870884925127, 0.007058435818180442, 0.007092286832630634, 0.007131634978577495, 0.007082080934196711, 0.0070958212018013, 0.007070143008604646, 0.007196530932560563, 0.007470472017303109, 0.007053978042677045, 0.007158876163884997, 0.007115592015907168, 0.007088590878993273, 0.007047317922115326, 0.006970923859626055, 0.006950153037905693, 0.007107979850843549, 0.00696334196254611, 0.006963643943890929, 0.007016751915216446, 0.006992146838456392, 0.007081348216161132, 0.0069218899589031935, 0.006794680841267109, 0.006834441097453237, 0.006959347054362297, 0.00694031803868711, 0.006824857089668512, 0.007019517011940479, 0.007235189899802208, 0.006863323971629143, 0.006866466952487826, 0.007057153852656484, 0.006915702018886805, 0.00698278215713799, 0.006970013026148081, 0.007056363159790635, 0.0068321567960083485, 0.006872205995023251, 0.006807469064369798]</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>0.006566010206006468</v>
+        <v>0.006847740183584392</v>
       </c>
       <c r="T25" t="n">
-        <v>0.006671292940154672</v>
+        <v>0.007018134463578463</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0004799192373013352</v>
+        <v>0.0006674399727573663</v>
       </c>
       <c r="V25" t="n">
-        <v>2935.44</v>
+        <v>2930.32</v>
       </c>
       <c r="W25" t="n">
         <v>2858</v>
       </c>
       <c r="X25" t="n">
-        <v>126.7019900621702</v>
+        <v>124.4923471133705</v>
       </c>
       <c r="Y25" t="n">
         <v>2858</v>
@@ -3182,32 +3206,32 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>[0.15028123604133725, 0.11114498600363731, 0.11774277407675982, 0.10940242605283856, 0.10917265200987458, 0.10974746313877404, 0.1093356260098517, 0.11101990891620517, 0.10882795602083206, 0.10888107493519783, 0.11061128694564104, 0.10972492001019418, 0.11080056009814143, 0.10953335394151509, 0.10928398906253278, 0.10973129910416901, 0.10852131806313992, 0.10920401895418763, 0.11041917884722352, 0.12452518683858216, 0.10830357996746898, 0.10911188297905028, 0.10887718014419079, 0.1099089840427041, 0.10920696496032178, 0.10822101891972125, 0.10935039795003831, 0.10979055613279343, 0.10893039009533823, 0.108325565000996, 0.1090520832221955, 0.1091101800557226, 0.10834562499076128, 0.10937959118746221, 0.10932085500098765, 0.10835507791489363, 0.10850080708041787, 0.10925559792667627, 0.10977486497722566, 0.10998854297213256, 0.10888300905935466, 0.10939783905632794, 0.11001112801022828, 0.10961387306451797, 0.10942897503264248, 0.10816975100897253, 0.10924642207100987, 0.11847844487056136, 0.10895311390049756, 0.1089758281596005]</t>
+          <t>[0.13725858484394848, 0.10877802479080856, 0.10824644891545177, 0.10907529108226299, 0.10797562380321324, 0.10897737205959857, 0.1084351718891412, 0.10842792992480099, 0.10837720497511327, 0.10839412803761661, 0.10899683297611773, 0.12327724788337946, 0.10841664485633373, 0.10872237104922533, 0.10822833189740777, 0.10910712601616979, 0.10935045196674764, 0.10870772087946534, 0.10976706515066326, 0.11043143994174898, 0.10879708384163678, 0.11038191593252122, 0.1187377730384469, 0.10933191305957735, 0.11018517194315791, 0.11601897282525897, 0.10941258608363569, 0.10890165995806456, 0.10866661719046533, 0.1085454470012337, 0.10846147988922894, 0.10987732000648975, 0.10968395113013685, 0.10924389213323593, 0.1085068080574274, 0.10847246693447232, 0.10910769808106124, 0.10835679387673736, 0.10867565195076168, 0.10878305090591311, 0.10914498404599726, 0.10986934881657362, 0.11027346388436854, 0.10880609811283648, 0.10867206496186554, 0.10927156312391162, 0.1085793289821595, 0.10917544993571937, 0.10915886401198804, 0.10850239102728665]</t>
         </is>
       </c>
       <c r="AF25" t="n">
-        <v>0.1108035868965089</v>
+        <v>0.1101710564736277</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.1093282405054197</v>
+        <v>0.1089395160088316</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.006351347485056</v>
+        <v>0.004726391884743102</v>
       </c>
       <c r="AI25" t="n">
-        <v>10933.55086848635</v>
+        <v>10855.75124378109</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11922</v>
+        <v>11858</v>
       </c>
       <c r="AK25" t="n">
-        <v>3114.778431267391</v>
+        <v>3041.855405347752</v>
       </c>
       <c r="AL25" t="n">
         <v>2858</v>
       </c>
       <c r="AM25" t="n">
-        <v>23626</v>
+        <v>13522</v>
       </c>
       <c r="AN25" t="n">
         <v>30498</v>
@@ -3221,35 +3245,35 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>[0.016824507853016257, 0.01648542913608253, 0.016655446030199528, 0.01657142909243703, 0.01651579514145851, 0.017064417013898492, 0.01658957591280341, 0.017762092174962163, 0.016611599130555987, 0.01648978586308658, 0.016490397974848747, 0.016463989159092307, 0.016355706844478846, 0.016628854908049107, 0.01754302391782403, 0.016737958882004023, 0.018114588921889663, 0.016340824076905847, 0.016483095940202475, 0.016684128204360604, 0.016626181080937386, 0.01668561017140746, 0.016476596938446164, 0.017200840869918466, 0.01647602580487728, 0.01683328114449978, 0.016442636027932167, 0.01664139307104051, 0.016527143074199557, 0.016694504069164395, 0.01701464201323688, 0.016648793825879693, 0.016927892109379172, 0.016683727968484163, 0.01657034899108112, 0.016481464030221105, 0.01657795812934637, 0.016917817993089557, 0.01656456897035241, 0.0177101141307503, 0.016602444928139448, 0.016597619047388434, 0.016445621149614453, 0.016380975022912025, 0.016424389090389013, 0.016551728826016188, 0.01712065190076828, 0.01650012214668095, 0.017019640188664198, 0.016682066023349762]</t>
+          <t>[0.10783047694712877, 0.10629815282300115, 0.10593265597708523, 0.10799622489139438, 0.10685375495813787, 0.10613050195388496, 0.10569214611314237, 0.1062125249300152, 0.10591521998867393, 0.10682155494578183, 0.10715820104815066, 0.1076572670135647, 0.10775268101133406, 0.1083286211360246, 0.10699007892981172, 0.10643955506384373, 0.10691797896288335, 0.10654449206776917, 0.10681880195625126, 0.12620958709158003, 0.10712530091404915, 0.10614542406983674, 0.10578172886744142, 0.1064618481323123, 0.10753351310268044, 0.10593525902368128, 0.10639904416166246, 0.10590161802247167, 0.10566335287876427, 0.10597916599363089, 0.10547924600541592, 0.10614125803112984, 0.10632189898751676, 0.1060022790916264, 0.10589263588190079, 0.106299385195598, 0.10572728794068098, 0.10555181605741382, 0.1057244730181992, 0.10583591181784868, 0.1054736990481615, 0.10570453386753798, 0.10530285211279988, 0.10600828914903104, 0.10631382698193192, 0.10555037180893123, 0.10571190505288541, 0.10636306903325021, 0.10663623013533652, 0.1073610819876194]</t>
         </is>
       </c>
       <c r="AS25" t="n">
-        <v>0.01672878889832646</v>
+        <v>0.1067765756836161</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.01660702202934772</v>
+        <v>0.1062553388765082</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.0003754577043357943</v>
+        <v>0.002897995164339089</v>
       </c>
       <c r="AV25" t="n">
-        <v>5579.44</v>
+        <v>8826.603773584906</v>
       </c>
       <c r="AW25" t="n">
-        <v>4586</v>
+        <v>9882</v>
       </c>
       <c r="AX25" t="n">
-        <v>2728.231722141096</v>
+        <v>2473.333389596686</v>
       </c>
       <c r="AY25" t="n">
         <v>2858</v>
       </c>
       <c r="AZ25" t="n">
-        <v>9490</v>
+        <v>11546</v>
       </c>
       <c r="BA25" t="n">
-        <v>17578</v>
+        <v>18442</v>
       </c>
       <c r="BB25" t="inlineStr"/>
       <c r="BC25" t="inlineStr"/>
@@ -3270,35 +3294,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[10.728446900146082, 10.78272393392399, 10.79386662086472, 10.749125777045265, 10.745798081159592, 10.79278333997354, 10.754520321963355, 10.746871380135417, 10.756128842942417, 10.796360762091354, 10.763111791806296, 10.743889130884781, 10.773480730131269, 10.735635215882212, 10.726280461996794, 10.741123066050932, 10.761869742069393, 10.73926998092793, 10.768287807004526, 10.764503521844745, 10.862027833005413, 10.751646352931857, 10.807928601978347, 10.753487379057333, 10.725607465952635, 10.802592775085941, 10.742452275007963, 10.760662554996088, 10.722132130991668, 10.755555436946452, 10.756060417974368, 10.787759914062917, 10.744621831225231, 10.767089515924454, 10.762268406106159, 10.799732801970094, 10.76181456213817, 10.758029611082748, 10.739631546195596, 10.759975460125133, 10.77356394706294, 10.761753733968362, 10.732649764046073, 10.744517690036446, 10.786428324878216, 10.776177661959082, 10.780932660913095, 10.718563243979588, 10.741185192018747, 10.738624599995092]</t>
+          <t>[10.730998419923708, 10.753471401985735, 10.742565311025828, 10.7342959579546, 10.733725287020206, 10.762274326989427, 10.713162729982287, 10.824034422868863, 10.744589603040367, 10.762563661905006, 10.749095778912306, 10.715595471905544, 10.753992062993348, 10.736228470923379, 10.717136582126841, 10.73277121107094, 10.764548475155607, 10.730795371113345, 10.750401998171583, 10.766954130027443, 10.843416851013899, 10.747258219867945, 10.730430006980896, 10.74814806994982, 10.762289184844121, 10.754327076952904, 10.8037912780419, 10.745851603103802, 10.766055014915764, 10.759539179969579, 10.770991696976125, 10.757896275958046, 10.74344948399812, 10.77839455101639, 10.771722936071455, 10.776493669021875, 10.779411358060315, 10.80687918397598, 10.771222485927865, 10.762301025912166, 10.768291373969987, 10.75686072697863, 10.783611911116168, 10.73342497413978, 10.759344464167953, 10.760323113994673, 10.74070780701004, 10.779863769188523, 10.742352635134012, 10.73334228200838]</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10.76079102200922</v>
+        <v>10.75714385770727</v>
       </c>
       <c r="G26" t="n">
-        <v>10.75707922701258</v>
+        <v>10.75559390196577</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02648831190405187</v>
+        <v>0.02566302784192835</v>
       </c>
       <c r="I26" t="n">
-        <v>6765807.676106908</v>
+        <v>6766615.691124805</v>
       </c>
       <c r="J26" t="n">
-        <v>6917116</v>
+        <v>6917092</v>
       </c>
       <c r="K26" t="n">
-        <v>796302.8470309628</v>
+        <v>794188.4255029096</v>
       </c>
       <c r="L26" t="n">
         <v>2858</v>
       </c>
       <c r="M26" t="n">
-        <v>11194422</v>
+        <v>11452390</v>
       </c>
       <c r="N26" t="n">
-        <v>11452738</v>
+        <v>11452610</v>
       </c>
       <c r="O26" t="n">
         <v>15</v>
@@ -3309,17 +3333,17 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.003003467805683613, 0.0027002529241144657, 0.003480000887066126, 0.005401628091931343, 0.005459765903651714, 0.005330152111127973, 0.006653783144429326, 0.006673743017017841, 0.006836818065494299, 0.006930157076567411, 0.006714644841849804, 0.006705691805109382, 0.006730498978868127, 0.006736185867339373, 0.006747022969648242, 0.0067404829896986485, 0.006791380001232028, 0.006732362089678645, 0.006671488983556628, 0.007427721982821822, 0.006720593897625804, 0.006675075041130185, 0.006619621999561787, 0.006761044031009078, 0.006749958032742143, 0.006583779118955135, 0.006553594022989273, 0.006603969028219581, 0.006648215930908918, 0.006669388152658939, 0.006621005013585091, 0.006685610860586166, 0.0066205840557813644, 0.006537057925015688, 0.006563408998772502, 0.006749577121809125, 0.00659732916392386, 0.006606122013181448, 0.006694403942674398, 0.006678299978375435, 0.00680975615978241, 0.006549688056111336, 0.00648085493594408, 0.0065993128810077906, 0.006536950124427676, 0.006574764149263501, 0.0065660018008202314, 0.006541425129398704, 0.006561694899573922, 0.006519664078950882]</t>
+          <t>[0.003193180076777935, 0.0028798009734600782, 0.004736680071800947, 0.005794743075966835, 0.006257227156311274, 0.005622355034574866, 0.007186998147517443, 0.0070341587997972965, 0.007064894074574113, 0.007169853197410703, 0.007221878971904516, 0.007080105831846595, 0.007184362970292568, 0.007074188906699419, 0.00705716316588223, 0.0070764420088380575, 0.007117814151570201, 0.007230703951790929, 0.007968256948515773, 0.007297224132344127, 0.007015871116891503, 0.006967688910663128, 0.007155079860240221, 0.007062430959194899, 0.007038165116682649, 0.00703454902395606, 0.007128470111638308, 0.007021649973466992, 0.0070280288346111774, 0.006915690843015909, 0.006977404002100229, 0.006964003201574087, 0.00691630388610065, 0.006915019825100899, 0.006928079994395375, 0.006961599923670292, 0.006871346151456237, 0.006838727043941617, 0.006881300127133727, 0.007242691004648805, 0.006898175925016403, 0.006865907926112413, 0.007237523095682263, 0.007566586136817932, 0.00746637606061995, 0.0068960729986429214, 0.006890563061460853, 0.006822220981121063, 0.006943552987650037, 0.006905866088345647]</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>0.006382920001633465</v>
+        <v>0.006792099536396563</v>
       </c>
       <c r="T26" t="n">
-        <v>0.006634610472247005</v>
+        <v>0.007018760545179248</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0009158070033320714</v>
+        <v>0.0009089441666929551</v>
       </c>
       <c r="V26" t="n">
         <v>2930.32</v>
@@ -3348,35 +3372,35 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>[0.15228984388522804, 0.13139928109012544, 0.11055901483632624, 0.10871460498310626, 0.10888195387087762, 0.10955680487677455, 0.1096066611353308, 0.11034365301020443, 0.10877133696340024, 0.1106977229937911, 0.11064952099695802, 0.10952347400598228, 0.10935976984910667, 0.1096928371116519, 0.11900763702578843, 0.10920887487009168, 0.1270331139676273, 0.10877200891263783, 0.10874384688213468, 0.10804933798499405, 0.10966702899895608, 0.10914490791037679, 0.10919329011812806, 0.10914714098908007, 0.12290437193587422, 0.1101207579486072, 0.1095667090266943, 0.10983221721835434, 0.10890236496925354, 0.11026533506810665, 0.1087122499011457, 0.1086381480563432, 0.1099388268776238, 0.10995193617418408, 0.11008233088068664, 0.11019589100033045, 0.11038671806454659, 0.10953796608373523, 0.11017051292583346, 0.10970895108766854, 0.11066267010755837, 0.11001654295250773, 0.10926093114539981, 0.1095356319565326, 0.10918646003119648, 0.11079274490475655, 0.11090131686069071, 0.10901276883669198, 0.10990653792396188, 0.10992241092026234]</t>
+          <t>[0.1526654299814254, 0.10967871802859008, 0.10969294002279639, 0.10915810707956553, 0.10930968611501157, 0.10976584698073566, 0.10890032188035548, 0.10898035205900669, 0.1092188679613173, 0.10888635204173625, 0.10914861410856247, 0.10935824806801975, 0.10836659395135939, 0.10879748803563416, 0.12667605909518898, 0.1095236660912633, 0.1084352561738342, 0.1083247500937432, 0.10860552196390927, 0.10829072003252804, 0.10921966098248959, 0.1085537530016154, 0.10945927910506725, 0.10930037102662027, 0.10933157801628113, 0.1095054978504777, 0.1088884761556983, 0.10959466290660203, 0.10887565696612, 0.10916314600035548, 0.10973930894397199, 0.11003750516101718, 0.10888473805971444, 0.10938555793836713, 0.10842049494385719, 0.10936953406780958, 0.10949357110075653, 0.10911146900616586, 0.10893822903744876, 0.109444908099249, 0.1091864900663495, 0.10993111599236727, 0.10897899093106389, 0.1086670730728656, 0.10957159614190459, 0.10994839109480381, 0.10920312604866922, 0.12178903515450656, 0.10876398696564138, 0.10846351785585284]</t>
         </is>
       </c>
       <c r="AF26" t="n">
-        <v>0.1117225394025445</v>
+        <v>0.1106200852291658</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.1097008940996602</v>
+        <v>0.1092109970049933</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.007370931541919467</v>
+        <v>0.006794534947982166</v>
       </c>
       <c r="AI26" t="n">
-        <v>9505.012345679012</v>
+        <v>9515.520987654321</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10314</v>
+        <v>10266</v>
       </c>
       <c r="AK26" t="n">
-        <v>2519.602540623916</v>
+        <v>2529.723011033714</v>
       </c>
       <c r="AL26" t="n">
         <v>2858</v>
       </c>
       <c r="AM26" t="n">
-        <v>12018</v>
+        <v>11922</v>
       </c>
       <c r="AN26" t="n">
-        <v>28994</v>
+        <v>28898</v>
       </c>
       <c r="AO26" t="n">
         <v>15</v>
@@ -3387,35 +3411,35 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>[0.016927808988839388, 0.016813005786389112, 0.016703784000128508, 0.016505044884979725, 0.01649826392531395, 0.016360679175704718, 0.017941545927897096, 0.016440960112959146, 0.017302017891779542, 0.01646953192539513, 0.01654709898866713, 0.016566766891628504, 0.022211210103705525, 0.04064919799566269, 0.03847778798080981, 0.033043680945411325, 0.03305640001781285, 0.03220736887305975, 0.03268307191319764, 0.033091172110289335, 0.0330739370547235, 0.03318710485473275, 0.032909780042245984, 0.032802568981423974, 0.03316134703345597, 0.03247816418297589, 0.03330395999364555, 0.03324351995252073, 0.032692594919353724, 0.03278506291098893, 0.03300465294159949, 0.03269405709579587, 0.032848147908225656, 0.03337334399111569, 0.03261706093326211, 0.03282560291700065, 0.032833765959367156, 0.03284584521315992, 0.03283945610746741, 0.03310240781866014, 0.03282325086183846, 0.032867315923795104, 0.032857481855899096, 0.032667878083884716, 0.03233479894697666, 0.03285753191448748, 0.03267918503843248, 0.03306325105950236, 0.03358330903574824, 0.033436258090659976]</t>
+          <t>[0.10590559104457498, 0.1060968260280788, 0.10591706610284746, 0.10653081513009965, 0.1061684840824455, 0.106135314097628, 0.10646156314760447, 0.1064817919395864, 0.10556061216630042, 0.10605875798501074, 0.10616523819044232, 0.10728723811917007, 0.10631209914572537, 0.10612451797351241, 0.10666045104153454, 0.10744802816770971, 0.10649147699587047, 0.1066698650829494, 0.10602153302170336, 0.10629858891479671, 0.107024434953928, 0.10898224590346217, 0.1165556909982115, 0.1071637540590018, 0.10831699008122087, 0.10812944802455604, 0.1072901920415461, 0.10601499397307634, 0.10595944104716182, 0.10558105492964387, 0.1061179970856756, 0.10660944413393736, 0.10708362283185124, 0.10702638910152018, 0.10643796809017658, 0.10674868104979396, 0.10715145501308143, 0.10672986297868192, 0.10649842699058354, 0.10698672011494637, 0.10653131501749158, 0.10599807905964553, 0.10603860905393958, 0.11013097292743623, 0.10649813595227897, 0.10614496795460582, 0.1071335079614073, 0.10713888588361442, 0.10657010483555496, 0.10577157093212008]</t>
         </is>
       </c>
       <c r="AS26" t="n">
-        <v>0.02908578080125153</v>
+        <v>0.1068632164271548</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.03282442688941956</v>
+        <v>0.1064982814714313</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.007299188246915309</v>
+        <v>0.00163092801183436</v>
       </c>
       <c r="AV26" t="n">
-        <v>5833.642335766423</v>
+        <v>7760.778947368421</v>
       </c>
       <c r="AW26" t="n">
-        <v>6898</v>
+        <v>8410</v>
       </c>
       <c r="AX26" t="n">
-        <v>2254.338685269005</v>
+        <v>1965.222535306354</v>
       </c>
       <c r="AY26" t="n">
         <v>2858</v>
       </c>
       <c r="AZ26" t="n">
-        <v>8410</v>
+        <v>9962</v>
       </c>
       <c r="BA26" t="n">
-        <v>15978</v>
+        <v>16842</v>
       </c>
       <c r="BB26" t="inlineStr"/>
       <c r="BC26" t="inlineStr"/>

--- a/reports/xlsx/benchmark_constraint_must_schedule_1.xlsx
+++ b/reports/xlsx/benchmark_constraint_must_schedule_1.xlsx
@@ -874,56 +874,58 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.6688278599176556, 0.6622628630138934, 0.6920628589577973, 0.66539266705513, 0.6584929688833654, 0.6877467778977007, 0.6615235160570592, 0.6656332858838141, 0.6613367740064859, 0.6899610799737275, 0.6600353170651942, 0.665341880870983, 0.6918807451147586, 0.6691239308565855, 0.6537225570064038, 0.6580899960827082, 0.6880162099841982, 0.6599178309552372, 0.6577552920207381, 0.6867835537996143, 0.6670313191134483, 0.6668436850886792, 0.6674562238622457, 0.7095569120720029, 0.6617882989812642, 0.661039168946445, 0.6914754670578986, 0.6616658458951861, 0.6728344128932804, 0.6575340621639043, 0.6845801749732345, 0.661293137120083, 0.6633290338795632, 0.6953004421666265, 0.6661735828965902, 0.656250508967787, 0.6525592938996851, 0.6856060000136495, 0.6540623039472848, 0.6585092600435019, 0.6780024978797883, 0.6582438840996474, 0.6591912799049169, 0.6571014309301972, 0.689777062041685, 0.6536610620096326, 0.6558525920845568, 0.6840069461613894, 0.6582147779408842, 0.655416770838201]</t>
+          <t>[0.6649739630520344, 0.6646062810905278, 0.6856826040893793, 0.6516881231218576, 0.6691254768520594, 0.6977373068220913, 0.667411538772285, 0.6666561756283045, 0.6535067223012447, 0.6892184349708259, 0.6614590510725975, 0.6640430889092386, 0.6945403842255473, 0.6800997061654925, 0.6656016306951642, 0.6630194038152695, 0.6891726022586226, 0.6688406132161617, 0.6753338039852679, 0.6924029570072889, 0.664107680786401, 0.671524269040674, 0.6671646079048514, 0.693316652905196, 0.6716254479251802, 0.7046182882040739, 0.6830230946652591, 0.6641215169802308, 0.6613997207023203, 0.6625926368869841, 0.6950463787652552, 0.6839552079327404, 0.6788389761932194, 0.7078009070828557, 0.678521788213402, 0.6639597187750041, 0.6834978703409433, 0.7096938509494066, 0.6669690748676658, 0.6697994619607925, 0.7122661410830915, 0.6775720310397446, 0.6611203220672905, 0.6673335460945964, 0.6896202731877565, 0.6609341017901897, 0.6880120951682329, 0.7072238838300109, 0.6674695969559252, 0.6664974801242352]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.6689653080655262</v>
+        <v>0.6768949298094958</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6627959484467283</v>
+        <v>0.6706618655007333</v>
       </c>
       <c r="H12" t="n">
-        <v>0.014161165047756</v>
+        <v>0.01559804177427161</v>
       </c>
       <c r="I12" t="n">
-        <v>3788131.337887067</v>
+        <v>3776878.635950976</v>
       </c>
       <c r="J12" t="n">
-        <v>2814025</v>
+        <v>2813817</v>
       </c>
       <c r="K12" t="n">
-        <v>2279294.599165893</v>
+        <v>2243204.927998719</v>
       </c>
       <c r="L12" t="n">
         <v>2858</v>
       </c>
       <c r="M12" t="n">
-        <v>10483022</v>
+        <v>10115627</v>
       </c>
       <c r="N12" t="n">
-        <v>11452650</v>
+        <v>11452610</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="n">
+        <v>750</v>
+      </c>
       <c r="Q12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[0.0030290440190583467, 0.0029175779782235622, 0.0028199919033795595, 0.002915254095569253, 0.0028615540359169245, 0.0028979280032217503, 0.004220467060804367, 0.0071563720703125, 0.007272526156157255, 0.0070891911163926125, 0.007201208034530282, 0.007135229185223579, 0.0071230928879231215, 0.007101530907675624, 0.007093946915119886, 0.0070437618996948, 0.0070717050693929195, 0.0070351199246943, 0.00733005185611546, 0.007171995006501675, 0.00708014820702374, 0.00702634803019464, 0.006938575999811292, 0.007071065017953515, 0.0070933080278337, 0.0070281499065458775, 0.0070057671982795, 0.006997272837907076, 0.006986488122493029, 0.00686911097727716, 0.006971776019781828, 0.00700585707090795, 0.006931865820661187, 0.007036624010652304, 0.006948430091142654, 0.006833139108493924, 0.0068878300953656435, 0.006917653838172555, 0.0069418109487742186, 0.007115141022950411, 0.006893699057400227, 0.006861641071736813, 0.006884594913572073, 0.006898405961692333, 0.006851325044408441, 0.006776282098144293, 0.007587095955386758, 0.007687045028433204, 0.007141779875382781, 0.006861711852252483]</t>
+          <t>[0.008363394998013973, 0.008134263101965189, 0.00805825786665082, 0.0080876131542027, 0.007991509046405554, 0.008051417768001556, 0.008047983981668949, 0.00829439191147685, 0.008080350700765848, 0.008053912315517664, 0.008058519568294287, 0.008056454826146364, 0.007999109104275703, 0.008176696952432394, 0.007958760019391775, 0.008104537148028612, 0.00799184711650014, 0.00792005006223917, 0.008183484897017479, 0.00797243881970644, 0.00789665523916483, 0.007958717178553343, 0.007877988275140524, 0.007919089868664742, 0.007908044382929802, 0.007853971794247627, 0.007870167028158903, 0.00793938897550106, 0.00793889770284295, 0.007886562030762434, 0.007910216692835093, 0.007834222167730331, 0.007858228869736195, 0.007848565001040697, 0.007899349089711905, 0.00799024710431695, 0.007862925063818693, 0.007871398702263832, 0.00787397101521492, 0.008010556921362877, 0.007883826736360788, 0.007802734617143869, 0.007830397225916386, 0.007927011232823133, 0.008167029824107885, 0.008104556705802679, 0.007953600957989693, 0.007942826021462679, 0.007958557922393084, 0.007952310144901276]</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>0.006492349826730788</v>
+        <v>0.007982340157032013</v>
       </c>
       <c r="T12" t="n">
-        <v>0.007001520018093288</v>
+        <v>0.007956079440191388</v>
       </c>
       <c r="U12" t="n">
-        <v>0.001405755013111243</v>
+        <v>0.000120674506866141</v>
       </c>
       <c r="V12" t="n">
         <v>2930.32</v>
@@ -941,7 +943,7 @@
         <v>3306</v>
       </c>
       <c r="AA12" t="n">
-        <v>64715</v>
+        <v>64355</v>
       </c>
       <c r="AB12" t="n">
         <v>1</v>
@@ -954,17 +956,17 @@
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>[0.015467721037566662, 0.014948775991797447, 0.01471728808246553, 0.014871830120682716, 0.015086752129718661, 0.015040833968669176, 0.014968974981456995, 0.015360692981630564, 0.015043098013848066, 0.014976798091083765, 0.015014935983344913, 0.015346111031249166, 0.014866582816466689, 0.014904499985277653, 0.014931750018149614, 0.01508416817523539, 0.011911949841305614, 0.011902116006240249, 0.011979350820183754, 0.011937088100239635, 0.011923087062314153, 0.01195141882635653, 0.011864640051499009, 0.011806854046881199, 0.011885080020874739, 0.011844728840515018, 0.012178106931969523, 0.011972129810601473, 0.011889096116647124, 0.011916137067601085, 0.011828845832496881, 0.011824198067188263, 0.011813171906396747, 0.011903237085789442, 0.01200440782122314, 0.011947612976655364, 0.011842617066577077, 0.01186941796913743, 0.011855365941300988, 0.011931939981877804, 0.011896157870069146, 0.01193457399494946, 0.011870848946273327, 0.011848495109006763, 0.011951229069381952, 0.011872139992192388, 0.011907965177670121, 0.011878059012815356, 0.011838248930871487, 0.011779532069340348]</t>
+          <t>[0.0059919338673353195, 0.005930251907557249, 0.005965001881122589, 0.0059273866936564445, 0.005898144096136093, 0.0064437510445714, 0.005944543052464724, 0.006414214614778757, 0.011550507973879576, 0.012085960246622562, 0.014968927949666977, 0.014899111818522215, 0.015096828807145357, 0.014987055212259293, 0.015152391977608204, 0.01513842074200511, 0.015083098784089088, 0.015111171174794436, 0.015025191940367222, 0.011963415890932083, 0.012032139115035534, 0.011974783148616552, 0.011904057580977678, 0.011964637786149979, 0.011935624293982983, 0.011840393301099539, 0.011908001732081175, 0.011911388020962477, 0.012064659036695957, 0.01181088900193572, 0.011938108131289482, 0.01191331073641777, 0.011973762884736061, 0.011884097009897232, 0.012012500315904617, 0.011861904989928007, 0.012117326725274324, 0.012101552914828062, 0.011968943756073713, 0.01195603609085083, 0.01082454901188612, 0.005899135954678059, 0.005942839663475752, 0.009975678753107786, 0.005947957746684551, 0.009473769925534725, 0.009549301117658615, 0.0058958991430699825, 0.008462012279778719, 0.005928488913923502]</t>
         </is>
       </c>
       <c r="AF12" t="n">
-        <v>0.01290381323546171</v>
+        <v>0.010731021175161</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.01193325698841363</v>
+        <v>0.01190969487652183</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.001485171186087972</v>
+        <v>0.003197501594091498</v>
       </c>
       <c r="AI12" t="n">
         <v>2924.56</v>
@@ -995,17 +997,17 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>[0.011380315059795976, 0.01125881215557456, 0.011531861033290625, 0.011418541893362999, 0.011396720074117184, 0.01127466605976224, 0.011337872128933668, 0.011403780896216631, 0.01137015805579722, 0.011333042988553643, 0.011462628142908216, 0.011401646072044969, 0.011384591925889254, 0.011392132146283984, 0.011419994058087468, 0.01130822696723044, 0.011432371102273464, 0.011442838003858924, 0.011504268972203135, 0.011341206030920148, 0.011313884053379297, 0.01132858800701797, 0.011333843925967813, 0.01139660901390016, 0.011448957026004791, 0.01127891382202506, 0.01149355317465961, 0.011537699960172176, 0.01133921300061047, 0.01136984908953309, 0.011352614033967257, 0.01132078398950398, 0.011486794101074338, 0.011265282053500414, 0.011464309878647327, 0.01147866202518344, 0.01148464996367693, 0.011356037110090256, 0.011594135081395507, 0.014077901840209961, 0.01419428689405322, 0.014267987105995417, 0.014202989870682359, 0.014148988062515855, 0.014224971877411008, 0.014295238070189953, 0.014190321089699864, 0.014161337865516543, 0.011426341952756047, 0.01124298688955605]</t>
+          <t>[0.00830494798719883, 0.008750925306230783, 0.009784784633666277, 0.005724992603063583, 0.005732323974370956, 0.009746477007865906, 0.005694068036973476, 0.010261527728289366, 0.00922582671046257, 0.009299697820097208, 0.005747707094997168, 0.005637990776449442, 0.0106107909232378, 0.005682660266757011, 0.010964080225676298, 0.01139884116128087, 0.005692786071449518, 0.005644333083182573, 0.010686504188925028, 0.011428224854171276, 0.011425440665334463, 0.011474835220724344, 0.011495405808091164, 0.011511780321598053, 0.011532180942595005, 0.01150615094229579, 0.011558501049876213, 0.011449726764112711, 0.011548885144293308, 0.011477218009531498, 0.011416818015277386, 0.01153090875595808, 0.011428195051848888, 0.011519652791321278, 0.01159144937992096, 0.011505110189318657, 0.01157477404922247, 0.01140630291774869, 0.011413783300668001, 0.011331641115248203, 0.0116427568718791, 0.011398660950362682, 0.011613653972744942, 0.011491588782519102, 0.011421876028180122, 0.011370268184691668, 0.011559840757399797, 0.011381194926798344, 0.011570540256798267, 0.011559932958334684]</t>
         </is>
       </c>
       <c r="AS12" t="n">
-        <v>0.01189746809192002</v>
+        <v>0.0102145712915808</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01141116139478981</v>
+        <v>0.01141530065797269</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.001090725991749958</v>
+        <v>0.002139430830832473</v>
       </c>
       <c r="AV12" t="n">
         <v>2924.56</v>
@@ -1031,7 +1033,9 @@
       <c r="BC12" t="n">
         <v>1</v>
       </c>
-      <c r="BD12" t="inlineStr"/>
+      <c r="BD12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1048,56 +1052,58 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[1.0454062588978559, 1.0855694159399718, 1.0542460589203984, 1.0252093861345202, 1.068588538095355, 1.0326036550104618, 1.04122544801794, 1.0490345382131636, 1.053198980866, 1.0290764628443867, 1.0258244059514254, 1.054704616079107, 1.0297759799286723, 1.0310149150900543, 1.0396870758850127, 1.0964281070046127, 1.0359352980740368, 1.0297007549088448, 1.0541889909654856, 1.052133453078568, 1.0376542890444398, 1.0476220098789781, 1.0532408498693258, 1.0376102840527892, 1.0342249860987067, 1.041285855928436, 1.0393638969399035, 1.039482224965468, 1.059997061965987, 1.0657934870105237, 1.0538154090754688, 1.0334567551035434, 1.0621250569820404, 1.0267141319345683, 1.0437744678929448, 1.0345001658424735, 1.0836285019759089, 1.038724389160052, 1.0320911498274654, 1.0576799700502306, 1.029890805017203, 1.0269565749913454, 1.0174737579654902, 1.0696815939154476, 1.0418264800682664, 1.021424621809274, 1.0569915189407766, 1.0280926120467484, 1.0293410089798272, 1.0392312239855528]</t>
+          <t>[1.0353974821045995, 1.0617500976659358, 1.041096773929894, 1.0436967979185283, 1.0727097070775926, 1.0524563528597355, 1.042578016873449, 1.041317116934806, 1.0738317407667637, 1.034162628930062, 1.0500362599268556, 1.0577373523265123, 1.0266922893933952, 1.0341667798347771, 1.0210783071815968, 1.072433673311025, 1.0538848945870996, 1.0445917579345405, 1.0657600359991193, 1.0419184402562678, 1.0837143920361996, 1.0424310439266264, 1.104307807981968, 1.0541554391384125, 1.0458659138530493, 1.074676487594843, 1.0340116787701845, 1.0479891989380121, 1.0330936801619828, 1.0852370583452284, 1.0324554820545018, 1.0507066529244184, 1.1074835187755525, 1.0639523956924677, 1.0234066350385547, 1.0453410507179797, 1.0666922847740352, 1.041283412836492, 1.0389276929199696, 1.0762178148142993, 1.03738835407421, 1.0675190351903439, 1.0617937999777496, 1.0804871930740774, 1.0656533474102616, 1.0357364732772112, 1.113664141856134, 1.092203110922128, 1.070181543007493, 1.0407876926474273]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.044344949624501</v>
+        <v>1.055693216770887</v>
       </c>
       <c r="G13" t="n">
-        <v>1.03958465042524</v>
+        <v>1.050371456425637</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01703166626425087</v>
+        <v>0.02187916371390923</v>
       </c>
       <c r="I13" t="n">
-        <v>5160125.6885</v>
+        <v>5146624.966823471</v>
       </c>
       <c r="J13" t="n">
-        <v>6764920</v>
+        <v>6764924</v>
       </c>
       <c r="K13" t="n">
-        <v>2301935.792117316</v>
+        <v>2306423.235399032</v>
       </c>
       <c r="L13" t="n">
         <v>2858</v>
       </c>
       <c r="M13" t="n">
-        <v>10121699</v>
+        <v>10121579</v>
       </c>
       <c r="N13" t="n">
-        <v>11452762</v>
+        <v>11452738</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
       </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="n">
+        <v>2700</v>
+      </c>
       <c r="Q13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[0.0030023541767150164, 0.005217019002884626, 0.007094258908182383, 0.007109771948307753, 0.007095230044797063, 0.00729762390255928, 0.007137792883440852, 0.007195489946752787, 0.007232436211779714, 0.007075370056554675, 0.007016500923782587, 0.007002572994679213, 0.007155831204727292, 0.007228170055896044, 0.007114018080756068, 0.007199154933914542, 0.007134849904105067, 0.007040088064968586, 0.007650962797924876, 0.007198355160653591, 0.007104052929207683, 0.007187848910689354, 0.007023053010925651, 0.007124624913558364, 0.006933148019015789, 0.006995650939643383, 0.0070147099904716015, 0.006991795962676406, 0.0069780549965798855, 0.0069417699705809355, 0.006997974123805761, 0.006972945993766189, 0.006971705937758088, 0.006896192906424403, 0.006916653132066131, 0.006939626997336745, 0.0069328779354691505, 0.0067991879768669605, 0.006848631892353296, 0.007157674990594387, 0.006956211989745498, 0.007021549856290221, 0.006916332989931107, 0.006877504056319594, 0.00686388392932713, 0.006805927958339453, 0.006797956069931388, 0.0068888620007783175, 0.006798416841775179, 0.0068356129340827465]</t>
+          <t>[0.011986088939011097, 0.011813200078904629, 0.011747181881219149, 0.011831207666546106, 0.011822083964943886, 0.011780402157455683, 0.011847122106701136, 0.01165756769478321, 0.011728924233466387, 0.011691538151353598, 0.011611929163336754, 0.011718818917870522, 0.011668253224343061, 0.011750145815312862, 0.013554928824305534, 0.011678148992359638, 0.011671859305351973, 0.011641653254628181, 0.011939080897718668, 0.01170224417001009, 0.011694322805851698, 0.01165901031345129, 0.011624157894402742, 0.011748112738132477, 0.011696156114339828, 0.011667681857943535, 0.01167449401691556, 0.011641212739050388, 0.011642393656075, 0.011598450131714344, 0.011556325946003199, 0.011598720215260983, 0.011558579746633768, 0.011637476738542318, 0.011479411274194717, 0.011560452170670033, 0.011681662872433662, 0.011709726881235838, 0.012554080225527287, 0.011781543027609587, 0.0116189606487751, 0.01152887474745512, 0.011460070963948965, 0.011556125245988369, 0.011520612053573132, 0.011415734887123108, 0.011498730164021254, 0.011556237004697323, 0.011495375074446201, 0.011509856674820185]</t>
         </is>
       </c>
       <c r="S13" t="n">
-        <v>0.006913765827193856</v>
+        <v>0.01171533856540918</v>
       </c>
       <c r="T13" t="n">
-        <v>0.007000273559242487</v>
+        <v>0.0116679675411433</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0006392563743582373</v>
+        <v>0.0003167646354249091</v>
       </c>
       <c r="V13" t="n">
         <v>2930.32</v>
@@ -1128,32 +1134,32 @@
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>[0.03976233699359, 0.03973919292911887, 0.032813455909490585, 0.0318559838924557, 0.031826627906411886, 0.03198820003308356, 0.0324650548864156, 0.03210327308624983, 0.031933638965711, 0.03245084406808019, 0.03316821716725826, 0.03301022993400693, 0.032233549980446696, 0.031694289995357394, 0.03207485098391771, 0.032232487108558416, 0.03214186104014516, 0.0327156491111964, 0.03196780011057854, 0.0323486200068146, 0.03209987888112664, 0.03199432999826968, 0.03257166501134634, 0.032341728918254375, 0.0319420020096004, 0.032167870085686445, 0.0318471509963274, 0.032194809056818485, 0.032397703966125846, 0.03225939697586, 0.032154087908566, 0.03199822595342994, 0.03200894105248153, 0.032450292026624084, 0.03207583096809685, 0.03226737794466317, 0.032508288975805044, 0.03255803300999105, 0.0324301419313997, 0.03279592888429761, 0.03203249583020806, 0.03260732791386545, 0.03691684897057712, 0.04135649302043021, 0.03925736201927066, 0.032530602999031544, 0.03271818393841386, 0.03249742207117379, 0.032092487905174494, 0.03216647799126804]</t>
+          <t>[0.016827991232275963, 0.016383114270865917, 0.01637262897565961, 0.016465268097817898, 0.016534142196178436, 0.016499218996614218, 0.01741557102650404, 0.016447911970317364, 0.016943792812526226, 0.016591588035225868, 0.016831243876367807, 0.0163549417629838, 0.0164609313942492, 0.01639644429087639, 0.016317736823111773, 0.016329452861100435, 0.01642020931467414, 0.017396681010723114, 0.016517877113074064, 0.016483725048601627, 0.01652927417308092, 0.01651807688176632, 0.016513419337570667, 0.016471025999635458, 0.01700485497713089, 0.016648452263325453, 0.016406859271228313, 0.016506989020854235, 0.017172745894640684, 0.016668502241373062, 0.016486700158566236, 0.016486740205436945, 0.016636254265904427, 0.016705576796084642, 0.016783353872597218, 0.017059146892279387, 0.01656851125881076, 0.01669940771535039, 0.01652577705681324, 0.017606485169380903, 0.01656787097454071, 0.01710001891478896, 0.016476734075695276, 0.017574009019881487, 0.01666189171373844, 0.016600219067186117, 0.016538715921342373, 0.01673720497637987, 0.016764706000685692, 0.016827689949423075]</t>
         </is>
       </c>
       <c r="AF13" t="n">
-        <v>0.03299531102646142</v>
+        <v>0.0166767537035048</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.03226338746026158</v>
+        <v>0.01655329344794154</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.002228367435955098</v>
+        <v>0.000316965159026162</v>
       </c>
       <c r="AI13" t="n">
-        <v>8199.173333333334</v>
+        <v>7187.36</v>
       </c>
       <c r="AJ13" t="n">
-        <v>10514</v>
+        <v>6978</v>
       </c>
       <c r="AK13" t="n">
-        <v>3779.892105890064</v>
+        <v>4288.758723015603</v>
       </c>
       <c r="AL13" t="n">
         <v>2858</v>
       </c>
       <c r="AM13" t="n">
-        <v>12338</v>
+        <v>11818</v>
       </c>
       <c r="AN13" t="n">
         <v>28898</v>
@@ -1169,32 +1175,32 @@
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>[0.031002755975350738, 0.03122866409830749, 0.03591709188185632, 0.03579417709261179, 0.039272533962503076, 0.03863934497348964, 0.03683011815883219, 0.03116013202816248, 0.03103423397988081, 0.030764209106564522, 0.03063929290510714, 0.028461250942200422, 0.016021041898056865, 0.01592151098884642, 0.01583376992493868, 0.015844757901504636, 0.015781742054969072, 0.016237393952906132, 0.015621742932125926, 0.015963805839419365, 0.015882092993706465, 0.015738247893750668, 0.015624006045982242, 0.015751035884022713, 0.016916519962251186, 0.015835093101486564, 0.015665587037801743, 0.015808391850441694, 0.015745386946946383, 0.01565389079041779, 0.015621942933648825, 0.02172206505201757, 0.01560058118775487, 0.01650505606085062, 0.01569162798114121, 0.016249252948909998, 0.015793789876624942, 0.015622354811057448, 0.01570903486572206, 0.022659097099676728, 0.016106837894767523, 0.01578688994050026, 0.015724466182291508, 0.015926468186080456, 0.015742343850433826, 0.015762723982334137, 0.015742562944069505, 0.016093519050627947, 0.015781110851094127, 0.01711306511424482]</t>
+          <t>[0.015858047176152468, 0.016005618032068014, 0.016161260660737753, 0.016439038794487715, 0.016019299626350403, 0.015890265349298716, 0.01692932192236185, 0.016859046649187803, 0.01592041179537773, 0.015902845188975334, 0.015991948079317808, 0.016044586896896362, 0.0159718981012702, 0.015877637080848217, 0.015801423229277134, 0.015966889914125204, 0.0166570539586246, 0.026247074827551842, 0.04175194492563605, 0.03190545877441764, 0.032207712065428495, 0.03304006019607186, 0.032319050282239914, 0.032742592971771955, 0.03156962711364031, 0.031666130758821964, 0.031746279913932085, 0.031650878954678774, 0.03156525967642665, 0.03138818359002471, 0.03359374776482582, 0.03144413698464632, 0.031940001994371414, 0.03220335487276316, 0.03962208703160286, 0.04422587901353836, 0.0439982982352376, 0.03163531515747309, 0.041102212853729725, 0.03980905609205365, 0.03840194782242179, 0.04670990910381079, 0.040032871067523956, 0.03945465385913849, 0.031433602795004845, 0.03645190875977278, 0.031260722782462835, 0.031584187876433134, 0.03394614392891526, 0.031830127350986004]</t>
         </is>
       </c>
       <c r="AS13" t="n">
-        <v>0.02035089227836579</v>
+        <v>0.02849554023705423</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.01590180199127644</v>
+        <v>0.03160975151695311</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.007708917920773926</v>
+        <v>0.009792086775091365</v>
       </c>
       <c r="AV13" t="n">
-        <v>6329.779816513761</v>
+        <v>6805.151515151515</v>
       </c>
       <c r="AW13" t="n">
-        <v>8178</v>
+        <v>8730</v>
       </c>
       <c r="AX13" t="n">
-        <v>3198.162705650086</v>
+        <v>3085.468211428882</v>
       </c>
       <c r="AY13" t="n">
         <v>2858</v>
       </c>
       <c r="AZ13" t="n">
-        <v>10970</v>
+        <v>11210</v>
       </c>
       <c r="BA13" t="n">
         <v>16842</v>
@@ -1205,7 +1211,9 @@
       <c r="BC13" t="n">
         <v>1</v>
       </c>
-      <c r="BD13" t="inlineStr"/>
+      <c r="BD13" t="n">
+        <v>0.9642857142857143</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1222,71 +1230,73 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[1.8709973860532045, 1.8087657480500638, 1.7932724149432033, 1.8056106339208782, 1.8236055180896074, 1.7889938501175493, 1.793898519827053, 1.8275384018197656, 1.7867963078897446, 1.787258822005242, 1.810546746943146, 1.8020156370475888, 1.7900205429177731, 1.7905094949528575, 1.8340017411392182, 1.8094046649057418, 1.816644900944084, 1.814530726056546, 1.8011156558059156, 1.8096908810548484, 1.7919786379206926, 1.814228730974719, 1.7785176681354642, 1.7891795460600406, 1.8288480630144477, 1.8204945281613618, 1.7899599431548268, 1.7980024199932814, 1.8036805898882449, 1.789408955955878, 1.7999765230342746, 1.8314402669202536, 1.7969126659445465, 1.7820831588469446, 1.7947330619208515, 1.8360411419998854, 1.8001996339298785, 1.806448427028954, 1.8425614889711142, 1.8264842748176306, 1.8013827519025654, 1.825728982919827, 1.8044330871198326, 1.7941890850197524, 1.7848228230141103, 1.8139588730409741, 1.7903339609038085, 1.8001380560453981, 1.7910955490078777, 1.8789484770968556]</t>
+          <t>[1.858491517137736, 1.8027430288493633, 1.800122490618378, 1.8386077377945185, 1.81332295993343, 1.8130357740446925, 1.8110238783992827, 1.853481916245073, 1.8051488436758518, 1.8123536370694637, 1.8162900870665908, 1.807159310206771, 1.8132444978691638, 1.784110747743398, 1.8537856610491872, 1.807641644962132, 1.8368237442336977, 1.823033637367189, 1.790030132047832, 1.8212977009825408, 1.8118029488250613, 1.8019919828511775, 1.7913071978837252, 1.8021725849248469, 1.8538072519004345, 1.7943384172394872, 1.799309537280351, 1.8187059592455626, 1.809874128550291, 1.846667000092566, 1.8965908060781658, 1.8385632880963385, 1.7891029198653996, 1.8268782729282975, 1.8764634309336543, 1.8517912817187607, 1.8292158106341958, 1.8300215848721564, 1.8518911199644208, 1.8426561271771789, 1.8152788570150733, 1.8302160408347845, 1.8419794817455113, 1.8162463260814548, 1.8141838731244206, 1.8640511613339186, 1.8317735847085714, 1.8297166828997433, 1.8247207859531045, 1.844690284691751]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.807428599344566</v>
+        <v>1.824755153534934</v>
       </c>
       <c r="G14" t="n">
-        <v>1.801699194475077</v>
+        <v>1.820001830114052</v>
       </c>
       <c r="H14" t="n">
-        <v>0.02092503062628386</v>
+        <v>0.02396012904099594</v>
       </c>
       <c r="I14" t="n">
-        <v>6000671.969521604</v>
+        <v>5990917.52027544</v>
       </c>
       <c r="J14" t="n">
-        <v>6773196</v>
+        <v>6773132</v>
       </c>
       <c r="K14" t="n">
-        <v>1867474.882575604</v>
+        <v>1873933.134285443</v>
       </c>
       <c r="L14" t="n">
         <v>2858</v>
       </c>
       <c r="M14" t="n">
-        <v>10687774</v>
+        <v>10254356</v>
       </c>
       <c r="N14" t="n">
-        <v>11452986</v>
+        <v>11452930</v>
       </c>
       <c r="O14" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="n">
+        <v>4350</v>
+      </c>
       <c r="Q14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[0.003019189927726984, 0.003569353139027953, 0.0055970679968595505, 0.006573569029569626, 0.00712554482743144, 0.007159875938668847, 0.0070453849621117115, 0.007424782961606979, 0.007077113026753068, 0.007135019870474935, 0.0071549799758940935, 0.00715493899770081, 0.007133357925340533, 0.0070545601192861795, 0.006971955997869372, 0.007039746968075633, 0.007063172059133649, 0.007043011020869017, 0.007465244038030505, 0.007112517021596432, 0.006988700944930315, 0.007019127020612359, 0.007026157109066844, 0.006960429018363357, 0.007105977041646838, 0.006994370138272643, 0.007073546992614865, 0.0069893100298941135, 0.006845666095614433, 0.006971033988520503, 0.0071248640306293964, 0.007010641973465681, 0.006877453997731209, 0.006878355983644724, 0.0068154409527778625, 0.007100277114659548, 0.006875871913507581, 0.006894028978422284, 0.00687114498578012, 0.007119326153770089, 0.006799376104027033, 0.006918323924764991, 0.006946747889742255, 0.006968120113015175, 0.006867880001664162, 0.006879007909446955, 0.006882150890305638, 0.006800911156460643, 0.007106879027560353, 0.007082430878654122]</t>
+          <t>[0.02747891703620553, 0.015660059172660112, 0.015642834827303886, 0.021949988789856434, 0.024261699989438057, 0.03518092026934028, 0.04202756192535162, 0.04293191572651267, 0.04613147722557187, 0.031069173011928797, 0.039494780357927084, 0.03945565316826105, 0.031102302949875593, 0.03513898700475693, 0.030875794123858213, 0.030883064959198236, 0.03099266905337572, 0.03099151700735092, 0.03106710035353899, 0.03622438199818134, 0.030563306994736195, 0.03061558399349451, 0.02802729932591319, 0.015528962947428226, 0.016650713048875332, 0.01553838700056076, 0.022112572100013494, 0.015551447868347168, 0.015469273086637259, 0.016517415177077055, 0.015551477205008268, 0.015955441165715456, 0.015414231922477484, 0.015524947084486485, 0.015784645918756723, 0.015460101421922445, 0.015502884984016418, 0.01585377100855112, 0.015424447134137154, 0.015697996132075787, 0.016392716206610203, 0.015547470655292273, 0.01601894712075591, 0.015455272980034351, 0.015590887051075697, 0.01543924817815423, 0.015401009935885668, 0.01544512901455164, 0.015460080932825804, 0.015552527736872435]</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>0.006834278763271869</v>
+        <v>0.02315217988565564</v>
       </c>
       <c r="T14" t="n">
-        <v>0.007002506055869162</v>
+        <v>0.01620583166368306</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0007731870288915095</v>
+        <v>0.009499716180585142</v>
       </c>
       <c r="V14" t="n">
-        <v>2930.32</v>
+        <v>6863.353448275862</v>
       </c>
       <c r="W14" t="n">
-        <v>2858</v>
+        <v>8983</v>
       </c>
       <c r="X14" t="n">
-        <v>124.4923471133705</v>
+        <v>3529.45435431674</v>
       </c>
       <c r="Y14" t="n">
         <v>2858</v>
       </c>
       <c r="Z14" t="n">
-        <v>3306</v>
+        <v>12231</v>
       </c>
       <c r="AA14" t="n">
         <v>64715</v>
@@ -1302,32 +1312,32 @@
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>[0.06167527590878308, 0.05317123793065548, 0.04501254507340491, 0.03012674394994974, 0.029596769949421287, 0.02965186210349202, 0.02970088692381978, 0.02962278900668025, 0.030035607051104307, 0.02970354096032679, 0.030037289019674063, 0.02974431193433702, 0.029900535941123962, 0.02982580312527716, 0.030031730886548758, 0.02982341987080872, 0.02986387093551457, 0.02998509188182652, 0.02988521195948124, 0.030005111824721098, 0.029557432048022747, 0.02957673999480903, 0.030254335841163993, 0.029792262939736247, 0.02997396606951952, 0.029828508151695132, 0.030075807124376297, 0.029744453029707074, 0.029764971928671002, 0.029659664956852794, 0.02964535402134061, 0.029509129002690315, 0.029720294987782836, 0.02964129694737494, 0.029745161999017, 0.029840435134246945, 0.03021051990799606, 0.02986288908869028, 0.02978789689950645, 0.029746555956080556, 0.029518162133172154, 0.02958524296991527, 0.029579424066469073, 0.029878021916374564, 0.029778312891721725, 0.029972804011777043, 0.029775628121569753, 0.029885393101722002, 0.030321595957502723, 0.029656599974259734]</t>
+          <t>[0.030882552731782198, 0.030070308595895767, 0.029852971900254488, 0.029799042269587517, 0.042856335174292326, 0.029990987852215767, 0.030073572881519794, 0.029983258340507746, 0.030038740951567888, 0.030122546013444662, 0.029809998348355293, 0.02975951274856925, 0.03610880998894572, 0.02987592713907361, 0.029870118014514446, 0.029957609251141548, 0.029800232965499163, 0.029921453911811113, 0.029819152783602476, 0.030103047378361225, 0.029700895305722952, 0.030115844681859016, 0.030158009845763445, 0.029954524245113134, 0.029893894214183092, 0.029827653896063566, 0.030042405705899, 0.0300063518807292, 0.029842877760529518, 0.029731260146945715, 0.03003363311290741, 0.029852562118321657, 0.02999244909733534, 0.029931690078228712, 0.030249236151576042, 0.030112141277641058, 0.031110224779695272, 0.030304166954010725, 0.030192650854587555, 0.030249875970184803, 0.0345336920581758, 0.029900053050369024, 0.03022176492959261, 0.02994714304804802, 0.03005098830908537, 0.030089445877820253, 0.03015674790367484, 0.029973422177135944, 0.030155787244439125, 0.029936357866972685]</t>
         </is>
       </c>
       <c r="AF14" t="n">
-        <v>0.03122576994821429</v>
+        <v>0.03049927859567106</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.02980784140527248</v>
+        <v>0.02999940048903227</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.005879390326487979</v>
+        <v>0.002088362296010135</v>
       </c>
       <c r="AI14" t="n">
-        <v>8317.622641509433</v>
+        <v>8223.333333333334</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12106</v>
+        <v>11946</v>
       </c>
       <c r="AK14" t="n">
-        <v>5192.478209052252</v>
+        <v>5110.840203894423</v>
       </c>
       <c r="AL14" t="n">
         <v>2858</v>
       </c>
       <c r="AM14" t="n">
-        <v>20874</v>
+        <v>18274</v>
       </c>
       <c r="AN14" t="n">
         <v>30498</v>
@@ -1343,32 +1353,32 @@
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>[0.029133446980267763, 0.029092294862493873, 0.029436409007757902, 0.02896919008344412, 0.028963412856683135, 0.029079076135531068, 0.028818774968385696, 0.02869011485017836, 0.02913538902066648, 0.029165506130084395, 0.02909793402068317, 0.02952143712900579, 0.029173025861382484, 0.028801309876143932, 0.028789973119273782, 0.028816574020311236, 0.028987648896872997, 0.028843331849202514, 0.029031113954260945, 0.029092365875840187, 0.029662908986210823, 0.029352375073358417, 0.029251093044877052, 0.02931251493282616, 0.029041749192401767, 0.029139066115021706, 0.028868810972198844, 0.029242460150271654, 0.02918669697828591, 0.029288920108228922, 0.028964324155822396, 0.02890459494665265, 0.02914020698517561, 0.028949001105502248, 0.02878700802102685, 0.0292045040987432, 0.029211212880909443, 0.02908629598096013, 0.029398435028269887, 0.02909155492670834, 0.02923828293569386, 0.029196189949288964, 0.02932686498388648, 0.02940601482987404, 0.029215681133791804, 0.029389458941295743, 0.029070863034576178, 0.029068969888612628, 0.029169832821935415, 0.029615047853440046]</t>
+          <t>[0.031140790786594152, 0.02946817595511675, 0.029666102956980467, 0.029553253203630447, 0.029892532154917717, 0.029759530909359455, 0.02943659806624055, 0.02948299888521433, 0.029186272993683815, 0.030389885883778334, 0.029638330917805433, 0.03077426226809621, 0.029457880184054375, 0.029641617089509964, 0.029129177797585726, 0.029142628889530897, 0.029269517865031958, 0.02922241808846593, 0.02916509099304676, 0.02920392993837595, 0.02904460160061717, 0.029139352962374687, 0.029294246342033148, 0.029410269111394882, 0.02928886702284217, 0.029167666099965572, 0.0292230979539454, 0.029485161881893873, 0.03596944082528353, 0.029427325818687677, 0.029309900011867285, 0.029076770413666964, 0.03842564905062318, 0.029288526624441147, 0.02907427679747343, 0.02927425503730774, 0.029580474365502596, 0.029697599820792675, 0.02930299937725067, 0.029215567745268345, 0.029286704026162624, 0.02926681423559785, 0.029270879924297333, 0.029314096085727215, 0.029308465775102377, 0.02932651387527585, 0.029483038000762463, 0.029543780256062746, 0.02938805567100644, 0.02925586886703968]</t>
         </is>
       </c>
       <c r="AS14" t="n">
-        <v>0.02912838539108634</v>
+        <v>0.02975522522814572</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.02913441800046712</v>
+        <v>0.02931199804879725</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.0002166273327967072</v>
+        <v>0.001603402061241048</v>
       </c>
       <c r="AV14" t="n">
-        <v>6887.76</v>
+        <v>7088.23076923077</v>
       </c>
       <c r="AW14" t="n">
-        <v>5778</v>
+        <v>9034</v>
       </c>
       <c r="AX14" t="n">
-        <v>4068.021724364189</v>
+        <v>4064.13927698515</v>
       </c>
       <c r="AY14" t="n">
         <v>2858</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14746</v>
+        <v>11714</v>
       </c>
       <c r="BA14" t="n">
         <v>18442</v>
@@ -1379,7 +1389,9 @@
       <c r="BC14" t="n">
         <v>1</v>
       </c>
-      <c r="BD14" t="inlineStr"/>
+      <c r="BD14" t="n">
+        <v>0.9015544041450777</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1396,71 +1408,73 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[1.8231438680086285, 1.7985339800361544, 1.8907654942013323, 1.8513662691693753, 1.8719289570581168, 1.822276326129213, 1.8616563000250608, 1.8213120019063354, 1.83797548385337, 1.8449323058594018, 1.8416827600449324, 1.804339234950021, 1.828987177927047, 1.8287684288807213, 1.8230159068480134, 1.8336400717962533, 1.8399399290792644, 1.8099207959603518, 1.820608182111755, 1.8383816350251436, 1.8369382629171014, 1.8172660381533206, 1.824940136168152, 1.8382339898962528, 1.8236330370418727, 1.8341109598986804, 1.8201354399789125, 1.851144686108455, 1.830922074848786, 1.8236648419406265, 1.8427694370038807, 1.810400898102671, 1.8187847950030118, 1.811232052044943, 1.8297216659411788, 1.8075300781056285, 1.8296347029972821, 1.8569129221141338, 1.8256018161773682, 1.8150743481237441, 1.8150076370220631, 1.850502906134352, 1.812682355986908, 1.8155011639464647, 1.8764812690205872, 1.8450271701440215, 1.816386509919539, 1.818061675876379, 1.837413853034377, 1.8210284260567278]</t>
+          <t>[1.8195776799693704, 1.8357928367331624, 1.8437928021885455, 1.824610685929656, 1.818029918242246, 1.8489371053874493, 1.8692263117991388, 1.8211607653647661, 1.8263010787777603, 1.8696022951044142, 1.8219323200173676, 1.8363065598532557, 1.8260411862283945, 1.8521458129398525, 1.824131900910288, 1.8380049401894212, 1.8500631833449006, 1.8492352180182934, 1.8382077752612531, 1.8139037187211215, 1.8623523116111755, 1.8183205449022353, 1.8730659852735698, 1.8603455848060548, 1.8319908049888909, 1.829354602843523, 1.831846903078258, 1.8393925088457763, 1.8494085730053484, 1.8172628860920668, 1.8629182036966085, 1.8439526529982686, 1.8563954019919038, 1.833809900097549, 1.8586070369929075, 1.8449591589160264, 1.8503514369949698, 1.8515890277922153, 1.8692628890275955, 1.866912336088717, 1.8501172349788249, 1.871944815851748, 1.82918520597741, 1.8191073331981897, 1.8828502539545298, 1.8554190681315958, 1.830005421768874, 1.8301610420458019, 1.8452149098739028, 1.8565002549439669]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.830998405171558</v>
+        <v>1.842992167714983</v>
       </c>
       <c r="G15" t="n">
-        <v>1.827185122529045</v>
+        <v>1.843872727593407</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01878244202929081</v>
+        <v>0.01778378388416982</v>
       </c>
       <c r="I15" t="n">
-        <v>6017272.272059754</v>
+        <v>5999850.551089833</v>
       </c>
       <c r="J15" t="n">
-        <v>6773324</v>
+        <v>6773260</v>
       </c>
       <c r="K15" t="n">
-        <v>1850765.285655278</v>
+        <v>1861377.523896094</v>
       </c>
       <c r="L15" t="n">
         <v>2858</v>
       </c>
       <c r="M15" t="n">
-        <v>11398510</v>
+        <v>11193974</v>
       </c>
       <c r="N15" t="n">
-        <v>11452418</v>
+        <v>11452578</v>
       </c>
       <c r="O15" t="n">
         <v>4</v>
       </c>
-      <c r="P15" t="inlineStr"/>
+      <c r="P15" t="n">
+        <v>5850</v>
+      </c>
       <c r="Q15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[0.0030315080657601357, 0.004673824878409505, 0.006043595960363746, 0.005731899058446288, 0.007064203033223748, 0.007115582004189491, 0.007108940975740552, 0.007137384032830596, 0.0071912838611751795, 0.007092857034876943, 0.007420064881443977, 0.007220366969704628, 0.007188278017565608, 0.007055780850350857, 0.007054188055917621, 0.0071084999945014715, 0.00705663301050663, 0.007189401192590594, 0.007487828144803643, 0.007107076933607459, 0.007161278976127505, 0.007033227011561394, 0.006998734083026648, 0.007044764934107661, 0.007054008077830076, 0.007065915036946535, 0.00705916597507894, 0.0069422011729329824, 0.006926967995241284, 0.0070405988954007626, 0.00701276701875031, 0.006982970982789993, 0.007229840848594904, 0.00698343082331121, 0.006888158852234483, 0.006920197978615761, 0.007173438090831041, 0.006973759038373828, 0.006896703038364649, 0.007235900964587927, 0.006961809005588293, 0.006920199142768979, 0.007021368946880102, 0.006978275021538138, 0.007004414917901158, 0.006890793098136783, 0.007098424015566707, 0.007100577931851149, 0.006905165035277605, 0.00689467997290194]</t>
+          <t>[0.02097860211506486, 0.020835526753216982, 0.020920404698699713, 0.020593044348061085, 0.022651927080005407, 0.020716329105198383, 0.020837869960814714, 0.020792252849787474, 0.020488257985562086, 0.02089470624923706, 0.020803948864340782, 0.02076939819380641, 0.020547104999423027, 0.020888384897261858, 0.02062740596011281, 0.021634842734783888, 0.020671491976827383, 0.02062009507790208, 0.020862687844783068, 0.020575378090143204, 0.020545123144984245, 0.020742749329656363, 0.020281318109482527, 0.020472995005548, 0.020236489828675985, 0.020430891774594784, 0.020560886710882187, 0.020288468804210424, 0.020492234267294407, 0.02054529171437025, 0.020347908604890108, 0.020604421850293875, 0.020380716770887375, 0.020444501657038927, 0.02040655631572008, 0.020436770282685757, 0.020699053071439266, 0.020536128897219896, 0.02057667961344123, 0.020583851262927055, 0.02301551215350628, 0.030834138859063387, 0.03222576202824712, 0.020283509977161884, 0.025349244941025972, 0.044618256855756044, 0.04052068293094635, 0.031584161799401045, 0.02025495795533061, 0.02037869393825531]</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>0.006889578676782549</v>
+        <v>0.02232775236479938</v>
       </c>
       <c r="T15" t="n">
-        <v>0.007049386505968869</v>
+        <v>0.02061225846409798</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0007000542561716038</v>
+        <v>0.004990421028489297</v>
       </c>
       <c r="V15" t="n">
-        <v>2930.32</v>
+        <v>6359.133333333333</v>
       </c>
       <c r="W15" t="n">
-        <v>2858</v>
+        <v>8999</v>
       </c>
       <c r="X15" t="n">
-        <v>124.4923471133705</v>
+        <v>3304.24975793606</v>
       </c>
       <c r="Y15" t="n">
         <v>2858</v>
       </c>
       <c r="Z15" t="n">
-        <v>3306</v>
+        <v>12279</v>
       </c>
       <c r="AA15" t="n">
         <v>64715</v>
@@ -1476,32 +1490,32 @@
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>[0.07819827785715461, 0.04590063192881644, 0.04577130009420216, 0.0450311629101634, 0.045743448194116354, 0.04461598093621433, 0.04562806501053274, 0.04463301599025726, 0.045508916955441236, 0.04476119810715318, 0.04568293783813715, 0.044678343925625086, 0.0449699608143419, 0.04448190005496144, 0.045075939036905766, 0.04427347797900438, 0.0452376720495522, 0.04486996098421514, 0.04541670996695757, 0.04441910586319864, 0.04527602903544903, 0.044535890920087695, 0.045504349982365966, 0.04453342710621655, 0.04527205298654735, 0.04440735816024244, 0.045302998973056674, 0.060405343072488904, 0.05587774491868913, 0.04544287803582847, 0.045547885121777654, 0.044302962021902204, 0.04525504820048809, 0.04713066387921572, 0.056892044842243195, 0.04438328300602734, 0.045305712847039104, 0.04474153905175626, 0.04578434000723064, 0.044942027889192104, 0.04555134894326329, 0.044709000969305634, 0.04529721010476351, 0.044854698004201055, 0.04592613293789327, 0.04475121200084686, 0.04578255699016154, 0.06816016999073327, 0.045168387005105615, 0.044373558135703206]</t>
+          <t>[0.04543571174144745, 0.04539103480055928, 0.04520538682118058, 0.04477469203993678, 0.045253368094563484, 0.045351415406912565, 0.04497152799740434, 0.04481130698695779, 0.04478256404399872, 0.04475033516064286, 0.044818887021392584, 0.044902443420141935, 0.044755452778190374, 0.045046628918498755, 0.045163695234805346, 0.04507600283250213, 0.044952998869121075, 0.04497275920584798, 0.04528904100880027, 0.044946108013391495, 0.045017645694315434, 0.04497539205476642, 0.04554099915549159, 0.05460835713893175, 0.045814177952706814, 0.04502166295424104, 0.045454689767211676, 0.04497658461332321, 0.04507523076608777, 0.04504573717713356, 0.04533401131629944, 0.046024983283132315, 0.0449448567815125, 0.04492891300469637, 0.04927214700728655, 0.05449045915156603, 0.06562177697196603, 0.04528594808652997, 0.04515542183071375, 0.05477013811469078, 0.044951997231692076, 0.044873539824038744, 0.045254230964928865, 0.04495815699920058, 0.04561437899246812, 0.045195482205599546, 0.046321176923811436, 0.04529460985213518, 0.045028121676295996, 0.04535858612507582]</t>
         </is>
       </c>
       <c r="AF15" t="n">
-        <v>0.04700631723273545</v>
+        <v>0.0462172154802829</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.04526355059351772</v>
+        <v>0.04511571233160794</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.006307934273461172</v>
+        <v>0.003651052612290896</v>
       </c>
       <c r="AI15" t="n">
-        <v>8458.921212121211</v>
+        <v>8335.836477987421</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10250</v>
+        <v>10178</v>
       </c>
       <c r="AK15" t="n">
-        <v>3708.714105579635</v>
+        <v>3722.266758467558</v>
       </c>
       <c r="AL15" t="n">
         <v>2858</v>
       </c>
       <c r="AM15" t="n">
-        <v>13090</v>
+        <v>11922</v>
       </c>
       <c r="AN15" t="n">
         <v>28898</v>
@@ -1517,32 +1531,32 @@
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>[0.04471825412474573, 0.04381379997357726, 0.0447317729704082, 0.0437199289444834, 0.0443687210790813, 0.04375493200495839, 0.044565766118466854, 0.043693070067092776, 0.044749821070581675, 0.043724616058170795, 0.04486582498066127, 0.04412850202061236, 0.04454167908988893, 0.0437066899612546, 0.045151721918955445, 0.04410098004154861, 0.044689611066132784, 0.043732857797294855, 0.04450651700608432, 0.04379366897046566, 0.04454812896437943, 0.0441625420935452, 0.04462278098799288, 0.046425298089161515, 0.04476892901584506, 0.04360447800718248, 0.0443979250267148, 0.04363382002338767, 0.044550321996212006, 0.043347863014787436, 0.04459878499619663, 0.04421930480748415, 0.044792153872549534, 0.04360508802346885, 0.04447746183723211, 0.04381365003064275, 0.044609281001612544, 0.043726669158786535, 0.044652706012129784, 0.04338024999015033, 0.044263354036957026, 0.04371571308001876, 0.04453166387975216, 0.04407493118196726, 0.0442492610309273, 0.043364298064261675, 0.04443697305396199, 0.04349925904534757, 0.044728958979249, 0.04346835194155574]</t>
+          <t>[0.04446944501250982, 0.04409311292693019, 0.04417403182014823, 0.044514562003314495, 0.044260391034185886, 0.04428021190688014, 0.04432964511215687, 0.04420645162463188, 0.0442321402952075, 0.04458102211356163, 0.04419416422024369, 0.04445909010246396, 0.04436828289180994, 0.04448655107989907, 0.043999590910971165, 0.044120464008301497, 0.044062194880098104, 0.04424823401495814, 0.044243135023862123, 0.04440517909824848, 0.044509575236588717, 0.04452534765005112, 0.0440618759021163, 0.04435765603557229, 0.04443421307951212, 0.044248244259506464, 0.04447238892316818, 0.04403043678030372, 0.04429672611877322, 0.04414300573989749, 0.04401148995384574, 0.04396389937028289, 0.04409305099397898, 0.04422381799668074, 0.04400437884032726, 0.04472239501774311, 0.04457662580534816, 0.04451169818639755, 0.04400024190545082, 0.04414546024054289, 0.044511428102850914, 0.044058439787477255, 0.0447284416295588, 0.044361724983900785, 0.04426553891971707, 0.04438598919659853, 0.044126641005277634, 0.044066791888326406, 0.044201584067195654, 0.04462880361825228]</t>
         </is>
       </c>
       <c r="AS15" t="n">
-        <v>0.04422657873015851</v>
+        <v>0.04428791622631252</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.04425630753394216</v>
+        <v>0.04425431764684618</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.0005786794420901897</v>
+        <v>0.0002041754080140057</v>
       </c>
       <c r="AV15" t="n">
-        <v>6937.258278145695</v>
+        <v>7006.8</v>
       </c>
       <c r="AW15" t="n">
         <v>8386</v>
       </c>
       <c r="AX15" t="n">
-        <v>2897.766879198707</v>
+        <v>2947.745938985477</v>
       </c>
       <c r="AY15" t="n">
         <v>2858</v>
       </c>
       <c r="AZ15" t="n">
-        <v>11346</v>
+        <v>10106</v>
       </c>
       <c r="BA15" t="n">
         <v>16842</v>
@@ -1553,7 +1567,9 @@
       <c r="BC15" t="n">
         <v>1</v>
       </c>
-      <c r="BD15" t="inlineStr"/>
+      <c r="BD15" t="n">
+        <v>0.924901185770751</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1570,32 +1586,32 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[1.8092967849224806, 1.8326937051024288, 1.8144710669294, 1.8250475188251585, 1.8146684430539608, 1.8507664541248232, 1.8061827910132706, 1.8170324699021876, 1.8795295839663595, 1.8209899929352105, 1.8234055580105633, 1.8275057850405574, 1.856569156050682, 1.8408722588792443, 1.835962612181902, 1.8419533970300108, 1.8009085720404983, 1.8153634960763156, 1.8277704881038517, 1.85778573108837, 1.8212354038842022, 1.8060398187953979, 1.8434523560572416, 1.836238499963656, 1.8223368818871677, 1.8288601448293775, 1.8416022469755262, 1.805552105884999, 1.8302012109197676, 1.8961288901045918, 1.8559269360266626, 1.8178022298961878, 1.8454993979539722, 1.8406128329224885, 1.818525472888723, 1.8157099378295243, 1.856029667891562, 1.8184081672225147, 1.836471273098141, 1.826375339878723, 1.849878418026492, 1.8231475490611047, 1.8259371418971568, 1.878905835095793, 1.8338685338385403, 1.8356516228523105, 1.83044228493236, 1.844111594837159, 1.8368354830890894, 1.8251340880524367]</t>
+          <t>[1.8319709128700197, 1.8505741660483181, 1.8551103449426591, 1.843985182698816, 1.839497420936823, 1.8593844058923423, 1.8285673409700394, 1.820592065807432, 1.871224413625896, 1.8161802352406085, 1.819833421614021, 1.8358372817747295, 1.869500852189958, 1.8132648970931768, 1.8183434698730707, 1.8672754727303982, 1.8198661333881319, 1.8322024419903755, 1.8454790781252086, 1.8686500187031925, 1.8446205067448318, 1.8281064671464264, 1.8449859381653368, 1.867445153184235, 1.8320764838717878, 1.8133165119215846, 1.8415369638241827, 1.817577427253127, 1.8219559309072793, 1.8832032522186637, 1.8348025986924767, 1.8074256060644984, 1.8679605503566563, 1.8545804847963154, 1.8375849151052535, 1.8423832063563168, 1.8655408383347094, 1.8218932831659913, 1.8084208886139095, 1.8193959691561759, 1.9320304598659277, 1.8217562357895076, 1.8412938583642244, 1.8650883613154292, 1.8393613491207361, 1.8523846128955483, 1.8583584679290652, 1.857872184831649, 1.8483089860528708, 1.8306247550062835]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.832913944637403</v>
+        <v>1.842184636071324</v>
       </c>
       <c r="G16" t="n">
-        <v>1.829530677874573</v>
+        <v>1.840395639650524</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0195264309985</v>
+        <v>0.02323624756253925</v>
       </c>
       <c r="I16" t="n">
-        <v>6010759.054543153</v>
+        <v>6002521.847209976</v>
       </c>
       <c r="J16" t="n">
-        <v>6772596</v>
+        <v>6772612</v>
       </c>
       <c r="K16" t="n">
-        <v>1856067.763826247</v>
+        <v>1855549.709483561</v>
       </c>
       <c r="L16" t="n">
         <v>2858</v>
       </c>
       <c r="M16" t="n">
-        <v>11398222</v>
+        <v>10115787</v>
       </c>
       <c r="N16" t="n">
         <v>11452898</v>
@@ -1603,38 +1619,40 @@
       <c r="O16" t="n">
         <v>5</v>
       </c>
-      <c r="P16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>6300</v>
+      </c>
       <c r="Q16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[0.003120762063190341, 0.003029806073755026, 0.005269807064905763, 0.005638741189613938, 0.006080809980630875, 0.007827075896784663, 0.007854286814108491, 0.007786654168739915, 0.007845422951504588, 0.007084644166752696, 0.007106185192242265, 0.007244852837175131, 0.007111484184861183, 0.007226245012134314, 0.007130292011424899, 0.006985906045883894, 0.00712681794539094, 0.007120508002117276, 0.0074530248530209064, 0.007061078911647201, 0.007021240191534162, 0.006952013820409775, 0.007036151830106974, 0.007056091912090778, 0.007095779990777373, 0.007189831929281354, 0.007035840069875121, 0.007029361091554165, 0.007090702885761857, 0.007016761926934123, 0.007100808899849653, 0.006981950020417571, 0.006936501944437623, 0.006921399151906371, 0.006977714132517576, 0.007009852910414338, 0.006906157825142145, 0.006956713041290641, 0.006875620922073722, 0.007251896196976304, 0.007017754949629307, 0.0069858159404248, 0.007070282939821482, 0.006887139054015279, 0.0068320659920573235, 0.0068985349498689175, 0.006833276944234967, 0.006839456968009472, 0.006978855933994055, 0.006860628956928849]</t>
+          <t>[0.02220869204029441, 0.022102282848209143, 0.023627865593880415, 0.021710685919970274, 0.02191505115479231, 0.021887981798499823, 0.02205704478546977, 0.02190465573221445, 0.021712799090892076, 0.021925058215856552, 0.022038535680621862, 0.021683065220713615, 0.02182993432506919, 0.021906649693846703, 0.021714612375944853, 0.021581592969596386, 0.021901592146605253, 0.02178132301196456, 0.02173543395474553, 0.021508201956748962, 0.021623185835778713, 0.021633761003613472, 0.021577446721494198, 0.021773220039904118, 0.02177519304677844, 0.021734111942350864, 0.02152929501608014, 0.021575694903731346, 0.02153751812875271, 0.021490807179361582, 0.03965289006009698, 0.04872490186244249, 0.05244232900440693, 0.05010691285133362, 0.04347144719213247, 0.043014643248170614, 0.021571809891611338, 0.021466119214892387, 0.02144360588863492, 0.02160201221704483, 0.021372769959270954, 0.02144833328202367, 0.021335222758352757, 0.02138024102896452, 0.021384236868470907, 0.02141585387289524, 0.02142208442091942, 0.02168579027056694, 0.021333881188184023, 0.021901831962168217]</t>
         </is>
       </c>
       <c r="S16" t="n">
-        <v>0.006855012173764408</v>
+        <v>0.0246632041875273</v>
       </c>
       <c r="T16" t="n">
-        <v>0.007019497570581734</v>
+        <v>0.02171370573341846</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0008910167369999434</v>
+        <v>0.008206302084509971</v>
       </c>
       <c r="V16" t="n">
-        <v>2930.32</v>
+        <v>6646.614678899083</v>
       </c>
       <c r="W16" t="n">
-        <v>2858</v>
+        <v>9487</v>
       </c>
       <c r="X16" t="n">
-        <v>124.4923471133705</v>
+        <v>3444.465041806489</v>
       </c>
       <c r="Y16" t="n">
         <v>2858</v>
       </c>
       <c r="Z16" t="n">
-        <v>3306</v>
+        <v>10503</v>
       </c>
       <c r="AA16" t="n">
         <v>64715</v>
@@ -1650,32 +1668,32 @@
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>[0.11332842707633972, 0.07050334592349827, 0.05710370116867125, 0.05699807312339544, 0.056958524975925684, 0.05704082711599767, 0.057309349067509174, 0.05697225499898195, 0.057263741036877036, 0.05669570015743375, 0.05743017001077533, 0.057372624054551125, 0.05758320796303451, 0.05863642483018339, 0.05743247386999428, 0.057039645966142416, 0.057446826016530395, 0.05739163304679096, 0.05752893700264394, 0.05742573388852179, 0.05764098605141044, 0.05756052513606846, 0.05674064811319113, 0.05727535905316472, 0.057028658920899034, 0.05689842416904867, 0.05693915509618819, 0.0569666160736233, 0.056696151150390506, 0.05767751997336745, 0.05728296982124448, 0.06412687408737838, 0.05703379609622061, 0.057080977130681276, 0.057189950020983815, 0.05692802998237312, 0.05721278511919081, 0.057104713981971145, 0.05722046596929431, 0.056818626122549176, 0.05713913310319185, 0.05765679897740483, 0.057213005144149065, 0.05688671697862446, 0.05710567510686815, 0.056993937119841576, 0.057094498071819544, 0.05707344599068165, 0.05791872995905578, 0.05722950003109872]</t>
+          <t>[0.0582545711658895, 0.058309104293584824, 0.057587320916354656, 0.05819361982867122, 0.05784316500648856, 0.05761345103383064, 0.05748156504705548, 0.057502846233546734, 0.05772433755919337, 0.057699911296367645, 0.057496627792716026, 0.05731154000386596, 0.05722085293382406, 0.05747275985777378, 0.05761458305642009, 0.0574176087975502, 0.05760879395529628, 0.057782493997365236, 0.05742752272635698, 0.05808821180835366, 0.05742732435464859, 0.05756601970642805, 0.05861351918429136, 0.05748362699523568, 0.057891626842319965, 0.06172982510179281, 0.0575737408362329, 0.0584861277602613, 0.05808290606364608, 0.0572758549824357, 0.05942009575664997, 0.059678812976926565, 0.058100111316889524, 0.05784003110602498, 0.05777616426348686, 0.05899010319262743, 0.05780594935640693, 0.05846281303092837, 0.058103716000914574, 0.05742282513529062, 0.0575542519800365, 0.05771877896040678, 0.05796937411651015, 0.0583832748234272, 0.05796140292659402, 0.0576058398000896, 0.058066198602318764, 0.0576678728684783, 0.057724997866898775, 0.057958207093179226]</t>
         </is>
       </c>
       <c r="AF16" t="n">
-        <v>0.05874392587691545</v>
+        <v>0.05795984560623765</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.05720136757008731</v>
+        <v>0.05775058106519282</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.008158770524508131</v>
+        <v>0.0007434456043068416</v>
       </c>
       <c r="AI16" t="n">
-        <v>8712.718446601943</v>
+        <v>8684.213930348258</v>
       </c>
       <c r="AJ16" t="n">
         <v>10178</v>
       </c>
       <c r="AK16" t="n">
-        <v>3339.349769969394</v>
+        <v>3380.438906267199</v>
       </c>
       <c r="AL16" t="n">
         <v>2858</v>
       </c>
       <c r="AM16" t="n">
-        <v>11922</v>
+        <v>12290</v>
       </c>
       <c r="AN16" t="n">
         <v>28898</v>
@@ -1691,32 +1709,32 @@
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>[0.05672983289696276, 0.05617348896339536, 0.05637814593501389, 0.056405545910820365, 0.05615396914072335, 0.05638401489704847, 0.05584059120155871, 0.05585959879681468, 0.056067661149427295, 0.05606974405236542, 0.05603037495166063, 0.056319168070331216, 0.056079598143696785, 0.05690422304905951, 0.05607113498263061, 0.055715412832796574, 0.05640976317226887, 0.05619216593913734, 0.05647314805537462, 0.05613826680928469, 0.056161280954256654, 0.056182813132181764, 0.056403292808681726, 0.056149442913010716, 0.05647986684925854, 0.056133809965103865, 0.056781589053571224, 0.0565724759362638, 0.05633636307902634, 0.05628474592231214, 0.05727115203626454, 0.05609173607081175, 0.056311666034162045, 0.05625215684995055, 0.055955311050638556, 0.05653529101982713, 0.05647813412360847, 0.05670606601051986, 0.05620670784264803, 0.056004546117037535, 0.056039738934487104, 0.0564770030323416, 0.056020881049335, 0.055894642136991024, 0.05587793793529272, 0.05651591089554131, 0.05630391510203481, 0.055961692007258534, 0.05561707611195743, 0.05643436894752085]</t>
+          <t>[0.056802117731422186, 0.05702194385230541, 0.05746767483651638, 0.05813446082174778, 0.057031671050935984, 0.05723262019455433, 0.056645031087100506, 0.06422942690551281, 0.05739381117746234, 0.05709216184914112, 0.056324702221900225, 0.056737410835921764, 0.056669258046895266, 0.056685131043195724, 0.05683164205402136, 0.05656761582940817, 0.058502853848040104, 0.05901120416820049, 0.0564411161467433, 0.05642124591395259, 0.05689757922664285, 0.056415829341858625, 0.05651263287290931, 0.056348567362874746, 0.056463589891791344, 0.056705801747739315, 0.056453493889421225, 0.05666496977210045, 0.056666974909603596, 0.05656704492866993, 0.05670054396614432, 0.056511732283979654, 0.056310740765184164, 0.05627309484407306, 0.05664041405543685, 0.05640370026230812, 0.05657311389222741, 0.056429028045386076, 0.05659615807235241, 0.05651670880615711, 0.05671368492767215, 0.05688245687633753, 0.05700849508866668, 0.05700956704095006, 0.05730792321264744, 0.056719542015343904, 0.056946823839098215, 0.05731133883818984, 0.056634324602782726, 0.05644759489223361]</t>
         </is>
       </c>
       <c r="AS16" t="n">
-        <v>0.05625674925744534</v>
+        <v>0.05697753139771521</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.05619943689089268</v>
+        <v>0.0566771945450455</v>
       </c>
       <c r="AU16" t="n">
-        <v>0.0003090544198256345</v>
+        <v>0.001175043560807721</v>
       </c>
       <c r="AV16" t="n">
-        <v>7228.56</v>
+        <v>7327.810945273632</v>
       </c>
       <c r="AW16" t="n">
         <v>8386</v>
       </c>
       <c r="AX16" t="n">
-        <v>2551.730709630693</v>
+        <v>2607.397350631392</v>
       </c>
       <c r="AY16" t="n">
         <v>2858</v>
       </c>
       <c r="AZ16" t="n">
-        <v>10226</v>
+        <v>10106</v>
       </c>
       <c r="BA16" t="n">
         <v>16842</v>
@@ -1727,7 +1745,9 @@
       <c r="BC16" t="n">
         <v>1</v>
       </c>
-      <c r="BD16" t="inlineStr"/>
+      <c r="BD16" t="n">
+        <v>0.842809364548495</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1744,71 +1764,73 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[1.8950679400004447, 1.874455378158018, 1.8654460441321135, 1.9117349470034242, 1.8982889708131552, 1.8728991891257465, 1.889328588033095, 1.9008610809687525, 1.879520436981693, 1.8726717052049935, 1.8991909290198237, 1.9229820480104536, 1.8731385448481888, 1.8753190671559423, 1.925275039859116, 1.8719471308868378, 1.8740086639299989, 1.87274664407596, 1.9137356949504465, 1.8735239678062499, 1.8690948479343206, 1.8812634099740535, 1.8887448690366, 1.9074146531056613, 1.894099251832813, 1.9353406119626015, 1.866779661970213, 1.8779359669424593, 1.9124961360357702, 1.8809174299240112, 1.919657764956355, 1.870414569042623, 1.8953276670072228, 1.90107291797176, 1.890373792964965, 1.9051132441964, 1.8686861300375313, 1.8775807039346546, 1.8876712159253657, 1.8963692940305918, 1.8935145211871713, 1.8884134360123426, 1.942716022953391, 1.8831480329390615, 1.900075830053538, 1.8917065730784088, 1.9101179600693285, 1.8905973229557276, 1.881783930119127, 1.9202722781337798]</t>
+          <t>[1.931002093013376, 1.904583916068077, 1.909197370056063, 1.8915526899509132, 1.9051452176645398, 1.8862465899437666, 1.8766949661076069, 1.8869895078241825, 1.903672714252025, 1.8820912982337177, 1.868854567874223, 1.9235145333223045, 1.9201640849933028, 1.8856101068668067, 1.90967849874869, 1.8958156313747168, 1.896451152395457, 1.8795092729851604, 1.9123827288858593, 1.8762702899985015, 1.8978693657554686, 1.9129600650630891, 1.9162724134512246, 1.8915749550797045, 1.9136019200086594, 1.902506746351719, 1.8806231287308037, 1.8911306392401457, 1.9357951190322638, 1.8740288601256907, 1.9186149211600423, 1.903439749032259, 1.9292838908731937, 1.8856847118586302, 1.8835369530133903, 1.9217432653531432, 1.8999766227789223, 1.8809551908634603, 1.8836479098536074, 1.8974243951961398, 1.887510749977082, 1.874147588852793, 1.9230067301541567, 1.894131334964186, 1.8777040797285736, 1.8700851202011108, 1.8987497752532363, 1.8765269699506462, 1.8655255772173405, 1.9217318259179592]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.891816841145046</v>
+        <v>1.897104356111959</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88985119049903</v>
+        <v>1.896133391885087</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01889464044157349</v>
+        <v>0.01822872472363294</v>
       </c>
       <c r="I17" t="n">
-        <v>6042134.64232507</v>
+        <v>6028875.003173441</v>
       </c>
       <c r="J17" t="n">
-        <v>6773268</v>
+        <v>6773292</v>
       </c>
       <c r="K17" t="n">
-        <v>1827408.382178099</v>
+        <v>1835068.034419831</v>
       </c>
       <c r="L17" t="n">
         <v>2858</v>
       </c>
       <c r="M17" t="n">
-        <v>10741846</v>
+        <v>10121707</v>
       </c>
       <c r="N17" t="n">
-        <v>11452738</v>
+        <v>11452866</v>
       </c>
       <c r="O17" t="n">
         <v>6</v>
       </c>
-      <c r="P17" t="inlineStr"/>
+      <c r="P17" t="n">
+        <v>7300</v>
+      </c>
       <c r="Q17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[0.005854291142895818, 0.00583694688975811, 0.005596808157861233, 0.006652727955952287, 0.007143401075154543, 0.007078504888340831, 0.007091693812981248, 0.007061388809233904, 0.007236650912091136, 0.007176251150667667, 0.007340196054428816, 0.007180817890912294, 0.007052917033433914, 0.007006928091868758, 0.00703256600536406, 0.007017643889412284, 0.007162200985476375, 0.007121879840269685, 0.007594958879053593, 0.007080458104610443, 0.007098163943737745, 0.007001559948548675, 0.007032365072518587, 0.007049690932035446, 0.006991855101659894, 0.006978366058319807, 0.007138394983485341, 0.007193858036771417, 0.006947410060092807, 0.0069769141264259815, 0.006971144117414951, 0.006962259998545051, 0.006989411078393459, 0.006954187992960215, 0.006887990050017834, 0.006873877951875329, 0.006888539995998144, 0.006914088968187571, 0.006914179073646665, 0.007199655985459685, 0.006908199051395059, 0.00690390495583415, 0.006820759037509561, 0.006847818847745657, 0.006940848892554641, 0.006968339905142784, 0.007049703039228916, 0.00694976095110178, 0.006931093987077475, 0.006816481938585639]</t>
+          <t>[0.01729363203048706, 0.01776069076731801, 0.0171192716807127, 0.018051837105304003, 0.01734038209542632, 0.017057218123227358, 0.01704297587275505, 0.01698258612304926, 0.016992439050227404, 0.016911800019443035, 0.017505257856100798, 0.01682022400200367, 0.01731283962726593, 0.016945109702646732, 0.016918569803237915, 0.016933151986449957, 0.01691853115335107, 0.0169681035913527, 0.017365930136293173, 0.01788737066090107, 0.016906393226236105, 0.01731619518250227, 0.016850819811224937, 0.01740815443918109, 0.01695836940780282, 0.01692901598289609, 0.017036596778780222, 0.016840973868966103, 0.016738932114094496, 0.017278068233281374, 0.017784686759114265, 0.016908714082092047, 0.017409976106137037, 0.01685138000175357, 0.01779515203088522, 0.016878992319107056, 0.016838830895721912, 0.016911598853766918, 0.01683631632477045, 0.017034884076565504, 0.016684208996593952, 0.017375425435602665, 0.016873172018676996, 0.01735477289184928, 0.016751430928707123, 0.01693539461120963, 0.016856024973094463, 0.0167246600612998, 0.01726588001474738, 0.0168845490552485]</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>0.006948401113040745</v>
+        <v>0.01710694981738925</v>
       </c>
       <c r="T17" t="n">
-        <v>0.006990633090026677</v>
+        <v>0.01696323649957776</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0003379573456768084</v>
+        <v>0.0003288751868574094</v>
       </c>
       <c r="V17" t="n">
-        <v>2930.32</v>
+        <v>6434.5</v>
       </c>
       <c r="W17" t="n">
-        <v>2858</v>
+        <v>6176.5</v>
       </c>
       <c r="X17" t="n">
-        <v>124.4923471133705</v>
+        <v>3529.581394185693</v>
       </c>
       <c r="Y17" t="n">
         <v>2858</v>
       </c>
       <c r="Z17" t="n">
-        <v>3306</v>
+        <v>10599</v>
       </c>
       <c r="AA17" t="n">
         <v>64715</v>
@@ -1824,35 +1846,35 @@
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>[0.10460229613818228, 0.07210299209691584, 0.08582014194689691, 0.07166782091371715, 0.07190897990949452, 0.07262851810082793, 0.07203493895940483, 0.07261901395395398, 0.07187572191469371, 0.07186161004938185, 0.07194847986102104, 0.07214078702963889, 0.07203989708796144, 0.07217686111107469, 0.07233916502445936, 0.07182093895971775, 0.07225062302313745, 0.071575972950086, 0.07215698203071952, 0.07176004792563617, 0.07220375211909413, 0.07183500099927187, 0.0718603280838579, 0.07304023392498493, 0.07218826794996858, 0.07179299695417285, 0.0719131778459996, 0.07212452311068773, 0.07165859616361558, 0.07187207508832216, 0.07190291211009026, 0.07194856996648014, 0.07186820008791983, 0.07238237792626023, 0.07186777796596289, 0.07160968286916614, 0.07162867090664804, 0.07196333282627165, 0.07275767088867724, 0.07236522505991161, 0.07294463110156357, 0.07271111197769642, 0.07232725596986711, 0.07229536003433168, 0.0723261849489063, 0.07191521907225251, 0.07200383394956589, 0.0719437429215759, 0.07229950511828065, 0.07193478918634355]</t>
+          <t>[0.07218707585707307, 0.07310138596221805, 0.07340478105470538, 0.07295752968639135, 0.07241374580189586, 0.07291600806638598, 0.07235971465706825, 0.07277789106592536, 0.07229689974337816, 0.07290671300143003, 0.07261367561295629, 0.07284206803888083, 0.07232745690271258, 0.07253283401951194, 0.07249900512397289, 0.07239270396530628, 0.07268879795446992, 0.07249376503750682, 0.07273403601720929, 0.07241407595574856, 0.07282672310248017, 0.0725269359536469, 0.07240600371733308, 0.0725504606962204, 0.07245184341445565, 0.0727368202060461, 0.0726631791330874, 0.07278053602203727, 0.07285400573164225, 0.07252570195123553, 0.07275298424065113, 0.07281054137274623, 0.07243783306330442, 0.07273793173953891, 0.07294178614392877, 0.07321123126894236, 0.07371417200192809, 0.07336038397625089, 0.07356314733624458, 0.07354991789907217, 0.07345113810151815, 0.0727934050373733, 0.07391632534563541, 0.07334248721599579, 0.07663106918334961, 0.07295952318236232, 0.0727531248703599, 0.0726758181117475, 0.07291403599083424, 0.07249756017699838]</t>
         </is>
       </c>
       <c r="AF17" t="n">
-        <v>0.07301633592229337</v>
+        <v>0.07288393579423427</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.07201938645448536</v>
+        <v>0.07275305455550551</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.004965450979035733</v>
+        <v>0.0006685169553526825</v>
       </c>
       <c r="AI17" t="n">
-        <v>10309.54150197628</v>
+        <v>10249.4780876494</v>
       </c>
       <c r="AJ17" t="n">
-        <v>11826</v>
+        <v>11786</v>
       </c>
       <c r="AK17" t="n">
-        <v>3718.02440863842</v>
+        <v>3712.821351279634</v>
       </c>
       <c r="AL17" t="n">
         <v>2858</v>
       </c>
       <c r="AM17" t="n">
-        <v>13634</v>
+        <v>13562</v>
       </c>
       <c r="AN17" t="n">
-        <v>30914</v>
+        <v>30498</v>
       </c>
       <c r="AO17" t="n">
         <v>6</v>
@@ -1865,32 +1887,32 @@
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>[0.07275024009868503, 0.07192718796432018, 0.07171500101685524, 0.07155330805107951, 0.07099123694933951, 0.07089672586880624, 0.07123286905698478, 0.07124983402900398, 0.07155220699496567, 0.07169344695284963, 0.07112951413728297, 0.07088376698084176, 0.07191203511320055, 0.0709391999989748, 0.07113631488755345, 0.07167667313478887, 0.07176160020753741, 0.07241047197021544, 0.07124353596009314, 0.07119742617942393, 0.07146490598097444, 0.07099614408798516, 0.07104247412644327, 0.0716741590294987, 0.07091574417427182, 0.07050488004460931, 0.0719225408975035, 0.07100463705137372, 0.07133318902924657, 0.07117381109856069, 0.07079602498561144, 0.0705220049712807, 0.07098851399496198, 0.07083719689399004, 0.0712423138320446, 0.07150138099677861, 0.07095520291477442, 0.07128201308660209, 0.0716482198331505, 0.07080443785525858, 0.07107463106513023, 0.07199631188996136, 0.07156687905080616, 0.07199541991576552, 0.07264308002777398, 0.07219957606866956, 0.07194621697999537, 0.0722238018643111, 0.07237481814809144, 0.07216620584949851]</t>
+          <t>[0.07333827018737793, 0.07113573281094432, 0.07130636926740408, 0.07148331310600042, 0.07144256122410297, 0.07128292322158813, 0.07152338372543454, 0.0717677678912878, 0.0720765208825469, 0.07207440864294767, 0.07347820792347193, 0.07176591595634818, 0.07181862508878112, 0.07158549595624208, 0.0715866181999445, 0.07230664510279894, 0.0718197263777256, 0.07151293708011508, 0.07203892385587096, 0.07255864329636097, 0.07151649193838239, 0.07148577691987157, 0.0711831133812666, 0.07113913772627711, 0.07168434420600533, 0.07149663381278515, 0.07134466525167227, 0.0715841450728476, 0.07154548587277532, 0.07198788784444332, 0.07165103405714035, 0.07185132382437587, 0.07161642285063863, 0.07210354087874293, 0.07373268203809857, 0.07203884469345212, 0.07157043507322669, 0.07168591627851129, 0.07194342091679573, 0.07228280091658235, 0.07837475137785077, 0.08335007913410664, 0.07222542492672801, 0.0727985817939043, 0.07195596117526293, 0.07180982083082199, 0.07200930034741759, 0.071533078327775, 0.07183781499043107, 0.07170215994119644]</t>
         </is>
       </c>
       <c r="AS17" t="n">
-        <v>0.07145298662595451</v>
+        <v>0.0722188813239336</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.07130760105792433</v>
+        <v>0.07176684192381799</v>
       </c>
       <c r="AU17" t="n">
-        <v>0.0005451053491590541</v>
+        <v>0.00193022614656215</v>
       </c>
       <c r="AV17" t="n">
-        <v>8798.959999999999</v>
+        <v>8790.190476190477</v>
       </c>
       <c r="AW17" t="n">
         <v>9986</v>
       </c>
       <c r="AX17" t="n">
-        <v>2995.688249258756</v>
+        <v>2981.082788695468</v>
       </c>
       <c r="AY17" t="n">
         <v>2858</v>
       </c>
       <c r="AZ17" t="n">
-        <v>11706</v>
+        <v>11698</v>
       </c>
       <c r="BA17" t="n">
         <v>18442</v>
@@ -1901,7 +1923,9 @@
       <c r="BC17" t="n">
         <v>1</v>
       </c>
-      <c r="BD17" t="inlineStr"/>
+      <c r="BD17" t="n">
+        <v>0.8613569321533924</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1918,71 +1942,73 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[2.1438609559554607, 2.1440510200336576, 2.1307770640123636, 2.1499611460603774, 2.134738278808072, 2.1158437991980463, 2.161098362877965, 2.1304396328050643, 2.138614729978144, 2.128787219990045, 2.163684912957251, 2.1508285901509225, 2.1292871579062194, 2.1581348141189665, 2.1068976128008217, 2.109467670787126, 2.1388089270330966, 2.1558127789758146, 2.1198724240530282, 2.1416629899758846, 2.145399891072884, 2.1387755149044096, 2.1337767029181123, 2.1219417878892273, 2.152796691050753, 2.1416867920197546, 2.12725161598064, 2.1481390590779483, 2.121976819820702, 2.1181011190637946, 2.145158965839073, 2.1410409221425653, 2.1474051969125867, 2.113327953964472, 2.159985146019608, 2.1434138419572264, 2.146666870918125, 2.1334921719972044, 2.16677562892437, 2.1508480180054903, 2.1331321611069143, 2.1621406089980155, 2.137985834153369, 2.1334328609518707, 2.1289749280549586, 2.1418309900909662, 2.1250278200022876, 2.123261664994061, 2.1561819000635296, 2.1467347689904273]</t>
+          <t>[2.123016791883856, 2.149112869054079, 2.1544533320702612, 2.1715766969136894, 2.1258097430691123, 2.138177035842091, 2.1641266238875687, 2.1485749892890453, 2.14216220472008, 2.153121749870479, 2.164148195181042, 2.1367921959608793, 2.136898532975465, 2.1634372333064675, 2.158001803793013, 2.133441320154816, 2.153762653004378, 2.18654556106776, 2.1362693458795547, 2.142060785088688, 2.1709645739756525, 2.1419653980992734, 2.1667403769679368, 2.1464565452188253, 2.1526628551073372, 2.133863295894116, 2.1598092992790043, 2.1635798132047057, 2.1589793218299747, 2.141682372894138, 2.153624352067709, 2.1536263995803893, 2.1497698952443898, 2.1568734869360924, 2.1651054797694087, 2.141640546731651, 2.155059445183724, 2.12793351104483, 2.1414253688417375, 2.156132963951677, 2.1551310853101313, 2.1705379062332213, 2.1487614810466766, 2.1490534162148833, 2.1769624780863523, 2.138357176911086, 2.137762013822794, 2.168478628154844, 2.1805595639161766, 2.148318773135543]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.138785886727273</v>
+        <v>2.151866149753332</v>
       </c>
       <c r="G18" t="n">
-        <v>2.139924924587831</v>
+        <v>2.152892302488908</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01461699567885344</v>
+        <v>0.01423945129449166</v>
       </c>
       <c r="I18" t="n">
-        <v>6162111.733877811</v>
+        <v>6138494.831096078</v>
       </c>
       <c r="J18" t="n">
-        <v>6774320</v>
+        <v>6774244</v>
       </c>
       <c r="K18" t="n">
-        <v>1720471.673967476</v>
+        <v>1740501.527084783</v>
       </c>
       <c r="L18" t="n">
         <v>2858</v>
       </c>
       <c r="M18" t="n">
-        <v>11398222</v>
+        <v>11452678</v>
       </c>
       <c r="N18" t="n">
-        <v>11452706</v>
+        <v>11452742</v>
       </c>
       <c r="O18" t="n">
         <v>7</v>
       </c>
-      <c r="P18" t="inlineStr"/>
+      <c r="P18" t="n">
+        <v>8050</v>
+      </c>
       <c r="Q18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[0.0030715360771864653, 0.004834756953641772, 0.005661826115101576, 0.006067181006073952, 0.007114287931472063, 0.007258974015712738, 0.00724024698138237, 0.007219747174531221, 0.007164865033701062, 0.007364261895418167, 0.0071319350972771645, 0.007249410031363368, 0.007093316875398159, 0.007091584149748087, 0.007298203883692622, 0.007079315837472677, 0.0071866768412292, 0.007210643030703068, 0.007548206951469183, 0.007225814973935485, 0.00705068395473063, 0.007046106969937682, 0.007132936967536807, 0.007154167862609029, 0.0072118258103728294, 0.007203330984339118, 0.007314357906579971, 0.007013917900621891, 0.007026235107332468, 0.006949311122298241, 0.006936653051525354, 0.006983652012422681, 0.007014568895101547, 0.007028430001810193, 0.006909932941198349, 0.006954127922654152, 0.006850553909316659, 0.006889050826430321, 0.0068884810898453, 0.007176893064752221, 0.006941951112821698, 0.006874497979879379, 0.007059786003082991, 0.006930973147973418, 0.006988138891756535, 0.006863191956654191, 0.006902091205120087, 0.006805986864492297, 0.006899966858327389, 0.007660335162654519]</t>
+          <t>[0.020778197329491377, 0.038391005247831345, 0.03268441325053573, 0.03492036974057555, 0.03341368306428194, 0.03224964300170541, 0.0326846232637763, 0.032754627987742424, 0.03481116518378258, 0.03291719080880284, 0.033053755294531584, 0.03227583132684231, 0.03254913026466966, 0.03439493337646127, 0.032759795896708965, 0.03293420607224107, 0.03239405620843172, 0.03236265107989311, 0.0325846029445529, 0.03213510010391474, 0.03224734775722027, 0.033234586007893085, 0.032445895951241255, 0.03214509505778551, 0.03218064829707146, 0.03340002382174134, 0.04078404698520899, 0.03942627506330609, 0.03772721206769347, 0.032164773903787136, 0.0361585533246398, 0.03219689102843404, 0.03197932615876198, 0.03190290182828903, 0.03195460932329297, 0.03215628210455179, 0.036257452331483364, 0.031992466654628515, 0.03222494386136532, 0.03236242011189461, 0.0321608898229897, 0.03240945003926754, 0.032314898911863565, 0.03219317691400647, 0.0321611687541008, 0.032305215019732714, 0.03198502492159605, 0.03196362406015396, 0.032158065121620893, 0.03195071406662464]</t>
         </is>
       </c>
       <c r="S18" t="n">
-        <v>0.006915498566813767</v>
+        <v>0.03299185921438039</v>
       </c>
       <c r="T18" t="n">
-        <v>0.007048395462334156</v>
+        <v>0.03236253559589386</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0007036597430130844</v>
+        <v>0.002683413902474388</v>
       </c>
       <c r="V18" t="n">
-        <v>2930.32</v>
+        <v>7730.530201342282</v>
       </c>
       <c r="W18" t="n">
-        <v>2858</v>
+        <v>9975</v>
       </c>
       <c r="X18" t="n">
-        <v>124.4923471133705</v>
+        <v>3433.613966710953</v>
       </c>
       <c r="Y18" t="n">
         <v>2858</v>
       </c>
       <c r="Z18" t="n">
-        <v>3306</v>
+        <v>10871</v>
       </c>
       <c r="AA18" t="n">
         <v>64715</v>
@@ -1998,32 +2024,32 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>[0.12123520905151963, 0.08326119207777083, 0.08382199099287391, 0.08334846212528646, 0.08373888581991196, 0.08362628798931837, 0.08361242804676294, 0.08336121216416359, 0.08369017415679991, 0.08346269489265978, 0.08342363382689655, 0.08358499594032764, 0.08448180789127946, 0.08367605204693973, 0.08440823899582028, 0.08380964305251837, 0.08406442403793335, 0.08357134717516601, 0.0834792978130281, 0.0833462888840586, 0.08349094609729946, 0.0838232021778822, 0.08318290393799543, 0.08392808889038861, 0.08390933205373585, 0.08426585514098406, 0.08396922098472714, 0.08398304297588766, 0.08373340894468129, 0.0842981340829283, 0.08475084300152957, 0.09890440595336258, 0.08394227200187743, 0.08346627792343497, 0.08469160203821957, 0.08381627197377384, 0.08439111313782632, 0.08422275120392442, 0.08440886903554201, 0.08451490802690387, 0.0838028120342642, 0.08460180810652673, 0.08437890489585698, 0.0837593269534409, 0.08350015990436077, 0.08342498796992004, 0.08440999197773635, 0.08369538187980652, 0.08404161990620196, 0.08360659796744585]</t>
+          <t>[0.10390137182548642, 0.08604478975757957, 0.08429769333451986, 0.08451662119477987, 0.0850416561588645, 0.08433477999642491, 0.0848696893081069, 0.08460603468120098, 0.08482961868867278, 0.08457388821989298, 0.08436937071383, 0.09077389910817146, 0.08459700085222721, 0.08472282998263836, 0.08437034208327532, 0.08499415731057525, 0.08480762597173452, 0.08447353588417172, 0.08570370869711041, 0.08456564508378506, 0.08498386014252901, 0.08455398725345731, 0.08434685785323381, 0.08516418980434537, 0.08536118408665061, 0.08506669383496046, 0.08446599403396249, 0.08409678190946579, 0.0846396149136126, 0.08473641099408269, 0.08423230610787868, 0.08478871919214725, 0.08518367959186435, 0.08503398718312383, 0.08503175107762218, 0.08559067873284221, 0.0841649230569601, 0.08423265488818288, 0.08476027706637979, 0.0844246232882142, 0.08471566904336214, 0.08516870578750968, 0.08483465714380145, 0.08529790071770549, 0.08454164862632751, 0.08428104966878891, 0.08438196871429682, 0.08619395224377513, 0.0857523106969893, 0.08518160600215197]</t>
         </is>
       </c>
       <c r="AF18" t="n">
-        <v>0.08491838616319</v>
+        <v>0.08531205805018544</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.0838129575131461</v>
+        <v>0.08474834403023124</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.005670037008177705</v>
+        <v>0.002851952447352278</v>
       </c>
       <c r="AI18" t="n">
-        <v>10564.42904290429</v>
+        <v>10540.92358803987</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11858</v>
+        <v>11850</v>
       </c>
       <c r="AK18" t="n">
-        <v>3441.796545075953</v>
+        <v>3447.954951002369</v>
       </c>
       <c r="AL18" t="n">
         <v>2858</v>
       </c>
       <c r="AM18" t="n">
-        <v>13362</v>
+        <v>13522</v>
       </c>
       <c r="AN18" t="n">
         <v>30498</v>
@@ -2039,26 +2065,26 @@
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>[0.08271641610190272, 0.08361648512072861, 0.0832307159435004, 0.08300428604707122, 0.08262051292695105, 0.08273544511757791, 0.0826143550220877, 0.08285650587640703, 0.0830321388784796, 0.0832302460912615, 0.08384605683386326, 0.08335100603289902, 0.0829653088003397, 0.08398132002912462, 0.08295968105085194, 0.08275421219877899, 0.08389538200572133, 0.08318770211189985, 0.0827861709985882, 0.0834059789776802, 0.08326099207624793, 0.08301060600206256, 0.08399371895939112, 0.08350921398960054, 0.08313272893428802, 0.08281827904284, 0.09157095896080136, 0.08321439218707383, 0.08326576906256378, 0.08321370999328792, 0.08335719490423799, 0.08304411708377302, 0.08384129102341831, 0.08379044407047331, 0.08489853097125888, 0.08338818210177124, 0.08363607292994857, 0.08272743201814592, 0.08306721108965576, 0.08331968006677926, 0.08291024598293006, 0.08304208307527006, 0.08275621617212892, 0.08298434689640999, 0.0828288549091667, 0.08354111900553107, 0.08269672491587698, 0.08247426385059953, 0.09700111602433026, 0.0829440769739449]</t>
+          <t>[0.08354955306276679, 0.08392963279038668, 0.08466119691729546, 0.08402048889547586, 0.08412329200655222, 0.08430866803973913, 0.08468296006321907, 0.08591266069561243, 0.09083262737840414, 0.08507645921781659, 0.08434441406279802, 0.08426010608673096, 0.083794048987329, 0.08380893198773265, 0.08351170504465699, 0.0835374048911035, 0.08375271689146757, 0.08398095797747374, 0.08423864608630538, 0.0836854581721127, 0.08367827720940113, 0.08400759007781744, 0.08384353201836348, 0.08380056032910943, 0.0844300021417439, 0.0834986767731607, 0.08444650517776608, 0.08366942312568426, 0.08351587178185582, 0.08392185205593705, 0.08493711007758975, 0.08448252081871033, 0.08482768665999174, 0.08515446493402123, 0.08425148436799645, 0.08392589632421732, 0.0847538448870182, 0.08437507832422853, 0.08412156021222472, 0.08419760270044208, 0.08530298806726933, 0.08365136524662375, 0.08454603422433138, 0.0852147457189858, 0.08425939595326781, 0.08388577587902546, 0.08426207024604082, 0.08433934533968568, 0.0844731261022389, 0.08802741672843695]</t>
         </is>
       </c>
       <c r="AS18" t="n">
-        <v>0.08364058998879045</v>
+        <v>0.08443627465516329</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.08316021552309394</v>
+        <v>0.08424506522715092</v>
       </c>
       <c r="AU18" t="n">
-        <v>0.002307629080503488</v>
+        <v>0.001191442259532936</v>
       </c>
       <c r="AV18" t="n">
-        <v>8770.15894039735</v>
+        <v>8774.693333333333</v>
       </c>
       <c r="AW18" t="n">
         <v>9986</v>
       </c>
       <c r="AX18" t="n">
-        <v>2721.076897656454</v>
+        <v>2729.59467496321</v>
       </c>
       <c r="AY18" t="n">
         <v>2858</v>
@@ -2075,7 +2101,9 @@
       <c r="BC18" t="n">
         <v>0.9568733153638814</v>
       </c>
-      <c r="BD18" t="inlineStr"/>
+      <c r="BD18" t="n">
+        <v>0.8679245283018868</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -2092,71 +2120,73 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[2.153217959916219, 2.152701006969437, 2.179106436902657, 2.1321169859729707, 2.154176513897255, 2.1467517979908735, 2.145025505917147, 2.1647863229736686, 2.174364628037438, 2.18437286792323, 2.1278206910938025, 2.1393881659023464, 2.154594116844237, 2.135063881985843, 2.15162122505717, 2.1318623600527644, 2.1562698630150408, 2.1279654160607606, 2.1354948868975043, 2.2070718999020755, 2.1495903141330928, 2.1317554991692305, 2.1492418819107115, 2.156201326986775, 2.1475787728559226, 2.122585393022746, 2.158953586127609, 2.1468599948566407, 2.1276158711407334, 2.124823471996933, 2.152413366129622, 2.146885769907385, 2.157118628034368, 2.1582775320857763, 2.1451075188815594, 2.1316199898719788, 2.142493275925517, 2.1691395801026374, 2.1389934360049665, 2.135660629021004, 2.1541600672062486, 2.1630867479834706, 2.1401308379136026, 2.1402528521139175, 2.172875117044896, 2.138920014956966, 2.1625350611284375, 2.1770536210387945, 2.1286310038994998, 2.1454311800189316]</t>
+          <t>[2.1270023467950523, 2.1546681439504027, 2.1611217139288783, 2.1360836159437895, 2.1321014231070876, 2.1836369740776718, 2.159985303878784, 2.140531798824668, 2.1646872190758586, 2.1972362543456256, 2.146889308001846, 2.149749557953328, 2.177313153166324, 2.1402081409469247, 2.1434599268250167, 2.154857747256756, 2.1815719911828637, 2.1544133871793747, 2.171721037942916, 2.1674779942259192, 2.142293449025601, 2.139376149047166, 2.137053119018674, 2.156417377758771, 2.1502809380181134, 2.1394201070070267, 2.1865217299200594, 2.1505509559065104, 2.137344243004918, 2.164569120388478, 2.1529098730534315, 2.154521713964641, 2.1512876600027084, 2.169379062950611, 2.1519198729656637, 2.1377139040268958, 2.152652997057885, 2.1810856899246573, 2.1608029436320066, 2.2176753138192, 2.1530014416202903, 2.151158700697124, 2.1388825802132487, 2.123523063957691, 2.180909974966198, 2.1514907921664417, 2.1546693476848304, 2.1568694598972797, 2.1458850540220737, 2.1787236840464175]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.149395297495648</v>
+        <v>2.156272147167474</v>
       </c>
       <c r="G19" t="n">
-        <v>2.147232271381654</v>
+        <v>2.152955657336861</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01713064965796638</v>
+        <v>0.01853553891895278</v>
       </c>
       <c r="I19" t="n">
-        <v>6158947.965225663</v>
+        <v>6146314.529728021</v>
       </c>
       <c r="J19" t="n">
-        <v>6774316</v>
+        <v>6774268</v>
       </c>
       <c r="K19" t="n">
-        <v>1720712.246653806</v>
+        <v>1729561.341042964</v>
       </c>
       <c r="L19" t="n">
         <v>2858</v>
       </c>
       <c r="M19" t="n">
-        <v>11452390</v>
+        <v>11452422</v>
       </c>
       <c r="N19" t="n">
-        <v>11452738</v>
+        <v>11452770</v>
       </c>
       <c r="O19" t="n">
         <v>8</v>
       </c>
-      <c r="P19" t="inlineStr"/>
+      <c r="P19" t="n">
+        <v>8125</v>
+      </c>
       <c r="Q19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[0.0036348009016364813, 0.00576127297244966, 0.005723817041143775, 0.006794980028644204, 0.007085164077579975, 0.0070361418183892965, 0.007080527022480965, 0.007152355974540114, 0.0071240130346268415, 0.007119977148249745, 0.007066256832331419, 0.007023131009191275, 0.007101488998159766, 0.007071814965456724, 0.007239775033667684, 0.00709733203984797, 0.007048619911074638, 0.007004353916272521, 0.007465023081749678, 0.0071184339467436075, 0.007301197852939367, 0.007094278000295162, 0.007071805186569691, 0.007037985138595104, 0.007283202139660716, 0.0070142189506441355, 0.007076371926814318, 0.007176461862400174, 0.0071227410808205605, 0.007009160937741399, 0.006968750851228833, 0.006957914913073182, 0.006941971136257052, 0.006921789143234491, 0.006920256884768605, 0.0069284390192478895, 0.006853417959064245, 0.006851305020973086, 0.006957133999094367, 0.007110201986506581, 0.007051485124975443, 0.006847558077424765, 0.006851745070889592, 0.006961809005588293, 0.006796191213652492, 0.007036481983959675, 0.006860828958451748, 0.006868210155516863, 0.006898434832692146, 0.006813117070123553]</t>
+          <t>[0.040790685918182135, 0.03615184221416712, 0.03563494794070721, 0.03224774729460478, 0.03400332620367408, 0.03488055896013975, 0.03573338408023119, 0.03574035596102476, 0.035897370893508196, 0.034107951913028955, 0.03618585271760821, 0.03411245904862881, 0.03487385902553797, 0.03499478008598089, 0.03565113199874759, 0.035321298986673355, 0.0360043509863317, 0.035985973197966814, 0.035683490335941315, 0.034548101015388966, 0.034309311769902706, 0.03599651902914047, 0.037215673830360174, 0.03459073370322585, 0.03474303288385272, 0.03468948323279619, 0.03574011521413922, 0.03513704380020499, 0.033093634992837906, 0.0328770293854177, 0.03471641195937991, 0.03481329791247845, 0.035020137671381235, 0.034128672908991575, 0.03416314395144582, 0.03454808983951807, 0.033765047788619995, 0.03342483891174197, 0.0347243151627481, 0.0350244240835309, 0.034655651077628136, 0.03461539093405008, 0.03527474915608764, 0.03476962400600314, 0.03543385770171881, 0.03547883313149214, 0.03403355088084936, 0.03495390806347132, 0.035181398037821054, 0.03345784917473793]</t>
         </is>
       </c>
       <c r="S19" t="n">
-        <v>0.006906674904748797</v>
+        <v>0.03498250477947295</v>
       </c>
       <c r="T19" t="n">
-        <v>0.007029636413790286</v>
+        <v>0.03487720899283886</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0005528486356692905</v>
+        <v>0.001256369129113145</v>
       </c>
       <c r="V19" t="n">
-        <v>2930.32</v>
+        <v>7841.013333333333</v>
       </c>
       <c r="W19" t="n">
-        <v>2858</v>
+        <v>10099</v>
       </c>
       <c r="X19" t="n">
-        <v>124.4923471133705</v>
+        <v>3494.285392251983</v>
       </c>
       <c r="Y19" t="n">
         <v>2858</v>
       </c>
       <c r="Z19" t="n">
-        <v>3306</v>
+        <v>10983</v>
       </c>
       <c r="AA19" t="n">
         <v>64715</v>
@@ -2172,32 +2202,32 @@
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>[0.12487914110533893, 0.09295242698863149, 0.09283755393698812, 0.09368091798387468, 0.09285059291869402, 0.09294289187528193, 0.09313277690671384, 0.09537138696759939, 0.0931406079325825, 0.10829744418151677, 0.09343728283420205, 0.09333208505995572, 0.09257579105906188, 0.0938322430010885, 0.1100284040439874, 0.09302391391247511, 0.0930909940507263, 0.09398458106443286, 0.09285635291598737, 0.09328339202329516, 0.09270205209031701, 0.09300976293161511, 0.09376720688305795, 0.10361086879856884, 0.09244729904457927, 0.09298556600697339, 0.09283501980826259, 0.09320906084030867, 0.09268286311998963, 0.10281316516920924, 0.09454668289981782, 0.09529277915135026, 0.09405911201611161, 0.0934724339749664, 0.09333090297877789, 0.09316765889525414, 0.09283487196080387, 0.09252798091620207, 0.09281945810653269, 0.09310429310426116, 0.0939142550341785, 0.09363120188936591, 0.09338679793290794, 0.0935869668610394, 0.09358213795349002, 0.09314452391117811, 0.09412581194192171, 0.09642176004126668, 0.09377312497235835, 0.09352981089614332]</t>
+          <t>[0.11046643508598208, 0.0934019098058343, 0.09358802810311317, 0.09416536195203662, 0.09407638804987073, 0.09355870261788368, 0.0937873157672584, 0.09378729620948434, 0.0943272141739726, 0.09486332582309842, 0.09611533209681511, 0.09402167703956366, 0.09342894982546568, 0.09362802701070905, 0.09433925105258822, 0.09513024613261223, 0.09342020517215133, 0.09380374010652304, 0.09545944817364216, 0.09371958393603563, 0.09380802605301142, 0.09411752969026566, 0.0941469231620431, 0.09426993830129504, 0.09356925915926695, 0.09391588810831308, 0.09367189323529601, 0.09387609828263521, 0.09365617902949452, 0.09456468001008034, 0.09355584997683764, 0.09388947673141956, 0.09366502286866307, 0.09354149783030152, 0.093969508074224, 0.09366219816729426, 0.09442300675436854, 0.09384611435234547, 0.0947117111645639, 0.0948105975985527, 0.09443231206387281, 0.09390074573457241, 0.09362178901210427, 0.09425734914839268, 0.09436892624944448, 0.09392065508291125, 0.09364957036450505, 0.09465560596436262, 0.094808304682374, 0.10807991307228804]</t>
         </is>
       </c>
       <c r="AF19" t="n">
-        <v>0.09507692421786487</v>
+        <v>0.09468910016119481</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.0933314940193668</v>
+        <v>0.09391827159561217</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.005657612443586506</v>
+        <v>0.003067018483715646</v>
       </c>
       <c r="AI19" t="n">
-        <v>9435.745762711864</v>
+        <v>9397.851851851852</v>
       </c>
       <c r="AJ19" t="n">
-        <v>10322</v>
+        <v>10298</v>
       </c>
       <c r="AK19" t="n">
-        <v>2696.751644280764</v>
+        <v>2692.400738744034</v>
       </c>
       <c r="AL19" t="n">
         <v>2858</v>
       </c>
       <c r="AM19" t="n">
-        <v>14138</v>
+        <v>11930</v>
       </c>
       <c r="AN19" t="n">
         <v>28898</v>
@@ -2213,26 +2243,26 @@
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>[0.0924115760717541, 0.09203437296673656, 0.09336836892180145, 0.0919295649509877, 0.0927647550124675, 0.09212068212218583, 0.09457009914331138, 0.09301311592571437, 0.0927165630273521, 0.09176406799815595, 0.09224403509870172, 0.09706606389954686, 0.09198243403807282, 0.09291356895118952, 0.09263762482441962, 0.09169143904000521, 0.09251664485782385, 0.09254435519687831, 0.09254557802341878, 0.0927603889722377, 0.09185431315563619, 0.09189825784415007, 0.09232095000334084, 0.09199259988963604, 0.0941042909398675, 0.09550213301554322, 0.09242669004015625, 0.09264876181259751, 0.09191271895542741, 0.09194978489540517, 0.09268698887899518, 0.09256142005324364, 0.09140929696150124, 0.0915595421101898, 0.0923331780359149, 0.0916701159439981, 0.09288069698959589, 0.09837103704921901, 0.09215961094014347, 0.09210071200504899, 0.09196959622204304, 0.09515766683034599, 0.10023216297850013, 0.09155040699988604, 0.0931551200337708, 0.10962920798920095, 0.09218427678570151, 0.10829086392186582, 0.09140391810797155, 0.09143336303532124]</t>
+          <t>[0.09277747478336096, 0.09278071718290448, 0.09279923560097814, 0.09316260926425457, 0.09345807274803519, 0.09334817808121443, 0.09249227680265903, 0.1079407949000597, 0.13007047306746244, 0.09381062118336558, 0.09296223986893892, 0.09357494674623013, 0.0929293311201036, 0.09253920800983906, 0.0929488311521709, 0.09318412188440561, 0.11649267701432109, 0.09350549289956689, 0.09259106498211622, 0.09259997820481658, 0.09302618494257331, 0.09210415510460734, 0.09258079901337624, 0.09272852912545204, 0.09268685802817345, 0.09306040685623884, 0.09260095795616508, 0.09422920877113938, 0.09346514288336039, 0.0927084400318563, 0.09348325012251735, 0.09321550000458956, 0.09306125808507204, 0.09326797816902399, 0.09287632117047906, 0.0928234220482409, 0.09376417100429535, 0.09326998936012387, 0.09350763773545623, 0.09975967602804303, 0.09343318408355117, 0.09389687003567815, 0.09302194975316525, 0.09316241880878806, 0.09342231880873442, 0.09293751418590546, 0.09349771123379469, 0.09268531668931246, 0.09298247005790472, 0.09249376924708486]</t>
         </is>
       </c>
       <c r="AS19" t="n">
-        <v>0.09349889962933958</v>
+        <v>0.09471443509683013</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.09241913305595517</v>
+        <v>0.09306083247065544</v>
       </c>
       <c r="AU19" t="n">
-        <v>0.003624108446549593</v>
+        <v>0.006479020878501774</v>
       </c>
       <c r="AV19" t="n">
-        <v>7797.514204545455</v>
+        <v>7844.870056497175</v>
       </c>
       <c r="AW19" t="n">
         <v>8498</v>
       </c>
       <c r="AX19" t="n">
-        <v>2070.078626807488</v>
+        <v>2061.015451490393</v>
       </c>
       <c r="AY19" t="n">
         <v>2858</v>
@@ -2249,7 +2279,9 @@
       <c r="BC19" t="n">
         <v>0.9093198992443325</v>
       </c>
-      <c r="BD19" t="inlineStr"/>
+      <c r="BD19" t="n">
+        <v>0.818639798488665</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -2266,71 +2298,73 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[1.9725001640617847, 2.0149913320783526, 1.989312417106703, 1.947021187050268, 1.9703297240193933, 1.9695878240745515, 1.966922112973407, 1.9609654869418591, 1.9996621850878, 1.968131051864475, 1.9630357259884477, 1.9886823210399598, 1.9635594689752907, 1.9620713831391186, 1.9537119308952242, 1.9855211309622973, 1.9719135309569538, 1.9468665719032288, 1.9983688790816814, 1.9899312991183251, 1.9801530840341002, 1.9914199879858643, 1.9942117158789188, 2.0175890459213406, 1.9838148730341345, 1.9929234271403402, 1.9526066831313074, 1.960435498971492, 1.9680064721032977, 1.9805784588679671, 1.9710837968159467, 1.9743002920877188, 1.9904713151045144, 1.960938832955435, 1.96660321415402, 1.9639503720682114, 1.9879010959994048, 1.9929230730049312, 1.9877166249789298, 1.9922288870438933, 1.9753130099270493, 1.960258818930015, 1.972863149130717, 1.997775502037257, 1.9759260290302336, 1.9960535680875182, 2.002732555847615, 1.9617050199303776, 1.9880965689662844, 1.9856482199393213]</t>
+          <t>[1.9701250363141298, 2.019309796858579, 1.9787467811256647, 1.963200916070491, 2.0080724097788334, 1.962507545016706, 1.9780442342162132, 1.9749617190100253, 2.024582359008491, 1.9761747899465263, 1.9827434830367565, 2.0128464568406343, 1.9816124262288213, 1.981173980049789, 1.9818297503516078, 1.9979726746678352, 1.9836104032583535, 1.9584309668280184, 1.994368014857173, 2.01693653780967, 2.0060396953485906, 1.9733496028929949, 1.9938641847111285, 1.9778911122120917, 1.9857283728197217, 1.9967027199454606, 1.9768418967723846, 2.0025928854011, 2.0095215858891606, 1.983209625352174, 1.9720887658186257, 1.9835471082478762, 2.0000858758576214, 1.9841844183392823, 1.9822593862190843, 1.9548800471238792, 1.984913308173418, 1.9638430131599307, 1.990643892902881, 2.020693417172879, 1.9813649589195848, 1.976361027918756, 1.9714150219224393, 2.0079227429814637, 1.9719439600594342, 1.965821233112365, 2.0019405842758715, 1.984260476194322, 1.9639219189994037, 1.9937944561243057]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.978186298408546</v>
+        <v>1.986177551522851</v>
       </c>
       <c r="G20" t="n">
-        <v>1.975619519478641</v>
+        <v>1.982976554194465</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01659578191595517</v>
+        <v>0.01720945825773645</v>
       </c>
       <c r="I20" t="n">
-        <v>6087373.760806583</v>
+        <v>6078767.36752631</v>
       </c>
       <c r="J20" t="n">
-        <v>6773452</v>
+        <v>6773420</v>
       </c>
       <c r="K20" t="n">
-        <v>1784396.544613775</v>
+        <v>1790633.907664801</v>
       </c>
       <c r="L20" t="n">
         <v>2858</v>
       </c>
       <c r="M20" t="n">
-        <v>11398478</v>
+        <v>11452390</v>
       </c>
       <c r="N20" t="n">
-        <v>11452578</v>
+        <v>11452602</v>
       </c>
       <c r="O20" t="n">
         <v>9</v>
       </c>
-      <c r="P20" t="inlineStr"/>
+      <c r="P20" t="n">
+        <v>8125</v>
+      </c>
       <c r="Q20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[0.0030749940779060125, 0.004746335092931986, 0.005768977105617523, 0.0056807349901646376, 0.006744488142430782, 0.007220819825306535, 0.007211055140942335, 0.007107679964974523, 0.007044726982712746, 0.007042173063382506, 0.007179677952080965, 0.007131957216188312, 0.007168140960857272, 0.007500178180634975, 0.007428009994328022, 0.007126400014385581, 0.007222413085401058, 0.007107699988409877, 0.007510364055633545, 0.007060620933771133, 0.007125438190996647, 0.007178636966273189, 0.007111116079613566, 0.007109151920303702, 0.007026278879493475, 0.00711408001370728, 0.006969633046537638, 0.007032138062641025, 0.00697856699116528, 0.0069201800506561995, 0.007006549974903464, 0.007902739802375436, 0.006892609875649214, 0.006976305041462183, 0.007001372054219246, 0.00704525806941092, 0.0070640770718455315, 0.00696103204973042, 0.006861872971057892, 0.007213648874312639, 0.0069810510613024235, 0.006871026009321213, 0.007080099079757929, 0.0070185670629143715, 0.007571044145151973, 0.006910046096891165, 0.0068743908777832985, 0.006942042848095298, 0.006855463143438101, 0.006898527033627033]</t>
+          <t>[0.019002367742359638, 0.01873005973175168, 0.01873142085969448, 0.03850008500739932, 0.044015992898494005, 0.03768889186903834, 0.036849724128842354, 0.03460265090689063, 0.03675288986414671, 0.03439961699768901, 0.03496162872761488, 0.01865675998851657, 0.027272657956928015, 0.018726425245404243, 0.018737800884991884, 0.018531041219830513, 0.01875614793971181, 0.01870576199144125, 0.018829728942364454, 0.018504011910408735, 0.018722317181527615, 0.01852541184052825, 0.01861251424998045, 0.04332817206159234, 0.03725836705416441, 0.03723223693668842, 0.036575074307620525, 0.03483005100861192, 0.03478274121880531, 0.03508521383628249, 0.03504299093037844, 0.03428898099809885, 0.03522343095391989, 0.034070564433932304, 0.02345085609704256, 0.04486075835302472, 0.03721475088968873, 0.03733404912054539, 0.037412317004054785, 0.03315418306738138, 0.0183950481005013, 0.027627067174762487, 0.018485794309526682, 0.01854348974302411, 0.018422158900648355, 0.018440413754433393, 0.018405933864414692, 0.018421738874167204, 0.018356540240347385, 0.018388116732239723]</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>0.006911407802253962</v>
+        <v>0.02782893896102905</v>
       </c>
       <c r="T20" t="n">
-        <v>0.007043450023047626</v>
+        <v>0.02744986256584525</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0007252973379968884</v>
+        <v>0.009232309746847635</v>
       </c>
       <c r="V20" t="n">
-        <v>2930.32</v>
+        <v>7380.879032258064</v>
       </c>
       <c r="W20" t="n">
-        <v>2858</v>
+        <v>10175</v>
       </c>
       <c r="X20" t="n">
-        <v>124.4923471133705</v>
+        <v>3685.178784849488</v>
       </c>
       <c r="Y20" t="n">
         <v>2858</v>
       </c>
       <c r="Z20" t="n">
-        <v>3306</v>
+        <v>11143</v>
       </c>
       <c r="AA20" t="n">
         <v>64715</v>
@@ -2346,32 +2380,32 @@
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>[0.1335424359422177, 0.10065962700173259, 0.1007302610669285, 0.1008439629804343, 0.10175915202125907, 0.09990456700325012, 0.1006616500671953, 0.1014074869453907, 0.10962492902763188, 0.10047627193853259, 0.10067778406664729, 0.10113867418840528, 0.10053738299757242, 0.10025662300176919, 0.10101896501146257, 0.09980517788790166, 0.10043055308051407, 0.10075276694260538, 0.09972632909193635, 0.1003319569863379, 0.10148518183268607, 0.0998575750272721, 0.10032564704306424, 0.09996053110808134, 0.10039974795654416, 0.10166021506302059, 0.09994452609680593, 0.10111105209216475, 0.10091212391853333, 0.10056351311504841, 0.09983760607428849, 0.09958909288980067, 0.10055350698530674, 0.10060689807869494, 0.10054387315176427, 0.10086144902743399, 0.10060099815018475, 0.10089550912380219, 0.10001823701895773, 0.09996836096979678, 0.10795381618663669, 0.11879848293028772, 0.10031461901962757, 0.1003033840097487, 0.1014398061670363, 0.10366073995828629, 0.10005680494941771, 0.1009707129560411, 0.1011950180400163, 0.10183698800392449]</t>
+          <t>[0.10061440290883183, 0.10654874611645937, 0.10173275507986546, 0.10139617277309299, 0.10091671580448747, 0.10070703225210309, 0.10052427789196372, 0.10073668602854013, 0.10137178609147668, 0.10086967516690493, 0.10138697922229767, 0.11238931072875857, 0.10107783786952496, 0.10034104296937585, 0.10073458170518279, 0.10072563868016005, 0.1036513689905405, 0.100732889957726, 0.10071104811504483, 0.10179233737289906, 0.11375840893015265, 0.1011484619230032, 0.10094636911526322, 0.10119323898106813, 0.10127271711826324, 0.10206730710342526, 0.10109553299844265, 0.1004201709292829, 0.10127850715070963, 0.1007248479872942, 0.10108768101781607, 0.10123704513534904, 0.10098336497321725, 0.10155770508572459, 0.10153039498254657, 0.10165323875844479, 0.10133664403110743, 0.10101303877308965, 0.10121513297781348, 0.10102323396131396, 0.10076537821441889, 0.10084025096148252, 0.10095701506361365, 0.10797267826274037, 0.10125580243766308, 0.10125656379386783, 0.10179772367700934, 0.1014982657507062, 0.10099327890202403, 0.10106932371854782]</t>
         </is>
       </c>
       <c r="AF20" t="n">
-        <v>0.10201025148388</v>
+        <v>0.1018782121688128</v>
       </c>
       <c r="AG20" t="n">
-        <v>0.1006332625402138</v>
+        <v>0.1011219974607229</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.005488394297377902</v>
+        <v>0.002662639572263012</v>
       </c>
       <c r="AI20" t="n">
-        <v>9413.132394366197</v>
+        <v>9403.293785310734</v>
       </c>
       <c r="AJ20" t="n">
         <v>10322</v>
       </c>
       <c r="AK20" t="n">
-        <v>2680.771642842091</v>
+        <v>2686.889467878392</v>
       </c>
       <c r="AL20" t="n">
         <v>2858</v>
       </c>
       <c r="AM20" t="n">
-        <v>11922</v>
+        <v>12402</v>
       </c>
       <c r="AN20" t="n">
         <v>28898</v>
@@ -2387,32 +2421,32 @@
       </c>
       <c r="AR20" t="inlineStr">
         <is>
-          <t>[0.09738884004764259, 0.09910207497887313, 0.09775762190110981, 0.09769105212762952, 0.09733557095751166, 0.09883795795030892, 0.09776157792657614, 0.09736950090155005, 0.09745770297013223, 0.1057290059980005, 0.09829470585100353, 0.09769614902324975, 0.09742935094982386, 0.09792262921109796, 0.09733622102066875, 0.09778630617074668, 0.09765112190507352, 0.09945149696432054, 0.0974801261909306, 0.09750246000476182, 0.09700570604763925, 0.09753651008941233, 0.09739404800347984, 0.09734368184581399, 0.09818426100537181, 0.09692890103906393, 0.09830391011200845, 0.09830497088842094, 0.09911544295027852, 0.09728582599200308, 0.0970868468284607, 0.10438418202102184, 0.09792835800908506, 0.09696724801324308, 0.09696010779589415, 0.09716035705059767, 0.09727423801086843, 0.09688869095407426, 0.0984342850279063, 0.09710628609173, 0.09705644194036722, 0.09736130898818374, 0.09724205010570586, 0.09794228803366423, 0.09788251807913184, 0.1059034070931375, 0.09760702610947192, 0.09732975997030735, 0.0980296190828085, 0.09844424901530147]</t>
+          <t>[0.09884547535330057, 0.09849529108032584, 0.09865022217854857, 0.09849673276767135, 0.09826865093782544, 0.09827161487191916, 0.09799501160159707, 0.09842697670683265, 0.09827824495732784, 0.0981256770901382, 0.09813959803432226, 0.09855234483256936, 0.09919489687308669, 0.10437104664742947, 0.0989444819279015, 0.09841890493407845, 0.09858894906938076, 0.09827998699620366, 0.1024832814000547, 0.09814398409798741, 0.09840386407449841, 0.09796501602977514, 0.09799629403278232, 0.09838420199230313, 0.09902783622965217, 0.0990114831365645, 0.09849086310714483, 0.0990320430137217, 0.09784756973385811, 0.09840454533696175, 0.09811890497803688, 0.09831289574503899, 0.11228476325049996, 0.09816564666107297, 0.09968611318618059, 0.09852907992899418, 0.09835947584360838, 0.10267996415495872, 0.11193014215677977, 0.09866232983767986, 0.09848940093070269, 0.09823712287470698, 0.09796201065182686, 0.09769537299871445, 0.0977584570646286, 0.0978743708692491, 0.09767858823761344, 0.09855978609994054, 0.09871248621493578, 0.09970376780256629]</t>
         </is>
       </c>
       <c r="AS20" t="n">
-        <v>0.0981474799849093</v>
+        <v>0.09925871537066996</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.09757176809944212</v>
+        <v>0.09842294082045555</v>
       </c>
       <c r="AU20" t="n">
-        <v>0.001935197118668206</v>
+        <v>0.002923515576586491</v>
       </c>
       <c r="AV20" t="n">
-        <v>7725.222857142857</v>
+        <v>7836.613636363636</v>
       </c>
       <c r="AW20" t="n">
-        <v>8458</v>
+        <v>8498</v>
       </c>
       <c r="AX20" t="n">
-        <v>2045.678582125543</v>
+        <v>2069.209769373581</v>
       </c>
       <c r="AY20" t="n">
         <v>2858</v>
       </c>
       <c r="AZ20" t="n">
-        <v>10122</v>
+        <v>10106</v>
       </c>
       <c r="BA20" t="n">
         <v>16842</v>
@@ -2423,7 +2457,9 @@
       <c r="BC20" t="n">
         <v>0.87409200968523</v>
       </c>
-      <c r="BD20" t="inlineStr"/>
+      <c r="BD20" t="n">
+        <v>0.7869249394673123</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -2440,56 +2476,58 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[2.045772996963933, 2.056555907940492, 1.9866859540343285, 2.026867297012359, 2.006686943117529, 2.0067116280552, 2.0294270620215684, 2.0882875889074057, 2.033772161928937, 2.0094972979277372, 2.059955053962767, 2.0148411649279296, 2.0113913968671113, 1.9944408680312335, 2.0304884819779545, 2.0056139121297747, 2.033719944069162, 2.0448063700459898, 2.001873594010249, 2.0134826921857893, 2.0183481939602643, 2.034044448984787, 2.0066132901702076, 2.027186830062419, 2.0276554990559816, 2.0067406750749797, 2.026076369918883, 2.014294608961791, 2.0415429899003357, 2.0137301590293646, 2.0114134680479765, 2.0413254050072283, 2.0291258110664785, 2.006725183920935, 2.024627913022414, 2.0434682560153306, 2.014362880960107, 2.0343392151407897, 2.043161161011085, 2.0061689880676568, 2.012263311073184, 1.9976239930838346, 2.027021980844438, 2.013050400884822, 2.0126363709568977, 2.0615828728768975, 2.0266438238322735, 2.0229306151159108, 2.016621968941763, 2.019128840882331]</t>
+          <t>[2.0426908559165895, 1.997814946807921, 2.0132182626985013, 2.023442338220775, 2.031956342048943, 2.024176803883165, 2.036507642827928, 2.052309808321297, 2.036409816239029, 2.0247714607976377, 2.047670800704509, 2.0361031820066273, 2.0414021238684654, 2.0400939132086933, 2.034882211126387, 2.0032107550650835, 2.010375380050391, 2.0650399643927813, 2.022457837127149, 2.0251942020840943, 2.022202623076737, 2.0154430931434035, 2.0153145589865744, 2.047211917117238, 2.0464850403368473, 2.0128679941408336, 2.0285870917141438, 2.0076600429601967, 2.0346012436784804, 2.0313454689458013, 1.9949501142837107, 2.050569615326822, 2.023229467216879, 2.0325451800599694, 2.020769731141627, 2.062856283970177, 2.02780023496598, 2.0221302742138505, 2.040285191964358, 2.0125700109638274, 2.0169724207371473, 2.0177663676440716, 2.0336857992224395, 2.041961575858295, 2.0165810817852616, 2.0464224629104137, 2.0181576600298285, 2.020483650267124, 2.038126992061734, 2.043220064137131]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.023626676839776</v>
+        <v>2.029050638005137</v>
       </c>
       <c r="G21" t="n">
-        <v>2.021029727999121</v>
+        <v>2.028193663340062</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01906895682428671</v>
+        <v>0.01548858526224482</v>
       </c>
       <c r="I21" t="n">
-        <v>6110317.369314324</v>
+        <v>6095796.565266486</v>
       </c>
       <c r="J21" t="n">
-        <v>6774504</v>
+        <v>6774396</v>
       </c>
       <c r="K21" t="n">
-        <v>1768033.882863496</v>
+        <v>1781998.482760064</v>
       </c>
       <c r="L21" t="n">
         <v>2858</v>
       </c>
       <c r="M21" t="n">
-        <v>11398166</v>
+        <v>11452366</v>
       </c>
       <c r="N21" t="n">
-        <v>11452946</v>
+        <v>11452826</v>
       </c>
       <c r="O21" t="n">
         <v>10</v>
       </c>
-      <c r="P21" t="inlineStr"/>
+      <c r="P21" t="n">
+        <v>8525</v>
+      </c>
       <c r="Q21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[0.00301543390378356, 0.0038384171202778816, 0.005688404897227883, 0.005607374012470245, 0.005617648828774691, 0.005673574050888419, 0.0071090711280703545, 0.007134700892493129, 0.007367459125816822, 0.007342250784859061, 0.00730556808412075, 0.007181440945714712, 0.007071986794471741, 0.007171174976974726, 0.007091866806149483, 0.0070728580467402935, 0.00717537198215723, 0.007095101987943053, 0.00872996007092297, 0.0073460477869957685, 0.0070974749978631735, 0.007080569863319397, 0.00717452191747725, 0.007107218960300088, 0.007265978027135134, 0.007296753115952015, 0.007029013009741902, 0.0070249461568892, 0.006995420902967453, 0.00700109195895493, 0.006984347011893988, 0.0069666700437664986, 0.006925247143954039, 0.006955731892958283, 0.006867902120575309, 0.00687737506814301, 0.006882844027131796, 0.00706077110953629, 0.0069786859676241875, 0.007199055980890989, 0.006960259051993489, 0.006915081990882754, 0.006885618902742863, 0.007186566945165396, 0.007098147179931402, 0.007313138106837869, 0.006818827940151095, 0.007076492998749018, 0.0070115868002176285, 0.007050744025036693]</t>
+          <t>[0.013246160000562668, 0.013140201102942228, 0.01313668629154563, 0.013159538619220257, 0.012912970967590809, 0.013004579115658998, 0.013013521209359169, 0.012798989657312632, 0.01298017194494605, 0.013015973847359419, 0.012783937156200409, 0.012861483730375767, 0.012861574999988079, 0.012922746129333973, 0.01282148389145732, 0.012813901994377375, 0.012768764048814774, 0.012809435371309519, 0.013086380437016487, 0.01304300595074892, 0.01290380721911788, 0.012770327273756266, 0.012787322979420424, 0.012787613086402416, 0.012647192925214767, 0.012851659208536148, 0.01271433336660266, 0.012683306820690632, 0.012749405112117529, 0.012892288155853748, 0.01287196995690465, 0.012854221742600203, 0.012747032102197409, 0.012718880083411932, 0.012809265870600939, 0.012692419812083244, 0.012822343967854977, 0.012810918036848307, 0.012871928978711367, 0.012724780011922121, 0.012658008839935064, 0.012799470219761133, 0.012864107266068459, 0.012751518748700619, 0.012739029712975025, 0.01284999679774046, 0.012837356887757778, 0.01266131503507495, 0.012842635158449411, 0.012706351932138205]</t>
         </is>
       </c>
       <c r="S21" t="n">
-        <v>0.006854475908912718</v>
+        <v>0.01285204627551138</v>
       </c>
       <c r="T21" t="n">
-        <v>0.007066378952004015</v>
+        <v>0.01282191392965615</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0008604153627680451</v>
+        <v>0.0001386280730424705</v>
       </c>
       <c r="V21" t="n">
         <v>2930.32</v>
@@ -2520,32 +2558,32 @@
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>[0.14220453379675746, 0.15736874588765204, 0.10586682497523725, 0.10515878605656326, 0.10565126198343933, 0.10568094719201326, 0.10492423502728343, 0.10557152493856847, 0.10477145714685321, 0.10454232292249799, 0.10437148693017662, 0.10497015411965549, 0.10480299312621355, 0.10604818584397435, 0.10595767199993134, 0.10443446203134954, 0.1049584960564971, 0.10513255698606372, 0.10511687188409269, 0.10440415586344898, 0.11633690004236996, 0.10480998200364411, 0.10497693298384547, 0.1051651150919497, 0.10549063188955188, 0.1054576940368861, 0.10495101590640843, 0.10597669007256627, 0.10483367904089391, 0.10462450608611107, 0.10474317404441535, 0.10563719179481268, 0.10547222406603396, 0.11141630285419524, 0.10496161109767854, 0.10480930306948721, 0.10464635887183249, 0.10443064593710005, 0.10460328380577266, 0.10542381298728287, 0.10597209306433797, 0.10542742698453367, 0.10589323588646948, 0.1049595270305872, 0.10422241408377886, 0.10517256590537727, 0.10486405389383435, 0.10476239304989576, 0.10509820492006838, 0.10583076206967235]</t>
+          <t>[0.10600495804101229, 0.10707502206787467, 0.11729294899851084, 0.10513551812618971, 0.10532093374058604, 0.10579547472298145, 0.10578173585236073, 0.10551023716107011, 0.10596463782712817, 0.10638989601284266, 0.10583513416349888, 0.10831152321770787, 0.120536332949996, 0.10566149465739727, 0.10571687715128064, 0.10558704193681479, 0.10604584030807018, 0.10610204422846437, 0.10673612309619784, 0.10596230486407876, 0.106449113227427, 0.10583409294486046, 0.10580624220892787, 0.10592303611338139, 0.1057155360467732, 0.10564166400581598, 0.10545464418828487, 0.10603500483557582, 0.1062319790944457, 0.10624634008854628, 0.10626910487189889, 0.10582447005435824, 0.10656130174174905, 0.10589756863191724, 0.10628003114834428, 0.10573400277644396, 0.10662056086584926, 0.10677510080859065, 0.10687779588624835, 0.12104339012876153, 0.10698188096284866, 0.10511123202741146, 0.1058218851685524, 0.10589516488835216, 0.10562417889013886, 0.1059412038885057, 0.1063208319246769, 0.10683645401149988, 0.1054831868968904, 0.10550060262903571]</t>
         </is>
       </c>
       <c r="AF21" t="n">
-        <v>0.1072581481467932</v>
+        <v>0.1068700736016035</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.1051075384020805</v>
+        <v>0.1059517543762922</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.009095083687326642</v>
+        <v>0.003328651237569513</v>
       </c>
       <c r="AI21" t="n">
-        <v>10810.69080779944</v>
+        <v>10835.43250688705</v>
       </c>
       <c r="AJ21" t="n">
         <v>11922</v>
       </c>
       <c r="AK21" t="n">
-        <v>3212.712244876431</v>
+        <v>3208.070413271729</v>
       </c>
       <c r="AL21" t="n">
         <v>2858</v>
       </c>
       <c r="AM21" t="n">
-        <v>13522</v>
+        <v>14098</v>
       </c>
       <c r="AN21" t="n">
         <v>30498</v>
@@ -2561,32 +2599,32 @@
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>[0.1016922858543694, 0.10174953192472458, 0.10319204209372401, 0.10485404008068144, 0.10400208411738276, 0.10225116298533976, 0.10211284621618688, 0.10282808495685458, 0.10482751904055476, 0.10443426202982664, 0.10172273288480937, 0.1019536869134754, 0.10418854397721589, 0.10184767912141979, 0.1018827399238944, 0.10243853298015893, 0.10204030713066459, 0.10259993397630751, 0.10601037996821105, 0.10250342008657753, 0.10305878100916743, 0.10202338080853224, 0.10691001708619297, 0.10260837711393833, 0.1025211859960109, 0.10179834393784404, 0.10220411187037826, 0.10199149418622255, 0.102243741042912, 0.10184547584503889, 0.10191521910019219, 0.10177069390192628, 0.10173294600099325, 0.10207201493903995, 0.1029928820207715, 0.10225203400477767, 0.1023081368766725, 0.10260450094938278, 0.10226705693639815, 0.10217511793598533, 0.10203413711860776, 0.10203347820788622, 0.10234394110739231, 0.10233434801921248, 0.10182857885956764, 0.10292322817258537, 0.10178000782616436, 0.1022765701636672, 0.10668057389557362, 0.10275636916048825]</t>
+          <t>[0.10316221322864294, 0.10439954604953527, 0.10382107878103852, 0.10284061217680573, 0.103826018050313, 0.10352975316345692, 0.1031779358163476, 0.1030791993252933, 0.10325239785015583, 0.10322660021483898, 0.10301690641790628, 0.10345368925482035, 0.1039375620894134, 0.10263264086097479, 0.10343303671106696, 0.10334961535409093, 0.10275589535012841, 0.10320367524400353, 0.10282043181359768, 0.10322786215692759, 0.1028932798653841, 0.10288794385269284, 0.10316462721675634, 0.10341475112363696, 0.10380376409739256, 0.10455538798123598, 0.10358237195760012, 0.10425492003560066, 0.10373622179031372, 0.10339969908818603, 0.10356437508016825, 0.10304381605237722, 0.10327546298503876, 0.10289093619212508, 0.10295821772888303, 0.10449079191312194, 0.10456883907318115, 0.10412547597661614, 0.10323046520352364, 0.1030072420835495, 0.10369201470166445, 0.10311497282236814, 0.10350978327915072, 0.10279149794951081, 0.10366570623591542, 0.10314921382814646, 0.10310705984011292, 0.1026123408228159, 0.10319146793335676, 0.10302444687113166]</t>
         </is>
       </c>
       <c r="AS21" t="n">
-        <v>0.102708371207118</v>
+        <v>0.1033770752698183</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.1022595454705879</v>
+        <v>0.1032291636802256</v>
       </c>
       <c r="AU21" t="n">
-        <v>0.001250510549866109</v>
+        <v>0.0004986484558336318</v>
       </c>
       <c r="AV21" t="n">
-        <v>9126.068181818182</v>
+        <v>9220.468571428572</v>
       </c>
       <c r="AW21" t="n">
-        <v>10050</v>
+        <v>10098</v>
       </c>
       <c r="AX21" t="n">
-        <v>2597.317115884427</v>
+        <v>2617.127861606133</v>
       </c>
       <c r="AY21" t="n">
         <v>2858</v>
       </c>
       <c r="AZ21" t="n">
-        <v>12522</v>
+        <v>11706</v>
       </c>
       <c r="BA21" t="n">
         <v>18442</v>
@@ -2597,7 +2635,9 @@
       <c r="BC21" t="n">
         <v>0.8636363636363636</v>
       </c>
-      <c r="BD21" t="inlineStr"/>
+      <c r="BD21" t="n">
+        <v>0.8157894736842105</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2614,71 +2654,73 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[2.0456724329851568, 2.1224457430653274, 2.0857576560229063, 2.0592923059593886, 2.047511609038338, 2.0784037518315017, 2.073669342789799, 2.036240158835426, 2.043066876940429, 2.071632037172094, 2.0470596100203693, 2.0611020191572607, 2.0458735700231045, 2.064804440131411, 2.0326258840505034, 2.037034252891317, 2.072083949111402, 2.043038598028943, 2.06113117095083, 2.0351822320371866, 2.0644579569343477, 2.0677953609265387, 2.032874071970582, 2.0675368988886476, 2.04014238785021, 2.0346434940584004, 2.049798530060798, 2.064953974215314, 2.0478236901108176, 2.064143358031288, 2.1035717208869755, 2.05861231405288, 2.0619896489661187, 2.059812678024173, 2.0547733230050653, 2.051984224934131, 2.049288247944787, 2.085038074059412, 2.074208782054484, 2.0487203819211572, 2.0779515998438, 2.090940542984754, 2.0561749869957566, 2.05828145891428, 2.04574779397808, 2.03343383804895, 2.069244263926521, 2.061034512007609, 2.070592208998278, 2.0884655229747295]</t>
+          <t>[2.062449224293232, 2.0673709008842707, 2.072845915798098, 2.058899958152324, 2.0521704140119255, 2.057936284225434, 2.074290464166552, 2.05146118812263, 2.06867101136595, 2.0646888772025704, 2.048381343949586, 2.0581411137245595, 2.0594256571494043, 2.088274751789868, 2.049224352929741, 2.085076783783734, 2.0766349849291146, 2.077970363199711, 2.060027720872313, 2.054495960008353, 2.066899466328323, 2.0594185166992247, 2.1009097290225327, 2.062993425875902, 2.041682784911245, 2.0633766283281147, 2.037007562816143, 2.073085289914161, 2.0571455978788435, 2.0607981542125344, 2.075176197104156, 2.041597911156714, 2.0651131318882108, 2.04243216663599, 2.1526874667033553, 2.059367817826569, 2.0468834382481873, 2.0853575728833675, 2.041460359003395, 2.065691551659256, 2.05013660620898, 2.084775967989117, 2.0537844938226044, 2.044539814814925, 2.080469900276512, 2.0836740960367024, 2.0569469751790166, 2.0527358292602003, 2.090105901006609, 2.0528705902397633]</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.059953269772231</v>
+        <v>2.064751244289801</v>
       </c>
       <c r="G22" t="n">
-        <v>2.059552491991781</v>
+        <v>2.060412937542424</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01897476637971738</v>
+        <v>0.01933103040728551</v>
       </c>
       <c r="I22" t="n">
-        <v>6123097.093299313</v>
+        <v>6105198.887116428</v>
       </c>
       <c r="J22" t="n">
-        <v>6774788</v>
+        <v>6774668</v>
       </c>
       <c r="K22" t="n">
-        <v>1757496.717063683</v>
+        <v>1771396.518260333</v>
       </c>
       <c r="L22" t="n">
         <v>2858</v>
       </c>
       <c r="M22" t="n">
-        <v>11398422</v>
+        <v>11398222</v>
       </c>
       <c r="N22" t="n">
-        <v>11452450</v>
+        <v>11452578</v>
       </c>
       <c r="O22" t="n">
         <v>11</v>
       </c>
-      <c r="P22" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>7975</v>
+      </c>
       <c r="Q22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[0.003064966993406415, 0.005648777121677995, 0.005638760980218649, 0.005707644857466221, 0.006805288139730692, 0.007304013008251786, 0.0071418508887290955, 0.00716031901538372, 0.007129512960091233, 0.007131234044209123, 0.0071341497823596, 0.0071283611468970776, 0.0072049349546432495, 0.0072842740919440985, 0.007215271005406976, 0.0071869189850986, 0.007192187011241913, 0.007011316018179059, 0.007517862832173705, 0.00703043513931334, 0.007139367051422596, 0.007240018108859658, 0.007301019039005041, 0.007123022805899382, 0.007108232006430626, 0.007000229088589549, 0.006959368009120226, 0.007124366005882621, 0.007066619116812944, 0.006990095134824514, 0.007090624887496233, 0.006952948169782758, 0.00692806183360517, 0.006797707173973322, 0.006918998202309012, 0.006956964964047074, 0.0069973049685359, 0.006892457837238908, 0.006878677057102323, 0.007231504889205098, 0.006886189104989171, 0.006874009966850281, 0.006923194043338299, 0.006884736008942127, 0.006944966968148947, 0.006969063077121973, 0.006935020908713341, 0.006891336990520358, 0.006844616029411554, 0.006852607941254973]</t>
+          <t>[0.026683272793889046, 0.013546989299356937, 0.013305578380823135, 0.01325564319267869, 0.013315593358129263, 0.013238717801868916, 0.013182794209569693, 0.01323827775195241, 0.0132783274166286, 0.013210756238549948, 0.01326738204807043, 0.013142263982445002, 0.013275202363729477, 0.013288784306496382, 0.013146581128239632, 0.013183204922825098, 0.013224756810814142, 0.013206129893660545, 0.013299849815666676, 0.013223526068031788, 0.013248441740870476, 0.013167520053684711, 0.01336996490135789, 0.013123333919793367, 0.01313752681016922, 0.013151659164577723, 0.013183716218918562, 0.013141823001205921, 0.01324415486305952, 0.013353179674595594, 0.013273511081933975, 0.013319538906216621, 0.013394721783697605, 0.013270616065710783, 0.01318328408524394, 0.013127081096172333, 0.013135233893990517, 0.013386869803071022, 0.013332999311387539, 0.013224095106124878, 0.013150987215340137, 0.013295753858983517, 0.013188724871724844, 0.013276233803480864, 0.01306818425655365, 0.013220902066677809, 0.01341229910030961, 0.013410213869065046, 0.013295704033225775, 0.013252286706119776]</t>
         </is>
       </c>
       <c r="S22" t="n">
-        <v>0.00688682812731713</v>
+        <v>0.01351708386093378</v>
       </c>
       <c r="T22" t="n">
-        <v>0.006998767028562725</v>
+        <v>0.013246298301965</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0006612111079140838</v>
+        <v>0.001902202265379769</v>
       </c>
       <c r="V22" t="n">
-        <v>2930.32</v>
+        <v>3073.470588235294</v>
       </c>
       <c r="W22" t="n">
         <v>2858</v>
       </c>
       <c r="X22" t="n">
-        <v>124.4923471133705</v>
+        <v>1029.701419887167</v>
       </c>
       <c r="Y22" t="n">
         <v>2858</v>
       </c>
       <c r="Z22" t="n">
-        <v>3306</v>
+        <v>10231</v>
       </c>
       <c r="AA22" t="n">
         <v>64715</v>
@@ -2694,32 +2736,32 @@
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>[0.14066460193134844, 0.1077241599559784, 0.10761749092489481, 0.10683429893106222, 0.10687024192884564, 0.10772449290379882, 0.10743438801728189, 0.11352660809643567, 0.10718326084315777, 0.10775926313363016, 0.10749962506815791, 0.10703641106374562, 0.10724991094321012, 0.10683749499730766, 0.10779642919078469, 0.10690370318479836, 0.10740154795348644, 0.10696065798401833, 0.10751238488592207, 0.10765411611646414, 0.10773952305316925, 0.10705625102855265, 0.10754179605282843, 0.10817532707005739, 0.10717408708296716, 0.10752556403167546, 0.1065248460508883, 0.10695960698649287, 0.10720052709802985, 0.10658389399759471, 0.10673069395124912, 0.10771955293603241, 0.10859191999770701, 0.10748886782675982, 0.10785898310132325, 0.13276700908318162, 0.10692798695527017, 0.10791174205951393, 0.10759057104587555, 0.1074996639508754, 0.10841663810424507, 0.10683284606784582, 0.10880591091699898, 0.10868189507164061, 0.1079744549933821, 0.10714881005696952, 0.10657851491123438, 0.10673350701108575, 0.10690345289185643, 0.10693791299127042]</t>
+          <t>[0.11067898292094469, 0.1150924600660801, 0.10860826401039958, 0.10886640893295407, 0.10882817301899195, 0.10769635811448097, 0.107447967864573, 0.10929053509607911, 0.10807045781984925, 0.13018408231437206, 0.10786719480529428, 0.10803970228880644, 0.10871019586920738, 0.10782351903617382, 0.10809553507715464, 0.10776345804333687, 0.10828485107049346, 0.10895569296553731, 0.10853003663942218, 0.10796802490949631, 0.1083133420906961, 0.10814734315499663, 0.10805781790986657, 0.10825438424944878, 0.10791748017072678, 0.10779037792235613, 0.1091416822746396, 0.10876822238788009, 0.10833784937858582, 0.10749713005498052, 0.10793730011209846, 0.10754509177058935, 0.10932883294299245, 0.1086944118142128, 0.10788594186306, 0.10773009806871414, 0.10733668878674507, 0.10771057894453406, 0.10844681272283196, 0.10924422508105636, 0.10933063505217433, 0.10910304402932525, 0.10780897689983249, 0.10796848591417074, 0.10851342091336846, 0.1081751249730587, 0.10752849699929357, 0.10769408522173762, 0.12284653773531318, 0.10780663322657347]</t>
         </is>
       </c>
       <c r="AF22" t="n">
-        <v>0.1086954688886181</v>
+        <v>0.1091532590705901</v>
       </c>
       <c r="AG22" t="n">
-        <v>0.1074942464474589</v>
+        <v>0.1081612340640277</v>
       </c>
       <c r="AH22" t="n">
-        <v>0.005921402262221777</v>
+        <v>0.003834033562604814</v>
       </c>
       <c r="AI22" t="n">
-        <v>9528.588089330025</v>
+        <v>9494.268656716418</v>
       </c>
       <c r="AJ22" t="n">
         <v>10322</v>
       </c>
       <c r="AK22" t="n">
-        <v>2554.012921665998</v>
+        <v>2549.139977697957</v>
       </c>
       <c r="AL22" t="n">
         <v>2858</v>
       </c>
       <c r="AM22" t="n">
-        <v>12530</v>
+        <v>14074</v>
       </c>
       <c r="AN22" t="n">
         <v>28898</v>
@@ -2735,32 +2777,32 @@
       </c>
       <c r="AR22" t="inlineStr">
         <is>
-          <t>[0.10450477083213627, 0.10447300504893064, 0.1040457938797772, 0.10549993091262877, 0.10493395407684147, 0.10543074901215732, 0.10592284495942295, 0.10429222392849624, 0.10404408094473183, 0.10475826100446284, 0.1041612580884248, 0.10474708513356745, 0.10456934804096818, 0.10472937696613371, 0.10488852602429688, 0.10523121897131205, 0.10446101590059698, 0.10446317913010716, 0.10457087983377278, 0.10379131394438446, 0.10509898094460368, 0.1047016060911119, 0.10409917403012514, 0.10469848196953535, 0.10440491093322635, 0.10493474407121539, 0.10489781899377704, 0.10534114297479391, 0.10439310385845602, 0.10491716815158725, 0.10446555190719664, 0.10428060591220856, 0.10552769107744098, 0.10411565797403455, 0.10969669418409467, 0.11233813711442053, 0.10601137694902718, 0.10498026292771101, 0.10586399491876364, 0.1046188531909138, 0.10444489191286266, 0.1044099498540163, 0.10415631998330355, 0.10674385284073651, 0.1037709228694439, 0.10385700198821723, 0.10413067205809057, 0.10384044703096151, 0.10402087611146271, 0.10402829782105982]</t>
+          <t>[0.10596754215657711, 0.10591262811794877, 0.10556007083505392, 0.1053316667675972, 0.10498241474851966, 0.10548074217513204, 0.10489725926890969, 0.10510749276727438, 0.10541154677048326, 0.10543578444048762, 0.10570016037672758, 0.1053549931384623, 0.10467751882970333, 0.10544335609301925, 0.10453969286754727, 0.10523273097351193, 0.10577674396336079, 0.10621042503044009, 0.10521831922233105, 0.10477811004966497, 0.10507865017279983, 0.10452312789857388, 0.1047562682069838, 0.10490108327940106, 0.10509589407593012, 0.1053082630969584, 0.10662829037755728, 0.10494642145931721, 0.10470538167282939, 0.1048295758664608, 0.10477174120023847, 0.10485209012404084, 0.10600914200767875, 0.10502923605963588, 0.10521025629714131, 0.1046615052036941, 0.10489467391744256, 0.10495445411652327, 0.10519835911691189, 0.10497551504522562, 0.10490420879796147, 0.1054228451102972, 0.106263292953372, 0.1056978958658874, 0.10552595928311348, 0.1054984382353723, 0.10614858102053404, 0.10588076990097761, 0.10608200216665864, 0.10564081091433764]</t>
         </is>
       </c>
       <c r="AS22" t="n">
-        <v>0.104926160145551</v>
+        <v>0.1053082786407322</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.1045701139373705</v>
+        <v>0.1052255250979215</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.001428701562145238</v>
+        <v>0.0005021681858349373</v>
       </c>
       <c r="AV22" t="n">
-        <v>7780.878186968838</v>
+        <v>7858.797720797721</v>
       </c>
       <c r="AW22" t="n">
-        <v>8490</v>
+        <v>8514</v>
       </c>
       <c r="AX22" t="n">
-        <v>2056.104759834694</v>
+        <v>2076.873408782797</v>
       </c>
       <c r="AY22" t="n">
         <v>2858</v>
       </c>
       <c r="AZ22" t="n">
-        <v>10570</v>
+        <v>10986</v>
       </c>
       <c r="BA22" t="n">
         <v>16842</v>
@@ -2771,7 +2813,9 @@
       <c r="BC22" t="n">
         <v>0.8588516746411483</v>
       </c>
-      <c r="BD22" t="inlineStr"/>
+      <c r="BD22" t="n">
+        <v>0.7631578947368421</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2788,71 +2832,73 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[2.1855238149873912, 2.2176085629034787, 2.167339449049905, 2.1695640778634697, 2.1506267769727856, 2.1977439790498465, 2.194106812821701, 2.1923336561303586, 2.210825575981289, 2.181728377006948, 2.219220391009003, 2.1927209000568837, 2.198777143843472, 2.182232956867665, 2.167046070797369, 2.1922871929127723, 2.173156172968447, 2.1772489168215543, 2.1682762349955738, 2.2104181579779834, 2.1572636670898646, 2.1643714250531048, 2.21644012699835, 2.168630918022245, 2.1668313830159605, 2.179869497893378, 2.194158476078883, 2.1619626579340547, 2.175153312040493, 2.2059977140743285, 2.1828498810064048, 2.1742699660826474, 2.147746149916202, 2.1968539590016007, 2.1767813619226217, 2.1732393170241266, 2.1983401600737125, 2.1897579920478165, 2.1535516399890184, 2.1712573941331357, 2.211041996954009, 2.188054634956643, 2.1921423110179603, 2.196721156127751, 2.173327004071325, 2.1685099608730525, 2.212243044981733, 2.1888194310013205, 2.167296851053834, 2.1816495761740953]</t>
+          <t>[2.172355890739709, 2.217151897959411, 2.1680391058325768, 2.158328941091895, 2.1574782370589674, 2.2354367868974805, 2.178218191023916, 2.170796270016581, 2.2030275692231953, 2.176645514089614, 2.180882195942104, 2.186122559942305, 2.21990952687338, 2.171188309788704, 2.1809160918928683, 2.213877303060144, 2.1856760871596634, 2.1921365070156753, 2.1738277501426637, 2.2104131150990725, 2.1723353839479387, 2.1802367102354765, 2.218510093167424, 2.170798690058291, 2.2024356280453503, 2.1766425645910203, 2.1931152851320803, 2.197900317143649, 2.1898979172110558, 2.2138306428678334, 2.223698150832206, 2.178097749594599, 2.1983966645784676, 2.1893507540225983, 2.206472353078425, 2.2231910098344088, 2.2040470209904015, 2.167658809106797, 2.1704318993724883, 2.162884410005063, 2.1812087022699416, 2.1670234641060233, 2.1881781606934965, 2.20404180791229, 2.183539255987853, 2.1762626031413674, 2.181884618010372, 2.1845999411307275, 2.194313040934503, 2.2003297666087747]</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.183678363752551</v>
+        <v>2.189074825309217</v>
       </c>
       <c r="G23" t="n">
-        <v>2.181980666937307</v>
+        <v>2.185138014145195</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01816730177358845</v>
+        <v>0.01891111020480854</v>
       </c>
       <c r="I23" t="n">
-        <v>6174897.044624326</v>
+        <v>6152630.13287657</v>
       </c>
       <c r="J23" t="n">
-        <v>6774732</v>
+        <v>6774604</v>
       </c>
       <c r="K23" t="n">
-        <v>1704471.177802298</v>
+        <v>1728434.735408164</v>
       </c>
       <c r="L23" t="n">
         <v>2858</v>
       </c>
       <c r="M23" t="n">
-        <v>11398190</v>
+        <v>11452838</v>
       </c>
       <c r="N23" t="n">
-        <v>11452866</v>
+        <v>11452902</v>
       </c>
       <c r="O23" t="n">
         <v>12</v>
       </c>
-      <c r="P23" t="inlineStr"/>
+      <c r="P23" t="n">
+        <v>7600</v>
+      </c>
       <c r="Q23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.0031148740090429783, 0.005026304163038731, 0.005723597016185522, 0.005643968936055899, 0.006879488006234169, 0.0072519960813224316, 0.007261169143021107, 0.007468729978427291, 0.007441360037773848, 0.007314329035580158, 0.007069392129778862, 0.007197113009169698, 0.007028891937807202, 0.0070871589705348015, 0.007165055023506284, 0.007141469977796078, 0.007039858028292656, 0.007135561900213361, 0.0075347889214754105, 0.007019087905064225, 0.0070878209080547094, 0.007117446046322584, 0.007039026124402881, 0.007020730059593916, 0.007004414917901158, 0.007080698851495981, 0.00699211610481143, 0.007067280123010278, 0.006942311068996787, 0.006953058065846562, 0.006963944993913174, 0.007043984020128846, 0.007025046041235328, 0.006961009930819273, 0.007612626999616623, 0.007340868003666401, 0.006897634826600552, 0.006891557015478611, 0.006971586961299181, 0.007404163014143705, 0.00692282197996974, 0.006883895955979824, 0.006897053914144635, 0.006922933971509337, 0.006876764120534062, 0.006821691058576107, 0.006943634944036603, 0.006830744910985231, 0.006829394027590752, 0.007099438225850463]</t>
+          <t>[0.11292457208037376, 0.10435800906270742, 0.10372024495154619, 0.10301814414560795, 0.10361177194863558, 0.10433521494269371, 0.10440244525671005, 0.10407519619911909, 0.10391909210011363, 0.10291617037728429, 0.10239409003406763, 0.10269713308662176, 0.10355358524248004, 0.1019381070509553, 0.1022561420686543, 0.10226135002449155, 0.10158664081245661, 0.10329208290204406, 0.10229754354804754, 0.1038886159658432, 0.10260551515966654, 0.10211338894441724, 0.10322564421221614, 0.10273957625031471, 0.10186470672488213, 0.10262442519888282, 0.11190720973536372, 0.10240568593144417, 0.10143364081159234, 0.10284439288079739, 0.10560616571456194, 0.10191200720146298, 0.10217099590227008, 0.10216832207515836, 0.10164915304630995, 0.1020613107830286, 0.10192127199843526, 0.10339146293699741, 0.10197230754420161, 0.10213570203632116, 0.10360738495364785, 0.10247038211673498, 0.10220895102247596, 0.10321862390264869, 0.1019586781039834, 0.10284249018877745, 0.10312385065481067, 0.10629867389798164, 0.10218885214999318, 0.10233924584463239]</t>
         </is>
       </c>
       <c r="S23" t="n">
-        <v>0.006899797827936709</v>
+        <v>0.1032491233944893</v>
       </c>
       <c r="T23" t="n">
-        <v>0.007022888050414622</v>
+        <v>0.1026607791427523</v>
       </c>
       <c r="U23" t="n">
-        <v>0.000698366509788366</v>
+        <v>0.002140525052853102</v>
       </c>
       <c r="V23" t="n">
-        <v>2930.32</v>
+        <v>9594.84090909091</v>
       </c>
       <c r="W23" t="n">
-        <v>2858</v>
+        <v>10655</v>
       </c>
       <c r="X23" t="n">
-        <v>124.4923471133705</v>
+        <v>2756.565061372747</v>
       </c>
       <c r="Y23" t="n">
         <v>2858</v>
       </c>
       <c r="Z23" t="n">
-        <v>3306</v>
+        <v>11831</v>
       </c>
       <c r="AA23" t="n">
         <v>64715</v>
@@ -2868,32 +2914,32 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>[0.1449121250770986, 0.10803002398461103, 0.10823122481815517, 0.10944072692655027, 0.10876165796071291, 0.1089058150537312, 0.10908780782483518, 0.11018224596045911, 0.11006055516190827, 0.1089573020581156, 0.10890781809575856, 0.1099375409539789, 0.10910996096208692, 0.10927154193632305, 0.10850430396385491, 0.1091187740676105, 0.10956343007273972, 0.10832010908052325, 0.1087257859762758, 0.1091220888774842, 0.10961632803082466, 0.11196255078539252, 0.11883109295740724, 0.10825727391056716, 0.10874177003279328, 0.1087372531183064, 0.10856436402536929, 0.12415304989553988, 0.10893940390087664, 0.10956849693320692, 0.10850366298109293, 0.10825490206480026, 0.11012016399763525, 0.10966333001852036, 0.10974590410478413, 0.10891829407773912, 0.1086044660769403, 0.1085394979454577, 0.10885803401470184, 0.11452981317415833, 0.10872135893441737, 0.10928597417660058, 0.10895412811078131, 0.10859324596822262, 0.10848949290812016, 0.1092803671490401, 0.10844122804701328, 0.10866013704799116, 0.10928636486642063, 0.1089499699883163]</t>
+          <t>[0.10931799281388521, 0.10960548417642713, 0.10976504301652312, 0.10914735775440931, 0.10945362690836191, 0.1100954175926745, 0.10989021928980947, 0.10915091400966048, 0.1103757182136178, 0.10944978101179004, 0.10971930483356118, 0.11005122121423483, 0.10993638914078474, 0.10917895520105958, 0.10933237615972757, 0.10922311060130596, 0.11007802234962583, 0.10928964102640748, 0.10901825409382582, 0.10947710229083896, 0.1102931029163301, 0.10919435881078243, 0.1096541783772409, 0.10904374299570918, 0.10924805793911219, 0.11022009421139956, 0.10959400795400143, 0.1097383419983089, 0.10940353106707335, 0.11095192097127438, 0.10963932378217578, 0.11015203222632408, 0.10983312455937266, 0.10959086194634438, 0.10967343673110008, 0.10980544285848737, 0.11039924202486873, 0.10937018087133765, 0.10940514411777258, 0.10944088688120246, 0.1165574099868536, 0.11061566509306431, 0.11043324414640665, 0.10999017022550106, 0.11060894606634974, 0.11081440281122923, 0.11237661214545369, 0.10941887507215142, 0.11001698113977909, 0.10934540536254644]</t>
         </is>
       </c>
       <c r="AF23" t="n">
-        <v>0.110378455161117</v>
+        <v>0.1099276931397617</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.1089520490495488</v>
+        <v>0.1096638075541705</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.005665743263651197</v>
+        <v>0.001132017681148635</v>
       </c>
       <c r="AI23" t="n">
-        <v>9463.65012406948</v>
+        <v>9482.825000000001</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10258</v>
+        <v>10322</v>
       </c>
       <c r="AK23" t="n">
-        <v>2547.929648108476</v>
+        <v>2541.491750955615</v>
       </c>
       <c r="AL23" t="n">
         <v>2858</v>
       </c>
       <c r="AM23" t="n">
-        <v>17258</v>
+        <v>11922</v>
       </c>
       <c r="AN23" t="n">
         <v>28898</v>
@@ -2909,26 +2955,26 @@
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>[0.10655148304067552, 0.10619048099033535, 0.10610776580870152, 0.10591851407662034, 0.10582517297007143, 0.10661430517211556, 0.10582281113602221, 0.10541524994187057, 0.10648603201843798, 0.10672463988885283, 0.10618537291884422, 0.10621251398697495, 0.10629735002294183, 0.10622742609120905, 0.10550241987220943, 0.10579935507848859, 0.105451863957569, 0.10583950486034155, 0.10599639010615647, 0.1059289479162544, 0.10770889394916594, 0.10774613986723125, 0.10597668983973563, 0.1063991729170084, 0.10655404394492507, 0.10679266205988824, 0.1062111109495163, 0.10674299788661301, 0.10610553296282887, 0.1057433420792222, 0.1054850840009749, 0.10583616979420185, 0.10573366610333323, 0.10672724293544888, 0.10567364585585892, 0.10603286419063807, 0.10656836698763072, 0.10660020308569074, 0.1057129050604999, 0.10582152800634503, 0.10549807385541499, 0.10573960491456091, 0.10696510900743306, 0.1058530849404633, 0.10655767982825637, 0.10628881910815835, 0.10648608207702637, 0.10636036400683224, 0.10588924982585013, 0.10697430395521224]</t>
+          <t>[0.1070936843752861, 0.1088360222056508, 0.1077814931049943, 0.10698383999988437, 0.10751823894679546, 0.10661956528201699, 0.10668178601190448, 0.1076751439832151, 0.1074832770973444, 0.10867491085082293, 0.10696685314178467, 0.10733534675091505, 0.10670811776071787, 0.10703593911603093, 0.1073531717993319, 0.10778101300820708, 0.10712449019774795, 0.10675988392904401, 0.1066930340602994, 0.10669036023318768, 0.1070706001482904, 0.10695449728518724, 0.1069493480026722, 0.1074605118483305, 0.12050887616351247, 0.10629781289026141, 0.11420508893206716, 0.1072952151298523, 0.10765743907541037, 0.1075178487226367, 0.10759401181712747, 0.10826717084273696, 0.1077049789018929, 0.10854176338762045, 0.10730276769027114, 0.10689251311123371, 0.1077585001476109, 0.10751871997490525, 0.10725408373400569, 0.10664436966180801, 0.10647670039907098, 0.10827999003231525, 0.1078741024248302, 0.10678168572485447, 0.10709166200831532, 0.10682816617190838, 0.10736761474981904, 0.10763691598549485, 0.106500837020576, 0.10800431715324521]</t>
         </is>
       </c>
       <c r="AS23" t="n">
-        <v>0.1061976446770132</v>
+        <v>0.1077206856198609</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.1061465693637729</v>
+        <v>0.1073190572205931</v>
       </c>
       <c r="AU23" t="n">
-        <v>0.0005213165317744933</v>
+        <v>0.002164960814032396</v>
       </c>
       <c r="AV23" t="n">
-        <v>7814.61475409836</v>
+        <v>7938.401002506265</v>
       </c>
       <c r="AW23" t="n">
         <v>8490</v>
       </c>
       <c r="AX23" t="n">
-        <v>2082.949846284803</v>
+        <v>2012.09408768264</v>
       </c>
       <c r="AY23" t="n">
         <v>2858</v>
@@ -2945,7 +2991,9 @@
       <c r="BC23" t="n">
         <v>0.8076923076923077</v>
       </c>
-      <c r="BD23" t="inlineStr"/>
+      <c r="BD23" t="n">
+        <v>0.7307692307692307</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2962,71 +3010,73 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[4.043285941006616, 3.9905121470801532, 4.00126048293896, 3.9993524020537734, 4.018148444127291, 3.9993655721191317, 4.004766332916915, 4.033592046005651, 3.988211872987449, 4.000780902104452, 4.001659862929955, 4.0444428799673915, 4.0091150749940425, 4.008916090941057, 4.0311229701619595, 3.9981745439581573, 4.003147443057969, 4.007565862033516, 4.051790428813547, 3.9975314040202647, 3.9923100229352713, 4.052252888912335, 4.007443248061463, 4.026049657026306, 4.0492260050959885, 4.0184257759246975, 3.9872574659530073, 4.003139276057482, 4.010380541905761, 4.016654257895425, 4.021248131990433, 4.020220979815349, 4.0427612559869885, 4.022348799044266, 4.014646715018898, 4.014667151961476, 4.000063807936385, 3.9991356160026044, 3.997558161150664, 4.011573327006772, 3.9856781288981438, 4.000032030977309, 4.029237526934594, 4.009706848999485, 3.996040407102555, 3.9865120809990913, 4.0377894539851695, 4.007347282022238, 4.004354559117928, 4.03593940497376]</t>
+          <t>[4.033768353052437, 4.046654090285301, 3.9967950112186372, 4.016518935095519, 4.02024318696931, 4.008306227158755, 3.986072259955108, 4.056337522342801, 4.0204610042274, 3.998812895733863, 3.988014919683337, 4.0357838766649365, 4.014514823909849, 4.016922076232731, 4.015030593145639, 4.02633534418419, 3.9906373526901007, 4.018120931927115, 4.044578326866031, 4.018813333939761, 4.004181029740721, 4.032807519193739, 4.005037478171289, 4.008117114659399, 4.008122330997139, 4.0426442748866975, 4.022470664698631, 4.022044506389648, 4.021308491937816, 4.002170311752707, 3.9921673270873725, 3.9935745201073587, 4.012791796121746, 4.014522403944284, 3.97658615373075, 4.016706689726561, 4.013665826059878, 3.992638790048659, 4.006744773127139, 4.024897666182369, 4.018042590003461, 3.999465431086719, 4.017908325884491, 4.0115299182944, 4.02141968999058, 4.014825697056949, 4.047599295154214, 4.017839294858277, 3.9866618420928717, 4.016643692739308]</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.012654870278202</v>
+        <v>4.014357130220159</v>
       </c>
       <c r="G24" t="n">
-        <v>4.008240976487286</v>
+        <v>4.015774764120579</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01817908769923272</v>
+        <v>0.01713407130806856</v>
       </c>
       <c r="I24" t="n">
-        <v>6518142.781554437</v>
+        <v>6513381.339844795</v>
       </c>
       <c r="J24" t="n">
-        <v>6909028</v>
+        <v>6908972</v>
       </c>
       <c r="K24" t="n">
-        <v>1281748.808390145</v>
+        <v>1287700.386864706</v>
       </c>
       <c r="L24" t="n">
         <v>2858</v>
       </c>
       <c r="M24" t="n">
-        <v>10687358</v>
+        <v>11398222</v>
       </c>
       <c r="N24" t="n">
-        <v>11452866</v>
+        <v>11452738</v>
       </c>
       <c r="O24" t="n">
         <v>13</v>
       </c>
-      <c r="P24" t="inlineStr"/>
+      <c r="P24" t="n">
+        <v>7775</v>
+      </c>
       <c r="Q24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[0.0030972149688750505, 0.0034114369191229343, 0.005305982194840908, 0.005863347090780735, 0.0055541240144521, 0.005707764066755772, 0.00556223513558507, 0.0058548329398036, 0.006996574113145471, 0.007184355054050684, 0.007221248932182789, 0.007071055006235838, 0.007355761015787721, 0.0071894098073244095, 0.007060529198497534, 0.0071585949044674635, 0.007186467992141843, 0.007170683005824685, 0.007590631954371929, 0.007068520877510309, 0.0071422799956053495, 0.006990422960370779, 0.007204212946817279, 0.007042971905320883, 0.007124322932213545, 0.007122542010620236, 0.007077835034579039, 0.007107659941539168, 0.007037854986265302, 0.006964256055653095, 0.006945237051695585, 0.006968691013753414, 0.006870894925668836, 0.008545832941308618, 0.011049801018089056, 0.007286726962774992, 0.006916322046890855, 0.006917024031281471, 0.006986977998167276, 0.007223471999168396, 0.006920840125530958, 0.006815172033384442, 0.0070000390987843275, 0.006872457917779684, 0.006930363131687045, 0.006893968908116221, 0.006805256009101868, 0.0068730879575014114, 0.006770194973796606, 0.0067327378783375025]</t>
+          <t>[0.5770608871243894, 0.5758413709700108, 0.5767599348910153, 0.5772364190779626, 0.5771763399243355, 0.5816146219149232, 0.5767760700546205, 0.576914107427001, 0.5805485867895186, 0.5814340426586568, 0.5767828598618507, 0.5772435301914811, 0.581520542036742, 0.5782580790109932, 0.5770889790728688, 0.5762130268849432, 0.5759854060597718, 0.5769387423060834, 0.5768902599811554, 0.5753506650216877, 0.5742221460677683, 0.5761093809269369, 0.5766505519859493, 0.574539951980114, 0.5752809126861393, 0.5738105610944331, 0.5752359349280596, 0.5753253768198192, 0.5747984792105854, 0.5749365747906268, 0.576608378905803, 0.5752245872281492, 0.5747505868785083, 0.5762549294158816, 0.5777763570658863, 0.5747319580987096, 0.5755140613764524, 0.5760576529428363, 0.5769410748034716, 0.5769132040441036, 0.5734516140073538, 0.5734183234162629, 0.5749114071950316, 0.5784351620823145, 0.5762055050581694, 0.5752722178585827, 0.5770643698051572, 0.5811058999970555, 0.5757391559891403, 0.5769710009917617]</t>
         </is>
       </c>
       <c r="S24" t="n">
-        <v>0.006835004519671201</v>
+        <v>0.5765578357782215</v>
       </c>
       <c r="T24" t="n">
-        <v>0.006993498536758125</v>
+        <v>0.5764316541608423</v>
       </c>
       <c r="U24" t="n">
-        <v>0.001088613072819582</v>
+        <v>0.001950171616724487</v>
       </c>
       <c r="V24" t="n">
-        <v>2930.32</v>
+        <v>11170.14382490881</v>
       </c>
       <c r="W24" t="n">
-        <v>2858</v>
+        <v>11343</v>
       </c>
       <c r="X24" t="n">
-        <v>124.4923471133705</v>
+        <v>1493.038785695606</v>
       </c>
       <c r="Y24" t="n">
         <v>2858</v>
       </c>
       <c r="Z24" t="n">
-        <v>3306</v>
+        <v>15655</v>
       </c>
       <c r="AA24" t="n">
         <v>64715</v>
@@ -3040,35 +3090,35 @@
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>[0.14224239089526236, 0.110062271123752, 0.10973568097688258, 0.11009118403308094, 0.109287581872195, 0.11073050182312727, 0.11103109107352793, 0.1090722291264683, 0.10956482705660164, 0.10958869196474552, 0.10973774385638535, 0.11022418295033276, 0.12259700405411422, 0.12207334907725453, 0.10890887398272753, 0.10870197298936546, 0.10847286111675203, 0.10843656701035798, 0.10836583119817078, 0.11187964212149382, 0.11106080492027104, 0.11068676481954753, 0.11107041989453137, 0.10987634095363319, 0.10911142593249679, 0.10918330401182175, 0.10886935610324144, 0.10852456814609468, 0.11085242195986211, 0.10972316400147974, 0.10867788712494075, 0.10864968597888947, 0.10909993015229702, 0.10931828594766557, 0.10955811501480639, 0.10934603004716337, 0.1098549289163202, 0.10990253207273781, 0.10878835385665298, 0.10890238406136632, 0.10986294108442962, 0.10964533593505621, 0.10922959307208657, 0.10904156300239265, 0.10941596305929124, 0.10908349486999214, 0.10924642882309854, 0.1089953740593046, 0.10862537007778883, 0.10884866490960121]</t>
+          <t>[0.12264495994895697, 0.11033221893012524, 0.10915845120325685, 0.10978707298636436, 0.10915188398212194, 0.109297851100564, 0.11003263993188739, 0.11076880199834704, 0.1096524610184133, 0.10998899443075061, 0.10935005778446794, 0.10946748405694962, 0.10931767011061311, 0.10942922625690699, 0.11022453801706433, 0.11001096665859222, 0.11020537884905934, 0.1111759408377111, 0.10971409315243363, 0.10937002720311284, 0.10922890668734908, 0.1102511677891016, 0.1097408733330667, 0.11039546504616737, 0.11819714214652777, 0.10957891121506691, 0.10967638622969389, 0.10967737901955843, 0.10931558581069112, 0.10936879692599177, 0.10959204891696572, 0.10988916596397758, 0.11050072079524398, 0.10960605088621378, 0.1098116091452539, 0.10909107187762856, 0.10936686396598816, 0.10912212589755654, 0.10960117494687438, 0.1096666338853538, 0.1095656231045723, 0.10956477001309395, 0.10990673210471869, 0.11048816191032529, 0.10953419329598546, 0.11020752228796482, 0.11055808700621128, 0.1095883040688932, 0.1105592381209135, 0.11003338219597936]</t>
         </is>
       </c>
       <c r="AF24" t="n">
-        <v>0.1106771182222292</v>
+        <v>0.1102152962610125</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.1093809965532273</v>
+        <v>0.1096768826246262</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.00527364165253011</v>
+        <v>0.002202565413308384</v>
       </c>
       <c r="AI24" t="n">
-        <v>10922.43316831683</v>
+        <v>10899.69326683292</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11882</v>
+        <v>11922</v>
       </c>
       <c r="AK24" t="n">
-        <v>3073.114499580575</v>
+        <v>3062.131658367999</v>
       </c>
       <c r="AL24" t="n">
         <v>2858</v>
       </c>
       <c r="AM24" t="n">
-        <v>17250</v>
+        <v>13562</v>
       </c>
       <c r="AN24" t="n">
-        <v>30914</v>
+        <v>30498</v>
       </c>
       <c r="AO24" t="n">
         <v>13</v>
@@ -3079,39 +3129,41 @@
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>[0.10650588618591428, 0.10714366193860769, 0.10623411904089153, 0.10653826501220465, 0.10690504382364452, 0.12744476785883307, 0.1056759930215776, 0.10612774104811251, 0.10714730806648731, 0.10631983890198171, 0.10566075099632144, 0.10600404511205852, 0.1062047160230577, 0.10715019097551703, 0.1064069988206029, 0.10664480505511165, 0.10615099593997002, 0.10641180607490242, 0.1070670960471034, 0.12462274613790214, 0.10616717883385718, 0.10629397910088301, 0.10562349599786103, 0.1069349788594991, 0.10704233008436859, 0.10604029893875122, 0.10623369901441038, 0.10680154897272587, 0.10659287497401237, 0.10641409899108112, 0.10609400109387934, 0.10620896192267537, 0.10620223195292056, 0.10672294092364609, 0.10677633015438914, 0.10652654897421598, 0.10629805619828403, 0.10575891914777458, 0.1061080910731107, 0.10589200700633228, 0.10659993789158762, 0.10704705794341862, 0.10658467491157353, 0.10648316307924688, 0.10656085796654224, 0.10630750004202127, 0.10550256608985364, 0.10587341990321875, 0.10634307307191193, 0.10652270098216832]</t>
+          <t>[0.10719552310183644, 0.10741813760250807, 0.1070516868494451, 0.10770745016634464, 0.10694159520789981, 0.10907451482489705, 0.1073122899979353, 0.10703114699572325, 0.10712020006030798, 0.10730799101293087, 0.10758418589830399, 0.1072359629906714, 0.1081276279874146, 0.10821230709552765, 0.10730436723679304, 0.10741782654076815, 0.10746930399909616, 0.10735269682481885, 0.10766607616096735, 0.10781768336892128, 0.11332154413685203, 0.10742337396368384, 0.10703985998407006, 0.1075320360250771, 0.10708096204325557, 0.10796002764254808, 0.10719712544232607, 0.10739749483764172, 0.10747709684073925, 0.10732738999649882, 0.10777256777510047, 0.10723480070009828, 0.10767582198604941, 0.10697824927046895, 0.10696072224527597, 0.10747604165226221, 0.1075265989638865, 0.1079918653704226, 0.10682830214500427, 0.10745568200945854, 0.10717015387490392, 0.10913475463166833, 0.1078871083445847, 0.12142149731516838, 0.1070850477553904, 0.10679912893101573, 0.10762227326631546, 0.10871865274384618, 0.1072700941003859, 0.10718694981187582]</t>
         </is>
       </c>
       <c r="AS24" t="n">
-        <v>0.1071784860035405</v>
+        <v>0.1078860359545797</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.1064094024477527</v>
+        <v>0.1074179820716381</v>
       </c>
       <c r="AU24" t="n">
-        <v>0.003920388799884741</v>
+        <v>0.002177860788489574</v>
       </c>
       <c r="AV24" t="n">
-        <v>9134.63829787234</v>
+        <v>9274.995000000001</v>
       </c>
       <c r="AW24" t="n">
-        <v>10010</v>
+        <v>10034</v>
       </c>
       <c r="AX24" t="n">
-        <v>2516.273548885871</v>
+        <v>2460.035083388804</v>
       </c>
       <c r="AY24" t="n">
         <v>2858</v>
       </c>
       <c r="AZ24" t="n">
-        <v>12226</v>
+        <v>11706</v>
       </c>
       <c r="BA24" t="n">
         <v>18442</v>
       </c>
       <c r="BB24" t="inlineStr"/>
       <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="inlineStr"/>
+      <c r="BD24" t="n">
+        <v>0.7853535353535354</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -3128,32 +3180,32 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[3.0364607700612396, 3.0464528938755393, 3.0763073230627924, 3.108838975895196, 3.0642499099485576, 3.0632898120675236, 3.1045600359793752, 3.0645262200850993, 3.0718136948999017, 3.0763734788633883, 3.1078530279919505, 3.0672353371046484, 3.073230457957834, 3.1054185091052204, 3.0728416920173913, 3.0863533169031143, 3.066193899139762, 3.1058057509362698, 3.1182092770468444, 3.071242331992835, 3.092333781067282, 3.103169748093933, 3.072344967862591, 3.0699840399902314, 3.0847298400476575, 3.086821201024577, 3.070645966101438, 3.086139746941626, 3.056767988950014, 3.079750721110031, 3.0708435960114002, 3.094477160833776, 3.0652319439686835, 3.0680634300224483, 3.0893363018985838, 3.0611234279349446, 3.0616578981280327, 3.0565329149831086, 3.14250509114936, 3.0534929311834276, 3.0718749940861017, 3.119913139147684, 3.0837120299693197, 3.061046010116115, 3.0627335358876735, 3.0947012149263173, 3.0690972378943115, 3.067198864882812, 3.081270948983729, 3.0712301048915833]</t>
+          <t>[3.072125256061554, 3.080853123217821, 3.085877661127597, 3.1020438107661903, 3.068213799968362, 3.0622346359305084, 3.1143645993433893, 3.056773199699819, 3.1120641650632024, 3.060255060903728, 3.103150471113622, 3.0934481360018253, 3.0736871445551515, 3.094239409081638, 3.0974085619673133, 3.064713919069618, 3.070500371977687, 3.105867432896048, 3.0617681788280606, 3.0949341347441077, 3.08781593805179, 3.0824966048821807, 3.046430765185505, 3.0945689138025045, 3.078491067048162, 3.0690672378987074, 3.070900422986597, 3.098335789050907, 3.0707643958739936, 3.102563506923616, 3.0694544040597975, 3.080778333824128, 3.0666253780946136, 3.0632084626704454, 3.10568852070719, 3.075242926366627, 3.0940815857611597, 3.090139754116535, 3.098880607634783, 3.0894439998082817, 3.066604843363166, 3.1277717230841517, 3.0921721919439733, 3.0636728820391, 3.094826214015484, 3.1024593710899353, 3.1166505310684443, 3.0684483381919563, 3.1306171980686486, 3.0810590316541493]</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.078719749860466</v>
+        <v>3.085075680231676</v>
       </c>
       <c r="G25" t="n">
-        <v>3.072109980974346</v>
+        <v>3.084187133004889</v>
       </c>
       <c r="H25" t="n">
-        <v>0.02042084106924185</v>
+        <v>0.01910391960229318</v>
       </c>
       <c r="I25" t="n">
-        <v>6396435.725067577</v>
+        <v>6392607.958667709</v>
       </c>
       <c r="J25" t="n">
-        <v>6780084</v>
+        <v>6779940</v>
       </c>
       <c r="K25" t="n">
-        <v>1455183.249060553</v>
+        <v>1460153.779832848</v>
       </c>
       <c r="L25" t="n">
         <v>2858</v>
       </c>
       <c r="M25" t="n">
-        <v>10687486</v>
+        <v>11446630</v>
       </c>
       <c r="N25" t="n">
         <v>11452866</v>
@@ -3167,32 +3219,32 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[0.003135404083877802, 0.004987374879419804, 0.0058688351418823, 0.005638520000502467, 0.006676313932985067, 0.007081619929522276, 0.007127368124201894, 0.007027328945696354, 0.007142029935494065, 0.007071414962410927, 0.007168870884925127, 0.007058435818180442, 0.007092286832630634, 0.007131634978577495, 0.007082080934196711, 0.0070958212018013, 0.007070143008604646, 0.007196530932560563, 0.007470472017303109, 0.007053978042677045, 0.007158876163884997, 0.007115592015907168, 0.007088590878993273, 0.007047317922115326, 0.006970923859626055, 0.006950153037905693, 0.007107979850843549, 0.00696334196254611, 0.006963643943890929, 0.007016751915216446, 0.006992146838456392, 0.007081348216161132, 0.0069218899589031935, 0.006794680841267109, 0.006834441097453237, 0.006959347054362297, 0.00694031803868711, 0.006824857089668512, 0.007019517011940479, 0.007235189899802208, 0.006863323971629143, 0.006866466952487826, 0.007057153852656484, 0.006915702018886805, 0.00698278215713799, 0.006970013026148081, 0.007056363159790635, 0.0068321567960083485, 0.006872205995023251, 0.006807469064369798]</t>
+          <t>[10.001298682764173, 10.001396322157234, 10.001189401838928, 10.000921264756471, 10.001404604874551, 10.00096975080669, 10.001036742236465, 10.001096510794014, 10.000958380289376, 10.001058338675648, 10.00104610901326, 10.00127189885825, 10.000937449280173, 10.000961954705417, 10.001183238811791, 10.000841999892145, 10.000928928144276, 10.001439966261387, 10.001142492052168, 10.000930052250624, 10.000749027822167, 10.001311553176492, 10.001115209888667, 10.001108147203922, 10.00103892898187, 10.001416585873812, 10.001100721769035, 10.000936413183808, 10.001050749793649, 10.001081869006157, 10.001582848839462, 10.001297207083553, 10.001169812865555, 10.000824599992484, 10.001071088947356, 10.000792741309851, 10.000866087153554, 10.001377447973937, 10.001288416795433, 10.001013085246086, 10.001116828992963, 10.001056144945323, 10.000947367865592, 10.000823003705591, 10.001050075981766, 10.000861232634634, 10.001020558178425, 10.001419932115823, 10.001111284829676, 10.000790305901319]</t>
         </is>
       </c>
       <c r="S25" t="n">
-        <v>0.006847740183584392</v>
+        <v>10.00108806733042</v>
       </c>
       <c r="T25" t="n">
-        <v>0.007018134463578463</v>
+        <v>10.00105724181049</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0006674399727573663</v>
+        <v>0.0001976132572248534</v>
       </c>
       <c r="V25" t="n">
-        <v>2930.32</v>
+        <v>23872.5629905749</v>
       </c>
       <c r="W25" t="n">
-        <v>2858</v>
+        <v>23871</v>
       </c>
       <c r="X25" t="n">
-        <v>124.4923471133705</v>
+        <v>7776.879786768882</v>
       </c>
       <c r="Y25" t="n">
         <v>2858</v>
       </c>
       <c r="Z25" t="n">
-        <v>3306</v>
+        <v>41823</v>
       </c>
       <c r="AA25" t="n">
         <v>64715</v>
@@ -3206,26 +3258,26 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>[0.13725858484394848, 0.10877802479080856, 0.10824644891545177, 0.10907529108226299, 0.10797562380321324, 0.10897737205959857, 0.1084351718891412, 0.10842792992480099, 0.10837720497511327, 0.10839412803761661, 0.10899683297611773, 0.12327724788337946, 0.10841664485633373, 0.10872237104922533, 0.10822833189740777, 0.10910712601616979, 0.10935045196674764, 0.10870772087946534, 0.10976706515066326, 0.11043143994174898, 0.10879708384163678, 0.11038191593252122, 0.1187377730384469, 0.10933191305957735, 0.11018517194315791, 0.11601897282525897, 0.10941258608363569, 0.10890165995806456, 0.10866661719046533, 0.1085454470012337, 0.10846147988922894, 0.10987732000648975, 0.10968395113013685, 0.10924389213323593, 0.1085068080574274, 0.10847246693447232, 0.10910769808106124, 0.10835679387673736, 0.10867565195076168, 0.10878305090591311, 0.10914498404599726, 0.10986934881657362, 0.11027346388436854, 0.10880609811283648, 0.10867206496186554, 0.10927156312391162, 0.1085793289821595, 0.10917544993571937, 0.10915886401198804, 0.10850239102728665]</t>
+          <t>[0.10982975410297513, 0.10950727201998234, 0.10951101779937744, 0.10951576381921768, 0.10983250802382827, 0.10989302909001708, 0.1093541830778122, 0.110100660007447, 0.11016039969399571, 0.10946277482435107, 0.11034430423751473, 0.11042621685191989, 0.11968051502481103, 0.10893908189609647, 0.10894872667267919, 0.10876720398664474, 0.10949798719957471, 0.10869319317862391, 0.10988263227045536, 0.10941053600981832, 0.10946011217311025, 0.11380373127758503, 0.10948291467502713, 0.10978731093928218, 0.11003642436116934, 0.10969271138310432, 0.10919279092922807, 0.11005590297281742, 0.10983282001689076, 0.10951346112415195, 0.10995568288490176, 0.1104437941685319, 0.10950924502685666, 0.11013761488720775, 0.10952806519344449, 0.10960911400616169, 0.10956787271425128, 0.10949148936197162, 0.1095539815723896, 0.11025322787463665, 0.11182076437398791, 0.12207133090123534, 0.10923973144963384, 0.10930716386064887, 0.10971298208460212, 0.10952917532995343, 0.10979203693568707, 0.10954190418124199, 0.10990379517897964, 0.10973728727549314]</t>
         </is>
       </c>
       <c r="AF25" t="n">
-        <v>0.1101710564736277</v>
+        <v>0.1102264439780265</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.1089395160088316</v>
+        <v>0.109650912694633</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.004726391884743102</v>
+        <v>0.002336063757548456</v>
       </c>
       <c r="AI25" t="n">
-        <v>10855.75124378109</v>
+        <v>10910.72319201995</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11858</v>
+        <v>11922</v>
       </c>
       <c r="AK25" t="n">
-        <v>3041.855405347752</v>
+        <v>3064.463577966915</v>
       </c>
       <c r="AL25" t="n">
         <v>2858</v>
@@ -3245,32 +3297,32 @@
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>[0.10783047694712877, 0.10629815282300115, 0.10593265597708523, 0.10799622489139438, 0.10685375495813787, 0.10613050195388496, 0.10569214611314237, 0.1062125249300152, 0.10591521998867393, 0.10682155494578183, 0.10715820104815066, 0.1076572670135647, 0.10775268101133406, 0.1083286211360246, 0.10699007892981172, 0.10643955506384373, 0.10691797896288335, 0.10654449206776917, 0.10681880195625126, 0.12620958709158003, 0.10712530091404915, 0.10614542406983674, 0.10578172886744142, 0.1064618481323123, 0.10753351310268044, 0.10593525902368128, 0.10639904416166246, 0.10590161802247167, 0.10566335287876427, 0.10597916599363089, 0.10547924600541592, 0.10614125803112984, 0.10632189898751676, 0.1060022790916264, 0.10589263588190079, 0.106299385195598, 0.10572728794068098, 0.10555181605741382, 0.1057244730181992, 0.10583591181784868, 0.1054736990481615, 0.10570453386753798, 0.10530285211279988, 0.10600828914903104, 0.10631382698193192, 0.10555037180893123, 0.10571190505288541, 0.10636306903325021, 0.10663623013533652, 0.1073610819876194]</t>
+          <t>[0.10751518188044429, 0.12081064702942967, 0.10709769697859883, 0.10736491484567523, 0.10676041105762124, 0.10846741683781147, 0.10738975508138537, 0.10706357611343265, 0.1070901770144701, 0.10689343232661486, 0.10835072211921215, 0.1069759032689035, 0.10683313105255365, 0.10716715129092336, 0.1114609562791884, 0.10724342474713922, 0.10719110630452633, 0.10774070769548416, 0.10845748241990805, 0.10712624108418822, 0.10941263195127249, 0.10684297699481249, 0.10718806274235249, 0.10712195374071598, 0.1067120898514986, 0.10734856175258756, 0.11060189874842763, 0.1077992869541049, 0.10731231886893511, 0.10678345803171396, 0.10817599995061755, 0.1072315382771194, 0.10711346007883549, 0.10672327736392617, 0.10647219093516469, 0.10685159778222442, 0.10712201427668333, 0.10864018369466066, 0.10731541411951184, 0.10745210712775588, 0.10778741026297212, 0.10672194510698318, 0.10715742688626051, 0.10701198922470212, 0.10733970999717712, 0.10703597497195005, 0.10713631613180041, 0.1075861887075007, 0.10754208220168948, 0.1075840461999178]</t>
         </is>
       </c>
       <c r="AS25" t="n">
-        <v>0.1067765756836161</v>
+        <v>0.1077624829672277</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.1062553388765082</v>
+        <v>0.1072113222908229</v>
       </c>
       <c r="AU25" t="n">
-        <v>0.002897995164339089</v>
+        <v>0.002097391836479585</v>
       </c>
       <c r="AV25" t="n">
-        <v>8826.603773584906</v>
+        <v>8996.387500000001</v>
       </c>
       <c r="AW25" t="n">
-        <v>9882</v>
+        <v>9958</v>
       </c>
       <c r="AX25" t="n">
-        <v>2473.333389596686</v>
+        <v>2426.372060460475</v>
       </c>
       <c r="AY25" t="n">
         <v>2858</v>
       </c>
       <c r="AZ25" t="n">
-        <v>11546</v>
+        <v>11706</v>
       </c>
       <c r="BA25" t="n">
         <v>18442</v>
@@ -3294,35 +3346,35 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[10.730998419923708, 10.753471401985735, 10.742565311025828, 10.7342959579546, 10.733725287020206, 10.762274326989427, 10.713162729982287, 10.824034422868863, 10.744589603040367, 10.762563661905006, 10.749095778912306, 10.715595471905544, 10.753992062993348, 10.736228470923379, 10.717136582126841, 10.73277121107094, 10.764548475155607, 10.730795371113345, 10.750401998171583, 10.766954130027443, 10.843416851013899, 10.747258219867945, 10.730430006980896, 10.74814806994982, 10.762289184844121, 10.754327076952904, 10.8037912780419, 10.745851603103802, 10.766055014915764, 10.759539179969579, 10.770991696976125, 10.757896275958046, 10.74344948399812, 10.77839455101639, 10.771722936071455, 10.776493669021875, 10.779411358060315, 10.80687918397598, 10.771222485927865, 10.762301025912166, 10.768291373969987, 10.75686072697863, 10.783611911116168, 10.73342497413978, 10.759344464167953, 10.760323113994673, 10.74070780701004, 10.779863769188523, 10.742352635134012, 10.73334228200838]</t>
+          <t>[10.75442617200315, 10.73333806777373, 10.768446379341185, 10.77072726842016, 10.745346704963595, 10.748367527034134, 10.779164528939873, 10.734638594090939, 10.738030347973108, 10.772234453819692, 10.747256761882454, 10.738389716017991, 10.747659388929605, 10.736195804085582, 10.757151119876653, 10.726446781307459, 10.821622566785663, 10.729252549353987, 10.746751585043967, 10.815332943573594, 10.768700813874602, 10.771045833360404, 10.758697101846337, 10.768311393912882, 10.746928973123431, 10.76566471485421, 10.788025789894164, 10.772896751295775, 10.736813025083393, 10.774844646919519, 10.750453726854175, 10.751444878056645, 10.73770750593394, 10.73321476764977, 10.74528536805883, 10.748748993966728, 10.750902079045773, 10.765789350029081, 10.745051367208362, 10.73264048434794, 10.745337494648993, 10.746276969090104, 10.737480422947556, 10.7288982369937, 10.792734906077385, 10.767646956257522, 10.76090443879366, 10.758459785953164, 10.733084784820676, 10.734377582091838]</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>10.75714385770727</v>
+        <v>10.75458296808414</v>
       </c>
       <c r="G26" t="n">
-        <v>10.75559390196577</v>
+        <v>10.74855826050043</v>
       </c>
       <c r="H26" t="n">
-        <v>0.02566302784192835</v>
+        <v>0.02084907781587231</v>
       </c>
       <c r="I26" t="n">
-        <v>6766615.691124805</v>
+        <v>6762656.701830897</v>
       </c>
       <c r="J26" t="n">
-        <v>6917092</v>
+        <v>6916996</v>
       </c>
       <c r="K26" t="n">
-        <v>794188.4255029096</v>
+        <v>805540.1095594803</v>
       </c>
       <c r="L26" t="n">
         <v>2858</v>
       </c>
       <c r="M26" t="n">
-        <v>11452390</v>
+        <v>11452614</v>
       </c>
       <c r="N26" t="n">
-        <v>11452610</v>
+        <v>11452738</v>
       </c>
       <c r="O26" t="n">
         <v>15</v>
@@ -3333,32 +3385,32 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[0.003193180076777935, 0.0028798009734600782, 0.004736680071800947, 0.005794743075966835, 0.006257227156311274, 0.005622355034574866, 0.007186998147517443, 0.0070341587997972965, 0.007064894074574113, 0.007169853197410703, 0.007221878971904516, 0.007080105831846595, 0.007184362970292568, 0.007074188906699419, 0.00705716316588223, 0.0070764420088380575, 0.007117814151570201, 0.007230703951790929, 0.007968256948515773, 0.007297224132344127, 0.007015871116891503, 0.006967688910663128, 0.007155079860240221, 0.007062430959194899, 0.007038165116682649, 0.00703454902395606, 0.007128470111638308, 0.007021649973466992, 0.0070280288346111774, 0.006915690843015909, 0.006977404002100229, 0.006964003201574087, 0.00691630388610065, 0.006915019825100899, 0.006928079994395375, 0.006961599923670292, 0.006871346151456237, 0.006838727043941617, 0.006881300127133727, 0.007242691004648805, 0.006898175925016403, 0.006865907926112413, 0.007237523095682263, 0.007566586136817932, 0.00746637606061995, 0.0068960729986429214, 0.006890563061460853, 0.006822220981121063, 0.006943552987650037, 0.006905866088345647]</t>
+          <t>[10.00140283908695, 10.001052441075444, 10.0008574873209, 10.000994116999209, 10.001044789329171, 10.001228397712111, 10.001291877124459, 10.001185211818665, 10.001297612674534, 10.001533119939268, 10.000866143964231, 10.000898074824363, 10.00101990904659, 10.001311054918915, 10.000806280877441, 10.00091185932979, 10.001348212826997, 10.00163585273549, 10.001099469140172, 10.001116483937949, 10.00078933313489, 10.001937631051987, 10.001017911825329, 10.00154337612912, 10.000834923237562, 10.001039855647832, 10.001445190049708, 10.001394560560584, 10.000967528205365, 10.00102998688817, 10.001005386002362, 10.000801123678684, 10.001418703235686, 10.00136402528733, 10.00081782322377, 10.000865709036589, 10.000942806713283, 10.001222259830683, 10.001184205990285, 10.001321042887866, 10.001229146961123, 10.000764165073633, 10.00083677470684, 10.001031688880175, 10.00105900131166, 10.0008849427104, 10.001162650994956, 10.001236732117832, 10.00116441398859, 10.001144735142589]</t>
         </is>
       </c>
       <c r="S26" t="n">
-        <v>0.006792099536396563</v>
+        <v>10.00112717738375</v>
       </c>
       <c r="T26" t="n">
-        <v>0.007018760545179248</v>
+        <v>10.00107923522592</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0009089441666929551</v>
+        <v>0.0002522531419836297</v>
       </c>
       <c r="V26" t="n">
-        <v>2930.32</v>
+        <v>23873.03449530161</v>
       </c>
       <c r="W26" t="n">
-        <v>2858</v>
+        <v>23895</v>
       </c>
       <c r="X26" t="n">
-        <v>124.4923471133705</v>
+        <v>7773.048048220762</v>
       </c>
       <c r="Y26" t="n">
         <v>2858</v>
       </c>
       <c r="Z26" t="n">
-        <v>3306</v>
+        <v>40487</v>
       </c>
       <c r="AA26" t="n">
         <v>64715</v>
@@ -3372,26 +3424,26 @@
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>[0.1526654299814254, 0.10967871802859008, 0.10969294002279639, 0.10915810707956553, 0.10930968611501157, 0.10976584698073566, 0.10890032188035548, 0.10898035205900669, 0.1092188679613173, 0.10888635204173625, 0.10914861410856247, 0.10935824806801975, 0.10836659395135939, 0.10879748803563416, 0.12667605909518898, 0.1095236660912633, 0.1084352561738342, 0.1083247500937432, 0.10860552196390927, 0.10829072003252804, 0.10921966098248959, 0.1085537530016154, 0.10945927910506725, 0.10930037102662027, 0.10933157801628113, 0.1095054978504777, 0.1088884761556983, 0.10959466290660203, 0.10887565696612, 0.10916314600035548, 0.10973930894397199, 0.11003750516101718, 0.10888473805971444, 0.10938555793836713, 0.10842049494385719, 0.10936953406780958, 0.10949357110075653, 0.10911146900616586, 0.10893822903744876, 0.109444908099249, 0.1091864900663495, 0.10993111599236727, 0.10897899093106389, 0.1086670730728656, 0.10957159614190459, 0.10994839109480381, 0.10920312604866922, 0.12178903515450656, 0.10876398696564138, 0.10846351785585284]</t>
+          <t>[0.11001755483448505, 0.11026748036965728, 0.11075646104291081, 0.11188631178811193, 0.11052073817700148, 0.10994264204055071, 0.11034750891849399, 0.10972146177664399, 0.10944340704008937, 0.11023294785991311, 0.12450883165001869, 0.1097097541205585, 0.11016800021752715, 0.11056135920807719, 0.10955685609951615, 0.10961027489975095, 0.10964272497221828, 0.10960930399596691, 0.11036178981885314, 0.11120832711458206, 0.11042617494240403, 0.11153390537947416, 0.11031656200066209, 0.11012507602572441, 0.10980694880709052, 0.11054976237937808, 0.10957865882664919, 0.11008859192952514, 0.11176644219085574, 0.11425277311354876, 0.11013915669173002, 0.10957206692546606, 0.10991345904767513, 0.1104603880085051, 0.11054070806130767, 0.10970339411869645, 0.10999295813962817, 0.10966593911871314, 0.10995364934206009, 0.109313630964607, 0.10974583867937326, 0.11068720696493983, 0.10994862206280231, 0.11011607199907303, 0.11013718415051699, 0.16818348597735167, 0.16588444681838155, 0.21002609096467495, 0.228377026040107, 0.23545035999268293]</t>
         </is>
       </c>
       <c r="AF26" t="n">
-        <v>0.1106200852291658</v>
+        <v>0.1196866063121706</v>
       </c>
       <c r="AG26" t="n">
-        <v>0.1092109970049933</v>
+        <v>0.1101535784546286</v>
       </c>
       <c r="AH26" t="n">
-        <v>0.006794534947982166</v>
+        <v>0.02921333820630064</v>
       </c>
       <c r="AI26" t="n">
-        <v>9515.520987654321</v>
+        <v>9545.626168224298</v>
       </c>
       <c r="AJ26" t="n">
-        <v>10266</v>
+        <v>10322</v>
       </c>
       <c r="AK26" t="n">
-        <v>2529.723011033714</v>
+        <v>2474.68182715209</v>
       </c>
       <c r="AL26" t="n">
         <v>2858</v>
@@ -3411,32 +3463,32 @@
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>[0.10590559104457498, 0.1060968260280788, 0.10591706610284746, 0.10653081513009965, 0.1061684840824455, 0.106135314097628, 0.10646156314760447, 0.1064817919395864, 0.10556061216630042, 0.10605875798501074, 0.10616523819044232, 0.10728723811917007, 0.10631209914572537, 0.10612451797351241, 0.10666045104153454, 0.10744802816770971, 0.10649147699587047, 0.1066698650829494, 0.10602153302170336, 0.10629858891479671, 0.107024434953928, 0.10898224590346217, 0.1165556909982115, 0.1071637540590018, 0.10831699008122087, 0.10812944802455604, 0.1072901920415461, 0.10601499397307634, 0.10595944104716182, 0.10558105492964387, 0.1061179970856756, 0.10660944413393736, 0.10708362283185124, 0.10702638910152018, 0.10643796809017658, 0.10674868104979396, 0.10715145501308143, 0.10672986297868192, 0.10649842699058354, 0.10698672011494637, 0.10653131501749158, 0.10599807905964553, 0.10603860905393958, 0.11013097292743623, 0.10649813595227897, 0.10614496795460582, 0.1071335079614073, 0.10713888588361442, 0.10657010483555496, 0.10577157093212008]</t>
+          <t>[0.20122766308486462, 0.19414303079247475, 0.18941311072558165, 0.17616218887269497, 0.18246235698461533, 0.1815280788578093, 0.18242666497826576, 0.18623024690896273, 0.185868336353451, 0.19069768395274878, 0.19139614701271057, 0.19106648489832878, 0.1916929236613214, 0.19198585068807006, 0.19062838004902005, 0.1906329868361354, 0.19738240772858262, 0.19199641607701778, 0.1818049638532102, 0.17736929515376687, 0.17319938587024808, 0.17065159184858203, 0.17257404886186123, 0.17434155382215977, 0.16799096995964646, 0.16085589211434126, 0.1628200807608664, 0.17391251074150205, 0.16919177677482367, 0.16201520711183548, 0.17464621039107442, 0.17658499209210277, 0.1729076779447496, 0.17572756903246045, 0.17710186541080475, 0.1729893907904625, 0.17673185095191002, 0.1810381170362234, 0.16946254204958677, 0.16162731498479843, 0.17614906979724765, 0.17816555686295033, 0.17587163485586643, 0.17378956824541092, 0.17057543620467186, 0.1651559378951788, 0.1182543421164155, 0.1066995388828218, 0.10728064924478531, 0.10700986394658685]</t>
         </is>
       </c>
       <c r="AS26" t="n">
-        <v>0.1068632164271548</v>
+        <v>0.1734287472814321</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.1064982814714313</v>
+        <v>0.1761556293349713</v>
       </c>
       <c r="AU26" t="n">
-        <v>0.00163092801183436</v>
+        <v>0.02134592348056932</v>
       </c>
       <c r="AV26" t="n">
-        <v>7760.778947368421</v>
+        <v>8161.26981450253</v>
       </c>
       <c r="AW26" t="n">
-        <v>8410</v>
+        <v>8674</v>
       </c>
       <c r="AX26" t="n">
-        <v>1965.222535306354</v>
+        <v>1646.177187450539</v>
       </c>
       <c r="AY26" t="n">
         <v>2858</v>
       </c>
       <c r="AZ26" t="n">
-        <v>9962</v>
+        <v>9818</v>
       </c>
       <c r="BA26" t="n">
         <v>16842</v>
